--- a/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
+++ b/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\India EPS\InputData UPDATE FOR INDIA\trans\FoVObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\FoVObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1681509-6FE0-4FC8-8F41-C1769223F17D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="132" windowWidth="23952" windowHeight="12276"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,20 @@
     <sheet name="Taxis and Limos" sheetId="8" r:id="rId10"/>
     <sheet name="Population" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="310">
   <si>
     <t>LDVs, passenger</t>
   </si>
@@ -95,9 +104,6 @@
   </si>
   <si>
     <t>Fraction Owned by Govt</t>
-  </si>
-  <si>
-    <t>Fraction Owned by Industry</t>
   </si>
   <si>
     <t>Fraction Owned by Consumers</t>
@@ -535,9 +541,6 @@
     <t>Assumptions</t>
   </si>
   <si>
-    <t>We assume industry owns all freight ships.</t>
-  </si>
-  <si>
     <t>Federal Government-Owned Vehicles</t>
   </si>
   <si>
@@ -568,9 +571,6 @@
     <t>motorbikes, freight</t>
   </si>
   <si>
-    <t>not used in model</t>
-  </si>
-  <si>
     <t>U.S. Population on July 1</t>
   </si>
   <si>
@@ -637,9 +637,6 @@
     <t>FoVObE Fraction of Vehicles Owned by Entity</t>
   </si>
   <si>
-    <t>Vehicle type</t>
-  </si>
-  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -659,12 +656,6 @@
   </si>
   <si>
     <t>government</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>consumers</t>
   </si>
   <si>
     <t>National Transportation Statistics 2015</t>
@@ -2240,9 +2231,6 @@
     <t>available, because we are taking ratios.</t>
   </si>
   <si>
-    <t>We assume government owns 75% of buses and industry owns the rest.</t>
-  </si>
-  <si>
     <t>Air India share of domestic air travel market</t>
   </si>
   <si>
@@ -2255,21 +2243,12 @@
     <t>passenger ferries</t>
   </si>
   <si>
-    <t>We assume government ownes 65% of ferries and industry owns the rest.</t>
-  </si>
-  <si>
     <t>We retain U.S. data.</t>
   </si>
   <si>
     <t>We assume all passenger rail is government-owned.</t>
   </si>
   <si>
-    <t>We assume all light freight trucks are owned by industry.</t>
-  </si>
-  <si>
-    <t>We assume that government owns 10% of heavy trucks (fire trucks, garbage trucks, etc.) and industry owns the rest.</t>
-  </si>
-  <si>
     <t>We assume all freight rail is government-owned.</t>
   </si>
   <si>
@@ -2279,9 +2258,6 @@
     <t>Air India market share</t>
   </si>
   <si>
-    <t>We generally make new assumptions for India, as documented on the "Results" tab.</t>
-  </si>
-  <si>
     <t>We have Air India data for aircraft, and we retain U.S. values in some cases, so U.S.</t>
   </si>
   <si>
@@ -2301,12 +2277,66 @@
   </si>
   <si>
     <t>Excluded vehicle types include: general aviation, military vehicles, non-truck construction vehicles, non-truck agricultural vehicles, small electric craft (scooters, golf carts, etc.)</t>
+  </si>
+  <si>
+    <t>Fraction Owned by Entity (dimensionless)</t>
+  </si>
+  <si>
+    <t>nonenergy industries</t>
+  </si>
+  <si>
+    <t>labor and consumers</t>
+  </si>
+  <si>
+    <t>foreign entities</t>
+  </si>
+  <si>
+    <t>electricity suppliers</t>
+  </si>
+  <si>
+    <t>coal suppliers</t>
+  </si>
+  <si>
+    <t>natural gas and petroleum suppliers</t>
+  </si>
+  <si>
+    <t>biomass and biofuel suppliers</t>
+  </si>
+  <si>
+    <t>other energy suppliers</t>
+  </si>
+  <si>
+    <t>We make new assumptions for India, as documented on the "Results" tab -</t>
+  </si>
+  <si>
+    <t>Fraction Owned by non-energy Industry</t>
+  </si>
+  <si>
+    <t>Fraction Owned by Energy Industry</t>
+  </si>
+  <si>
+    <t>We assume government ownes 65% of ferries and non-energy industry owns the rest.</t>
+  </si>
+  <si>
+    <t>We assume government owns 75% of buses and non-energy industry owns the rest.</t>
+  </si>
+  <si>
+    <t>We assume 80% of light freight trucks are owned by non-energy industry, and 20% equally distrbuted among energy industry</t>
+  </si>
+  <si>
+    <t>We assume that government owns 10% of heavy trucks (fire trucks, garbage trucks, etc.), 50% by non energy industry, and remaining distributed among energy-industry</t>
+  </si>
+  <si>
+    <t>We assume non-energy industry owns 70% of freight ships, 10% by govt. and remaining by energy industries</t>
+  </si>
+  <si>
+    <t>3-wheeler motorbikes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,###"/>
     <numFmt numFmtId="165" formatCode="\(\R\)\ #,##0"/>
@@ -2488,7 +2518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -3015,6 +3045,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3036,7 +3090,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3301,12 +3355,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3371,34 +3419,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3413,32 +3464,29 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3461,16 +3509,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Data_Sheet1 (2)_1" xfId="5"/>
-    <cellStyle name="Hed Side" xfId="3"/>
-    <cellStyle name="Hed Side_Sheet1 (2)_1" xfId="4"/>
+    <cellStyle name="Data_Sheet1 (2)_1" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hed Side" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hed Side_Sheet1 (2)_1" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Source Text" xfId="7"/>
-    <cellStyle name="Table Title" xfId="1"/>
-    <cellStyle name="Title-1" xfId="2"/>
+    <cellStyle name="Source Text" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Table Title" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Title-1" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3561,6 +3620,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3596,6 +3672,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3771,350 +3864,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="73">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="72" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="73">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="73">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="76" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="73">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="76" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="73">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="73">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="73">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="73">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="76" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="73">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="72" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="73">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="73">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="73"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="76" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="73">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="76" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="2" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="73" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="113" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="73"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="72" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="73">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="76" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="72" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="73">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="73" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="73">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="73" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="113" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="73"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="72" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="73" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="73">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="73" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="113" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="73"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="72" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="73" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="73">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="73" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="113" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>281</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B32" r:id="rId1"/>
-    <hyperlink ref="B46" r:id="rId2"/>
-    <hyperlink ref="B59" r:id="rId3"/>
-    <hyperlink ref="B65" r:id="rId4"/>
-    <hyperlink ref="B53" r:id="rId5"/>
+    <hyperlink ref="B28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B55" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B61" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B49" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -4122,48 +4209,48 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="87.5546875" customWidth="1"/>
+    <col min="2" max="2" width="87.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="70"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
         <v>233000</v>
       </c>
@@ -4174,29 +4261,29 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="115" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="115" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="108" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C1" s="109" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="110">
         <v>2000</v>
       </c>
@@ -4204,10 +4291,10 @@
         <v>282171957</v>
       </c>
       <c r="C2" s="112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -4215,10 +4302,10 @@
         <v>285081556</v>
       </c>
       <c r="C3" s="112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="110">
         <v>2002</v>
       </c>
@@ -4226,10 +4313,10 @@
         <v>287803914</v>
       </c>
       <c r="C4" s="112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -4237,10 +4324,10 @@
         <v>290326418</v>
       </c>
       <c r="C5" s="112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="110">
         <v>2004</v>
       </c>
@@ -4248,10 +4335,10 @@
         <v>293045739</v>
       </c>
       <c r="C6" s="112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -4259,10 +4346,10 @@
         <v>295753151</v>
       </c>
       <c r="C7" s="112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="110">
         <v>2006</v>
       </c>
@@ -4270,10 +4357,10 @@
         <v>298593212</v>
       </c>
       <c r="C8" s="112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -4281,10 +4368,10 @@
         <v>301579895</v>
       </c>
       <c r="C9" s="112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="110">
         <v>2008</v>
       </c>
@@ -4292,10 +4379,10 @@
         <v>304374846</v>
       </c>
       <c r="C10" s="112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -4303,10 +4390,10 @@
         <v>307006550</v>
       </c>
       <c r="C11" s="112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="110">
         <v>2010</v>
       </c>
@@ -4314,10 +4401,10 @@
         <v>309326295</v>
       </c>
       <c r="C12" s="112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -4325,10 +4412,10 @@
         <v>311582564</v>
       </c>
       <c r="C13" s="112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -4336,10 +4423,10 @@
         <v>313873685</v>
       </c>
       <c r="C14" s="112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -4347,10 +4434,10 @@
         <v>316128839</v>
       </c>
       <c r="C15" s="112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -4359,10 +4446,10 @@
         <v>318735175.47888714</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -4370,10 +4457,10 @@
         <v>321363000</v>
       </c>
       <c r="C17" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -4381,10 +4468,10 @@
         <v>323849000</v>
       </c>
       <c r="C18" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -4392,10 +4479,10 @@
         <v>326348000</v>
       </c>
       <c r="C19" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -4403,10 +4490,10 @@
         <v>328857000</v>
       </c>
       <c r="C20" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -4414,10 +4501,10 @@
         <v>331375000</v>
       </c>
       <c r="C21" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -4425,10 +4512,10 @@
         <v>333896000</v>
       </c>
       <c r="C22" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -4436,10 +4523,10 @@
         <v>336416000</v>
       </c>
       <c r="C23" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -4447,10 +4534,10 @@
         <v>338930000</v>
       </c>
       <c r="C24" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2023</v>
       </c>
@@ -4458,10 +4545,10 @@
         <v>341436000</v>
       </c>
       <c r="C25" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2024</v>
       </c>
@@ -4469,10 +4556,10 @@
         <v>343929000</v>
       </c>
       <c r="C26" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2025</v>
       </c>
@@ -4480,10 +4567,10 @@
         <v>346407000</v>
       </c>
       <c r="C27" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2026</v>
       </c>
@@ -4491,10 +4578,10 @@
         <v>348867000</v>
       </c>
       <c r="C28" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -4502,10 +4589,10 @@
         <v>351304000</v>
       </c>
       <c r="C29" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2028</v>
       </c>
@@ -4513,10 +4600,10 @@
         <v>353718000</v>
       </c>
       <c r="C30" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2029</v>
       </c>
@@ -4524,10 +4611,10 @@
         <v>356107000</v>
       </c>
       <c r="C31" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2030</v>
       </c>
@@ -4535,10 +4622,10 @@
         <v>358471000</v>
       </c>
       <c r="C32" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2031</v>
       </c>
@@ -4546,10 +4633,10 @@
         <v>360792000</v>
       </c>
       <c r="C33" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2032</v>
       </c>
@@ -4557,10 +4644,10 @@
         <v>363070000</v>
       </c>
       <c r="C34" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2033</v>
       </c>
@@ -4568,10 +4655,10 @@
         <v>365307000</v>
       </c>
       <c r="C35" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2034</v>
       </c>
@@ -4579,10 +4666,10 @@
         <v>367503000</v>
       </c>
       <c r="C36" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2035</v>
       </c>
@@ -4590,10 +4677,10 @@
         <v>369662000</v>
       </c>
       <c r="C37" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2036</v>
       </c>
@@ -4601,10 +4688,10 @@
         <v>371788000</v>
       </c>
       <c r="C38" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2037</v>
       </c>
@@ -4612,10 +4699,10 @@
         <v>373883000</v>
       </c>
       <c r="C39" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2038</v>
       </c>
@@ -4623,10 +4710,10 @@
         <v>375950000</v>
       </c>
       <c r="C40" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2039</v>
       </c>
@@ -4634,10 +4721,10 @@
         <v>377993000</v>
       </c>
       <c r="C41" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2040</v>
       </c>
@@ -4645,10 +4732,10 @@
         <v>380016000</v>
       </c>
       <c r="C42" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2041</v>
       </c>
@@ -4656,10 +4743,10 @@
         <v>382021000</v>
       </c>
       <c r="C43" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2042</v>
       </c>
@@ -4667,10 +4754,10 @@
         <v>384012000</v>
       </c>
       <c r="C44" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2043</v>
       </c>
@@ -4678,10 +4765,10 @@
         <v>385992000</v>
       </c>
       <c r="C45" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2044</v>
       </c>
@@ -4689,10 +4776,10 @@
         <v>387965000</v>
       </c>
       <c r="C46" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2045</v>
       </c>
@@ -4700,10 +4787,10 @@
         <v>389934000</v>
       </c>
       <c r="C47" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2046</v>
       </c>
@@ -4711,10 +4798,10 @@
         <v>391902000</v>
       </c>
       <c r="C48" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2047</v>
       </c>
@@ -4722,10 +4809,10 @@
         <v>393869000</v>
       </c>
       <c r="C49" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2048</v>
       </c>
@@ -4733,10 +4820,10 @@
         <v>395841000</v>
       </c>
       <c r="C50" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2049</v>
       </c>
@@ -4744,10 +4831,10 @@
         <v>397818000</v>
       </c>
       <c r="C51" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2050</v>
       </c>
@@ -4755,10 +4842,10 @@
         <v>399803000</v>
       </c>
       <c r="C52" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2051</v>
       </c>
@@ -4766,10 +4853,10 @@
         <v>401796000</v>
       </c>
       <c r="C53" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2052</v>
       </c>
@@ -4777,10 +4864,10 @@
         <v>403798000</v>
       </c>
       <c r="C54" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2053</v>
       </c>
@@ -4788,10 +4875,10 @@
         <v>405811000</v>
       </c>
       <c r="C55" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2054</v>
       </c>
@@ -4799,10 +4886,10 @@
         <v>407835000</v>
       </c>
       <c r="C56" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2055</v>
       </c>
@@ -4810,10 +4897,10 @@
         <v>409873000</v>
       </c>
       <c r="C57" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2056</v>
       </c>
@@ -4821,10 +4908,10 @@
         <v>411923000</v>
       </c>
       <c r="C58" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2057</v>
       </c>
@@ -4832,10 +4919,10 @@
         <v>413989000</v>
       </c>
       <c r="C59" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2058</v>
       </c>
@@ -4843,10 +4930,10 @@
         <v>416068000</v>
       </c>
       <c r="C60" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2059</v>
       </c>
@@ -4854,10 +4941,10 @@
         <v>418161000</v>
       </c>
       <c r="C61" s="115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2060</v>
       </c>
@@ -4865,7 +4952,7 @@
         <v>420268000</v>
       </c>
       <c r="C62" s="115" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4874,44 +4961,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="51.44140625" customWidth="1"/>
-    <col min="3" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="65.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col min="3" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="122" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="120" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="116" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="118" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="121" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="118" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" s="119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
@@ -4930,53 +5022,62 @@
         <f>1-SUM(C2:D2)</f>
         <v>0.99644288054967767</v>
       </c>
-      <c r="F2" s="83" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="182">
+        <v>0</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="146">
+      <c r="C3" s="144">
         <v>0.75</v>
       </c>
-      <c r="D3" s="147">
+      <c r="D3" s="145">
         <v>0.25</v>
       </c>
       <c r="E3" s="91">
         <v>0</v>
       </c>
-      <c r="F3" s="83" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F3" s="91">
+        <v>0</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="148">
+      <c r="C4" s="146">
         <f>'Air India Data'!A1</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="D4" s="149">
+      <c r="D4" s="147">
         <f>'Air India Data'!A2</f>
         <v>0.86</v>
       </c>
       <c r="E4" s="91">
         <v>0</v>
       </c>
-      <c r="F4" s="83" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="91">
+        <v>0</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>17</v>
       </c>
@@ -4992,16 +5093,19 @@
       <c r="E5" s="91">
         <v>0</v>
       </c>
-      <c r="F5" s="83" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="91">
+        <v>0</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C6" s="98">
         <v>0.65</v>
@@ -5012,16 +5116,19 @@
       <c r="E6" s="100">
         <v>0</v>
       </c>
-      <c r="F6" s="101" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="100">
+        <v>0</v>
+      </c>
+      <c r="G6" s="101" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="107">
         <f>'Police Departments'!C5/'NTS 1-11'!Y9</f>
@@ -5034,11 +5141,14 @@
         <f>1-C7</f>
         <v>0.99843636087933096</v>
       </c>
-      <c r="F7" s="83" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="183">
+        <v>0</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>3</v>
       </c>
@@ -5049,59 +5159,68 @@
         <v>0</v>
       </c>
       <c r="D8" s="94">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E8" s="95">
         <v>0</v>
       </c>
-      <c r="F8" s="83" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F8" s="91">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="82" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="146">
+      <c r="C9" s="144">
         <v>0.1</v>
       </c>
-      <c r="D9" s="147">
+      <c r="D9" s="145">
         <f>1-C9</f>
         <v>0.9</v>
       </c>
       <c r="E9" s="91">
         <v>0</v>
       </c>
-      <c r="F9" s="83" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F9" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="148">
+      <c r="C10" s="146">
         <f>C4</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="D10" s="149">
+      <c r="D10" s="147">
         <f>D4</f>
         <v>0.86</v>
       </c>
       <c r="E10" s="91">
         <v>0</v>
       </c>
-      <c r="F10" s="83" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="91">
+        <v>0</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
         <v>18</v>
       </c>
@@ -5117,11 +5236,14 @@
       <c r="E11" s="91">
         <v>0</v>
       </c>
-      <c r="F11" s="83" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="91">
+        <v>0</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="96" t="s">
         <v>20</v>
       </c>
@@ -5137,38 +5259,44 @@
       <c r="E12" s="100">
         <v>0</v>
       </c>
-      <c r="F12" s="101" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="100">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="101" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="104" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="150">
+        <v>309</v>
+      </c>
+      <c r="C13" s="148">
         <v>0</v>
       </c>
       <c r="D13" s="86">
         <v>0.2</v>
       </c>
-      <c r="E13" s="151">
+      <c r="E13" s="149">
         <v>0.8</v>
       </c>
-      <c r="F13" s="87" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="149">
+        <v>0</v>
+      </c>
+      <c r="G13" s="87" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5177,60 +5305,105 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="4" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="109" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="109" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="180" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="181" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="181" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="181" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="181" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" s="181" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="181" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="181" t="s">
+        <v>299</v>
+      </c>
+      <c r="J1" s="181" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="123">
+        <v>180</v>
+      </c>
+      <c r="B2" s="121">
         <f>Results!C2</f>
         <v>2.560717709316894E-3</v>
       </c>
-      <c r="C2" s="123">
+      <c r="C2" s="121">
         <f>Results!D2</f>
         <v>9.9640174100549227E-4</v>
       </c>
-      <c r="D2" s="123">
+      <c r="D2" s="121">
         <f>Results!E2</f>
         <v>0.99644288054967767</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>E2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:J3" si="0">F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="123">
+        <v>181</v>
+      </c>
+      <c r="B3" s="121">
         <f>Results!C3</f>
         <v>0.75</v>
       </c>
-      <c r="C3" s="123">
+      <c r="C3" s="121">
         <f>Results!D3</f>
         <v>0.25</v>
       </c>
@@ -5238,10 +5411,33 @@
         <f>Results!E3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B4">
         <f>Results!C4</f>
@@ -5255,10 +5451,33 @@
         <f>Results!E4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:J4" si="1">E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B5">
         <f>Results!C5</f>
@@ -5272,10 +5491,33 @@
         <f>Results!E5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:J5" si="2">E5</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B6">
         <f>Results!C6</f>
@@ -5289,12 +5531,35 @@
         <f>Results!E6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:J6" si="3">E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="123">
+        <v>185</v>
+      </c>
+      <c r="B7" s="121">
         <f>Results!C7</f>
         <v>1.5636391206690183E-3</v>
       </c>
@@ -5302,9 +5567,32 @@
         <f>Results!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="123">
+      <c r="D7" s="121">
         <f>Results!E7</f>
         <v>0.99843636087933096</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:J7" si="4">E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5313,134 +5601,294 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="4" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="109" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="109" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="180" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="181" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="181" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="181" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="181" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" s="181" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="181" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="181" t="s">
+        <v>299</v>
+      </c>
+      <c r="J1" s="181" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="75">
+        <v>180</v>
+      </c>
+      <c r="B2" s="121">
         <f>Results!C8</f>
         <v>0</v>
       </c>
-      <c r="C2" s="75">
+      <c r="C2" s="121">
         <f>Results!D8</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="75">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="121">
         <f>Results!E8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="121">
+        <v>0</v>
+      </c>
+      <c r="F2" s="121">
+        <f>Results!$F8/5</f>
+        <v>0.04</v>
+      </c>
+      <c r="G2" s="121">
+        <f>F2</f>
+        <v>0.04</v>
+      </c>
+      <c r="H2" s="121">
+        <f t="shared" ref="H2:J2" si="0">G2</f>
+        <v>0.04</v>
+      </c>
+      <c r="I2" s="121">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="J2" s="121">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="123">
+        <v>181</v>
+      </c>
+      <c r="B3" s="121">
         <f>Results!C9</f>
         <v>0.1</v>
       </c>
-      <c r="C3" s="123">
+      <c r="C3" s="121">
         <f>Results!D9</f>
         <v>0.9</v>
       </c>
-      <c r="D3" s="75">
+      <c r="D3" s="121">
         <f>Results!E9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="121">
+        <v>0</v>
+      </c>
+      <c r="F3" s="121">
+        <f>Results!$F9/5</f>
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="121">
+        <f>F3</f>
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="121">
+        <f t="shared" ref="H3:J3" si="1">G3</f>
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="121">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="121">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="75">
+        <v>182</v>
+      </c>
+      <c r="B4" s="121">
         <f>Results!C10</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="121">
         <f>Results!D10</f>
         <v>0.86</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="121">
         <f>Results!E10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="121">
+        <v>0</v>
+      </c>
+      <c r="F4" s="121">
+        <f>Results!$F10/5</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="121">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="121">
+        <f t="shared" ref="H4:J4" si="2">G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="75">
+        <v>183</v>
+      </c>
+      <c r="B5" s="121">
         <f>Results!C11</f>
         <v>1</v>
       </c>
-      <c r="C5" s="75">
+      <c r="C5" s="121">
         <f>Results!D11</f>
         <v>0</v>
       </c>
-      <c r="D5" s="75">
+      <c r="D5" s="121">
         <f>Results!E11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="121">
+        <v>0</v>
+      </c>
+      <c r="F5" s="121">
+        <f>Results!$F11/5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="121">
+        <f>F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="121">
+        <f t="shared" ref="H5:J5" si="3">G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="75">
+        <v>184</v>
+      </c>
+      <c r="B6" s="121">
         <f>Results!C12</f>
         <v>0</v>
       </c>
-      <c r="C6" s="75">
+      <c r="C6" s="121">
         <f>Results!D12</f>
         <v>1</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="121">
         <f>Results!E12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="121">
+        <v>0</v>
+      </c>
+      <c r="F6" s="121">
+        <f>Results!$F12/5</f>
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="121">
+        <f>F6</f>
+        <v>0.04</v>
+      </c>
+      <c r="H6" s="121">
+        <f t="shared" ref="H6:J6" si="4">G6</f>
+        <v>0.04</v>
+      </c>
+      <c r="I6" s="121">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="J6" s="121">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="75">
+        <v>185</v>
+      </c>
+      <c r="B7" s="121">
         <f>Results!C13</f>
         <v>0</v>
       </c>
-      <c r="C7" s="75">
+      <c r="C7" s="121">
         <f>Results!D13</f>
         <v>0.2</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="121">
         <f>Results!E13</f>
         <v>0.8</v>
+      </c>
+      <c r="E7" s="121">
+        <v>0</v>
+      </c>
+      <c r="F7" s="121">
+        <f>Results!$F13/5</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="121">
+        <f>F7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="121">
+        <f t="shared" ref="H7:J7" si="5">G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="121">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5449,7 +5897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -5457,22 +5905,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.14000000000000001</v>
       </c>
       <c r="B1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.86</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5481,59 +5929,59 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AE108"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="A19" activeCellId="1" sqref="A16:XFD16 A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.5546875" style="124" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" style="124" customWidth="1"/>
-    <col min="4" max="19" width="10.6640625" style="124" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" style="145" customWidth="1"/>
-    <col min="21" max="31" width="10.6640625" style="124" customWidth="1"/>
-    <col min="32" max="16384" width="9.109375" style="124"/>
+    <col min="1" max="1" width="50.5703125" style="122" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" style="122" customWidth="1"/>
+    <col min="4" max="19" width="10.7109375" style="122" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="143" customWidth="1"/>
+    <col min="21" max="31" width="10.7109375" style="122" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="122"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="171" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="171"/>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-    </row>
-    <row r="2" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="151" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+    </row>
+    <row r="2" spans="1:31" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
       <c r="B2" s="51">
         <v>1960</v>
@@ -5626,9 +6074,9 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="127" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
@@ -5659,11 +6107,11 @@
       <c r="AB3" s="55"/>
       <c r="AC3" s="55"/>
       <c r="AD3" s="55"/>
-      <c r="AE3" s="126"/>
-    </row>
-    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE3" s="124"/>
+    </row>
+    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="54">
         <v>2135</v>
@@ -5698,49 +6146,49 @@
       <c r="L4" s="54">
         <v>7370</v>
       </c>
-      <c r="M4" s="128">
+      <c r="M4" s="126">
         <v>6865</v>
       </c>
-      <c r="N4" s="128">
+      <c r="N4" s="126">
         <v>7077</v>
       </c>
-      <c r="O4" s="128">
+      <c r="O4" s="126">
         <v>7043</v>
       </c>
-      <c r="P4" s="128">
+      <c r="P4" s="126">
         <v>7451</v>
       </c>
-      <c r="Q4" s="128">
+      <c r="Q4" s="126">
         <v>7859</v>
       </c>
-      <c r="R4" s="128">
+      <c r="R4" s="126">
         <v>7826</v>
       </c>
-      <c r="S4" s="128">
+      <c r="S4" s="126">
         <v>7746</v>
       </c>
-      <c r="T4" s="128">
+      <c r="T4" s="126">
         <v>7673</v>
       </c>
-      <c r="U4" s="128">
+      <c r="U4" s="126">
         <v>7564</v>
       </c>
-      <c r="V4" s="128">
+      <c r="V4" s="126">
         <v>7764</v>
       </c>
-      <c r="W4" s="128">
+      <c r="W4" s="126">
         <v>7686</v>
       </c>
-      <c r="X4" s="128">
+      <c r="X4" s="126">
         <v>7637</v>
       </c>
-      <c r="Y4" s="128">
+      <c r="Y4" s="126">
         <v>7732</v>
       </c>
-      <c r="Z4" s="128">
+      <c r="Z4" s="126">
         <v>7337</v>
       </c>
-      <c r="AA4" s="128">
+      <c r="AA4" s="126">
         <v>7169</v>
       </c>
       <c r="AB4" s="59">
@@ -5752,13 +6200,13 @@
       <c r="AD4" s="59">
         <v>6914</v>
       </c>
-      <c r="AE4" s="129">
+      <c r="AE4" s="127">
         <v>6733</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="54">
         <v>76549</v>
@@ -5851,9 +6299,9 @@
         <v>199927</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="127" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="58">
         <f t="shared" ref="B6:X6" si="0">SUM(B8:B14)</f>
@@ -5963,89 +6411,89 @@
         <f t="shared" si="1"/>
         <v>250070048.2666094</v>
       </c>
-      <c r="AC6" s="130">
+      <c r="AC6" s="128">
         <v>253215681</v>
       </c>
       <c r="AD6" s="58">
         <v>253639386</v>
       </c>
-      <c r="AE6" s="131">
+      <c r="AE6" s="129">
         <f>SUM(AE7,AE9,AE10,AE12,AE13,AE14)</f>
         <v>255876822.00000003</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="R7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="S7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="T7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="U7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="V7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="W7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="X7" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y7" s="54">
         <v>196491175.83247364</v>
@@ -6065,13 +6513,13 @@
       <c r="AD7" s="57">
         <v>183171881.637086</v>
       </c>
-      <c r="AE7" s="132">
+      <c r="AE7" s="130">
         <v>184497490.31559649</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B8" s="54">
         <v>61671390</v>
@@ -6143,30 +6591,30 @@
         <v>135399945</v>
       </c>
       <c r="Y8" s="54" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Z8" s="54" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AA8" s="54" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AB8" s="54" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AC8" s="54" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AD8" s="54" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AE8" s="54" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="54">
         <v>574032</v>
@@ -6255,82 +6703,82 @@
       <c r="AD9" s="57">
         <v>8454939</v>
       </c>
-      <c r="AE9" s="132">
+      <c r="AE9" s="130">
         <v>8404687</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="R10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="S10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="T10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="U10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="V10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="W10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="X10" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y10" s="60">
         <v>39186974.45205161</v>
@@ -6350,19 +6798,19 @@
       <c r="AD10" s="57">
         <v>50588676</v>
       </c>
-      <c r="AE10" s="132">
+      <c r="AE10" s="130">
         <v>51512739.866532281</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="60">
         <v>14210591</v>
@@ -6428,33 +6876,33 @@
         <v>99124775.010600001</v>
       </c>
       <c r="Y11" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Z11" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AA11" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AB11" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AC11" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AD11" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AE11" s="60" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="60">
         <v>13999285</v>
@@ -6540,13 +6988,13 @@
       <c r="AD12" s="57">
         <v>8190286.3639322901</v>
       </c>
-      <c r="AE12" s="132">
+      <c r="AE12" s="130">
         <v>8126007.221129314</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B13" s="54">
         <v>11914249</v>
@@ -6635,13 +7083,13 @@
       <c r="AD13" s="57">
         <v>2469094</v>
       </c>
-      <c r="AE13" s="132">
+      <c r="AE13" s="130">
         <v>2471348.7033206243</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="54">
         <v>272129</v>
@@ -6730,13 +7178,13 @@
       <c r="AD14" s="57">
         <v>764509</v>
       </c>
-      <c r="AE14" s="132">
+      <c r="AE14" s="130">
         <v>864548.89342128637</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="127" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="62" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
@@ -6767,11 +7215,11 @@
       <c r="AB15" s="55"/>
       <c r="AC15" s="55"/>
       <c r="AD15" s="55"/>
-      <c r="AE15" s="131"/>
-    </row>
-    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE15" s="129"/>
+    </row>
+    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B16" s="54">
         <v>49600</v>
@@ -6860,13 +7308,13 @@
       <c r="AD16" s="55">
         <v>59268</v>
       </c>
-      <c r="AE16" s="132">
+      <c r="AE16" s="130">
         <v>62576</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B17" s="54">
         <v>2856</v>
@@ -6952,16 +7400,16 @@
       <c r="AC17" s="55">
         <v>2284</v>
       </c>
-      <c r="AD17" s="133">
+      <c r="AD17" s="131">
         <v>2348</v>
       </c>
-      <c r="AE17" s="129">
+      <c r="AE17" s="127">
         <v>2842</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="54">
         <v>9010</v>
@@ -7050,13 +7498,13 @@
       <c r="AD18" s="55">
         <v>10469</v>
       </c>
-      <c r="AE18" s="132">
+      <c r="AE18" s="130">
         <v>10380</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="54">
         <v>3826</v>
@@ -7145,25 +7593,25 @@
       <c r="AD19" s="55">
         <v>570</v>
       </c>
-      <c r="AE19" s="132">
+      <c r="AE19" s="130">
         <v>560</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="60">
         <v>4500</v>
@@ -7240,28 +7688,28 @@
       <c r="AD20" s="55">
         <v>6938</v>
       </c>
-      <c r="AE20" s="132">
+      <c r="AE20" s="130">
         <v>7150</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="56" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" s="60">
         <v>14490</v>
@@ -7332,31 +7780,31 @@
       <c r="AC21" s="55">
         <v>31846</v>
       </c>
-      <c r="AD21" s="133">
+      <c r="AD21" s="131">
         <v>27796</v>
       </c>
-      <c r="AE21" s="129">
+      <c r="AE21" s="127">
         <v>27543</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="60">
         <v>867</v>
@@ -7427,16 +7875,16 @@
       <c r="AC22" s="55">
         <v>18965</v>
       </c>
-      <c r="AD22" s="133">
+      <c r="AD22" s="131">
         <v>23106</v>
       </c>
-      <c r="AE22" s="129">
+      <c r="AE22" s="127">
         <v>25930</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="127" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -7467,11 +7915,11 @@
       <c r="AB23" s="55"/>
       <c r="AC23" s="55"/>
       <c r="AD23" s="55"/>
-      <c r="AE23" s="131"/>
-    </row>
-    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE23" s="129"/>
+    </row>
+    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="54">
         <v>1658292</v>
@@ -7560,13 +8008,13 @@
       <c r="AD24" s="57">
         <v>380641</v>
       </c>
-      <c r="AE24" s="132">
+      <c r="AE24" s="130">
         <v>373838</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" s="54">
         <v>29031</v>
@@ -7655,13 +8103,13 @@
       <c r="AD25" s="57">
         <v>24707</v>
       </c>
-      <c r="AE25" s="132">
+      <c r="AE25" s="130">
         <v>25033</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26" s="54">
         <v>32104</v>
@@ -7750,13 +8198,13 @@
       <c r="AD26" s="57">
         <v>92742</v>
       </c>
-      <c r="AE26" s="132">
+      <c r="AE26" s="130">
         <v>88122</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="54">
         <v>275090</v>
@@ -7845,22 +8293,22 @@
       <c r="AD27" s="57">
         <v>842802</v>
       </c>
-      <c r="AE27" s="132">
+      <c r="AE27" s="130">
         <v>873679</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" s="60">
         <v>1913</v>
@@ -7944,18 +8392,18 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="60">
         <v>355</v>
@@ -8039,9 +8487,9 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="127" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -8072,11 +8520,11 @@
       <c r="AB30" s="54"/>
       <c r="AC30" s="54"/>
       <c r="AD30" s="54"/>
-      <c r="AE30" s="131"/>
-    </row>
-    <row r="31" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE30" s="129"/>
+    </row>
+    <row r="31" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B31" s="54">
         <v>16777</v>
@@ -8100,7 +8548,7 @@
         <v>33597</v>
       </c>
       <c r="I31" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J31" s="54">
         <v>30899</v>
@@ -8162,16 +8610,16 @@
       <c r="AC31" s="57">
         <v>31498</v>
       </c>
-      <c r="AD31" s="134">
+      <c r="AD31" s="132">
         <v>31550</v>
       </c>
-      <c r="AE31" s="132">
+      <c r="AE31" s="130">
         <v>31081</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B32" s="54">
         <v>6543</v>
@@ -8195,7 +8643,7 @@
         <v>8236</v>
       </c>
       <c r="I32" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J32" s="54">
         <v>8311</v>
@@ -8260,90 +8708,90 @@
       <c r="AD32" s="57">
         <v>8980</v>
       </c>
-      <c r="AE32" s="132">
+      <c r="AE32" s="130">
         <v>8918</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" s="132">
+        <v>203</v>
+      </c>
+      <c r="B33" s="130">
         <v>2926</v>
       </c>
-      <c r="C33" s="132">
+      <c r="C33" s="130">
         <v>2376</v>
       </c>
-      <c r="D33" s="132">
+      <c r="D33" s="130">
         <v>1579</v>
       </c>
-      <c r="E33" s="132">
+      <c r="E33" s="130">
         <v>857</v>
       </c>
-      <c r="F33" s="132">
+      <c r="F33" s="130">
         <v>864</v>
       </c>
-      <c r="G33" s="132">
+      <c r="G33" s="130">
         <v>737</v>
       </c>
-      <c r="H33" s="132">
+      <c r="H33" s="130">
         <v>636</v>
       </c>
-      <c r="I33" s="132">
+      <c r="I33" s="130">
         <v>619</v>
       </c>
-      <c r="J33" s="132">
+      <c r="J33" s="130">
         <v>603</v>
       </c>
-      <c r="K33" s="132">
+      <c r="K33" s="130">
         <v>565</v>
       </c>
-      <c r="L33" s="132">
+      <c r="L33" s="130">
         <v>543</v>
       </c>
-      <c r="M33" s="132">
+      <c r="M33" s="130">
         <v>509</v>
       </c>
-      <c r="N33" s="132">
+      <c r="N33" s="130">
         <v>495</v>
       </c>
-      <c r="O33" s="132">
+      <c r="O33" s="130">
         <v>477</v>
       </c>
-      <c r="P33" s="132">
+      <c r="P33" s="130">
         <v>470</v>
       </c>
-      <c r="Q33" s="132">
+      <c r="Q33" s="130">
         <v>463</v>
       </c>
-      <c r="R33" s="132">
+      <c r="R33" s="130">
         <v>282</v>
       </c>
-      <c r="S33" s="132">
+      <c r="S33" s="130">
         <v>274</v>
       </c>
-      <c r="T33" s="132">
+      <c r="T33" s="130">
         <v>261</v>
       </c>
-      <c r="U33" s="132">
+      <c r="U33" s="130">
         <v>246</v>
       </c>
-      <c r="V33" s="132">
+      <c r="V33" s="130">
         <v>233</v>
       </c>
-      <c r="W33" s="132">
+      <c r="W33" s="130">
         <v>231</v>
       </c>
-      <c r="X33" s="132">
+      <c r="X33" s="130">
         <v>229</v>
       </c>
-      <c r="Y33" s="132">
+      <c r="Y33" s="130">
         <v>220</v>
       </c>
-      <c r="Z33" s="132">
+      <c r="Z33" s="130">
         <v>225</v>
       </c>
-      <c r="AA33" s="132">
+      <c r="AA33" s="130">
         <v>217</v>
       </c>
       <c r="AB33" s="57">
@@ -8355,13 +8803,13 @@
       <c r="AD33" s="57">
         <v>198</v>
       </c>
-      <c r="AE33" s="135">
+      <c r="AE33" s="133">
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="65" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B34" s="66">
         <v>2450484</v>
@@ -8450,29 +8898,29 @@
       <c r="AD34" s="67">
         <v>12101936</v>
       </c>
-      <c r="AE34" s="136">
+      <c r="AE34" s="134">
         <v>12013496</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="172" t="s">
-        <v>211</v>
-      </c>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="172"/>
-      <c r="L35" s="172"/>
-      <c r="M35" s="172"/>
-      <c r="N35" s="172"/>
-      <c r="O35" s="172"/>
-      <c r="P35" s="172"/>
+    <row r="35" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="152"/>
+      <c r="P35" s="152"/>
       <c r="Q35" s="68"/>
       <c r="R35" s="68"/>
       <c r="S35" s="68"/>
@@ -8486,361 +8934,361 @@
       <c r="AA35" s="68"/>
       <c r="AB35" s="68"/>
       <c r="AC35" s="68"/>
-      <c r="AE35" s="124"/>
-    </row>
-    <row r="36" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="173"/>
-      <c r="B36" s="173"/>
-      <c r="C36" s="173"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="173"/>
-      <c r="K36" s="173"/>
-      <c r="L36" s="173"/>
-      <c r="M36" s="173"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="173"/>
-      <c r="P36" s="173"/>
-      <c r="Q36" s="137"/>
-      <c r="R36" s="138"/>
-      <c r="S36" s="138"/>
-      <c r="T36" s="139"/>
-    </row>
-    <row r="37" spans="1:31" s="142" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="174" t="s">
+      <c r="AE35" s="122"/>
+    </row>
+    <row r="36" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="153"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="135"/>
+      <c r="R36" s="136"/>
+      <c r="S36" s="136"/>
+      <c r="T36" s="137"/>
+    </row>
+    <row r="37" spans="1:31" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="154" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" s="154"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
+      <c r="N37" s="154"/>
+      <c r="O37" s="154"/>
+      <c r="P37" s="154"/>
+      <c r="Q37" s="138"/>
+      <c r="R37" s="138"/>
+      <c r="S37" s="138"/>
+      <c r="T37" s="139"/>
+    </row>
+    <row r="38" spans="1:31" s="140" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="155"/>
+      <c r="P38" s="155"/>
+      <c r="Q38" s="138"/>
+      <c r="R38" s="138"/>
+      <c r="S38" s="138"/>
+      <c r="T38" s="139"/>
+    </row>
+    <row r="39" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="150" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" s="150"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="150"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="150"/>
+      <c r="Q39" s="138"/>
+      <c r="R39" s="138"/>
+      <c r="S39" s="138"/>
+      <c r="T39" s="139"/>
+    </row>
+    <row r="40" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="157" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="157"/>
+      <c r="M40" s="157"/>
+      <c r="N40" s="157"/>
+      <c r="O40" s="157"/>
+      <c r="P40" s="157"/>
+      <c r="Q40" s="138"/>
+      <c r="R40" s="138"/>
+      <c r="S40" s="138"/>
+      <c r="T40" s="139"/>
+    </row>
+    <row r="41" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="157" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" s="157"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="157"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="157"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="157"/>
+      <c r="K41" s="157"/>
+      <c r="L41" s="157"/>
+      <c r="M41" s="157"/>
+      <c r="N41" s="157"/>
+      <c r="O41" s="157"/>
+      <c r="P41" s="157"/>
+      <c r="Q41" s="138"/>
+      <c r="R41" s="138"/>
+      <c r="S41" s="138"/>
+      <c r="T41" s="139"/>
+    </row>
+    <row r="42" spans="1:31" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="155" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="155"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
+      <c r="N42" s="155"/>
+      <c r="O42" s="155"/>
+      <c r="P42" s="155"/>
+      <c r="T42" s="139"/>
+    </row>
+    <row r="43" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="150" t="s">
         <v>212</v>
       </c>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="174"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="174"/>
-      <c r="K37" s="174"/>
-      <c r="L37" s="174"/>
-      <c r="M37" s="174"/>
-      <c r="N37" s="174"/>
-      <c r="O37" s="174"/>
-      <c r="P37" s="174"/>
-      <c r="Q37" s="140"/>
-      <c r="R37" s="140"/>
-      <c r="S37" s="140"/>
-      <c r="T37" s="141"/>
-    </row>
-    <row r="38" spans="1:31" s="142" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="169" t="s">
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
+      <c r="N43" s="150"/>
+      <c r="O43" s="150"/>
+      <c r="P43" s="150"/>
+      <c r="T43" s="139"/>
+    </row>
+    <row r="44" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="150" t="s">
         <v>213</v>
       </c>
-      <c r="B38" s="169"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="169"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="169"/>
-      <c r="K38" s="169"/>
-      <c r="L38" s="169"/>
-      <c r="M38" s="169"/>
-      <c r="N38" s="169"/>
-      <c r="O38" s="169"/>
-      <c r="P38" s="169"/>
-      <c r="Q38" s="140"/>
-      <c r="R38" s="140"/>
-      <c r="S38" s="140"/>
-      <c r="T38" s="141"/>
-    </row>
-    <row r="39" spans="1:31" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="170" t="s">
+      <c r="B44" s="150"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="150"/>
+      <c r="K44" s="150"/>
+      <c r="L44" s="150"/>
+      <c r="M44" s="150"/>
+      <c r="N44" s="150"/>
+      <c r="O44" s="150"/>
+      <c r="P44" s="150"/>
+      <c r="T44" s="139"/>
+    </row>
+    <row r="45" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="170"/>
-      <c r="K39" s="170"/>
-      <c r="L39" s="170"/>
-      <c r="M39" s="170"/>
-      <c r="N39" s="170"/>
-      <c r="O39" s="170"/>
-      <c r="P39" s="170"/>
-      <c r="Q39" s="140"/>
-      <c r="R39" s="140"/>
-      <c r="S39" s="140"/>
-      <c r="T39" s="141"/>
-    </row>
-    <row r="40" spans="1:31" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="168" t="s">
+      <c r="B45" s="158"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="158"/>
+      <c r="J45" s="158"/>
+      <c r="K45" s="158"/>
+      <c r="L45" s="158"/>
+      <c r="M45" s="158"/>
+      <c r="N45" s="158"/>
+      <c r="O45" s="158"/>
+      <c r="P45" s="158"/>
+      <c r="T45" s="139"/>
+    </row>
+    <row r="46" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="157" t="s">
         <v>215</v>
       </c>
-      <c r="B40" s="168"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="168"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="168"/>
-      <c r="H40" s="168"/>
-      <c r="I40" s="168"/>
-      <c r="J40" s="168"/>
-      <c r="K40" s="168"/>
-      <c r="L40" s="168"/>
-      <c r="M40" s="168"/>
-      <c r="N40" s="168"/>
-      <c r="O40" s="168"/>
-      <c r="P40" s="168"/>
-      <c r="Q40" s="140"/>
-      <c r="R40" s="140"/>
-      <c r="S40" s="140"/>
-      <c r="T40" s="141"/>
-    </row>
-    <row r="41" spans="1:31" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="168" t="s">
+      <c r="B46" s="157"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="157"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="157"/>
+      <c r="I46" s="157"/>
+      <c r="J46" s="157"/>
+      <c r="K46" s="157"/>
+      <c r="L46" s="157"/>
+      <c r="M46" s="157"/>
+      <c r="N46" s="157"/>
+      <c r="O46" s="157"/>
+      <c r="P46" s="157"/>
+      <c r="T46" s="139"/>
+    </row>
+    <row r="47" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="157" t="s">
         <v>216</v>
       </c>
-      <c r="B41" s="168"/>
-      <c r="C41" s="168"/>
-      <c r="D41" s="168"/>
-      <c r="E41" s="168"/>
-      <c r="F41" s="168"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="168"/>
-      <c r="I41" s="168"/>
-      <c r="J41" s="168"/>
-      <c r="K41" s="168"/>
-      <c r="L41" s="168"/>
-      <c r="M41" s="168"/>
-      <c r="N41" s="168"/>
-      <c r="O41" s="168"/>
-      <c r="P41" s="168"/>
-      <c r="Q41" s="140"/>
-      <c r="R41" s="140"/>
-      <c r="S41" s="140"/>
-      <c r="T41" s="141"/>
-    </row>
-    <row r="42" spans="1:31" s="142" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="169" t="s">
+      <c r="B47" s="157"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="157"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="157"/>
+      <c r="K47" s="157"/>
+      <c r="L47" s="157"/>
+      <c r="M47" s="157"/>
+      <c r="N47" s="157"/>
+      <c r="O47" s="157"/>
+      <c r="P47" s="157"/>
+      <c r="T47" s="139"/>
+    </row>
+    <row r="48" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="157" t="s">
         <v>217</v>
       </c>
-      <c r="B42" s="169"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
-      <c r="E42" s="169"/>
-      <c r="F42" s="169"/>
-      <c r="G42" s="169"/>
-      <c r="H42" s="169"/>
-      <c r="I42" s="169"/>
-      <c r="J42" s="169"/>
-      <c r="K42" s="169"/>
-      <c r="L42" s="169"/>
-      <c r="M42" s="169"/>
-      <c r="N42" s="169"/>
-      <c r="O42" s="169"/>
-      <c r="P42" s="169"/>
-      <c r="T42" s="141"/>
-    </row>
-    <row r="43" spans="1:31" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="170" t="s">
+      <c r="B48" s="157"/>
+      <c r="C48" s="157"/>
+      <c r="D48" s="157"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="157"/>
+      <c r="I48" s="157"/>
+      <c r="J48" s="157"/>
+      <c r="K48" s="157"/>
+      <c r="L48" s="157"/>
+      <c r="M48" s="157"/>
+      <c r="N48" s="157"/>
+      <c r="O48" s="157"/>
+      <c r="P48" s="157"/>
+      <c r="T48" s="139"/>
+    </row>
+    <row r="49" spans="1:20" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="157" t="s">
         <v>218</v>
       </c>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="170"/>
-      <c r="G43" s="170"/>
-      <c r="H43" s="170"/>
-      <c r="I43" s="170"/>
-      <c r="J43" s="170"/>
-      <c r="K43" s="170"/>
-      <c r="L43" s="170"/>
-      <c r="M43" s="170"/>
-      <c r="N43" s="170"/>
-      <c r="O43" s="170"/>
-      <c r="P43" s="170"/>
-      <c r="T43" s="141"/>
-    </row>
-    <row r="44" spans="1:31" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="170" t="s">
+      <c r="B49" s="157"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="157"/>
+      <c r="K49" s="157"/>
+      <c r="L49" s="157"/>
+      <c r="M49" s="157"/>
+      <c r="N49" s="157"/>
+      <c r="O49" s="157"/>
+      <c r="P49" s="157"/>
+      <c r="T49" s="139"/>
+    </row>
+    <row r="50" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="157" t="s">
         <v>219</v>
       </c>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="170"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="170"/>
-      <c r="I44" s="170"/>
-      <c r="J44" s="170"/>
-      <c r="K44" s="170"/>
-      <c r="L44" s="170"/>
-      <c r="M44" s="170"/>
-      <c r="N44" s="170"/>
-      <c r="O44" s="170"/>
-      <c r="P44" s="170"/>
-      <c r="T44" s="141"/>
-    </row>
-    <row r="45" spans="1:31" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="161" t="s">
+      <c r="B50" s="157"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="157"/>
+      <c r="E50" s="157"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="157"/>
+      <c r="H50" s="157"/>
+      <c r="I50" s="157"/>
+      <c r="J50" s="157"/>
+      <c r="K50" s="157"/>
+      <c r="L50" s="157"/>
+      <c r="M50" s="157"/>
+      <c r="N50" s="157"/>
+      <c r="O50" s="157"/>
+      <c r="P50" s="157"/>
+      <c r="T50" s="139"/>
+    </row>
+    <row r="51" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="156"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="156"/>
+      <c r="G51" s="156"/>
+      <c r="H51" s="156"/>
+      <c r="I51" s="156"/>
+      <c r="J51" s="156"/>
+      <c r="K51" s="156"/>
+      <c r="L51" s="156"/>
+      <c r="M51" s="156"/>
+      <c r="N51" s="156"/>
+      <c r="O51" s="156"/>
+      <c r="P51" s="156"/>
+      <c r="T51" s="142"/>
+    </row>
+    <row r="52" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="160" t="s">
         <v>220</v>
-      </c>
-      <c r="B45" s="161"/>
-      <c r="C45" s="161"/>
-      <c r="D45" s="161"/>
-      <c r="E45" s="161"/>
-      <c r="F45" s="161"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="161"/>
-      <c r="J45" s="161"/>
-      <c r="K45" s="161"/>
-      <c r="L45" s="161"/>
-      <c r="M45" s="161"/>
-      <c r="N45" s="161"/>
-      <c r="O45" s="161"/>
-      <c r="P45" s="161"/>
-      <c r="T45" s="141"/>
-    </row>
-    <row r="46" spans="1:31" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="168" t="s">
-        <v>221</v>
-      </c>
-      <c r="B46" s="168"/>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168"/>
-      <c r="J46" s="168"/>
-      <c r="K46" s="168"/>
-      <c r="L46" s="168"/>
-      <c r="M46" s="168"/>
-      <c r="N46" s="168"/>
-      <c r="O46" s="168"/>
-      <c r="P46" s="168"/>
-      <c r="T46" s="141"/>
-    </row>
-    <row r="47" spans="1:31" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="168" t="s">
-        <v>222</v>
-      </c>
-      <c r="B47" s="168"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="168"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="168"/>
-      <c r="J47" s="168"/>
-      <c r="K47" s="168"/>
-      <c r="L47" s="168"/>
-      <c r="M47" s="168"/>
-      <c r="N47" s="168"/>
-      <c r="O47" s="168"/>
-      <c r="P47" s="168"/>
-      <c r="T47" s="141"/>
-    </row>
-    <row r="48" spans="1:31" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="168" t="s">
-        <v>223</v>
-      </c>
-      <c r="B48" s="168"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="168"/>
-      <c r="I48" s="168"/>
-      <c r="J48" s="168"/>
-      <c r="K48" s="168"/>
-      <c r="L48" s="168"/>
-      <c r="M48" s="168"/>
-      <c r="N48" s="168"/>
-      <c r="O48" s="168"/>
-      <c r="P48" s="168"/>
-      <c r="T48" s="141"/>
-    </row>
-    <row r="49" spans="1:20" s="142" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="168" t="s">
-        <v>224</v>
-      </c>
-      <c r="B49" s="168"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="168"/>
-      <c r="E49" s="168"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="168"/>
-      <c r="I49" s="168"/>
-      <c r="J49" s="168"/>
-      <c r="K49" s="168"/>
-      <c r="L49" s="168"/>
-      <c r="M49" s="168"/>
-      <c r="N49" s="168"/>
-      <c r="O49" s="168"/>
-      <c r="P49" s="168"/>
-      <c r="T49" s="141"/>
-    </row>
-    <row r="50" spans="1:20" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="168" t="s">
-        <v>225</v>
-      </c>
-      <c r="B50" s="168"/>
-      <c r="C50" s="168"/>
-      <c r="D50" s="168"/>
-      <c r="E50" s="168"/>
-      <c r="F50" s="168"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="168"/>
-      <c r="I50" s="168"/>
-      <c r="J50" s="168"/>
-      <c r="K50" s="168"/>
-      <c r="L50" s="168"/>
-      <c r="M50" s="168"/>
-      <c r="N50" s="168"/>
-      <c r="O50" s="168"/>
-      <c r="P50" s="168"/>
-      <c r="T50" s="141"/>
-    </row>
-    <row r="51" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="167"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="167"/>
-      <c r="F51" s="167"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="167"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="167"/>
-      <c r="M51" s="167"/>
-      <c r="N51" s="167"/>
-      <c r="O51" s="167"/>
-      <c r="P51" s="167"/>
-      <c r="T51" s="144"/>
-    </row>
-    <row r="52" spans="1:20" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="160" t="s">
-        <v>226</v>
       </c>
       <c r="B52" s="160"/>
       <c r="C52" s="160"/>
@@ -8857,198 +9305,198 @@
       <c r="N52" s="160"/>
       <c r="O52" s="160"/>
       <c r="P52" s="160"/>
-      <c r="T52" s="141"/>
-    </row>
-    <row r="53" spans="1:20" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="161" t="s">
+      <c r="T52" s="139"/>
+    </row>
+    <row r="53" spans="1:20" s="140" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="158" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="158"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="158"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="158"/>
+      <c r="I53" s="158"/>
+      <c r="J53" s="158"/>
+      <c r="K53" s="158"/>
+      <c r="L53" s="158"/>
+      <c r="M53" s="158"/>
+      <c r="N53" s="158"/>
+      <c r="O53" s="158"/>
+      <c r="P53" s="158"/>
+      <c r="T53" s="139"/>
+    </row>
+    <row r="54" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="161" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="161"/>
+      <c r="C54" s="161"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="161"/>
+      <c r="K54" s="161"/>
+      <c r="L54" s="161"/>
+      <c r="M54" s="161"/>
+      <c r="N54" s="161"/>
+      <c r="O54" s="161"/>
+      <c r="P54" s="161"/>
+      <c r="T54" s="139"/>
+    </row>
+    <row r="55" spans="1:20" s="140" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="162" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="162"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="162"/>
+      <c r="E55" s="162"/>
+      <c r="F55" s="162"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="162"/>
+      <c r="J55" s="162"/>
+      <c r="K55" s="162"/>
+      <c r="L55" s="162"/>
+      <c r="M55" s="162"/>
+      <c r="N55" s="162"/>
+      <c r="O55" s="162"/>
+      <c r="P55" s="162"/>
+      <c r="T55" s="139"/>
+    </row>
+    <row r="56" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="161" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="161"/>
+      <c r="C56" s="161"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="161"/>
+      <c r="J56" s="161"/>
+      <c r="K56" s="161"/>
+      <c r="L56" s="161"/>
+      <c r="M56" s="161"/>
+      <c r="N56" s="161"/>
+      <c r="O56" s="161"/>
+      <c r="P56" s="161"/>
+      <c r="T56" s="142"/>
+    </row>
+    <row r="57" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="161" t="s">
+        <v>225</v>
+      </c>
+      <c r="B57" s="161"/>
+      <c r="C57" s="161"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
+      <c r="I57" s="161"/>
+      <c r="J57" s="161"/>
+      <c r="K57" s="161"/>
+      <c r="L57" s="161"/>
+      <c r="M57" s="161"/>
+      <c r="N57" s="161"/>
+      <c r="O57" s="161"/>
+      <c r="P57" s="161"/>
+      <c r="T57" s="142"/>
+    </row>
+    <row r="58" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="163"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="163"/>
+      <c r="F58" s="163"/>
+      <c r="G58" s="163"/>
+      <c r="H58" s="163"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="163"/>
+      <c r="K58" s="163"/>
+      <c r="L58" s="163"/>
+      <c r="M58" s="163"/>
+      <c r="N58" s="163"/>
+      <c r="O58" s="163"/>
+      <c r="P58" s="163"/>
+      <c r="T58" s="142"/>
+    </row>
+    <row r="59" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="164" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="164"/>
+      <c r="G59" s="164"/>
+      <c r="H59" s="164"/>
+      <c r="I59" s="164"/>
+      <c r="J59" s="164"/>
+      <c r="K59" s="164"/>
+      <c r="L59" s="164"/>
+      <c r="M59" s="164"/>
+      <c r="N59" s="164"/>
+      <c r="O59" s="164"/>
+      <c r="P59" s="164"/>
+      <c r="T59" s="142"/>
+    </row>
+    <row r="60" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="B53" s="161"/>
-      <c r="C53" s="161"/>
-      <c r="D53" s="161"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="161"/>
-      <c r="G53" s="161"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="161"/>
-      <c r="J53" s="161"/>
-      <c r="K53" s="161"/>
-      <c r="L53" s="161"/>
-      <c r="M53" s="161"/>
-      <c r="N53" s="161"/>
-      <c r="O53" s="161"/>
-      <c r="P53" s="161"/>
-      <c r="T53" s="141"/>
-    </row>
-    <row r="54" spans="1:20" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="162" t="s">
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="164"/>
+      <c r="F60" s="164"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="164"/>
+      <c r="J60" s="164"/>
+      <c r="K60" s="164"/>
+      <c r="L60" s="164"/>
+      <c r="M60" s="164"/>
+      <c r="N60" s="164"/>
+      <c r="O60" s="164"/>
+      <c r="P60" s="164"/>
+      <c r="T60" s="139"/>
+    </row>
+    <row r="61" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="165" t="s">
         <v>228</v>
       </c>
-      <c r="B54" s="162"/>
-      <c r="C54" s="162"/>
-      <c r="D54" s="162"/>
-      <c r="E54" s="162"/>
-      <c r="F54" s="162"/>
-      <c r="G54" s="162"/>
-      <c r="H54" s="162"/>
-      <c r="I54" s="162"/>
-      <c r="J54" s="162"/>
-      <c r="K54" s="162"/>
-      <c r="L54" s="162"/>
-      <c r="M54" s="162"/>
-      <c r="N54" s="162"/>
-      <c r="O54" s="162"/>
-      <c r="P54" s="162"/>
-      <c r="T54" s="141"/>
-    </row>
-    <row r="55" spans="1:20" s="142" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="163" t="s">
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="165"/>
+      <c r="F61" s="165"/>
+      <c r="G61" s="165"/>
+      <c r="H61" s="165"/>
+      <c r="I61" s="165"/>
+      <c r="J61" s="165"/>
+      <c r="K61" s="165"/>
+      <c r="L61" s="165"/>
+      <c r="M61" s="165"/>
+      <c r="N61" s="165"/>
+      <c r="O61" s="165"/>
+      <c r="P61" s="165"/>
+      <c r="T61" s="142"/>
+    </row>
+    <row r="62" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="166" t="s">
         <v>229</v>
-      </c>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
-      <c r="E55" s="163"/>
-      <c r="F55" s="163"/>
-      <c r="G55" s="163"/>
-      <c r="H55" s="163"/>
-      <c r="I55" s="163"/>
-      <c r="J55" s="163"/>
-      <c r="K55" s="163"/>
-      <c r="L55" s="163"/>
-      <c r="M55" s="163"/>
-      <c r="N55" s="163"/>
-      <c r="O55" s="163"/>
-      <c r="P55" s="163"/>
-      <c r="T55" s="141"/>
-    </row>
-    <row r="56" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="162" t="s">
-        <v>230</v>
-      </c>
-      <c r="B56" s="162"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="162"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="162"/>
-      <c r="L56" s="162"/>
-      <c r="M56" s="162"/>
-      <c r="N56" s="162"/>
-      <c r="O56" s="162"/>
-      <c r="P56" s="162"/>
-      <c r="T56" s="144"/>
-    </row>
-    <row r="57" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162" t="s">
-        <v>231</v>
-      </c>
-      <c r="B57" s="162"/>
-      <c r="C57" s="162"/>
-      <c r="D57" s="162"/>
-      <c r="E57" s="162"/>
-      <c r="F57" s="162"/>
-      <c r="G57" s="162"/>
-      <c r="H57" s="162"/>
-      <c r="I57" s="162"/>
-      <c r="J57" s="162"/>
-      <c r="K57" s="162"/>
-      <c r="L57" s="162"/>
-      <c r="M57" s="162"/>
-      <c r="N57" s="162"/>
-      <c r="O57" s="162"/>
-      <c r="P57" s="162"/>
-      <c r="T57" s="144"/>
-    </row>
-    <row r="58" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="164"/>
-      <c r="B58" s="164"/>
-      <c r="C58" s="164"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="164"/>
-      <c r="F58" s="164"/>
-      <c r="G58" s="164"/>
-      <c r="H58" s="164"/>
-      <c r="I58" s="164"/>
-      <c r="J58" s="164"/>
-      <c r="K58" s="164"/>
-      <c r="L58" s="164"/>
-      <c r="M58" s="164"/>
-      <c r="N58" s="164"/>
-      <c r="O58" s="164"/>
-      <c r="P58" s="164"/>
-      <c r="T58" s="144"/>
-    </row>
-    <row r="59" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="165" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
-      <c r="E59" s="165"/>
-      <c r="F59" s="165"/>
-      <c r="G59" s="165"/>
-      <c r="H59" s="165"/>
-      <c r="I59" s="165"/>
-      <c r="J59" s="165"/>
-      <c r="K59" s="165"/>
-      <c r="L59" s="165"/>
-      <c r="M59" s="165"/>
-      <c r="N59" s="165"/>
-      <c r="O59" s="165"/>
-      <c r="P59" s="165"/>
-      <c r="T59" s="144"/>
-    </row>
-    <row r="60" spans="1:20" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="165" t="s">
-        <v>233</v>
-      </c>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="165"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="165"/>
-      <c r="H60" s="165"/>
-      <c r="I60" s="165"/>
-      <c r="J60" s="165"/>
-      <c r="K60" s="165"/>
-      <c r="L60" s="165"/>
-      <c r="M60" s="165"/>
-      <c r="N60" s="165"/>
-      <c r="O60" s="165"/>
-      <c r="P60" s="165"/>
-      <c r="T60" s="141"/>
-    </row>
-    <row r="61" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="153" t="s">
-        <v>234</v>
-      </c>
-      <c r="B61" s="153"/>
-      <c r="C61" s="153"/>
-      <c r="D61" s="153"/>
-      <c r="E61" s="153"/>
-      <c r="F61" s="153"/>
-      <c r="G61" s="153"/>
-      <c r="H61" s="153"/>
-      <c r="I61" s="153"/>
-      <c r="J61" s="153"/>
-      <c r="K61" s="153"/>
-      <c r="L61" s="153"/>
-      <c r="M61" s="153"/>
-      <c r="N61" s="153"/>
-      <c r="O61" s="153"/>
-      <c r="P61" s="153"/>
-      <c r="T61" s="144"/>
-    </row>
-    <row r="62" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="166" t="s">
-        <v>235</v>
       </c>
       <c r="B62" s="166"/>
       <c r="C62" s="166"/>
@@ -9065,982 +9513,1033 @@
       <c r="N62" s="166"/>
       <c r="O62" s="166"/>
       <c r="P62" s="166"/>
-      <c r="T62" s="144"/>
-    </row>
-    <row r="63" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="154" t="s">
+      <c r="T62" s="142"/>
+    </row>
+    <row r="63" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="159" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="159"/>
+      <c r="C63" s="159"/>
+      <c r="D63" s="159"/>
+      <c r="E63" s="159"/>
+      <c r="F63" s="159"/>
+      <c r="G63" s="159"/>
+      <c r="H63" s="159"/>
+      <c r="I63" s="159"/>
+      <c r="J63" s="159"/>
+      <c r="K63" s="159"/>
+      <c r="L63" s="159"/>
+      <c r="M63" s="159"/>
+      <c r="N63" s="159"/>
+      <c r="O63" s="159"/>
+      <c r="P63" s="159"/>
+      <c r="T63" s="142"/>
+    </row>
+    <row r="64" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="159" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" s="159"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="159"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="159"/>
+      <c r="G64" s="159"/>
+      <c r="H64" s="159"/>
+      <c r="I64" s="159"/>
+      <c r="J64" s="159"/>
+      <c r="K64" s="159"/>
+      <c r="L64" s="159"/>
+      <c r="M64" s="159"/>
+      <c r="N64" s="159"/>
+      <c r="O64" s="159"/>
+      <c r="P64" s="159"/>
+      <c r="T64" s="142"/>
+    </row>
+    <row r="65" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="159" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="159"/>
+      <c r="C65" s="159"/>
+      <c r="D65" s="159"/>
+      <c r="E65" s="159"/>
+      <c r="F65" s="159"/>
+      <c r="G65" s="159"/>
+      <c r="H65" s="159"/>
+      <c r="I65" s="159"/>
+      <c r="J65" s="159"/>
+      <c r="K65" s="159"/>
+      <c r="L65" s="159"/>
+      <c r="M65" s="159"/>
+      <c r="N65" s="159"/>
+      <c r="O65" s="159"/>
+      <c r="P65" s="159"/>
+      <c r="T65" s="142"/>
+    </row>
+    <row r="66" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="159" t="s">
+        <v>233</v>
+      </c>
+      <c r="B66" s="159"/>
+      <c r="C66" s="159"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="159"/>
+      <c r="F66" s="159"/>
+      <c r="G66" s="159"/>
+      <c r="H66" s="159"/>
+      <c r="I66" s="159"/>
+      <c r="J66" s="159"/>
+      <c r="K66" s="159"/>
+      <c r="L66" s="159"/>
+      <c r="M66" s="159"/>
+      <c r="N66" s="159"/>
+      <c r="O66" s="159"/>
+      <c r="P66" s="159"/>
+      <c r="T66" s="142"/>
+    </row>
+    <row r="67" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="159" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" s="159"/>
+      <c r="C67" s="159"/>
+      <c r="D67" s="159"/>
+      <c r="E67" s="159"/>
+      <c r="F67" s="159"/>
+      <c r="G67" s="159"/>
+      <c r="H67" s="159"/>
+      <c r="I67" s="159"/>
+      <c r="J67" s="159"/>
+      <c r="K67" s="159"/>
+      <c r="L67" s="159"/>
+      <c r="M67" s="159"/>
+      <c r="N67" s="159"/>
+      <c r="O67" s="159"/>
+      <c r="P67" s="159"/>
+      <c r="T67" s="142"/>
+    </row>
+    <row r="68" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="165" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="165"/>
+      <c r="E68" s="165"/>
+      <c r="F68" s="165"/>
+      <c r="G68" s="165"/>
+      <c r="H68" s="165"/>
+      <c r="I68" s="165"/>
+      <c r="J68" s="165"/>
+      <c r="K68" s="165"/>
+      <c r="L68" s="165"/>
+      <c r="M68" s="165"/>
+      <c r="N68" s="165"/>
+      <c r="O68" s="165"/>
+      <c r="P68" s="165"/>
+      <c r="T68" s="142"/>
+    </row>
+    <row r="69" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="159" t="s">
         <v>236</v>
       </c>
-      <c r="B63" s="154"/>
-      <c r="C63" s="154"/>
-      <c r="D63" s="154"/>
-      <c r="E63" s="154"/>
-      <c r="F63" s="154"/>
-      <c r="G63" s="154"/>
-      <c r="H63" s="154"/>
-      <c r="I63" s="154"/>
-      <c r="J63" s="154"/>
-      <c r="K63" s="154"/>
-      <c r="L63" s="154"/>
-      <c r="M63" s="154"/>
-      <c r="N63" s="154"/>
-      <c r="O63" s="154"/>
-      <c r="P63" s="154"/>
-      <c r="T63" s="144"/>
-    </row>
-    <row r="64" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="154" t="s">
+      <c r="B69" s="159"/>
+      <c r="C69" s="159"/>
+      <c r="D69" s="159"/>
+      <c r="E69" s="159"/>
+      <c r="F69" s="159"/>
+      <c r="G69" s="159"/>
+      <c r="H69" s="159"/>
+      <c r="I69" s="159"/>
+      <c r="J69" s="159"/>
+      <c r="K69" s="159"/>
+      <c r="L69" s="159"/>
+      <c r="M69" s="159"/>
+      <c r="N69" s="159"/>
+      <c r="O69" s="159"/>
+      <c r="P69" s="159"/>
+      <c r="T69" s="142"/>
+    </row>
+    <row r="70" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="159" t="s">
         <v>237</v>
       </c>
-      <c r="B64" s="154"/>
-      <c r="C64" s="154"/>
-      <c r="D64" s="154"/>
-      <c r="E64" s="154"/>
-      <c r="F64" s="154"/>
-      <c r="G64" s="154"/>
-      <c r="H64" s="154"/>
-      <c r="I64" s="154"/>
-      <c r="J64" s="154"/>
-      <c r="K64" s="154"/>
-      <c r="L64" s="154"/>
-      <c r="M64" s="154"/>
-      <c r="N64" s="154"/>
-      <c r="O64" s="154"/>
-      <c r="P64" s="154"/>
-      <c r="T64" s="144"/>
-    </row>
-    <row r="65" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="154" t="s">
+      <c r="B70" s="159"/>
+      <c r="C70" s="159"/>
+      <c r="D70" s="159"/>
+      <c r="E70" s="159"/>
+      <c r="F70" s="159"/>
+      <c r="G70" s="159"/>
+      <c r="H70" s="159"/>
+      <c r="I70" s="159"/>
+      <c r="J70" s="159"/>
+      <c r="K70" s="159"/>
+      <c r="L70" s="159"/>
+      <c r="M70" s="159"/>
+      <c r="N70" s="159"/>
+      <c r="O70" s="159"/>
+      <c r="P70" s="159"/>
+      <c r="T70" s="142"/>
+    </row>
+    <row r="71" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="159" t="s">
         <v>238</v>
       </c>
-      <c r="B65" s="154"/>
-      <c r="C65" s="154"/>
-      <c r="D65" s="154"/>
-      <c r="E65" s="154"/>
-      <c r="F65" s="154"/>
-      <c r="G65" s="154"/>
-      <c r="H65" s="154"/>
-      <c r="I65" s="154"/>
-      <c r="J65" s="154"/>
-      <c r="K65" s="154"/>
-      <c r="L65" s="154"/>
-      <c r="M65" s="154"/>
-      <c r="N65" s="154"/>
-      <c r="O65" s="154"/>
-      <c r="P65" s="154"/>
-      <c r="T65" s="144"/>
-    </row>
-    <row r="66" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="154" t="s">
+      <c r="B71" s="159"/>
+      <c r="C71" s="159"/>
+      <c r="D71" s="159"/>
+      <c r="E71" s="159"/>
+      <c r="F71" s="159"/>
+      <c r="G71" s="159"/>
+      <c r="H71" s="159"/>
+      <c r="I71" s="159"/>
+      <c r="J71" s="159"/>
+      <c r="K71" s="159"/>
+      <c r="L71" s="159"/>
+      <c r="M71" s="159"/>
+      <c r="N71" s="159"/>
+      <c r="O71" s="159"/>
+      <c r="P71" s="159"/>
+      <c r="T71" s="142"/>
+    </row>
+    <row r="72" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="159" t="s">
         <v>239</v>
       </c>
-      <c r="B66" s="154"/>
-      <c r="C66" s="154"/>
-      <c r="D66" s="154"/>
-      <c r="E66" s="154"/>
-      <c r="F66" s="154"/>
-      <c r="G66" s="154"/>
-      <c r="H66" s="154"/>
-      <c r="I66" s="154"/>
-      <c r="J66" s="154"/>
-      <c r="K66" s="154"/>
-      <c r="L66" s="154"/>
-      <c r="M66" s="154"/>
-      <c r="N66" s="154"/>
-      <c r="O66" s="154"/>
-      <c r="P66" s="154"/>
-      <c r="T66" s="144"/>
-    </row>
-    <row r="67" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="154" t="s">
+      <c r="B72" s="159"/>
+      <c r="C72" s="159"/>
+      <c r="D72" s="159"/>
+      <c r="E72" s="159"/>
+      <c r="F72" s="159"/>
+      <c r="G72" s="159"/>
+      <c r="H72" s="159"/>
+      <c r="I72" s="159"/>
+      <c r="J72" s="159"/>
+      <c r="K72" s="159"/>
+      <c r="L72" s="159"/>
+      <c r="M72" s="159"/>
+      <c r="N72" s="159"/>
+      <c r="O72" s="159"/>
+      <c r="P72" s="159"/>
+      <c r="T72" s="142"/>
+    </row>
+    <row r="73" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="159" t="s">
         <v>240</v>
       </c>
-      <c r="B67" s="154"/>
-      <c r="C67" s="154"/>
-      <c r="D67" s="154"/>
-      <c r="E67" s="154"/>
-      <c r="F67" s="154"/>
-      <c r="G67" s="154"/>
-      <c r="H67" s="154"/>
-      <c r="I67" s="154"/>
-      <c r="J67" s="154"/>
-      <c r="K67" s="154"/>
-      <c r="L67" s="154"/>
-      <c r="M67" s="154"/>
-      <c r="N67" s="154"/>
-      <c r="O67" s="154"/>
-      <c r="P67" s="154"/>
-      <c r="T67" s="144"/>
-    </row>
-    <row r="68" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="153" t="s">
+      <c r="B73" s="159"/>
+      <c r="C73" s="159"/>
+      <c r="D73" s="159"/>
+      <c r="E73" s="159"/>
+      <c r="F73" s="159"/>
+      <c r="G73" s="159"/>
+      <c r="H73" s="159"/>
+      <c r="I73" s="159"/>
+      <c r="J73" s="159"/>
+      <c r="K73" s="159"/>
+      <c r="L73" s="159"/>
+      <c r="M73" s="159"/>
+      <c r="N73" s="159"/>
+      <c r="O73" s="159"/>
+      <c r="P73" s="159"/>
+      <c r="T73" s="142"/>
+    </row>
+    <row r="74" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="167" t="s">
         <v>241</v>
       </c>
-      <c r="B68" s="153"/>
-      <c r="C68" s="153"/>
-      <c r="D68" s="153"/>
-      <c r="E68" s="153"/>
-      <c r="F68" s="153"/>
-      <c r="G68" s="153"/>
-      <c r="H68" s="153"/>
-      <c r="I68" s="153"/>
-      <c r="J68" s="153"/>
-      <c r="K68" s="153"/>
-      <c r="L68" s="153"/>
-      <c r="M68" s="153"/>
-      <c r="N68" s="153"/>
-      <c r="O68" s="153"/>
-      <c r="P68" s="153"/>
-      <c r="T68" s="144"/>
-    </row>
-    <row r="69" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="154" t="s">
+      <c r="B74" s="167"/>
+      <c r="C74" s="167"/>
+      <c r="D74" s="167"/>
+      <c r="E74" s="167"/>
+      <c r="F74" s="167"/>
+      <c r="G74" s="167"/>
+      <c r="H74" s="167"/>
+      <c r="I74" s="167"/>
+      <c r="J74" s="167"/>
+      <c r="K74" s="167"/>
+      <c r="L74" s="167"/>
+      <c r="M74" s="167"/>
+      <c r="N74" s="167"/>
+      <c r="O74" s="167"/>
+      <c r="P74" s="167"/>
+      <c r="T74" s="142"/>
+    </row>
+    <row r="75" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="165" t="s">
         <v>242</v>
       </c>
-      <c r="B69" s="154"/>
-      <c r="C69" s="154"/>
-      <c r="D69" s="154"/>
-      <c r="E69" s="154"/>
-      <c r="F69" s="154"/>
-      <c r="G69" s="154"/>
-      <c r="H69" s="154"/>
-      <c r="I69" s="154"/>
-      <c r="J69" s="154"/>
-      <c r="K69" s="154"/>
-      <c r="L69" s="154"/>
-      <c r="M69" s="154"/>
-      <c r="N69" s="154"/>
-      <c r="O69" s="154"/>
-      <c r="P69" s="154"/>
-      <c r="T69" s="144"/>
-    </row>
-    <row r="70" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="154" t="s">
+      <c r="B75" s="165"/>
+      <c r="C75" s="165"/>
+      <c r="D75" s="165"/>
+      <c r="E75" s="165"/>
+      <c r="F75" s="165"/>
+      <c r="G75" s="165"/>
+      <c r="H75" s="165"/>
+      <c r="I75" s="165"/>
+      <c r="J75" s="165"/>
+      <c r="K75" s="165"/>
+      <c r="L75" s="165"/>
+      <c r="M75" s="165"/>
+      <c r="N75" s="165"/>
+      <c r="O75" s="165"/>
+      <c r="P75" s="165"/>
+      <c r="T75" s="139"/>
+    </row>
+    <row r="76" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="169" t="s">
         <v>243</v>
       </c>
-      <c r="B70" s="154"/>
-      <c r="C70" s="154"/>
-      <c r="D70" s="154"/>
-      <c r="E70" s="154"/>
-      <c r="F70" s="154"/>
-      <c r="G70" s="154"/>
-      <c r="H70" s="154"/>
-      <c r="I70" s="154"/>
-      <c r="J70" s="154"/>
-      <c r="K70" s="154"/>
-      <c r="L70" s="154"/>
-      <c r="M70" s="154"/>
-      <c r="N70" s="154"/>
-      <c r="O70" s="154"/>
-      <c r="P70" s="154"/>
-      <c r="T70" s="144"/>
-    </row>
-    <row r="71" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="154" t="s">
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="169"/>
+      <c r="E76" s="169"/>
+      <c r="F76" s="169"/>
+      <c r="G76" s="169"/>
+      <c r="H76" s="169"/>
+      <c r="I76" s="169"/>
+      <c r="J76" s="169"/>
+      <c r="K76" s="169"/>
+      <c r="L76" s="169"/>
+      <c r="M76" s="169"/>
+      <c r="N76" s="169"/>
+      <c r="O76" s="169"/>
+      <c r="P76" s="169"/>
+      <c r="T76" s="142"/>
+    </row>
+    <row r="77" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="168" t="s">
         <v>244</v>
       </c>
-      <c r="B71" s="154"/>
-      <c r="C71" s="154"/>
-      <c r="D71" s="154"/>
-      <c r="E71" s="154"/>
-      <c r="F71" s="154"/>
-      <c r="G71" s="154"/>
-      <c r="H71" s="154"/>
-      <c r="I71" s="154"/>
-      <c r="J71" s="154"/>
-      <c r="K71" s="154"/>
-      <c r="L71" s="154"/>
-      <c r="M71" s="154"/>
-      <c r="N71" s="154"/>
-      <c r="O71" s="154"/>
-      <c r="P71" s="154"/>
-      <c r="T71" s="144"/>
-    </row>
-    <row r="72" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="154" t="s">
+      <c r="B77" s="168"/>
+      <c r="C77" s="168"/>
+      <c r="D77" s="168"/>
+      <c r="E77" s="168"/>
+      <c r="F77" s="168"/>
+      <c r="G77" s="168"/>
+      <c r="H77" s="168"/>
+      <c r="I77" s="168"/>
+      <c r="J77" s="168"/>
+      <c r="K77" s="168"/>
+      <c r="L77" s="168"/>
+      <c r="M77" s="168"/>
+      <c r="N77" s="168"/>
+      <c r="O77" s="168"/>
+      <c r="P77" s="168"/>
+      <c r="T77" s="142"/>
+    </row>
+    <row r="78" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="170" t="s">
         <v>245</v>
       </c>
-      <c r="B72" s="154"/>
-      <c r="C72" s="154"/>
-      <c r="D72" s="154"/>
-      <c r="E72" s="154"/>
-      <c r="F72" s="154"/>
-      <c r="G72" s="154"/>
-      <c r="H72" s="154"/>
-      <c r="I72" s="154"/>
-      <c r="J72" s="154"/>
-      <c r="K72" s="154"/>
-      <c r="L72" s="154"/>
-      <c r="M72" s="154"/>
-      <c r="N72" s="154"/>
-      <c r="O72" s="154"/>
-      <c r="P72" s="154"/>
-      <c r="T72" s="144"/>
-    </row>
-    <row r="73" spans="1:20" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="154" t="s">
+      <c r="B78" s="170"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
+      <c r="E78" s="170"/>
+      <c r="F78" s="170"/>
+      <c r="G78" s="170"/>
+      <c r="H78" s="170"/>
+      <c r="I78" s="170"/>
+      <c r="J78" s="170"/>
+      <c r="K78" s="170"/>
+      <c r="L78" s="170"/>
+      <c r="M78" s="170"/>
+      <c r="N78" s="170"/>
+      <c r="O78" s="170"/>
+      <c r="P78" s="170"/>
+      <c r="T78" s="142"/>
+    </row>
+    <row r="79" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="B73" s="154"/>
-      <c r="C73" s="154"/>
-      <c r="D73" s="154"/>
-      <c r="E73" s="154"/>
-      <c r="F73" s="154"/>
-      <c r="G73" s="154"/>
-      <c r="H73" s="154"/>
-      <c r="I73" s="154"/>
-      <c r="J73" s="154"/>
-      <c r="K73" s="154"/>
-      <c r="L73" s="154"/>
-      <c r="M73" s="154"/>
-      <c r="N73" s="154"/>
-      <c r="O73" s="154"/>
-      <c r="P73" s="154"/>
-      <c r="T73" s="144"/>
-    </row>
-    <row r="74" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="155" t="s">
+      <c r="B79" s="168"/>
+      <c r="C79" s="168"/>
+      <c r="D79" s="168"/>
+      <c r="E79" s="168"/>
+      <c r="F79" s="168"/>
+      <c r="G79" s="168"/>
+      <c r="H79" s="168"/>
+      <c r="I79" s="168"/>
+      <c r="J79" s="168"/>
+      <c r="K79" s="168"/>
+      <c r="L79" s="168"/>
+      <c r="M79" s="168"/>
+      <c r="N79" s="168"/>
+      <c r="O79" s="168"/>
+      <c r="P79" s="168"/>
+      <c r="T79" s="142"/>
+    </row>
+    <row r="80" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="165" t="s">
         <v>247</v>
       </c>
-      <c r="B74" s="155"/>
-      <c r="C74" s="155"/>
-      <c r="D74" s="155"/>
-      <c r="E74" s="155"/>
-      <c r="F74" s="155"/>
-      <c r="G74" s="155"/>
-      <c r="H74" s="155"/>
-      <c r="I74" s="155"/>
-      <c r="J74" s="155"/>
-      <c r="K74" s="155"/>
-      <c r="L74" s="155"/>
-      <c r="M74" s="155"/>
-      <c r="N74" s="155"/>
-      <c r="O74" s="155"/>
-      <c r="P74" s="155"/>
-      <c r="T74" s="144"/>
-    </row>
-    <row r="75" spans="1:20" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="153" t="s">
+      <c r="B80" s="165"/>
+      <c r="C80" s="165"/>
+      <c r="D80" s="165"/>
+      <c r="E80" s="165"/>
+      <c r="F80" s="165"/>
+      <c r="G80" s="165"/>
+      <c r="H80" s="165"/>
+      <c r="I80" s="165"/>
+      <c r="J80" s="165"/>
+      <c r="K80" s="165"/>
+      <c r="L80" s="165"/>
+      <c r="M80" s="165"/>
+      <c r="N80" s="165"/>
+      <c r="O80" s="165"/>
+      <c r="P80" s="165"/>
+      <c r="T80" s="142"/>
+    </row>
+    <row r="81" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="169" t="s">
         <v>248</v>
       </c>
-      <c r="B75" s="153"/>
-      <c r="C75" s="153"/>
-      <c r="D75" s="153"/>
-      <c r="E75" s="153"/>
-      <c r="F75" s="153"/>
-      <c r="G75" s="153"/>
-      <c r="H75" s="153"/>
-      <c r="I75" s="153"/>
-      <c r="J75" s="153"/>
-      <c r="K75" s="153"/>
-      <c r="L75" s="153"/>
-      <c r="M75" s="153"/>
-      <c r="N75" s="153"/>
-      <c r="O75" s="153"/>
-      <c r="P75" s="153"/>
-      <c r="T75" s="141"/>
-    </row>
-    <row r="76" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="156" t="s">
+      <c r="B81" s="169"/>
+      <c r="C81" s="169"/>
+      <c r="D81" s="169"/>
+      <c r="E81" s="169"/>
+      <c r="F81" s="169"/>
+      <c r="G81" s="169"/>
+      <c r="H81" s="169"/>
+      <c r="I81" s="169"/>
+      <c r="J81" s="169"/>
+      <c r="K81" s="169"/>
+      <c r="L81" s="169"/>
+      <c r="M81" s="169"/>
+      <c r="N81" s="169"/>
+      <c r="O81" s="169"/>
+      <c r="P81" s="169"/>
+      <c r="T81" s="142"/>
+    </row>
+    <row r="82" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="168" t="s">
         <v>249</v>
       </c>
-      <c r="B76" s="156"/>
-      <c r="C76" s="156"/>
-      <c r="D76" s="156"/>
-      <c r="E76" s="156"/>
-      <c r="F76" s="156"/>
-      <c r="G76" s="156"/>
-      <c r="H76" s="156"/>
-      <c r="I76" s="156"/>
-      <c r="J76" s="156"/>
-      <c r="K76" s="156"/>
-      <c r="L76" s="156"/>
-      <c r="M76" s="156"/>
-      <c r="N76" s="156"/>
-      <c r="O76" s="156"/>
-      <c r="P76" s="156"/>
-      <c r="T76" s="144"/>
-    </row>
-    <row r="77" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="158" t="s">
+      <c r="B82" s="168"/>
+      <c r="C82" s="168"/>
+      <c r="D82" s="168"/>
+      <c r="E82" s="168"/>
+      <c r="F82" s="168"/>
+      <c r="G82" s="168"/>
+      <c r="H82" s="168"/>
+      <c r="I82" s="168"/>
+      <c r="J82" s="168"/>
+      <c r="K82" s="168"/>
+      <c r="L82" s="168"/>
+      <c r="M82" s="168"/>
+      <c r="N82" s="168"/>
+      <c r="O82" s="168"/>
+      <c r="P82" s="168"/>
+      <c r="T82" s="142"/>
+    </row>
+    <row r="83" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="165" t="s">
         <v>250</v>
       </c>
-      <c r="B77" s="158"/>
-      <c r="C77" s="158"/>
-      <c r="D77" s="158"/>
-      <c r="E77" s="158"/>
-      <c r="F77" s="158"/>
-      <c r="G77" s="158"/>
-      <c r="H77" s="158"/>
-      <c r="I77" s="158"/>
-      <c r="J77" s="158"/>
-      <c r="K77" s="158"/>
-      <c r="L77" s="158"/>
-      <c r="M77" s="158"/>
-      <c r="N77" s="158"/>
-      <c r="O77" s="158"/>
-      <c r="P77" s="158"/>
-      <c r="T77" s="144"/>
-    </row>
-    <row r="78" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="159" t="s">
+      <c r="B83" s="165"/>
+      <c r="C83" s="165"/>
+      <c r="D83" s="165"/>
+      <c r="E83" s="165"/>
+      <c r="F83" s="165"/>
+      <c r="G83" s="165"/>
+      <c r="H83" s="165"/>
+      <c r="I83" s="165"/>
+      <c r="J83" s="165"/>
+      <c r="K83" s="165"/>
+      <c r="L83" s="165"/>
+      <c r="M83" s="165"/>
+      <c r="N83" s="165"/>
+      <c r="O83" s="165"/>
+      <c r="P83" s="165"/>
+      <c r="T83" s="142"/>
+    </row>
+    <row r="84" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="169" t="s">
         <v>251</v>
       </c>
-      <c r="B78" s="159"/>
-      <c r="C78" s="159"/>
-      <c r="D78" s="159"/>
-      <c r="E78" s="159"/>
-      <c r="F78" s="159"/>
-      <c r="G78" s="159"/>
-      <c r="H78" s="159"/>
-      <c r="I78" s="159"/>
-      <c r="J78" s="159"/>
-      <c r="K78" s="159"/>
-      <c r="L78" s="159"/>
-      <c r="M78" s="159"/>
-      <c r="N78" s="159"/>
-      <c r="O78" s="159"/>
-      <c r="P78" s="159"/>
-      <c r="T78" s="144"/>
-    </row>
-    <row r="79" spans="1:20" s="143" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="158" t="s">
+      <c r="B84" s="169"/>
+      <c r="C84" s="169"/>
+      <c r="D84" s="169"/>
+      <c r="E84" s="169"/>
+      <c r="F84" s="169"/>
+      <c r="G84" s="169"/>
+      <c r="H84" s="169"/>
+      <c r="I84" s="169"/>
+      <c r="J84" s="169"/>
+      <c r="K84" s="169"/>
+      <c r="L84" s="169"/>
+      <c r="M84" s="169"/>
+      <c r="N84" s="169"/>
+      <c r="O84" s="169"/>
+      <c r="P84" s="169"/>
+      <c r="T84" s="142"/>
+    </row>
+    <row r="85" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="168" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85" s="168"/>
+      <c r="C85" s="168"/>
+      <c r="D85" s="168"/>
+      <c r="E85" s="168"/>
+      <c r="F85" s="168"/>
+      <c r="G85" s="168"/>
+      <c r="H85" s="168"/>
+      <c r="I85" s="168"/>
+      <c r="J85" s="168"/>
+      <c r="K85" s="168"/>
+      <c r="L85" s="168"/>
+      <c r="M85" s="168"/>
+      <c r="N85" s="168"/>
+      <c r="O85" s="168"/>
+      <c r="P85" s="168"/>
+      <c r="T85" s="142"/>
+    </row>
+    <row r="86" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="170" t="s">
         <v>252</v>
       </c>
-      <c r="B79" s="158"/>
-      <c r="C79" s="158"/>
-      <c r="D79" s="158"/>
-      <c r="E79" s="158"/>
-      <c r="F79" s="158"/>
-      <c r="G79" s="158"/>
-      <c r="H79" s="158"/>
-      <c r="I79" s="158"/>
-      <c r="J79" s="158"/>
-      <c r="K79" s="158"/>
-      <c r="L79" s="158"/>
-      <c r="M79" s="158"/>
-      <c r="N79" s="158"/>
-      <c r="O79" s="158"/>
-      <c r="P79" s="158"/>
-      <c r="T79" s="144"/>
-    </row>
-    <row r="80" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="153" t="s">
+      <c r="B86" s="170"/>
+      <c r="C86" s="170"/>
+      <c r="D86" s="170"/>
+      <c r="E86" s="170"/>
+      <c r="F86" s="170"/>
+      <c r="G86" s="170"/>
+      <c r="H86" s="170"/>
+      <c r="I86" s="170"/>
+      <c r="J86" s="170"/>
+      <c r="K86" s="170"/>
+      <c r="L86" s="170"/>
+      <c r="M86" s="170"/>
+      <c r="N86" s="170"/>
+      <c r="O86" s="170"/>
+      <c r="P86" s="170"/>
+      <c r="T86" s="142"/>
+    </row>
+    <row r="87" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="168" t="s">
         <v>253</v>
       </c>
-      <c r="B80" s="153"/>
-      <c r="C80" s="153"/>
-      <c r="D80" s="153"/>
-      <c r="E80" s="153"/>
-      <c r="F80" s="153"/>
-      <c r="G80" s="153"/>
-      <c r="H80" s="153"/>
-      <c r="I80" s="153"/>
-      <c r="J80" s="153"/>
-      <c r="K80" s="153"/>
-      <c r="L80" s="153"/>
-      <c r="M80" s="153"/>
-      <c r="N80" s="153"/>
-      <c r="O80" s="153"/>
-      <c r="P80" s="153"/>
-      <c r="T80" s="144"/>
-    </row>
-    <row r="81" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="156" t="s">
+      <c r="B87" s="168"/>
+      <c r="C87" s="168"/>
+      <c r="D87" s="168"/>
+      <c r="E87" s="168"/>
+      <c r="F87" s="168"/>
+      <c r="G87" s="168"/>
+      <c r="H87" s="168"/>
+      <c r="I87" s="168"/>
+      <c r="J87" s="168"/>
+      <c r="K87" s="168"/>
+      <c r="L87" s="168"/>
+      <c r="M87" s="168"/>
+      <c r="N87" s="168"/>
+      <c r="O87" s="168"/>
+      <c r="P87" s="168"/>
+      <c r="T87" s="142"/>
+    </row>
+    <row r="88" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="165" t="s">
         <v>254</v>
       </c>
-      <c r="B81" s="156"/>
-      <c r="C81" s="156"/>
-      <c r="D81" s="156"/>
-      <c r="E81" s="156"/>
-      <c r="F81" s="156"/>
-      <c r="G81" s="156"/>
-      <c r="H81" s="156"/>
-      <c r="I81" s="156"/>
-      <c r="J81" s="156"/>
-      <c r="K81" s="156"/>
-      <c r="L81" s="156"/>
-      <c r="M81" s="156"/>
-      <c r="N81" s="156"/>
-      <c r="O81" s="156"/>
-      <c r="P81" s="156"/>
-      <c r="T81" s="144"/>
-    </row>
-    <row r="82" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="158" t="s">
+      <c r="B88" s="165"/>
+      <c r="C88" s="165"/>
+      <c r="D88" s="165"/>
+      <c r="E88" s="165"/>
+      <c r="F88" s="165"/>
+      <c r="G88" s="165"/>
+      <c r="H88" s="165"/>
+      <c r="I88" s="165"/>
+      <c r="J88" s="165"/>
+      <c r="K88" s="165"/>
+      <c r="L88" s="165"/>
+      <c r="M88" s="165"/>
+      <c r="N88" s="165"/>
+      <c r="O88" s="165"/>
+      <c r="P88" s="165"/>
+      <c r="T88" s="142"/>
+    </row>
+    <row r="89" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="169" t="s">
         <v>255</v>
       </c>
-      <c r="B82" s="158"/>
-      <c r="C82" s="158"/>
-      <c r="D82" s="158"/>
-      <c r="E82" s="158"/>
-      <c r="F82" s="158"/>
-      <c r="G82" s="158"/>
-      <c r="H82" s="158"/>
-      <c r="I82" s="158"/>
-      <c r="J82" s="158"/>
-      <c r="K82" s="158"/>
-      <c r="L82" s="158"/>
-      <c r="M82" s="158"/>
-      <c r="N82" s="158"/>
-      <c r="O82" s="158"/>
-      <c r="P82" s="158"/>
-      <c r="T82" s="144"/>
-    </row>
-    <row r="83" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="153" t="s">
+      <c r="B89" s="169"/>
+      <c r="C89" s="169"/>
+      <c r="D89" s="169"/>
+      <c r="E89" s="169"/>
+      <c r="F89" s="169"/>
+      <c r="G89" s="169"/>
+      <c r="H89" s="169"/>
+      <c r="I89" s="169"/>
+      <c r="J89" s="169"/>
+      <c r="K89" s="169"/>
+      <c r="L89" s="169"/>
+      <c r="M89" s="169"/>
+      <c r="N89" s="169"/>
+      <c r="O89" s="169"/>
+      <c r="P89" s="169"/>
+      <c r="T89" s="142"/>
+    </row>
+    <row r="90" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="168" t="s">
+        <v>249</v>
+      </c>
+      <c r="B90" s="168"/>
+      <c r="C90" s="168"/>
+      <c r="D90" s="168"/>
+      <c r="E90" s="168"/>
+      <c r="F90" s="168"/>
+      <c r="G90" s="168"/>
+      <c r="H90" s="168"/>
+      <c r="I90" s="168"/>
+      <c r="J90" s="168"/>
+      <c r="K90" s="168"/>
+      <c r="L90" s="168"/>
+      <c r="M90" s="168"/>
+      <c r="N90" s="168"/>
+      <c r="O90" s="168"/>
+      <c r="P90" s="168"/>
+      <c r="T90" s="142"/>
+    </row>
+    <row r="91" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="167" t="s">
         <v>256</v>
       </c>
-      <c r="B83" s="153"/>
-      <c r="C83" s="153"/>
-      <c r="D83" s="153"/>
-      <c r="E83" s="153"/>
-      <c r="F83" s="153"/>
-      <c r="G83" s="153"/>
-      <c r="H83" s="153"/>
-      <c r="I83" s="153"/>
-      <c r="J83" s="153"/>
-      <c r="K83" s="153"/>
-      <c r="L83" s="153"/>
-      <c r="M83" s="153"/>
-      <c r="N83" s="153"/>
-      <c r="O83" s="153"/>
-      <c r="P83" s="153"/>
-      <c r="T83" s="144"/>
-    </row>
-    <row r="84" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="156" t="s">
+      <c r="B91" s="167"/>
+      <c r="C91" s="167"/>
+      <c r="D91" s="167"/>
+      <c r="E91" s="167"/>
+      <c r="F91" s="167"/>
+      <c r="G91" s="167"/>
+      <c r="H91" s="167"/>
+      <c r="I91" s="167"/>
+      <c r="J91" s="167"/>
+      <c r="K91" s="167"/>
+      <c r="L91" s="167"/>
+      <c r="M91" s="167"/>
+      <c r="N91" s="167"/>
+      <c r="O91" s="167"/>
+      <c r="P91" s="167"/>
+      <c r="T91" s="142"/>
+    </row>
+    <row r="92" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="159" t="s">
         <v>257</v>
       </c>
-      <c r="B84" s="156"/>
-      <c r="C84" s="156"/>
-      <c r="D84" s="156"/>
-      <c r="E84" s="156"/>
-      <c r="F84" s="156"/>
-      <c r="G84" s="156"/>
-      <c r="H84" s="156"/>
-      <c r="I84" s="156"/>
-      <c r="J84" s="156"/>
-      <c r="K84" s="156"/>
-      <c r="L84" s="156"/>
-      <c r="M84" s="156"/>
-      <c r="N84" s="156"/>
-      <c r="O84" s="156"/>
-      <c r="P84" s="156"/>
-      <c r="T84" s="144"/>
-    </row>
-    <row r="85" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="158" t="s">
-        <v>250</v>
-      </c>
-      <c r="B85" s="158"/>
-      <c r="C85" s="158"/>
-      <c r="D85" s="158"/>
-      <c r="E85" s="158"/>
-      <c r="F85" s="158"/>
-      <c r="G85" s="158"/>
-      <c r="H85" s="158"/>
-      <c r="I85" s="158"/>
-      <c r="J85" s="158"/>
-      <c r="K85" s="158"/>
-      <c r="L85" s="158"/>
-      <c r="M85" s="158"/>
-      <c r="N85" s="158"/>
-      <c r="O85" s="158"/>
-      <c r="P85" s="158"/>
-      <c r="T85" s="144"/>
-    </row>
-    <row r="86" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="159" t="s">
+      <c r="B92" s="159"/>
+      <c r="C92" s="159"/>
+      <c r="D92" s="159"/>
+      <c r="E92" s="159"/>
+      <c r="F92" s="159"/>
+      <c r="G92" s="159"/>
+      <c r="H92" s="159"/>
+      <c r="I92" s="159"/>
+      <c r="J92" s="159"/>
+      <c r="K92" s="159"/>
+      <c r="L92" s="159"/>
+      <c r="M92" s="159"/>
+      <c r="N92" s="159"/>
+      <c r="O92" s="159"/>
+      <c r="P92" s="159"/>
+      <c r="T92" s="142"/>
+    </row>
+    <row r="93" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="159" t="s">
         <v>258</v>
       </c>
-      <c r="B86" s="159"/>
-      <c r="C86" s="159"/>
-      <c r="D86" s="159"/>
-      <c r="E86" s="159"/>
-      <c r="F86" s="159"/>
-      <c r="G86" s="159"/>
-      <c r="H86" s="159"/>
-      <c r="I86" s="159"/>
-      <c r="J86" s="159"/>
-      <c r="K86" s="159"/>
-      <c r="L86" s="159"/>
-      <c r="M86" s="159"/>
-      <c r="N86" s="159"/>
-      <c r="O86" s="159"/>
-      <c r="P86" s="159"/>
-      <c r="T86" s="144"/>
-    </row>
-    <row r="87" spans="1:20" s="143" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="158" t="s">
+      <c r="B93" s="159"/>
+      <c r="C93" s="159"/>
+      <c r="D93" s="159"/>
+      <c r="E93" s="159"/>
+      <c r="F93" s="159"/>
+      <c r="G93" s="159"/>
+      <c r="H93" s="159"/>
+      <c r="I93" s="159"/>
+      <c r="J93" s="159"/>
+      <c r="K93" s="159"/>
+      <c r="L93" s="159"/>
+      <c r="M93" s="159"/>
+      <c r="N93" s="159"/>
+      <c r="O93" s="159"/>
+      <c r="P93" s="159"/>
+      <c r="T93" s="142"/>
+    </row>
+    <row r="94" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="167" t="s">
         <v>259</v>
       </c>
-      <c r="B87" s="158"/>
-      <c r="C87" s="158"/>
-      <c r="D87" s="158"/>
-      <c r="E87" s="158"/>
-      <c r="F87" s="158"/>
-      <c r="G87" s="158"/>
-      <c r="H87" s="158"/>
-      <c r="I87" s="158"/>
-      <c r="J87" s="158"/>
-      <c r="K87" s="158"/>
-      <c r="L87" s="158"/>
-      <c r="M87" s="158"/>
-      <c r="N87" s="158"/>
-      <c r="O87" s="158"/>
-      <c r="P87" s="158"/>
-      <c r="T87" s="144"/>
-    </row>
-    <row r="88" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="153" t="s">
+      <c r="B94" s="167"/>
+      <c r="C94" s="167"/>
+      <c r="D94" s="167"/>
+      <c r="E94" s="167"/>
+      <c r="F94" s="167"/>
+      <c r="G94" s="167"/>
+      <c r="H94" s="167"/>
+      <c r="I94" s="167"/>
+      <c r="J94" s="167"/>
+      <c r="K94" s="167"/>
+      <c r="L94" s="167"/>
+      <c r="M94" s="167"/>
+      <c r="N94" s="167"/>
+      <c r="O94" s="167"/>
+      <c r="P94" s="167"/>
+      <c r="T94" s="142"/>
+    </row>
+    <row r="95" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="159" t="s">
         <v>260</v>
       </c>
-      <c r="B88" s="153"/>
-      <c r="C88" s="153"/>
-      <c r="D88" s="153"/>
-      <c r="E88" s="153"/>
-      <c r="F88" s="153"/>
-      <c r="G88" s="153"/>
-      <c r="H88" s="153"/>
-      <c r="I88" s="153"/>
-      <c r="J88" s="153"/>
-      <c r="K88" s="153"/>
-      <c r="L88" s="153"/>
-      <c r="M88" s="153"/>
-      <c r="N88" s="153"/>
-      <c r="O88" s="153"/>
-      <c r="P88" s="153"/>
-      <c r="T88" s="144"/>
-    </row>
-    <row r="89" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="156" t="s">
+      <c r="B95" s="159"/>
+      <c r="C95" s="159"/>
+      <c r="D95" s="159"/>
+      <c r="E95" s="159"/>
+      <c r="F95" s="159"/>
+      <c r="G95" s="159"/>
+      <c r="H95" s="159"/>
+      <c r="I95" s="159"/>
+      <c r="J95" s="159"/>
+      <c r="K95" s="159"/>
+      <c r="L95" s="159"/>
+      <c r="M95" s="159"/>
+      <c r="N95" s="159"/>
+      <c r="O95" s="159"/>
+      <c r="P95" s="159"/>
+      <c r="T95" s="142"/>
+    </row>
+    <row r="96" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="B89" s="156"/>
-      <c r="C89" s="156"/>
-      <c r="D89" s="156"/>
-      <c r="E89" s="156"/>
-      <c r="F89" s="156"/>
-      <c r="G89" s="156"/>
-      <c r="H89" s="156"/>
-      <c r="I89" s="156"/>
-      <c r="J89" s="156"/>
-      <c r="K89" s="156"/>
-      <c r="L89" s="156"/>
-      <c r="M89" s="156"/>
-      <c r="N89" s="156"/>
-      <c r="O89" s="156"/>
-      <c r="P89" s="156"/>
-      <c r="T89" s="144"/>
-    </row>
-    <row r="90" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="158" t="s">
-        <v>255</v>
-      </c>
-      <c r="B90" s="158"/>
-      <c r="C90" s="158"/>
-      <c r="D90" s="158"/>
-      <c r="E90" s="158"/>
-      <c r="F90" s="158"/>
-      <c r="G90" s="158"/>
-      <c r="H90" s="158"/>
-      <c r="I90" s="158"/>
-      <c r="J90" s="158"/>
-      <c r="K90" s="158"/>
-      <c r="L90" s="158"/>
-      <c r="M90" s="158"/>
-      <c r="N90" s="158"/>
-      <c r="O90" s="158"/>
-      <c r="P90" s="158"/>
-      <c r="T90" s="144"/>
-    </row>
-    <row r="91" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="155" t="s">
+      <c r="B96" s="167"/>
+      <c r="C96" s="167"/>
+      <c r="D96" s="167"/>
+      <c r="E96" s="167"/>
+      <c r="F96" s="167"/>
+      <c r="G96" s="167"/>
+      <c r="H96" s="167"/>
+      <c r="I96" s="167"/>
+      <c r="J96" s="167"/>
+      <c r="K96" s="167"/>
+      <c r="L96" s="167"/>
+      <c r="M96" s="167"/>
+      <c r="N96" s="167"/>
+      <c r="O96" s="167"/>
+      <c r="P96" s="167"/>
+      <c r="T96" s="142"/>
+    </row>
+    <row r="97" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="B91" s="155"/>
-      <c r="C91" s="155"/>
-      <c r="D91" s="155"/>
-      <c r="E91" s="155"/>
-      <c r="F91" s="155"/>
-      <c r="G91" s="155"/>
-      <c r="H91" s="155"/>
-      <c r="I91" s="155"/>
-      <c r="J91" s="155"/>
-      <c r="K91" s="155"/>
-      <c r="L91" s="155"/>
-      <c r="M91" s="155"/>
-      <c r="N91" s="155"/>
-      <c r="O91" s="155"/>
-      <c r="P91" s="155"/>
-      <c r="T91" s="144"/>
-    </row>
-    <row r="92" spans="1:20" s="143" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="154" t="s">
+      <c r="B97" s="165"/>
+      <c r="C97" s="165"/>
+      <c r="D97" s="165"/>
+      <c r="E97" s="165"/>
+      <c r="F97" s="165"/>
+      <c r="G97" s="165"/>
+      <c r="H97" s="165"/>
+      <c r="I97" s="165"/>
+      <c r="J97" s="165"/>
+      <c r="K97" s="165"/>
+      <c r="L97" s="165"/>
+      <c r="M97" s="165"/>
+      <c r="N97" s="165"/>
+      <c r="O97" s="165"/>
+      <c r="P97" s="165"/>
+      <c r="T97" s="142"/>
+    </row>
+    <row r="98" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="159" t="s">
         <v>263</v>
       </c>
-      <c r="B92" s="154"/>
-      <c r="C92" s="154"/>
-      <c r="D92" s="154"/>
-      <c r="E92" s="154"/>
-      <c r="F92" s="154"/>
-      <c r="G92" s="154"/>
-      <c r="H92" s="154"/>
-      <c r="I92" s="154"/>
-      <c r="J92" s="154"/>
-      <c r="K92" s="154"/>
-      <c r="L92" s="154"/>
-      <c r="M92" s="154"/>
-      <c r="N92" s="154"/>
-      <c r="O92" s="154"/>
-      <c r="P92" s="154"/>
-      <c r="T92" s="144"/>
-    </row>
-    <row r="93" spans="1:20" s="143" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="154" t="s">
+      <c r="B98" s="159"/>
+      <c r="C98" s="159"/>
+      <c r="D98" s="159"/>
+      <c r="E98" s="159"/>
+      <c r="F98" s="159"/>
+      <c r="G98" s="159"/>
+      <c r="H98" s="159"/>
+      <c r="I98" s="159"/>
+      <c r="J98" s="159"/>
+      <c r="K98" s="159"/>
+      <c r="L98" s="159"/>
+      <c r="M98" s="159"/>
+      <c r="N98" s="159"/>
+      <c r="O98" s="159"/>
+      <c r="P98" s="159"/>
+      <c r="T98" s="142"/>
+    </row>
+    <row r="99" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="159" t="s">
         <v>264</v>
       </c>
-      <c r="B93" s="154"/>
-      <c r="C93" s="154"/>
-      <c r="D93" s="154"/>
-      <c r="E93" s="154"/>
-      <c r="F93" s="154"/>
-      <c r="G93" s="154"/>
-      <c r="H93" s="154"/>
-      <c r="I93" s="154"/>
-      <c r="J93" s="154"/>
-      <c r="K93" s="154"/>
-      <c r="L93" s="154"/>
-      <c r="M93" s="154"/>
-      <c r="N93" s="154"/>
-      <c r="O93" s="154"/>
-      <c r="P93" s="154"/>
-      <c r="T93" s="144"/>
-    </row>
-    <row r="94" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="155" t="s">
+      <c r="B99" s="159"/>
+      <c r="C99" s="159"/>
+      <c r="D99" s="159"/>
+      <c r="E99" s="159"/>
+      <c r="F99" s="159"/>
+      <c r="G99" s="159"/>
+      <c r="H99" s="159"/>
+      <c r="I99" s="159"/>
+      <c r="J99" s="159"/>
+      <c r="K99" s="159"/>
+      <c r="L99" s="159"/>
+      <c r="M99" s="159"/>
+      <c r="N99" s="159"/>
+      <c r="O99" s="159"/>
+      <c r="P99" s="159"/>
+      <c r="T99" s="142"/>
+    </row>
+    <row r="100" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="159" t="s">
         <v>265</v>
       </c>
-      <c r="B94" s="155"/>
-      <c r="C94" s="155"/>
-      <c r="D94" s="155"/>
-      <c r="E94" s="155"/>
-      <c r="F94" s="155"/>
-      <c r="G94" s="155"/>
-      <c r="H94" s="155"/>
-      <c r="I94" s="155"/>
-      <c r="J94" s="155"/>
-      <c r="K94" s="155"/>
-      <c r="L94" s="155"/>
-      <c r="M94" s="155"/>
-      <c r="N94" s="155"/>
-      <c r="O94" s="155"/>
-      <c r="P94" s="155"/>
-      <c r="T94" s="144"/>
-    </row>
-    <row r="95" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="154" t="s">
+      <c r="B100" s="159"/>
+      <c r="C100" s="159"/>
+      <c r="D100" s="159"/>
+      <c r="E100" s="159"/>
+      <c r="F100" s="159"/>
+      <c r="G100" s="159"/>
+      <c r="H100" s="159"/>
+      <c r="I100" s="159"/>
+      <c r="J100" s="159"/>
+      <c r="K100" s="159"/>
+      <c r="L100" s="159"/>
+      <c r="M100" s="159"/>
+      <c r="N100" s="159"/>
+      <c r="O100" s="159"/>
+      <c r="P100" s="159"/>
+      <c r="T100" s="142"/>
+    </row>
+    <row r="101" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="167" t="s">
         <v>266</v>
       </c>
-      <c r="B95" s="154"/>
-      <c r="C95" s="154"/>
-      <c r="D95" s="154"/>
-      <c r="E95" s="154"/>
-      <c r="F95" s="154"/>
-      <c r="G95" s="154"/>
-      <c r="H95" s="154"/>
-      <c r="I95" s="154"/>
-      <c r="J95" s="154"/>
-      <c r="K95" s="154"/>
-      <c r="L95" s="154"/>
-      <c r="M95" s="154"/>
-      <c r="N95" s="154"/>
-      <c r="O95" s="154"/>
-      <c r="P95" s="154"/>
-      <c r="T95" s="144"/>
-    </row>
-    <row r="96" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="155" t="s">
+      <c r="B101" s="167"/>
+      <c r="C101" s="167"/>
+      <c r="D101" s="167"/>
+      <c r="E101" s="167"/>
+      <c r="F101" s="167"/>
+      <c r="G101" s="167"/>
+      <c r="H101" s="167"/>
+      <c r="I101" s="167"/>
+      <c r="J101" s="167"/>
+      <c r="K101" s="167"/>
+      <c r="L101" s="167"/>
+      <c r="M101" s="167"/>
+      <c r="N101" s="167"/>
+      <c r="O101" s="167"/>
+      <c r="P101" s="167"/>
+      <c r="T101" s="142"/>
+    </row>
+    <row r="102" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="165" t="s">
         <v>267</v>
       </c>
-      <c r="B96" s="155"/>
-      <c r="C96" s="155"/>
-      <c r="D96" s="155"/>
-      <c r="E96" s="155"/>
-      <c r="F96" s="155"/>
-      <c r="G96" s="155"/>
-      <c r="H96" s="155"/>
-      <c r="I96" s="155"/>
-      <c r="J96" s="155"/>
-      <c r="K96" s="155"/>
-      <c r="L96" s="155"/>
-      <c r="M96" s="155"/>
-      <c r="N96" s="155"/>
-      <c r="O96" s="155"/>
-      <c r="P96" s="155"/>
-      <c r="T96" s="144"/>
-    </row>
-    <row r="97" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="153" t="s">
+      <c r="B102" s="165"/>
+      <c r="C102" s="165"/>
+      <c r="D102" s="165"/>
+      <c r="E102" s="165"/>
+      <c r="F102" s="165"/>
+      <c r="G102" s="165"/>
+      <c r="H102" s="165"/>
+      <c r="I102" s="165"/>
+      <c r="J102" s="165"/>
+      <c r="K102" s="165"/>
+      <c r="L102" s="165"/>
+      <c r="M102" s="165"/>
+      <c r="N102" s="165"/>
+      <c r="O102" s="165"/>
+      <c r="P102" s="165"/>
+      <c r="T102" s="142"/>
+    </row>
+    <row r="103" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="169" t="s">
         <v>268</v>
       </c>
-      <c r="B97" s="153"/>
-      <c r="C97" s="153"/>
-      <c r="D97" s="153"/>
-      <c r="E97" s="153"/>
-      <c r="F97" s="153"/>
-      <c r="G97" s="153"/>
-      <c r="H97" s="153"/>
-      <c r="I97" s="153"/>
-      <c r="J97" s="153"/>
-      <c r="K97" s="153"/>
-      <c r="L97" s="153"/>
-      <c r="M97" s="153"/>
-      <c r="N97" s="153"/>
-      <c r="O97" s="153"/>
-      <c r="P97" s="153"/>
-      <c r="T97" s="144"/>
-    </row>
-    <row r="98" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="154" t="s">
+      <c r="B103" s="169"/>
+      <c r="C103" s="169"/>
+      <c r="D103" s="169"/>
+      <c r="E103" s="169"/>
+      <c r="F103" s="169"/>
+      <c r="G103" s="169"/>
+      <c r="H103" s="169"/>
+      <c r="I103" s="169"/>
+      <c r="J103" s="169"/>
+      <c r="K103" s="169"/>
+      <c r="L103" s="169"/>
+      <c r="M103" s="169"/>
+      <c r="N103" s="169"/>
+      <c r="O103" s="169"/>
+      <c r="P103" s="169"/>
+      <c r="T103" s="142"/>
+    </row>
+    <row r="104" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="165" t="s">
         <v>269</v>
       </c>
-      <c r="B98" s="154"/>
-      <c r="C98" s="154"/>
-      <c r="D98" s="154"/>
-      <c r="E98" s="154"/>
-      <c r="F98" s="154"/>
-      <c r="G98" s="154"/>
-      <c r="H98" s="154"/>
-      <c r="I98" s="154"/>
-      <c r="J98" s="154"/>
-      <c r="K98" s="154"/>
-      <c r="L98" s="154"/>
-      <c r="M98" s="154"/>
-      <c r="N98" s="154"/>
-      <c r="O98" s="154"/>
-      <c r="P98" s="154"/>
-      <c r="T98" s="144"/>
-    </row>
-    <row r="99" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="154" t="s">
+      <c r="B104" s="165"/>
+      <c r="C104" s="165"/>
+      <c r="D104" s="165"/>
+      <c r="E104" s="165"/>
+      <c r="F104" s="165"/>
+      <c r="G104" s="165"/>
+      <c r="H104" s="165"/>
+      <c r="I104" s="165"/>
+      <c r="J104" s="165"/>
+      <c r="K104" s="165"/>
+      <c r="L104" s="165"/>
+      <c r="M104" s="165"/>
+      <c r="N104" s="165"/>
+      <c r="O104" s="165"/>
+      <c r="P104" s="165"/>
+      <c r="T104" s="142"/>
+    </row>
+    <row r="105" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="172" t="s">
         <v>270</v>
       </c>
-      <c r="B99" s="154"/>
-      <c r="C99" s="154"/>
-      <c r="D99" s="154"/>
-      <c r="E99" s="154"/>
-      <c r="F99" s="154"/>
-      <c r="G99" s="154"/>
-      <c r="H99" s="154"/>
-      <c r="I99" s="154"/>
-      <c r="J99" s="154"/>
-      <c r="K99" s="154"/>
-      <c r="L99" s="154"/>
-      <c r="M99" s="154"/>
-      <c r="N99" s="154"/>
-      <c r="O99" s="154"/>
-      <c r="P99" s="154"/>
-      <c r="T99" s="144"/>
-    </row>
-    <row r="100" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="154" t="s">
+      <c r="B105" s="172"/>
+      <c r="C105" s="172"/>
+      <c r="D105" s="172"/>
+      <c r="E105" s="172"/>
+      <c r="F105" s="172"/>
+      <c r="G105" s="172"/>
+      <c r="H105" s="172"/>
+      <c r="I105" s="172"/>
+      <c r="J105" s="172"/>
+      <c r="K105" s="172"/>
+      <c r="L105" s="172"/>
+      <c r="M105" s="172"/>
+      <c r="N105" s="172"/>
+      <c r="O105" s="172"/>
+      <c r="P105" s="172"/>
+      <c r="T105" s="142"/>
+    </row>
+    <row r="106" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B100" s="154"/>
-      <c r="C100" s="154"/>
-      <c r="D100" s="154"/>
-      <c r="E100" s="154"/>
-      <c r="F100" s="154"/>
-      <c r="G100" s="154"/>
-      <c r="H100" s="154"/>
-      <c r="I100" s="154"/>
-      <c r="J100" s="154"/>
-      <c r="K100" s="154"/>
-      <c r="L100" s="154"/>
-      <c r="M100" s="154"/>
-      <c r="N100" s="154"/>
-      <c r="O100" s="154"/>
-      <c r="P100" s="154"/>
-      <c r="T100" s="144"/>
-    </row>
-    <row r="101" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="155" t="s">
+      <c r="B106" s="171"/>
+      <c r="C106" s="171"/>
+      <c r="D106" s="171"/>
+      <c r="E106" s="171"/>
+      <c r="F106" s="171"/>
+      <c r="G106" s="171"/>
+      <c r="H106" s="171"/>
+      <c r="I106" s="171"/>
+      <c r="J106" s="171"/>
+      <c r="K106" s="171"/>
+      <c r="L106" s="171"/>
+      <c r="M106" s="171"/>
+      <c r="N106" s="171"/>
+      <c r="O106" s="171"/>
+      <c r="P106" s="171"/>
+      <c r="T106" s="142"/>
+    </row>
+    <row r="107" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="165" t="s">
         <v>272</v>
       </c>
-      <c r="B101" s="155"/>
-      <c r="C101" s="155"/>
-      <c r="D101" s="155"/>
-      <c r="E101" s="155"/>
-      <c r="F101" s="155"/>
-      <c r="G101" s="155"/>
-      <c r="H101" s="155"/>
-      <c r="I101" s="155"/>
-      <c r="J101" s="155"/>
-      <c r="K101" s="155"/>
-      <c r="L101" s="155"/>
-      <c r="M101" s="155"/>
-      <c r="N101" s="155"/>
-      <c r="O101" s="155"/>
-      <c r="P101" s="155"/>
-      <c r="T101" s="144"/>
-    </row>
-    <row r="102" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="153" t="s">
+      <c r="B107" s="165"/>
+      <c r="C107" s="165"/>
+      <c r="D107" s="165"/>
+      <c r="E107" s="165"/>
+      <c r="F107" s="165"/>
+      <c r="G107" s="165"/>
+      <c r="H107" s="165"/>
+      <c r="I107" s="165"/>
+      <c r="J107" s="165"/>
+      <c r="K107" s="165"/>
+      <c r="L107" s="165"/>
+      <c r="M107" s="165"/>
+      <c r="N107" s="165"/>
+      <c r="O107" s="165"/>
+      <c r="P107" s="165"/>
+      <c r="T107" s="142"/>
+    </row>
+    <row r="108" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="159" t="s">
         <v>273</v>
       </c>
-      <c r="B102" s="153"/>
-      <c r="C102" s="153"/>
-      <c r="D102" s="153"/>
-      <c r="E102" s="153"/>
-      <c r="F102" s="153"/>
-      <c r="G102" s="153"/>
-      <c r="H102" s="153"/>
-      <c r="I102" s="153"/>
-      <c r="J102" s="153"/>
-      <c r="K102" s="153"/>
-      <c r="L102" s="153"/>
-      <c r="M102" s="153"/>
-      <c r="N102" s="153"/>
-      <c r="O102" s="153"/>
-      <c r="P102" s="153"/>
-      <c r="T102" s="144"/>
-    </row>
-    <row r="103" spans="1:20" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="156" t="s">
-        <v>274</v>
-      </c>
-      <c r="B103" s="156"/>
-      <c r="C103" s="156"/>
-      <c r="D103" s="156"/>
-      <c r="E103" s="156"/>
-      <c r="F103" s="156"/>
-      <c r="G103" s="156"/>
-      <c r="H103" s="156"/>
-      <c r="I103" s="156"/>
-      <c r="J103" s="156"/>
-      <c r="K103" s="156"/>
-      <c r="L103" s="156"/>
-      <c r="M103" s="156"/>
-      <c r="N103" s="156"/>
-      <c r="O103" s="156"/>
-      <c r="P103" s="156"/>
-      <c r="T103" s="144"/>
-    </row>
-    <row r="104" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="153" t="s">
-        <v>275</v>
-      </c>
-      <c r="B104" s="153"/>
-      <c r="C104" s="153"/>
-      <c r="D104" s="153"/>
-      <c r="E104" s="153"/>
-      <c r="F104" s="153"/>
-      <c r="G104" s="153"/>
-      <c r="H104" s="153"/>
-      <c r="I104" s="153"/>
-      <c r="J104" s="153"/>
-      <c r="K104" s="153"/>
-      <c r="L104" s="153"/>
-      <c r="M104" s="153"/>
-      <c r="N104" s="153"/>
-      <c r="O104" s="153"/>
-      <c r="P104" s="153"/>
-      <c r="T104" s="144"/>
-    </row>
-    <row r="105" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="157" t="s">
-        <v>276</v>
-      </c>
-      <c r="B105" s="157"/>
-      <c r="C105" s="157"/>
-      <c r="D105" s="157"/>
-      <c r="E105" s="157"/>
-      <c r="F105" s="157"/>
-      <c r="G105" s="157"/>
-      <c r="H105" s="157"/>
-      <c r="I105" s="157"/>
-      <c r="J105" s="157"/>
-      <c r="K105" s="157"/>
-      <c r="L105" s="157"/>
-      <c r="M105" s="157"/>
-      <c r="N105" s="157"/>
-      <c r="O105" s="157"/>
-      <c r="P105" s="157"/>
-      <c r="T105" s="144"/>
-    </row>
-    <row r="106" spans="1:20" s="143" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="152" t="s">
-        <v>277</v>
-      </c>
-      <c r="B106" s="152"/>
-      <c r="C106" s="152"/>
-      <c r="D106" s="152"/>
-      <c r="E106" s="152"/>
-      <c r="F106" s="152"/>
-      <c r="G106" s="152"/>
-      <c r="H106" s="152"/>
-      <c r="I106" s="152"/>
-      <c r="J106" s="152"/>
-      <c r="K106" s="152"/>
-      <c r="L106" s="152"/>
-      <c r="M106" s="152"/>
-      <c r="N106" s="152"/>
-      <c r="O106" s="152"/>
-      <c r="P106" s="152"/>
-      <c r="T106" s="144"/>
-    </row>
-    <row r="107" spans="1:20" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="153" t="s">
-        <v>278</v>
-      </c>
-      <c r="B107" s="153"/>
-      <c r="C107" s="153"/>
-      <c r="D107" s="153"/>
-      <c r="E107" s="153"/>
-      <c r="F107" s="153"/>
-      <c r="G107" s="153"/>
-      <c r="H107" s="153"/>
-      <c r="I107" s="153"/>
-      <c r="J107" s="153"/>
-      <c r="K107" s="153"/>
-      <c r="L107" s="153"/>
-      <c r="M107" s="153"/>
-      <c r="N107" s="153"/>
-      <c r="O107" s="153"/>
-      <c r="P107" s="153"/>
-      <c r="T107" s="144"/>
-    </row>
-    <row r="108" spans="1:20" s="143" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="154" t="s">
-        <v>279</v>
-      </c>
-      <c r="B108" s="154"/>
-      <c r="C108" s="154"/>
-      <c r="D108" s="154"/>
-      <c r="E108" s="154"/>
-      <c r="F108" s="154"/>
-      <c r="G108" s="154"/>
-      <c r="H108" s="154"/>
-      <c r="I108" s="154"/>
-      <c r="J108" s="154"/>
-      <c r="K108" s="154"/>
-      <c r="L108" s="154"/>
-      <c r="M108" s="154"/>
-      <c r="N108" s="154"/>
-      <c r="O108" s="154"/>
-      <c r="P108" s="154"/>
-      <c r="T108" s="144"/>
+      <c r="B108" s="159"/>
+      <c r="C108" s="159"/>
+      <c r="D108" s="159"/>
+      <c r="E108" s="159"/>
+      <c r="F108" s="159"/>
+      <c r="G108" s="159"/>
+      <c r="H108" s="159"/>
+      <c r="I108" s="159"/>
+      <c r="J108" s="159"/>
+      <c r="K108" s="159"/>
+      <c r="L108" s="159"/>
+      <c r="M108" s="159"/>
+      <c r="N108" s="159"/>
+      <c r="O108" s="159"/>
+      <c r="P108" s="159"/>
+      <c r="T108" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A38:P38"/>
+    <mergeCell ref="A106:P106"/>
+    <mergeCell ref="A107:P107"/>
+    <mergeCell ref="A108:P108"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="A101:P101"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A103:P103"/>
+    <mergeCell ref="A104:P104"/>
+    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A99:P99"/>
+    <mergeCell ref="A88:P88"/>
+    <mergeCell ref="A89:P89"/>
+    <mergeCell ref="A90:P90"/>
+    <mergeCell ref="A91:P91"/>
+    <mergeCell ref="A92:P92"/>
+    <mergeCell ref="A93:P93"/>
+    <mergeCell ref="A94:P94"/>
+    <mergeCell ref="A95:P95"/>
+    <mergeCell ref="A96:P96"/>
+    <mergeCell ref="A97:P97"/>
+    <mergeCell ref="A98:P98"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="A77:P77"/>
+    <mergeCell ref="A78:P78"/>
+    <mergeCell ref="A79:P79"/>
+    <mergeCell ref="A80:P80"/>
+    <mergeCell ref="A81:P81"/>
+    <mergeCell ref="A82:P82"/>
+    <mergeCell ref="A83:P83"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A86:P86"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A66:P66"/>
+    <mergeCell ref="A67:P67"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="A69:P69"/>
+    <mergeCell ref="A70:P70"/>
+    <mergeCell ref="A71:P71"/>
+    <mergeCell ref="A72:P72"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A63:P63"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:P57"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="A62:P62"/>
     <mergeCell ref="A51:P51"/>
     <mergeCell ref="A40:P40"/>
     <mergeCell ref="A41:P41"/>
@@ -10053,170 +10552,119 @@
     <mergeCell ref="A48:P48"/>
     <mergeCell ref="A49:P49"/>
     <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A63:P63"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="A54:P54"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:P57"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="A62:P62"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="A66:P66"/>
-    <mergeCell ref="A67:P67"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="A69:P69"/>
-    <mergeCell ref="A70:P70"/>
-    <mergeCell ref="A71:P71"/>
-    <mergeCell ref="A72:P72"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A87:P87"/>
-    <mergeCell ref="A76:P76"/>
-    <mergeCell ref="A77:P77"/>
-    <mergeCell ref="A78:P78"/>
-    <mergeCell ref="A79:P79"/>
-    <mergeCell ref="A80:P80"/>
-    <mergeCell ref="A81:P81"/>
-    <mergeCell ref="A82:P82"/>
-    <mergeCell ref="A83:P83"/>
-    <mergeCell ref="A84:P84"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A99:P99"/>
-    <mergeCell ref="A88:P88"/>
-    <mergeCell ref="A89:P89"/>
-    <mergeCell ref="A90:P90"/>
-    <mergeCell ref="A91:P91"/>
-    <mergeCell ref="A92:P92"/>
-    <mergeCell ref="A93:P93"/>
-    <mergeCell ref="A94:P94"/>
-    <mergeCell ref="A95:P95"/>
-    <mergeCell ref="A96:P96"/>
-    <mergeCell ref="A97:P97"/>
-    <mergeCell ref="A98:P98"/>
-    <mergeCell ref="A106:P106"/>
-    <mergeCell ref="A107:P107"/>
-    <mergeCell ref="A108:P108"/>
-    <mergeCell ref="A100:P100"/>
-    <mergeCell ref="A101:P101"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A103:P103"/>
-    <mergeCell ref="A104:P104"/>
-    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A38:P38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="10" width="8.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="173" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="175" t="s">
+      <c r="C4" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="177" t="s">
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="177" t="s">
+      <c r="M4" s="176"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="178"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="180" t="s">
+    </row>
+    <row r="5" spans="1:15" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="174"/>
+      <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="176"/>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="179"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="O5" s="181"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="C6" s="11">
         <v>0</v>
@@ -10258,9 +10706,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="17">
         <v>0</v>
@@ -10302,9 +10750,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="17">
         <v>0</v>
@@ -10346,9 +10794,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
@@ -10390,9 +10838,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="17">
         <v>0</v>
@@ -10434,9 +10882,9 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
@@ -10478,9 +10926,9 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="17">
         <v>0</v>
@@ -10522,9 +10970,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="17">
         <v>86</v>
@@ -10566,9 +11014,9 @@
         <v>14644</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="17">
         <v>0</v>
@@ -10610,9 +11058,9 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="17">
         <v>59</v>
@@ -10654,9 +11102,9 @@
         <v>56534</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="17">
         <v>0</v>
@@ -10698,9 +11146,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="17">
         <v>24</v>
@@ -10742,9 +11190,9 @@
         <v>40111</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="17">
         <v>80</v>
@@ -10786,9 +11234,9 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="17">
         <v>0</v>
@@ -10830,9 +11278,9 @@
         <v>12267</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="17">
         <v>133</v>
@@ -10874,9 +11322,9 @@
         <v>33645</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="17">
         <v>0</v>
@@ -10918,9 +11366,9 @@
         <v>6147</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="17">
         <v>0</v>
@@ -10962,9 +11410,9 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="17">
         <v>57</v>
@@ -11006,9 +11454,9 @@
         <v>16421</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="17">
         <v>0</v>
@@ -11050,9 +11498,9 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="17">
         <v>0</v>
@@ -11094,9 +11542,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="17">
         <v>0</v>
@@ -11138,9 +11586,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="17">
         <v>0</v>
@@ -11182,9 +11630,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="17">
         <v>0</v>
@@ -11226,9 +11674,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="17">
         <v>0</v>
@@ -11270,9 +11718,9 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="17">
         <v>0</v>
@@ -11314,9 +11762,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="17">
         <v>0</v>
@@ -11358,9 +11806,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="17">
         <v>225</v>
@@ -11402,9 +11850,9 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="17">
         <v>0</v>
@@ -11446,9 +11894,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="17">
         <v>0</v>
@@ -11490,9 +11938,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="17">
         <v>0</v>
@@ -11534,9 +11982,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="17">
         <v>0</v>
@@ -11578,9 +12026,9 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="17">
         <v>0</v>
@@ -11622,9 +12070,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="17">
         <v>0</v>
@@ -11666,9 +12114,9 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="17">
         <v>0</v>
@@ -11710,9 +12158,9 @@
         <v>693</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="17">
         <v>50</v>
@@ -11754,9 +12202,9 @@
         <v>604</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="17">
         <v>26</v>
@@ -11798,9 +12246,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="17">
         <v>0</v>
@@ -11842,9 +12290,9 @@
         <v>499</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="17">
         <v>0</v>
@@ -11886,9 +12334,9 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
@@ -11931,9 +12379,9 @@
       </c>
       <c r="Q44" s="23"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="25">
         <v>740</v>
@@ -11976,9 +12424,9 @@
       </c>
       <c r="Q45" s="30"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="17">
         <v>0</v>
@@ -12020,9 +12468,9 @@
         <v>8634</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="17">
         <v>83</v>
@@ -12064,9 +12512,9 @@
         <v>5292</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="17">
         <v>101</v>
@@ -12108,9 +12556,9 @@
         <v>50897</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="17">
         <v>1020</v>
@@ -12152,9 +12600,9 @@
         <v>78680</v>
       </c>
     </row>
-    <row r="50" spans="2:15" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" s="17">
         <v>1165</v>
@@ -12196,9 +12644,9 @@
         <v>37518</v>
       </c>
     </row>
-    <row r="51" spans="2:15" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" s="17">
         <v>747</v>
@@ -12240,9 +12688,9 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C52" s="25">
         <v>3116</v>
@@ -12284,9 +12732,9 @@
         <v>195468</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="32">
         <v>13</v>
@@ -12328,9 +12776,9 @@
         <v>210331</v>
       </c>
     </row>
-    <row r="54" spans="2:15" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="25">
         <v>13</v>
@@ -12372,7 +12820,7 @@
         <v>210331</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="37"/>
       <c r="C55" s="38"/>
       <c r="D55" s="39"/>
@@ -12388,9 +12836,9 @@
       <c r="N55" s="41"/>
       <c r="O55" s="42"/>
     </row>
-    <row r="56" spans="2:15" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:15" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" s="44">
         <v>3869</v>
@@ -12432,19 +12880,19 @@
         <v>659858</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -12460,46 +12908,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="71"/>
       <c r="C3" s="71"/>
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="C4" s="72" t="s">
         <v>118</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>119</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="73">
         <v>0.21299999999999999</v>
       </c>
@@ -12511,25 +12959,25 @@
         <v>0.44899999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="70"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>Population!B13</f>
         <v>311582564</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="70"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="75">
         <f>A8/1000*C5</f>
         <v>139900.57123599999</v>
@@ -12542,45 +12990,45 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="78"/>
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D4" s="70"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="73">
         <v>286180</v>
       </c>
@@ -12591,15 +13039,15 @@
         <v>11162</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="73">
         <v>2007</v>
       </c>
@@ -12608,7 +13056,7 @@
         <v>301579895</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
         <v>2011</v>
       </c>
@@ -12617,27 +13065,27 @@
         <v>311582564</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="78"/>
       <c r="C11" s="78"/>
       <c r="D11" s="78"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D12" s="70"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="79">
         <f>A5*($B9/$B8)</f>
         <v>295671.89207198308</v>
@@ -12651,9 +13099,9 @@
         <v>11532.216295015289</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
+++ b/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\FoVObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\FoVObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1681509-6FE0-4FC8-8F41-C1769223F17D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="Taxis and Limos" sheetId="8" r:id="rId10"/>
     <sheet name="Population" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2336,7 +2335,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,###"/>
     <numFmt numFmtId="165" formatCode="\(\R\)\ #,##0"/>
@@ -2474,7 +2473,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2514,6 +2513,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3090,7 +3095,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3419,6 +3424,71 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3433,60 +3503,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3509,27 +3525,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Data_Sheet1 (2)_1" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Hed Side" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Hed Side_Sheet1 (2)_1" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Data_Sheet1 (2)_1" xfId="5"/>
+    <cellStyle name="Hed Side" xfId="3"/>
+    <cellStyle name="Hed Side_Sheet1 (2)_1" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Source Text" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Table Title" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Title-1" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Source Text" xfId="7"/>
+    <cellStyle name="Table Title" xfId="1"/>
+    <cellStyle name="Title-1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3620,23 +3626,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3672,23 +3661,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3864,26 +3836,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" customWidth="1"/>
+    <col min="2" max="2" width="100.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -3891,317 +3863,317 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="73">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="73">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="76" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="73">
         <v>2011</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="76" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="76" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="73">
         <v>2010</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="76" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" s="76" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" s="72" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="73" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="73">
         <v>2009</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" s="73" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B49" s="113" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B50" s="73"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B51" s="72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B52" s="73" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B53" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B54" s="73" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B55" s="113" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B56" s="73"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B57" s="72" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B58" s="73" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B59" s="73">
         <v>2012</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B60" s="73" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B61" s="113" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B55" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B61" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B49" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B28" r:id="rId1"/>
+    <hyperlink ref="B42" r:id="rId2"/>
+    <hyperlink ref="B55" r:id="rId3"/>
+    <hyperlink ref="B61" r:id="rId4"/>
+    <hyperlink ref="B49" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -4209,48 +4181,48 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="87.5703125" customWidth="1"/>
+    <col min="2" max="2" width="87.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="70"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="73">
         <v>233000</v>
       </c>
@@ -4261,18 +4233,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="115" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" customWidth="1"/>
+    <col min="3" max="3" width="22.73046875" style="115" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -4283,7 +4255,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="110">
         <v>2000</v>
       </c>
@@ -4294,7 +4266,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -4305,7 +4277,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="110">
         <v>2002</v>
       </c>
@@ -4316,7 +4288,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -4327,7 +4299,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="110">
         <v>2004</v>
       </c>
@@ -4338,7 +4310,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -4349,7 +4321,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="110">
         <v>2006</v>
       </c>
@@ -4360,7 +4332,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -4371,7 +4343,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="110">
         <v>2008</v>
       </c>
@@ -4382,7 +4354,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -4393,7 +4365,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="110">
         <v>2010</v>
       </c>
@@ -4404,7 +4376,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -4415,7 +4387,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -4426,7 +4398,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -4437,7 +4409,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -4449,7 +4421,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -4460,7 +4432,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -4471,7 +4443,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -4482,7 +4454,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -4493,7 +4465,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -4504,7 +4476,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -4515,7 +4487,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -4526,7 +4498,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -4537,7 +4509,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2023</v>
       </c>
@@ -4548,7 +4520,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2024</v>
       </c>
@@ -4559,7 +4531,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2025</v>
       </c>
@@ -4570,7 +4542,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2026</v>
       </c>
@@ -4581,7 +4553,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -4592,7 +4564,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2028</v>
       </c>
@@ -4603,7 +4575,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2029</v>
       </c>
@@ -4614,7 +4586,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2030</v>
       </c>
@@ -4625,7 +4597,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2031</v>
       </c>
@@ -4636,7 +4608,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2032</v>
       </c>
@@ -4647,7 +4619,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2033</v>
       </c>
@@ -4658,7 +4630,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2034</v>
       </c>
@@ -4669,7 +4641,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2035</v>
       </c>
@@ -4680,7 +4652,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2036</v>
       </c>
@@ -4691,7 +4663,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2037</v>
       </c>
@@ -4702,7 +4674,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2038</v>
       </c>
@@ -4713,7 +4685,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2039</v>
       </c>
@@ -4724,7 +4696,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2040</v>
       </c>
@@ -4735,7 +4707,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2041</v>
       </c>
@@ -4746,7 +4718,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2042</v>
       </c>
@@ -4757,7 +4729,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2043</v>
       </c>
@@ -4768,7 +4740,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2044</v>
       </c>
@@ -4779,7 +4751,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2045</v>
       </c>
@@ -4790,7 +4762,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2046</v>
       </c>
@@ -4801,7 +4773,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>2047</v>
       </c>
@@ -4812,7 +4784,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2048</v>
       </c>
@@ -4823,7 +4795,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>2049</v>
       </c>
@@ -4834,7 +4806,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2050</v>
       </c>
@@ -4845,7 +4817,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2051</v>
       </c>
@@ -4856,7 +4828,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2052</v>
       </c>
@@ -4867,7 +4839,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2053</v>
       </c>
@@ -4878,7 +4850,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2054</v>
       </c>
@@ -4889,7 +4861,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2055</v>
       </c>
@@ -4900,7 +4872,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2056</v>
       </c>
@@ -4911,7 +4883,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2057</v>
       </c>
@@ -4922,7 +4894,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2058</v>
       </c>
@@ -4933,7 +4905,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2059</v>
       </c>
@@ -4944,7 +4916,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2060</v>
       </c>
@@ -4961,33 +4933,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" customWidth="1"/>
-    <col min="3" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="65.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.3984375" customWidth="1"/>
+    <col min="3" max="4" width="16.3984375" customWidth="1"/>
+    <col min="5" max="6" width="16.86328125" customWidth="1"/>
+    <col min="7" max="7" width="65.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="120" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="120" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="116" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="184" t="s">
+      <c r="C1" s="154" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="118" t="s">
@@ -5003,7 +4975,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
@@ -5022,14 +4994,18 @@
         <f>1-SUM(C2:D2)</f>
         <v>0.99644288054967767</v>
       </c>
-      <c r="F2" s="182">
+      <c r="F2" s="152">
         <v>0</v>
       </c>
       <c r="G2" s="83" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I2" s="121">
+        <f>SUM(C2:F2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="82" t="s">
         <v>13</v>
       </c>
@@ -5051,8 +5027,12 @@
       <c r="G3" s="83" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I3" s="121">
+        <f t="shared" ref="I3:I13" si="0">SUM(C3:F3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="82" t="s">
         <v>15</v>
       </c>
@@ -5076,8 +5056,12 @@
       <c r="G4" s="83" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="121">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="82" t="s">
         <v>17</v>
       </c>
@@ -5099,8 +5083,12 @@
       <c r="G5" s="83" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I5" s="121">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="96" t="s">
         <v>19</v>
       </c>
@@ -5122,8 +5110,12 @@
       <c r="G6" s="101" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="121">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="84" t="s">
         <v>155</v>
       </c>
@@ -5141,14 +5133,18 @@
         <f>1-C7</f>
         <v>0.99843636087933096</v>
       </c>
-      <c r="F7" s="183">
+      <c r="F7" s="153">
         <v>0</v>
       </c>
       <c r="G7" s="83" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I7" s="121">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="102" t="s">
         <v>3</v>
       </c>
@@ -5165,13 +5161,17 @@
         <v>0</v>
       </c>
       <c r="F8" s="91">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="83" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="I8" s="121">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="82" t="s">
         <v>14</v>
       </c>
@@ -5182,20 +5182,23 @@
         <v>0.1</v>
       </c>
       <c r="D9" s="145">
-        <f>1-C9</f>
         <v>0.9</v>
       </c>
       <c r="E9" s="91">
         <v>0</v>
       </c>
       <c r="F9" s="91">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="83" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I9" s="185">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="82" t="s">
         <v>16</v>
       </c>
@@ -5219,8 +5222,12 @@
       <c r="G10" s="83" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="121">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="82" t="s">
         <v>18</v>
       </c>
@@ -5242,8 +5249,12 @@
       <c r="G11" s="83" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11" s="121">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="96" t="s">
         <v>20</v>
       </c>
@@ -5251,10 +5262,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="98">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D12" s="99">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E12" s="100">
         <v>0</v>
@@ -5265,8 +5276,12 @@
       <c r="G12" s="101" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="185">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="104" t="s">
         <v>157</v>
       </c>
@@ -5288,13 +5303,17 @@
       <c r="G13" s="87" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="121">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -5305,7 +5324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5315,47 +5334,47 @@
       <selection activeCell="B2" sqref="B2:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" customWidth="1"/>
+    <col min="2" max="4" width="15.73046875" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="180" t="s">
+    <row r="1" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+      <c r="A1" s="150" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="151" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="181" t="s">
+      <c r="C1" s="151" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="181" t="s">
+      <c r="D1" s="151" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="181" t="s">
+      <c r="E1" s="151" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="181" t="s">
+      <c r="F1" s="151" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="181" t="s">
+      <c r="G1" s="151" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="181" t="s">
+      <c r="H1" s="151" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="181" t="s">
+      <c r="I1" s="151" t="s">
         <v>299</v>
       </c>
-      <c r="J1" s="181" t="s">
+      <c r="J1" s="151" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -5395,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -5435,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -5475,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -5515,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -5555,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -5601,57 +5620,57 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" customWidth="1"/>
+    <col min="2" max="4" width="15.73046875" customWidth="1"/>
+    <col min="6" max="6" width="10.86328125" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="180" t="s">
+    <row r="1" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+      <c r="A1" s="150" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="151" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="181" t="s">
+      <c r="C1" s="151" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="181" t="s">
+      <c r="D1" s="151" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="181" t="s">
+      <c r="E1" s="151" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="181" t="s">
+      <c r="F1" s="151" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="181" t="s">
+      <c r="G1" s="151" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="181" t="s">
+      <c r="H1" s="151" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="181" t="s">
+      <c r="I1" s="151" t="s">
         <v>299</v>
       </c>
-      <c r="J1" s="181" t="s">
+      <c r="J1" s="151" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -5672,26 +5691,30 @@
       </c>
       <c r="F2" s="121">
         <f>Results!$F8/5</f>
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G2" s="121">
-        <f>F2</f>
-        <v>0.04</v>
+        <f t="shared" ref="G2:G7" si="0">F2</f>
+        <v>0</v>
       </c>
       <c r="H2" s="121">
-        <f t="shared" ref="H2:J2" si="0">G2</f>
-        <v>0.04</v>
+        <f t="shared" ref="H2:J2" si="1">G2</f>
+        <v>0</v>
       </c>
       <c r="I2" s="121">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J2" s="121">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="121">
+        <f>SUM(B2:J2)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -5712,26 +5735,30 @@
       </c>
       <c r="F3" s="121">
         <f>Results!$F9/5</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="121">
-        <f>F3</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H3" s="121">
-        <f t="shared" ref="H3:J3" si="1">G3</f>
-        <v>0.1</v>
+        <f t="shared" ref="H3:J3" si="2">G3</f>
+        <v>0</v>
       </c>
       <c r="I3" s="121">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J3" s="121">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="121">
+        <f t="shared" ref="L3:L7" si="3">SUM(B3:J3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -5755,23 +5782,27 @@
         <v>0</v>
       </c>
       <c r="G4" s="121">
-        <f>F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="121">
-        <f t="shared" ref="H4:J4" si="2">G4</f>
+        <f t="shared" ref="H4:J4" si="4">G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J4" s="121">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="121">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -5795,33 +5826,37 @@
         <v>0</v>
       </c>
       <c r="G5" s="121">
-        <f>F5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="121">
-        <f t="shared" ref="H5:J5" si="3">G5</f>
+        <f t="shared" ref="H5:J5" si="5">G5</f>
         <v>0</v>
       </c>
       <c r="I5" s="121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="121">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>184</v>
       </c>
       <c r="B6" s="121">
         <f>Results!C12</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="121">
         <f>Results!D12</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D6" s="121">
         <f>Results!E12</f>
@@ -5835,23 +5870,27 @@
         <v>0.04</v>
       </c>
       <c r="G6" s="121">
-        <f>F6</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="H6" s="121">
-        <f t="shared" ref="H6:J6" si="4">G6</f>
+        <f t="shared" ref="H6:J6" si="6">G6</f>
         <v>0.04</v>
       </c>
       <c r="I6" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.04</v>
       </c>
       <c r="J6" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="121">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -5875,20 +5914,24 @@
         <v>0</v>
       </c>
       <c r="G7" s="121">
-        <f>F7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="121">
-        <f t="shared" ref="H7:J7" si="5">G7</f>
+        <f t="shared" ref="H7:J7" si="7">G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J7" s="121">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="121">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5897,7 +5940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -5905,9 +5948,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>0.14000000000000001</v>
       </c>
@@ -5915,7 +5958,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.86</v>
       </c>
@@ -5929,59 +5972,59 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE108"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="A19" activeCellId="1" sqref="A16:XFD16 A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" style="122" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" style="122" customWidth="1"/>
-    <col min="4" max="19" width="10.7109375" style="122" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="143" customWidth="1"/>
-    <col min="21" max="31" width="10.7109375" style="122" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="122"/>
+    <col min="1" max="1" width="50.59765625" style="122" customWidth="1"/>
+    <col min="2" max="3" width="9.73046875" style="122" customWidth="1"/>
+    <col min="4" max="19" width="10.73046875" style="122" customWidth="1"/>
+    <col min="20" max="20" width="10.73046875" style="143" customWidth="1"/>
+    <col min="21" max="31" width="10.73046875" style="122" customWidth="1"/>
+    <col min="32" max="16384" width="9.1328125" style="122"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="151" t="s">
+    <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-    </row>
-    <row r="2" spans="1:31" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+    </row>
+    <row r="2" spans="1:31" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="50"/>
       <c r="B2" s="51">
         <v>1960</v>
@@ -6074,7 +6117,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="53" t="s">
         <v>95</v>
       </c>
@@ -6109,7 +6152,7 @@
       <c r="AD3" s="55"/>
       <c r="AE3" s="124"/>
     </row>
-    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="56" t="s">
         <v>96</v>
       </c>
@@ -6204,7 +6247,7 @@
         <v>6733</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="56" t="s">
         <v>97</v>
       </c>
@@ -6299,7 +6342,7 @@
         <v>199927</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="53" t="s">
         <v>99</v>
       </c>
@@ -6422,7 +6465,7 @@
         <v>255876822.00000003</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="56" t="s">
         <v>189</v>
       </c>
@@ -6517,7 +6560,7 @@
         <v>184497490.31559649</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="56" t="s">
         <v>191</v>
       </c>
@@ -6612,7 +6655,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="56" t="s">
         <v>100</v>
       </c>
@@ -6707,7 +6750,7 @@
         <v>8404687</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="56" t="s">
         <v>192</v>
       </c>
@@ -6802,7 +6845,7 @@
         <v>51512739.866532281</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="56" t="s">
         <v>193</v>
       </c>
@@ -6897,7 +6940,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="61" t="s">
         <v>194</v>
       </c>
@@ -6992,7 +7035,7 @@
         <v>8126007.221129314</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="56" t="s">
         <v>195</v>
       </c>
@@ -7087,7 +7130,7 @@
         <v>2471348.7033206243</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="56" t="s">
         <v>101</v>
       </c>
@@ -7182,7 +7225,7 @@
         <v>864548.89342128637</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="62" t="s">
         <v>196</v>
       </c>
@@ -7217,7 +7260,7 @@
       <c r="AD15" s="55"/>
       <c r="AE15" s="129"/>
     </row>
-    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="56" t="s">
         <v>197</v>
       </c>
@@ -7312,7 +7355,7 @@
         <v>62576</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56" t="s">
         <v>198</v>
       </c>
@@ -7407,7 +7450,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="63" t="s">
         <v>102</v>
       </c>
@@ -7502,7 +7545,7 @@
         <v>10380</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="56" t="s">
         <v>103</v>
       </c>
@@ -7597,7 +7640,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="56" t="s">
         <v>104</v>
       </c>
@@ -7692,7 +7735,7 @@
         <v>7150</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="56" t="s">
         <v>199</v>
       </c>
@@ -7787,7 +7830,7 @@
         <v>27543</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="56" t="s">
         <v>200</v>
       </c>
@@ -7882,7 +7925,7 @@
         <v>25930</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="53" t="s">
         <v>105</v>
       </c>
@@ -7917,7 +7960,7 @@
       <c r="AD23" s="55"/>
       <c r="AE23" s="129"/>
     </row>
-    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="56" t="s">
         <v>106</v>
       </c>
@@ -8012,7 +8055,7 @@
         <v>373838</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="56" t="s">
         <v>107</v>
       </c>
@@ -8107,7 +8150,7 @@
         <v>25033</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="56" t="s">
         <v>108</v>
       </c>
@@ -8202,7 +8245,7 @@
         <v>88122</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="56" t="s">
         <v>109</v>
       </c>
@@ -8297,7 +8340,7 @@
         <v>873679</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
         <v>110</v>
       </c>
@@ -8392,7 +8435,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
         <v>111</v>
       </c>
@@ -8487,7 +8530,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="53" t="s">
         <v>112</v>
       </c>
@@ -8522,7 +8565,7 @@
       <c r="AD30" s="54"/>
       <c r="AE30" s="129"/>
     </row>
-    <row r="31" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
         <v>201</v>
       </c>
@@ -8617,7 +8660,7 @@
         <v>31081</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
         <v>202</v>
       </c>
@@ -8712,7 +8755,7 @@
         <v>8918</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="64" t="s">
         <v>203</v>
       </c>
@@ -8807,7 +8850,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="65" t="s">
         <v>204</v>
       </c>
@@ -8902,25 +8945,25 @@
         <v>12013496</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="152" t="s">
+    <row r="35" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="175" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="152"/>
-      <c r="L35" s="152"/>
-      <c r="M35" s="152"/>
-      <c r="N35" s="152"/>
-      <c r="O35" s="152"/>
-      <c r="P35" s="152"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="175"/>
+      <c r="L35" s="175"/>
+      <c r="M35" s="175"/>
+      <c r="N35" s="175"/>
+      <c r="O35" s="175"/>
+      <c r="P35" s="175"/>
       <c r="Q35" s="68"/>
       <c r="R35" s="68"/>
       <c r="S35" s="68"/>
@@ -8936,1562 +8979,1607 @@
       <c r="AC35" s="68"/>
       <c r="AE35" s="122"/>
     </row>
-    <row r="36" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="153"/>
-      <c r="B36" s="153"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
+    <row r="36" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="176"/>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="176"/>
+      <c r="K36" s="176"/>
+      <c r="L36" s="176"/>
+      <c r="M36" s="176"/>
+      <c r="N36" s="176"/>
+      <c r="O36" s="176"/>
+      <c r="P36" s="176"/>
       <c r="Q36" s="135"/>
       <c r="R36" s="136"/>
       <c r="S36" s="136"/>
       <c r="T36" s="137"/>
     </row>
-    <row r="37" spans="1:31" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="154" t="s">
+    <row r="37" spans="1:31" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="177" t="s">
         <v>206</v>
       </c>
-      <c r="B37" s="154"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="154"/>
-      <c r="K37" s="154"/>
-      <c r="L37" s="154"/>
-      <c r="M37" s="154"/>
-      <c r="N37" s="154"/>
-      <c r="O37" s="154"/>
-      <c r="P37" s="154"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="177"/>
+      <c r="L37" s="177"/>
+      <c r="M37" s="177"/>
+      <c r="N37" s="177"/>
+      <c r="O37" s="177"/>
+      <c r="P37" s="177"/>
       <c r="Q37" s="138"/>
       <c r="R37" s="138"/>
       <c r="S37" s="138"/>
       <c r="T37" s="139"/>
     </row>
-    <row r="38" spans="1:31" s="140" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="155" t="s">
+    <row r="38" spans="1:31" s="140" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="172" t="s">
         <v>207</v>
       </c>
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="155"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="155"/>
-      <c r="P38" s="155"/>
+      <c r="B38" s="172"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="172"/>
+      <c r="L38" s="172"/>
+      <c r="M38" s="172"/>
+      <c r="N38" s="172"/>
+      <c r="O38" s="172"/>
+      <c r="P38" s="172"/>
       <c r="Q38" s="138"/>
       <c r="R38" s="138"/>
       <c r="S38" s="138"/>
       <c r="T38" s="139"/>
     </row>
-    <row r="39" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="150" t="s">
+    <row r="39" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="173" t="s">
         <v>208</v>
       </c>
-      <c r="B39" s="150"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
-      <c r="N39" s="150"/>
-      <c r="O39" s="150"/>
-      <c r="P39" s="150"/>
+      <c r="B39" s="173"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="173"/>
+      <c r="K39" s="173"/>
+      <c r="L39" s="173"/>
+      <c r="M39" s="173"/>
+      <c r="N39" s="173"/>
+      <c r="O39" s="173"/>
+      <c r="P39" s="173"/>
       <c r="Q39" s="138"/>
       <c r="R39" s="138"/>
       <c r="S39" s="138"/>
       <c r="T39" s="139"/>
     </row>
-    <row r="40" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="157" t="s">
+    <row r="40" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="171" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="157"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="157"/>
-      <c r="L40" s="157"/>
-      <c r="M40" s="157"/>
-      <c r="N40" s="157"/>
-      <c r="O40" s="157"/>
-      <c r="P40" s="157"/>
+      <c r="B40" s="171"/>
+      <c r="C40" s="171"/>
+      <c r="D40" s="171"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="171"/>
+      <c r="K40" s="171"/>
+      <c r="L40" s="171"/>
+      <c r="M40" s="171"/>
+      <c r="N40" s="171"/>
+      <c r="O40" s="171"/>
+      <c r="P40" s="171"/>
       <c r="Q40" s="138"/>
       <c r="R40" s="138"/>
       <c r="S40" s="138"/>
       <c r="T40" s="139"/>
     </row>
-    <row r="41" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="157" t="s">
+    <row r="41" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="171" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="157"/>
-      <c r="C41" s="157"/>
-      <c r="D41" s="157"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="157"/>
-      <c r="K41" s="157"/>
-      <c r="L41" s="157"/>
-      <c r="M41" s="157"/>
-      <c r="N41" s="157"/>
-      <c r="O41" s="157"/>
-      <c r="P41" s="157"/>
+      <c r="B41" s="171"/>
+      <c r="C41" s="171"/>
+      <c r="D41" s="171"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="171"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="171"/>
+      <c r="I41" s="171"/>
+      <c r="J41" s="171"/>
+      <c r="K41" s="171"/>
+      <c r="L41" s="171"/>
+      <c r="M41" s="171"/>
+      <c r="N41" s="171"/>
+      <c r="O41" s="171"/>
+      <c r="P41" s="171"/>
       <c r="Q41" s="138"/>
       <c r="R41" s="138"/>
       <c r="S41" s="138"/>
       <c r="T41" s="139"/>
     </row>
-    <row r="42" spans="1:31" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="155" t="s">
+    <row r="42" spans="1:31" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="172" t="s">
         <v>211</v>
       </c>
-      <c r="B42" s="155"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155"/>
-      <c r="L42" s="155"/>
-      <c r="M42" s="155"/>
-      <c r="N42" s="155"/>
-      <c r="O42" s="155"/>
-      <c r="P42" s="155"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
+      <c r="G42" s="172"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="172"/>
+      <c r="K42" s="172"/>
+      <c r="L42" s="172"/>
+      <c r="M42" s="172"/>
+      <c r="N42" s="172"/>
+      <c r="O42" s="172"/>
+      <c r="P42" s="172"/>
       <c r="T42" s="139"/>
     </row>
-    <row r="43" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="150" t="s">
+    <row r="43" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="173" t="s">
         <v>212</v>
       </c>
-      <c r="B43" s="150"/>
-      <c r="C43" s="150"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
-      <c r="N43" s="150"/>
-      <c r="O43" s="150"/>
-      <c r="P43" s="150"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="173"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="173"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="173"/>
+      <c r="J43" s="173"/>
+      <c r="K43" s="173"/>
+      <c r="L43" s="173"/>
+      <c r="M43" s="173"/>
+      <c r="N43" s="173"/>
+      <c r="O43" s="173"/>
+      <c r="P43" s="173"/>
       <c r="T43" s="139"/>
     </row>
-    <row r="44" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="150" t="s">
+    <row r="44" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="173" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="150"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="150"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="150"/>
-      <c r="K44" s="150"/>
-      <c r="L44" s="150"/>
-      <c r="M44" s="150"/>
-      <c r="N44" s="150"/>
-      <c r="O44" s="150"/>
-      <c r="P44" s="150"/>
+      <c r="B44" s="173"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="173"/>
+      <c r="E44" s="173"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="173"/>
+      <c r="H44" s="173"/>
+      <c r="I44" s="173"/>
+      <c r="J44" s="173"/>
+      <c r="K44" s="173"/>
+      <c r="L44" s="173"/>
+      <c r="M44" s="173"/>
+      <c r="N44" s="173"/>
+      <c r="O44" s="173"/>
+      <c r="P44" s="173"/>
       <c r="T44" s="139"/>
     </row>
-    <row r="45" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="158" t="s">
+    <row r="45" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="164" t="s">
         <v>214</v>
       </c>
-      <c r="B45" s="158"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="158"/>
-      <c r="J45" s="158"/>
-      <c r="K45" s="158"/>
-      <c r="L45" s="158"/>
-      <c r="M45" s="158"/>
-      <c r="N45" s="158"/>
-      <c r="O45" s="158"/>
-      <c r="P45" s="158"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="164"/>
+      <c r="I45" s="164"/>
+      <c r="J45" s="164"/>
+      <c r="K45" s="164"/>
+      <c r="L45" s="164"/>
+      <c r="M45" s="164"/>
+      <c r="N45" s="164"/>
+      <c r="O45" s="164"/>
+      <c r="P45" s="164"/>
       <c r="T45" s="139"/>
     </row>
-    <row r="46" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="157" t="s">
+    <row r="46" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="171" t="s">
         <v>215</v>
       </c>
-      <c r="B46" s="157"/>
-      <c r="C46" s="157"/>
-      <c r="D46" s="157"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="157"/>
-      <c r="H46" s="157"/>
-      <c r="I46" s="157"/>
-      <c r="J46" s="157"/>
-      <c r="K46" s="157"/>
-      <c r="L46" s="157"/>
-      <c r="M46" s="157"/>
-      <c r="N46" s="157"/>
-      <c r="O46" s="157"/>
-      <c r="P46" s="157"/>
+      <c r="B46" s="171"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="171"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="171"/>
+      <c r="J46" s="171"/>
+      <c r="K46" s="171"/>
+      <c r="L46" s="171"/>
+      <c r="M46" s="171"/>
+      <c r="N46" s="171"/>
+      <c r="O46" s="171"/>
+      <c r="P46" s="171"/>
       <c r="T46" s="139"/>
     </row>
-    <row r="47" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="157" t="s">
+    <row r="47" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="171" t="s">
         <v>216</v>
       </c>
-      <c r="B47" s="157"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="157"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157"/>
-      <c r="I47" s="157"/>
-      <c r="J47" s="157"/>
-      <c r="K47" s="157"/>
-      <c r="L47" s="157"/>
-      <c r="M47" s="157"/>
-      <c r="N47" s="157"/>
-      <c r="O47" s="157"/>
-      <c r="P47" s="157"/>
+      <c r="B47" s="171"/>
+      <c r="C47" s="171"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="171"/>
+      <c r="F47" s="171"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="171"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="171"/>
+      <c r="K47" s="171"/>
+      <c r="L47" s="171"/>
+      <c r="M47" s="171"/>
+      <c r="N47" s="171"/>
+      <c r="O47" s="171"/>
+      <c r="P47" s="171"/>
       <c r="T47" s="139"/>
     </row>
-    <row r="48" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="157" t="s">
+    <row r="48" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="171" t="s">
         <v>217</v>
       </c>
-      <c r="B48" s="157"/>
-      <c r="C48" s="157"/>
-      <c r="D48" s="157"/>
-      <c r="E48" s="157"/>
-      <c r="F48" s="157"/>
-      <c r="G48" s="157"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="157"/>
-      <c r="J48" s="157"/>
-      <c r="K48" s="157"/>
-      <c r="L48" s="157"/>
-      <c r="M48" s="157"/>
-      <c r="N48" s="157"/>
-      <c r="O48" s="157"/>
-      <c r="P48" s="157"/>
+      <c r="B48" s="171"/>
+      <c r="C48" s="171"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="171"/>
+      <c r="F48" s="171"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="171"/>
+      <c r="I48" s="171"/>
+      <c r="J48" s="171"/>
+      <c r="K48" s="171"/>
+      <c r="L48" s="171"/>
+      <c r="M48" s="171"/>
+      <c r="N48" s="171"/>
+      <c r="O48" s="171"/>
+      <c r="P48" s="171"/>
       <c r="T48" s="139"/>
     </row>
-    <row r="49" spans="1:20" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="157" t="s">
+    <row r="49" spans="1:20" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="171" t="s">
         <v>218</v>
       </c>
-      <c r="B49" s="157"/>
-      <c r="C49" s="157"/>
-      <c r="D49" s="157"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="157"/>
-      <c r="H49" s="157"/>
-      <c r="I49" s="157"/>
-      <c r="J49" s="157"/>
-      <c r="K49" s="157"/>
-      <c r="L49" s="157"/>
-      <c r="M49" s="157"/>
-      <c r="N49" s="157"/>
-      <c r="O49" s="157"/>
-      <c r="P49" s="157"/>
+      <c r="B49" s="171"/>
+      <c r="C49" s="171"/>
+      <c r="D49" s="171"/>
+      <c r="E49" s="171"/>
+      <c r="F49" s="171"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="171"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="171"/>
+      <c r="K49" s="171"/>
+      <c r="L49" s="171"/>
+      <c r="M49" s="171"/>
+      <c r="N49" s="171"/>
+      <c r="O49" s="171"/>
+      <c r="P49" s="171"/>
       <c r="T49" s="139"/>
     </row>
-    <row r="50" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="157" t="s">
+    <row r="50" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="171" t="s">
         <v>219</v>
       </c>
-      <c r="B50" s="157"/>
-      <c r="C50" s="157"/>
-      <c r="D50" s="157"/>
-      <c r="E50" s="157"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="157"/>
-      <c r="H50" s="157"/>
-      <c r="I50" s="157"/>
-      <c r="J50" s="157"/>
-      <c r="K50" s="157"/>
-      <c r="L50" s="157"/>
-      <c r="M50" s="157"/>
-      <c r="N50" s="157"/>
-      <c r="O50" s="157"/>
-      <c r="P50" s="157"/>
+      <c r="B50" s="171"/>
+      <c r="C50" s="171"/>
+      <c r="D50" s="171"/>
+      <c r="E50" s="171"/>
+      <c r="F50" s="171"/>
+      <c r="G50" s="171"/>
+      <c r="H50" s="171"/>
+      <c r="I50" s="171"/>
+      <c r="J50" s="171"/>
+      <c r="K50" s="171"/>
+      <c r="L50" s="171"/>
+      <c r="M50" s="171"/>
+      <c r="N50" s="171"/>
+      <c r="O50" s="171"/>
+      <c r="P50" s="171"/>
       <c r="T50" s="139"/>
     </row>
-    <row r="51" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="156"/>
-      <c r="B51" s="156"/>
-      <c r="C51" s="156"/>
-      <c r="D51" s="156"/>
-      <c r="E51" s="156"/>
-      <c r="F51" s="156"/>
-      <c r="G51" s="156"/>
-      <c r="H51" s="156"/>
-      <c r="I51" s="156"/>
-      <c r="J51" s="156"/>
-      <c r="K51" s="156"/>
-      <c r="L51" s="156"/>
-      <c r="M51" s="156"/>
-      <c r="N51" s="156"/>
-      <c r="O51" s="156"/>
-      <c r="P51" s="156"/>
+    <row r="51" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="170"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
+      <c r="E51" s="170"/>
+      <c r="F51" s="170"/>
+      <c r="G51" s="170"/>
+      <c r="H51" s="170"/>
+      <c r="I51" s="170"/>
+      <c r="J51" s="170"/>
+      <c r="K51" s="170"/>
+      <c r="L51" s="170"/>
+      <c r="M51" s="170"/>
+      <c r="N51" s="170"/>
+      <c r="O51" s="170"/>
+      <c r="P51" s="170"/>
       <c r="T51" s="142"/>
     </row>
-    <row r="52" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="160" t="s">
+    <row r="52" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="163" t="s">
         <v>220</v>
       </c>
-      <c r="B52" s="160"/>
-      <c r="C52" s="160"/>
-      <c r="D52" s="160"/>
-      <c r="E52" s="160"/>
-      <c r="F52" s="160"/>
-      <c r="G52" s="160"/>
-      <c r="H52" s="160"/>
-      <c r="I52" s="160"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="160"/>
-      <c r="L52" s="160"/>
-      <c r="M52" s="160"/>
-      <c r="N52" s="160"/>
-      <c r="O52" s="160"/>
-      <c r="P52" s="160"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
+      <c r="E52" s="163"/>
+      <c r="F52" s="163"/>
+      <c r="G52" s="163"/>
+      <c r="H52" s="163"/>
+      <c r="I52" s="163"/>
+      <c r="J52" s="163"/>
+      <c r="K52" s="163"/>
+      <c r="L52" s="163"/>
+      <c r="M52" s="163"/>
+      <c r="N52" s="163"/>
+      <c r="O52" s="163"/>
+      <c r="P52" s="163"/>
       <c r="T52" s="139"/>
     </row>
-    <row r="53" spans="1:20" s="140" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="158" t="s">
+    <row r="53" spans="1:20" s="140" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="B53" s="158"/>
-      <c r="C53" s="158"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="158"/>
-      <c r="F53" s="158"/>
-      <c r="G53" s="158"/>
-      <c r="H53" s="158"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="158"/>
-      <c r="K53" s="158"/>
-      <c r="L53" s="158"/>
-      <c r="M53" s="158"/>
-      <c r="N53" s="158"/>
-      <c r="O53" s="158"/>
-      <c r="P53" s="158"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="164"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="164"/>
+      <c r="H53" s="164"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="164"/>
+      <c r="K53" s="164"/>
+      <c r="L53" s="164"/>
+      <c r="M53" s="164"/>
+      <c r="N53" s="164"/>
+      <c r="O53" s="164"/>
+      <c r="P53" s="164"/>
       <c r="T53" s="139"/>
     </row>
-    <row r="54" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="161" t="s">
+    <row r="54" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="165" t="s">
         <v>222</v>
       </c>
-      <c r="B54" s="161"/>
-      <c r="C54" s="161"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="161"/>
-      <c r="K54" s="161"/>
-      <c r="L54" s="161"/>
-      <c r="M54" s="161"/>
-      <c r="N54" s="161"/>
-      <c r="O54" s="161"/>
-      <c r="P54" s="161"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
+      <c r="E54" s="165"/>
+      <c r="F54" s="165"/>
+      <c r="G54" s="165"/>
+      <c r="H54" s="165"/>
+      <c r="I54" s="165"/>
+      <c r="J54" s="165"/>
+      <c r="K54" s="165"/>
+      <c r="L54" s="165"/>
+      <c r="M54" s="165"/>
+      <c r="N54" s="165"/>
+      <c r="O54" s="165"/>
+      <c r="P54" s="165"/>
       <c r="T54" s="139"/>
     </row>
-    <row r="55" spans="1:20" s="140" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="162" t="s">
+    <row r="55" spans="1:20" s="140" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="166" t="s">
         <v>223</v>
       </c>
-      <c r="B55" s="162"/>
-      <c r="C55" s="162"/>
-      <c r="D55" s="162"/>
-      <c r="E55" s="162"/>
-      <c r="F55" s="162"/>
-      <c r="G55" s="162"/>
-      <c r="H55" s="162"/>
-      <c r="I55" s="162"/>
-      <c r="J55" s="162"/>
-      <c r="K55" s="162"/>
-      <c r="L55" s="162"/>
-      <c r="M55" s="162"/>
-      <c r="N55" s="162"/>
-      <c r="O55" s="162"/>
-      <c r="P55" s="162"/>
+      <c r="B55" s="166"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="166"/>
+      <c r="E55" s="166"/>
+      <c r="F55" s="166"/>
+      <c r="G55" s="166"/>
+      <c r="H55" s="166"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="166"/>
+      <c r="K55" s="166"/>
+      <c r="L55" s="166"/>
+      <c r="M55" s="166"/>
+      <c r="N55" s="166"/>
+      <c r="O55" s="166"/>
+      <c r="P55" s="166"/>
       <c r="T55" s="139"/>
     </row>
-    <row r="56" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="161" t="s">
+    <row r="56" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="165" t="s">
         <v>224</v>
       </c>
-      <c r="B56" s="161"/>
-      <c r="C56" s="161"/>
-      <c r="D56" s="161"/>
-      <c r="E56" s="161"/>
-      <c r="F56" s="161"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="161"/>
-      <c r="J56" s="161"/>
-      <c r="K56" s="161"/>
-      <c r="L56" s="161"/>
-      <c r="M56" s="161"/>
-      <c r="N56" s="161"/>
-      <c r="O56" s="161"/>
-      <c r="P56" s="161"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="165"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="165"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="165"/>
+      <c r="L56" s="165"/>
+      <c r="M56" s="165"/>
+      <c r="N56" s="165"/>
+      <c r="O56" s="165"/>
+      <c r="P56" s="165"/>
       <c r="T56" s="142"/>
     </row>
-    <row r="57" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="161" t="s">
+    <row r="57" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="165" t="s">
         <v>225</v>
       </c>
-      <c r="B57" s="161"/>
-      <c r="C57" s="161"/>
-      <c r="D57" s="161"/>
-      <c r="E57" s="161"/>
-      <c r="F57" s="161"/>
-      <c r="G57" s="161"/>
-      <c r="H57" s="161"/>
-      <c r="I57" s="161"/>
-      <c r="J57" s="161"/>
-      <c r="K57" s="161"/>
-      <c r="L57" s="161"/>
-      <c r="M57" s="161"/>
-      <c r="N57" s="161"/>
-      <c r="O57" s="161"/>
-      <c r="P57" s="161"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="165"/>
+      <c r="F57" s="165"/>
+      <c r="G57" s="165"/>
+      <c r="H57" s="165"/>
+      <c r="I57" s="165"/>
+      <c r="J57" s="165"/>
+      <c r="K57" s="165"/>
+      <c r="L57" s="165"/>
+      <c r="M57" s="165"/>
+      <c r="N57" s="165"/>
+      <c r="O57" s="165"/>
+      <c r="P57" s="165"/>
       <c r="T57" s="142"/>
     </row>
-    <row r="58" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="163"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
-      <c r="E58" s="163"/>
-      <c r="F58" s="163"/>
-      <c r="G58" s="163"/>
-      <c r="H58" s="163"/>
-      <c r="I58" s="163"/>
-      <c r="J58" s="163"/>
-      <c r="K58" s="163"/>
-      <c r="L58" s="163"/>
-      <c r="M58" s="163"/>
-      <c r="N58" s="163"/>
-      <c r="O58" s="163"/>
-      <c r="P58" s="163"/>
+    <row r="58" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="167"/>
+      <c r="B58" s="167"/>
+      <c r="C58" s="167"/>
+      <c r="D58" s="167"/>
+      <c r="E58" s="167"/>
+      <c r="F58" s="167"/>
+      <c r="G58" s="167"/>
+      <c r="H58" s="167"/>
+      <c r="I58" s="167"/>
+      <c r="J58" s="167"/>
+      <c r="K58" s="167"/>
+      <c r="L58" s="167"/>
+      <c r="M58" s="167"/>
+      <c r="N58" s="167"/>
+      <c r="O58" s="167"/>
+      <c r="P58" s="167"/>
       <c r="T58" s="142"/>
     </row>
-    <row r="59" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="164" t="s">
+    <row r="59" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="168" t="s">
         <v>226</v>
       </c>
-      <c r="B59" s="164"/>
-      <c r="C59" s="164"/>
-      <c r="D59" s="164"/>
-      <c r="E59" s="164"/>
-      <c r="F59" s="164"/>
-      <c r="G59" s="164"/>
-      <c r="H59" s="164"/>
-      <c r="I59" s="164"/>
-      <c r="J59" s="164"/>
-      <c r="K59" s="164"/>
-      <c r="L59" s="164"/>
-      <c r="M59" s="164"/>
-      <c r="N59" s="164"/>
-      <c r="O59" s="164"/>
-      <c r="P59" s="164"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
+      <c r="E59" s="168"/>
+      <c r="F59" s="168"/>
+      <c r="G59" s="168"/>
+      <c r="H59" s="168"/>
+      <c r="I59" s="168"/>
+      <c r="J59" s="168"/>
+      <c r="K59" s="168"/>
+      <c r="L59" s="168"/>
+      <c r="M59" s="168"/>
+      <c r="N59" s="168"/>
+      <c r="O59" s="168"/>
+      <c r="P59" s="168"/>
       <c r="T59" s="142"/>
     </row>
-    <row r="60" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="164" t="s">
+    <row r="60" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="168" t="s">
         <v>227</v>
       </c>
-      <c r="B60" s="164"/>
-      <c r="C60" s="164"/>
-      <c r="D60" s="164"/>
-      <c r="E60" s="164"/>
-      <c r="F60" s="164"/>
-      <c r="G60" s="164"/>
-      <c r="H60" s="164"/>
-      <c r="I60" s="164"/>
-      <c r="J60" s="164"/>
-      <c r="K60" s="164"/>
-      <c r="L60" s="164"/>
-      <c r="M60" s="164"/>
-      <c r="N60" s="164"/>
-      <c r="O60" s="164"/>
-      <c r="P60" s="164"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
+      <c r="E60" s="168"/>
+      <c r="F60" s="168"/>
+      <c r="G60" s="168"/>
+      <c r="H60" s="168"/>
+      <c r="I60" s="168"/>
+      <c r="J60" s="168"/>
+      <c r="K60" s="168"/>
+      <c r="L60" s="168"/>
+      <c r="M60" s="168"/>
+      <c r="N60" s="168"/>
+      <c r="O60" s="168"/>
+      <c r="P60" s="168"/>
       <c r="T60" s="139"/>
     </row>
-    <row r="61" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="165" t="s">
+    <row r="61" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="156" t="s">
         <v>228</v>
       </c>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="165"/>
-      <c r="F61" s="165"/>
-      <c r="G61" s="165"/>
-      <c r="H61" s="165"/>
-      <c r="I61" s="165"/>
-      <c r="J61" s="165"/>
-      <c r="K61" s="165"/>
-      <c r="L61" s="165"/>
-      <c r="M61" s="165"/>
-      <c r="N61" s="165"/>
-      <c r="O61" s="165"/>
-      <c r="P61" s="165"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="156"/>
+      <c r="K61" s="156"/>
+      <c r="L61" s="156"/>
+      <c r="M61" s="156"/>
+      <c r="N61" s="156"/>
+      <c r="O61" s="156"/>
+      <c r="P61" s="156"/>
       <c r="T61" s="142"/>
     </row>
-    <row r="62" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="166" t="s">
+    <row r="62" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="169" t="s">
         <v>229</v>
       </c>
-      <c r="B62" s="166"/>
-      <c r="C62" s="166"/>
-      <c r="D62" s="166"/>
-      <c r="E62" s="166"/>
-      <c r="F62" s="166"/>
-      <c r="G62" s="166"/>
-      <c r="H62" s="166"/>
-      <c r="I62" s="166"/>
-      <c r="J62" s="166"/>
-      <c r="K62" s="166"/>
-      <c r="L62" s="166"/>
-      <c r="M62" s="166"/>
-      <c r="N62" s="166"/>
-      <c r="O62" s="166"/>
-      <c r="P62" s="166"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="169"/>
+      <c r="G62" s="169"/>
+      <c r="H62" s="169"/>
+      <c r="I62" s="169"/>
+      <c r="J62" s="169"/>
+      <c r="K62" s="169"/>
+      <c r="L62" s="169"/>
+      <c r="M62" s="169"/>
+      <c r="N62" s="169"/>
+      <c r="O62" s="169"/>
+      <c r="P62" s="169"/>
       <c r="T62" s="142"/>
     </row>
-    <row r="63" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="159" t="s">
+    <row r="63" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="B63" s="159"/>
-      <c r="C63" s="159"/>
-      <c r="D63" s="159"/>
-      <c r="E63" s="159"/>
-      <c r="F63" s="159"/>
-      <c r="G63" s="159"/>
-      <c r="H63" s="159"/>
-      <c r="I63" s="159"/>
-      <c r="J63" s="159"/>
-      <c r="K63" s="159"/>
-      <c r="L63" s="159"/>
-      <c r="M63" s="159"/>
-      <c r="N63" s="159"/>
-      <c r="O63" s="159"/>
-      <c r="P63" s="159"/>
+      <c r="B63" s="157"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="157"/>
+      <c r="E63" s="157"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="157"/>
+      <c r="H63" s="157"/>
+      <c r="I63" s="157"/>
+      <c r="J63" s="157"/>
+      <c r="K63" s="157"/>
+      <c r="L63" s="157"/>
+      <c r="M63" s="157"/>
+      <c r="N63" s="157"/>
+      <c r="O63" s="157"/>
+      <c r="P63" s="157"/>
       <c r="T63" s="142"/>
     </row>
-    <row r="64" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="159" t="s">
+    <row r="64" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="157" t="s">
         <v>231</v>
       </c>
-      <c r="B64" s="159"/>
-      <c r="C64" s="159"/>
-      <c r="D64" s="159"/>
-      <c r="E64" s="159"/>
-      <c r="F64" s="159"/>
-      <c r="G64" s="159"/>
-      <c r="H64" s="159"/>
-      <c r="I64" s="159"/>
-      <c r="J64" s="159"/>
-      <c r="K64" s="159"/>
-      <c r="L64" s="159"/>
-      <c r="M64" s="159"/>
-      <c r="N64" s="159"/>
-      <c r="O64" s="159"/>
-      <c r="P64" s="159"/>
+      <c r="B64" s="157"/>
+      <c r="C64" s="157"/>
+      <c r="D64" s="157"/>
+      <c r="E64" s="157"/>
+      <c r="F64" s="157"/>
+      <c r="G64" s="157"/>
+      <c r="H64" s="157"/>
+      <c r="I64" s="157"/>
+      <c r="J64" s="157"/>
+      <c r="K64" s="157"/>
+      <c r="L64" s="157"/>
+      <c r="M64" s="157"/>
+      <c r="N64" s="157"/>
+      <c r="O64" s="157"/>
+      <c r="P64" s="157"/>
       <c r="T64" s="142"/>
     </row>
-    <row r="65" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="159" t="s">
+    <row r="65" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="157" t="s">
         <v>232</v>
       </c>
-      <c r="B65" s="159"/>
-      <c r="C65" s="159"/>
-      <c r="D65" s="159"/>
-      <c r="E65" s="159"/>
-      <c r="F65" s="159"/>
-      <c r="G65" s="159"/>
-      <c r="H65" s="159"/>
-      <c r="I65" s="159"/>
-      <c r="J65" s="159"/>
-      <c r="K65" s="159"/>
-      <c r="L65" s="159"/>
-      <c r="M65" s="159"/>
-      <c r="N65" s="159"/>
-      <c r="O65" s="159"/>
-      <c r="P65" s="159"/>
+      <c r="B65" s="157"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="157"/>
+      <c r="H65" s="157"/>
+      <c r="I65" s="157"/>
+      <c r="J65" s="157"/>
+      <c r="K65" s="157"/>
+      <c r="L65" s="157"/>
+      <c r="M65" s="157"/>
+      <c r="N65" s="157"/>
+      <c r="O65" s="157"/>
+      <c r="P65" s="157"/>
       <c r="T65" s="142"/>
     </row>
-    <row r="66" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="159" t="s">
+    <row r="66" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="157" t="s">
         <v>233</v>
       </c>
-      <c r="B66" s="159"/>
-      <c r="C66" s="159"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="159"/>
-      <c r="F66" s="159"/>
-      <c r="G66" s="159"/>
-      <c r="H66" s="159"/>
-      <c r="I66" s="159"/>
-      <c r="J66" s="159"/>
-      <c r="K66" s="159"/>
-      <c r="L66" s="159"/>
-      <c r="M66" s="159"/>
-      <c r="N66" s="159"/>
-      <c r="O66" s="159"/>
-      <c r="P66" s="159"/>
+      <c r="B66" s="157"/>
+      <c r="C66" s="157"/>
+      <c r="D66" s="157"/>
+      <c r="E66" s="157"/>
+      <c r="F66" s="157"/>
+      <c r="G66" s="157"/>
+      <c r="H66" s="157"/>
+      <c r="I66" s="157"/>
+      <c r="J66" s="157"/>
+      <c r="K66" s="157"/>
+      <c r="L66" s="157"/>
+      <c r="M66" s="157"/>
+      <c r="N66" s="157"/>
+      <c r="O66" s="157"/>
+      <c r="P66" s="157"/>
       <c r="T66" s="142"/>
     </row>
-    <row r="67" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="159" t="s">
+    <row r="67" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="157" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="159"/>
-      <c r="C67" s="159"/>
-      <c r="D67" s="159"/>
-      <c r="E67" s="159"/>
-      <c r="F67" s="159"/>
-      <c r="G67" s="159"/>
-      <c r="H67" s="159"/>
-      <c r="I67" s="159"/>
-      <c r="J67" s="159"/>
-      <c r="K67" s="159"/>
-      <c r="L67" s="159"/>
-      <c r="M67" s="159"/>
-      <c r="N67" s="159"/>
-      <c r="O67" s="159"/>
-      <c r="P67" s="159"/>
+      <c r="B67" s="157"/>
+      <c r="C67" s="157"/>
+      <c r="D67" s="157"/>
+      <c r="E67" s="157"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="157"/>
+      <c r="I67" s="157"/>
+      <c r="J67" s="157"/>
+      <c r="K67" s="157"/>
+      <c r="L67" s="157"/>
+      <c r="M67" s="157"/>
+      <c r="N67" s="157"/>
+      <c r="O67" s="157"/>
+      <c r="P67" s="157"/>
       <c r="T67" s="142"/>
     </row>
-    <row r="68" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="165" t="s">
+    <row r="68" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="156" t="s">
         <v>235</v>
       </c>
-      <c r="B68" s="165"/>
-      <c r="C68" s="165"/>
-      <c r="D68" s="165"/>
-      <c r="E68" s="165"/>
-      <c r="F68" s="165"/>
-      <c r="G68" s="165"/>
-      <c r="H68" s="165"/>
-      <c r="I68" s="165"/>
-      <c r="J68" s="165"/>
-      <c r="K68" s="165"/>
-      <c r="L68" s="165"/>
-      <c r="M68" s="165"/>
-      <c r="N68" s="165"/>
-      <c r="O68" s="165"/>
-      <c r="P68" s="165"/>
+      <c r="B68" s="156"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="156"/>
+      <c r="G68" s="156"/>
+      <c r="H68" s="156"/>
+      <c r="I68" s="156"/>
+      <c r="J68" s="156"/>
+      <c r="K68" s="156"/>
+      <c r="L68" s="156"/>
+      <c r="M68" s="156"/>
+      <c r="N68" s="156"/>
+      <c r="O68" s="156"/>
+      <c r="P68" s="156"/>
       <c r="T68" s="142"/>
     </row>
-    <row r="69" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="159" t="s">
+    <row r="69" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="157" t="s">
         <v>236</v>
       </c>
-      <c r="B69" s="159"/>
-      <c r="C69" s="159"/>
-      <c r="D69" s="159"/>
-      <c r="E69" s="159"/>
-      <c r="F69" s="159"/>
-      <c r="G69" s="159"/>
-      <c r="H69" s="159"/>
-      <c r="I69" s="159"/>
-      <c r="J69" s="159"/>
-      <c r="K69" s="159"/>
-      <c r="L69" s="159"/>
-      <c r="M69" s="159"/>
-      <c r="N69" s="159"/>
-      <c r="O69" s="159"/>
-      <c r="P69" s="159"/>
+      <c r="B69" s="157"/>
+      <c r="C69" s="157"/>
+      <c r="D69" s="157"/>
+      <c r="E69" s="157"/>
+      <c r="F69" s="157"/>
+      <c r="G69" s="157"/>
+      <c r="H69" s="157"/>
+      <c r="I69" s="157"/>
+      <c r="J69" s="157"/>
+      <c r="K69" s="157"/>
+      <c r="L69" s="157"/>
+      <c r="M69" s="157"/>
+      <c r="N69" s="157"/>
+      <c r="O69" s="157"/>
+      <c r="P69" s="157"/>
       <c r="T69" s="142"/>
     </row>
-    <row r="70" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="159" t="s">
+    <row r="70" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="157" t="s">
         <v>237</v>
       </c>
-      <c r="B70" s="159"/>
-      <c r="C70" s="159"/>
-      <c r="D70" s="159"/>
-      <c r="E70" s="159"/>
-      <c r="F70" s="159"/>
-      <c r="G70" s="159"/>
-      <c r="H70" s="159"/>
-      <c r="I70" s="159"/>
-      <c r="J70" s="159"/>
-      <c r="K70" s="159"/>
-      <c r="L70" s="159"/>
-      <c r="M70" s="159"/>
-      <c r="N70" s="159"/>
-      <c r="O70" s="159"/>
-      <c r="P70" s="159"/>
+      <c r="B70" s="157"/>
+      <c r="C70" s="157"/>
+      <c r="D70" s="157"/>
+      <c r="E70" s="157"/>
+      <c r="F70" s="157"/>
+      <c r="G70" s="157"/>
+      <c r="H70" s="157"/>
+      <c r="I70" s="157"/>
+      <c r="J70" s="157"/>
+      <c r="K70" s="157"/>
+      <c r="L70" s="157"/>
+      <c r="M70" s="157"/>
+      <c r="N70" s="157"/>
+      <c r="O70" s="157"/>
+      <c r="P70" s="157"/>
       <c r="T70" s="142"/>
     </row>
-    <row r="71" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="159" t="s">
+    <row r="71" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="157" t="s">
         <v>238</v>
       </c>
-      <c r="B71" s="159"/>
-      <c r="C71" s="159"/>
-      <c r="D71" s="159"/>
-      <c r="E71" s="159"/>
-      <c r="F71" s="159"/>
-      <c r="G71" s="159"/>
-      <c r="H71" s="159"/>
-      <c r="I71" s="159"/>
-      <c r="J71" s="159"/>
-      <c r="K71" s="159"/>
-      <c r="L71" s="159"/>
-      <c r="M71" s="159"/>
-      <c r="N71" s="159"/>
-      <c r="O71" s="159"/>
-      <c r="P71" s="159"/>
+      <c r="B71" s="157"/>
+      <c r="C71" s="157"/>
+      <c r="D71" s="157"/>
+      <c r="E71" s="157"/>
+      <c r="F71" s="157"/>
+      <c r="G71" s="157"/>
+      <c r="H71" s="157"/>
+      <c r="I71" s="157"/>
+      <c r="J71" s="157"/>
+      <c r="K71" s="157"/>
+      <c r="L71" s="157"/>
+      <c r="M71" s="157"/>
+      <c r="N71" s="157"/>
+      <c r="O71" s="157"/>
+      <c r="P71" s="157"/>
       <c r="T71" s="142"/>
     </row>
-    <row r="72" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="159" t="s">
+    <row r="72" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="157" t="s">
         <v>239</v>
       </c>
-      <c r="B72" s="159"/>
-      <c r="C72" s="159"/>
-      <c r="D72" s="159"/>
-      <c r="E72" s="159"/>
-      <c r="F72" s="159"/>
-      <c r="G72" s="159"/>
-      <c r="H72" s="159"/>
-      <c r="I72" s="159"/>
-      <c r="J72" s="159"/>
-      <c r="K72" s="159"/>
-      <c r="L72" s="159"/>
-      <c r="M72" s="159"/>
-      <c r="N72" s="159"/>
-      <c r="O72" s="159"/>
-      <c r="P72" s="159"/>
+      <c r="B72" s="157"/>
+      <c r="C72" s="157"/>
+      <c r="D72" s="157"/>
+      <c r="E72" s="157"/>
+      <c r="F72" s="157"/>
+      <c r="G72" s="157"/>
+      <c r="H72" s="157"/>
+      <c r="I72" s="157"/>
+      <c r="J72" s="157"/>
+      <c r="K72" s="157"/>
+      <c r="L72" s="157"/>
+      <c r="M72" s="157"/>
+      <c r="N72" s="157"/>
+      <c r="O72" s="157"/>
+      <c r="P72" s="157"/>
       <c r="T72" s="142"/>
     </row>
-    <row r="73" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="159" t="s">
+    <row r="73" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="157" t="s">
         <v>240</v>
       </c>
-      <c r="B73" s="159"/>
-      <c r="C73" s="159"/>
-      <c r="D73" s="159"/>
-      <c r="E73" s="159"/>
-      <c r="F73" s="159"/>
-      <c r="G73" s="159"/>
-      <c r="H73" s="159"/>
-      <c r="I73" s="159"/>
-      <c r="J73" s="159"/>
-      <c r="K73" s="159"/>
-      <c r="L73" s="159"/>
-      <c r="M73" s="159"/>
-      <c r="N73" s="159"/>
-      <c r="O73" s="159"/>
-      <c r="P73" s="159"/>
+      <c r="B73" s="157"/>
+      <c r="C73" s="157"/>
+      <c r="D73" s="157"/>
+      <c r="E73" s="157"/>
+      <c r="F73" s="157"/>
+      <c r="G73" s="157"/>
+      <c r="H73" s="157"/>
+      <c r="I73" s="157"/>
+      <c r="J73" s="157"/>
+      <c r="K73" s="157"/>
+      <c r="L73" s="157"/>
+      <c r="M73" s="157"/>
+      <c r="N73" s="157"/>
+      <c r="O73" s="157"/>
+      <c r="P73" s="157"/>
       <c r="T73" s="142"/>
     </row>
-    <row r="74" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="167" t="s">
+    <row r="74" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="158" t="s">
         <v>241</v>
       </c>
-      <c r="B74" s="167"/>
-      <c r="C74" s="167"/>
-      <c r="D74" s="167"/>
-      <c r="E74" s="167"/>
-      <c r="F74" s="167"/>
-      <c r="G74" s="167"/>
-      <c r="H74" s="167"/>
-      <c r="I74" s="167"/>
-      <c r="J74" s="167"/>
-      <c r="K74" s="167"/>
-      <c r="L74" s="167"/>
-      <c r="M74" s="167"/>
-      <c r="N74" s="167"/>
-      <c r="O74" s="167"/>
-      <c r="P74" s="167"/>
+      <c r="B74" s="158"/>
+      <c r="C74" s="158"/>
+      <c r="D74" s="158"/>
+      <c r="E74" s="158"/>
+      <c r="F74" s="158"/>
+      <c r="G74" s="158"/>
+      <c r="H74" s="158"/>
+      <c r="I74" s="158"/>
+      <c r="J74" s="158"/>
+      <c r="K74" s="158"/>
+      <c r="L74" s="158"/>
+      <c r="M74" s="158"/>
+      <c r="N74" s="158"/>
+      <c r="O74" s="158"/>
+      <c r="P74" s="158"/>
       <c r="T74" s="142"/>
     </row>
-    <row r="75" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="165" t="s">
+    <row r="75" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="156" t="s">
         <v>242</v>
       </c>
-      <c r="B75" s="165"/>
-      <c r="C75" s="165"/>
-      <c r="D75" s="165"/>
-      <c r="E75" s="165"/>
-      <c r="F75" s="165"/>
-      <c r="G75" s="165"/>
-      <c r="H75" s="165"/>
-      <c r="I75" s="165"/>
-      <c r="J75" s="165"/>
-      <c r="K75" s="165"/>
-      <c r="L75" s="165"/>
-      <c r="M75" s="165"/>
-      <c r="N75" s="165"/>
-      <c r="O75" s="165"/>
-      <c r="P75" s="165"/>
+      <c r="B75" s="156"/>
+      <c r="C75" s="156"/>
+      <c r="D75" s="156"/>
+      <c r="E75" s="156"/>
+      <c r="F75" s="156"/>
+      <c r="G75" s="156"/>
+      <c r="H75" s="156"/>
+      <c r="I75" s="156"/>
+      <c r="J75" s="156"/>
+      <c r="K75" s="156"/>
+      <c r="L75" s="156"/>
+      <c r="M75" s="156"/>
+      <c r="N75" s="156"/>
+      <c r="O75" s="156"/>
+      <c r="P75" s="156"/>
       <c r="T75" s="139"/>
     </row>
-    <row r="76" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="169" t="s">
+    <row r="76" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="159" t="s">
         <v>243</v>
       </c>
-      <c r="B76" s="169"/>
-      <c r="C76" s="169"/>
-      <c r="D76" s="169"/>
-      <c r="E76" s="169"/>
-      <c r="F76" s="169"/>
-      <c r="G76" s="169"/>
-      <c r="H76" s="169"/>
-      <c r="I76" s="169"/>
-      <c r="J76" s="169"/>
-      <c r="K76" s="169"/>
-      <c r="L76" s="169"/>
-      <c r="M76" s="169"/>
-      <c r="N76" s="169"/>
-      <c r="O76" s="169"/>
-      <c r="P76" s="169"/>
+      <c r="B76" s="159"/>
+      <c r="C76" s="159"/>
+      <c r="D76" s="159"/>
+      <c r="E76" s="159"/>
+      <c r="F76" s="159"/>
+      <c r="G76" s="159"/>
+      <c r="H76" s="159"/>
+      <c r="I76" s="159"/>
+      <c r="J76" s="159"/>
+      <c r="K76" s="159"/>
+      <c r="L76" s="159"/>
+      <c r="M76" s="159"/>
+      <c r="N76" s="159"/>
+      <c r="O76" s="159"/>
+      <c r="P76" s="159"/>
       <c r="T76" s="142"/>
     </row>
-    <row r="77" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="168" t="s">
+    <row r="77" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="B77" s="168"/>
-      <c r="C77" s="168"/>
-      <c r="D77" s="168"/>
-      <c r="E77" s="168"/>
-      <c r="F77" s="168"/>
-      <c r="G77" s="168"/>
-      <c r="H77" s="168"/>
-      <c r="I77" s="168"/>
-      <c r="J77" s="168"/>
-      <c r="K77" s="168"/>
-      <c r="L77" s="168"/>
-      <c r="M77" s="168"/>
-      <c r="N77" s="168"/>
-      <c r="O77" s="168"/>
-      <c r="P77" s="168"/>
+      <c r="B77" s="161"/>
+      <c r="C77" s="161"/>
+      <c r="D77" s="161"/>
+      <c r="E77" s="161"/>
+      <c r="F77" s="161"/>
+      <c r="G77" s="161"/>
+      <c r="H77" s="161"/>
+      <c r="I77" s="161"/>
+      <c r="J77" s="161"/>
+      <c r="K77" s="161"/>
+      <c r="L77" s="161"/>
+      <c r="M77" s="161"/>
+      <c r="N77" s="161"/>
+      <c r="O77" s="161"/>
+      <c r="P77" s="161"/>
       <c r="T77" s="142"/>
     </row>
-    <row r="78" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="170" t="s">
+    <row r="78" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="162" t="s">
         <v>245</v>
       </c>
-      <c r="B78" s="170"/>
-      <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
-      <c r="E78" s="170"/>
-      <c r="F78" s="170"/>
-      <c r="G78" s="170"/>
-      <c r="H78" s="170"/>
-      <c r="I78" s="170"/>
-      <c r="J78" s="170"/>
-      <c r="K78" s="170"/>
-      <c r="L78" s="170"/>
-      <c r="M78" s="170"/>
-      <c r="N78" s="170"/>
-      <c r="O78" s="170"/>
-      <c r="P78" s="170"/>
+      <c r="B78" s="162"/>
+      <c r="C78" s="162"/>
+      <c r="D78" s="162"/>
+      <c r="E78" s="162"/>
+      <c r="F78" s="162"/>
+      <c r="G78" s="162"/>
+      <c r="H78" s="162"/>
+      <c r="I78" s="162"/>
+      <c r="J78" s="162"/>
+      <c r="K78" s="162"/>
+      <c r="L78" s="162"/>
+      <c r="M78" s="162"/>
+      <c r="N78" s="162"/>
+      <c r="O78" s="162"/>
+      <c r="P78" s="162"/>
       <c r="T78" s="142"/>
     </row>
-    <row r="79" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="168" t="s">
+    <row r="79" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="161" t="s">
         <v>246</v>
       </c>
-      <c r="B79" s="168"/>
-      <c r="C79" s="168"/>
-      <c r="D79" s="168"/>
-      <c r="E79" s="168"/>
-      <c r="F79" s="168"/>
-      <c r="G79" s="168"/>
-      <c r="H79" s="168"/>
-      <c r="I79" s="168"/>
-      <c r="J79" s="168"/>
-      <c r="K79" s="168"/>
-      <c r="L79" s="168"/>
-      <c r="M79" s="168"/>
-      <c r="N79" s="168"/>
-      <c r="O79" s="168"/>
-      <c r="P79" s="168"/>
+      <c r="B79" s="161"/>
+      <c r="C79" s="161"/>
+      <c r="D79" s="161"/>
+      <c r="E79" s="161"/>
+      <c r="F79" s="161"/>
+      <c r="G79" s="161"/>
+      <c r="H79" s="161"/>
+      <c r="I79" s="161"/>
+      <c r="J79" s="161"/>
+      <c r="K79" s="161"/>
+      <c r="L79" s="161"/>
+      <c r="M79" s="161"/>
+      <c r="N79" s="161"/>
+      <c r="O79" s="161"/>
+      <c r="P79" s="161"/>
       <c r="T79" s="142"/>
     </row>
-    <row r="80" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="165" t="s">
+    <row r="80" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="156" t="s">
         <v>247</v>
       </c>
-      <c r="B80" s="165"/>
-      <c r="C80" s="165"/>
-      <c r="D80" s="165"/>
-      <c r="E80" s="165"/>
-      <c r="F80" s="165"/>
-      <c r="G80" s="165"/>
-      <c r="H80" s="165"/>
-      <c r="I80" s="165"/>
-      <c r="J80" s="165"/>
-      <c r="K80" s="165"/>
-      <c r="L80" s="165"/>
-      <c r="M80" s="165"/>
-      <c r="N80" s="165"/>
-      <c r="O80" s="165"/>
-      <c r="P80" s="165"/>
+      <c r="B80" s="156"/>
+      <c r="C80" s="156"/>
+      <c r="D80" s="156"/>
+      <c r="E80" s="156"/>
+      <c r="F80" s="156"/>
+      <c r="G80" s="156"/>
+      <c r="H80" s="156"/>
+      <c r="I80" s="156"/>
+      <c r="J80" s="156"/>
+      <c r="K80" s="156"/>
+      <c r="L80" s="156"/>
+      <c r="M80" s="156"/>
+      <c r="N80" s="156"/>
+      <c r="O80" s="156"/>
+      <c r="P80" s="156"/>
       <c r="T80" s="142"/>
     </row>
-    <row r="81" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="169" t="s">
+    <row r="81" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="159" t="s">
         <v>248</v>
       </c>
-      <c r="B81" s="169"/>
-      <c r="C81" s="169"/>
-      <c r="D81" s="169"/>
-      <c r="E81" s="169"/>
-      <c r="F81" s="169"/>
-      <c r="G81" s="169"/>
-      <c r="H81" s="169"/>
-      <c r="I81" s="169"/>
-      <c r="J81" s="169"/>
-      <c r="K81" s="169"/>
-      <c r="L81" s="169"/>
-      <c r="M81" s="169"/>
-      <c r="N81" s="169"/>
-      <c r="O81" s="169"/>
-      <c r="P81" s="169"/>
+      <c r="B81" s="159"/>
+      <c r="C81" s="159"/>
+      <c r="D81" s="159"/>
+      <c r="E81" s="159"/>
+      <c r="F81" s="159"/>
+      <c r="G81" s="159"/>
+      <c r="H81" s="159"/>
+      <c r="I81" s="159"/>
+      <c r="J81" s="159"/>
+      <c r="K81" s="159"/>
+      <c r="L81" s="159"/>
+      <c r="M81" s="159"/>
+      <c r="N81" s="159"/>
+      <c r="O81" s="159"/>
+      <c r="P81" s="159"/>
       <c r="T81" s="142"/>
     </row>
-    <row r="82" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="168" t="s">
+    <row r="82" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="161" t="s">
         <v>249</v>
       </c>
-      <c r="B82" s="168"/>
-      <c r="C82" s="168"/>
-      <c r="D82" s="168"/>
-      <c r="E82" s="168"/>
-      <c r="F82" s="168"/>
-      <c r="G82" s="168"/>
-      <c r="H82" s="168"/>
-      <c r="I82" s="168"/>
-      <c r="J82" s="168"/>
-      <c r="K82" s="168"/>
-      <c r="L82" s="168"/>
-      <c r="M82" s="168"/>
-      <c r="N82" s="168"/>
-      <c r="O82" s="168"/>
-      <c r="P82" s="168"/>
+      <c r="B82" s="161"/>
+      <c r="C82" s="161"/>
+      <c r="D82" s="161"/>
+      <c r="E82" s="161"/>
+      <c r="F82" s="161"/>
+      <c r="G82" s="161"/>
+      <c r="H82" s="161"/>
+      <c r="I82" s="161"/>
+      <c r="J82" s="161"/>
+      <c r="K82" s="161"/>
+      <c r="L82" s="161"/>
+      <c r="M82" s="161"/>
+      <c r="N82" s="161"/>
+      <c r="O82" s="161"/>
+      <c r="P82" s="161"/>
       <c r="T82" s="142"/>
     </row>
-    <row r="83" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="165" t="s">
+    <row r="83" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="156" t="s">
         <v>250</v>
       </c>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
-      <c r="F83" s="165"/>
-      <c r="G83" s="165"/>
-      <c r="H83" s="165"/>
-      <c r="I83" s="165"/>
-      <c r="J83" s="165"/>
-      <c r="K83" s="165"/>
-      <c r="L83" s="165"/>
-      <c r="M83" s="165"/>
-      <c r="N83" s="165"/>
-      <c r="O83" s="165"/>
-      <c r="P83" s="165"/>
+      <c r="B83" s="156"/>
+      <c r="C83" s="156"/>
+      <c r="D83" s="156"/>
+      <c r="E83" s="156"/>
+      <c r="F83" s="156"/>
+      <c r="G83" s="156"/>
+      <c r="H83" s="156"/>
+      <c r="I83" s="156"/>
+      <c r="J83" s="156"/>
+      <c r="K83" s="156"/>
+      <c r="L83" s="156"/>
+      <c r="M83" s="156"/>
+      <c r="N83" s="156"/>
+      <c r="O83" s="156"/>
+      <c r="P83" s="156"/>
       <c r="T83" s="142"/>
     </row>
-    <row r="84" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="169" t="s">
+    <row r="84" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="159" t="s">
         <v>251</v>
       </c>
-      <c r="B84" s="169"/>
-      <c r="C84" s="169"/>
-      <c r="D84" s="169"/>
-      <c r="E84" s="169"/>
-      <c r="F84" s="169"/>
-      <c r="G84" s="169"/>
-      <c r="H84" s="169"/>
-      <c r="I84" s="169"/>
-      <c r="J84" s="169"/>
-      <c r="K84" s="169"/>
-      <c r="L84" s="169"/>
-      <c r="M84" s="169"/>
-      <c r="N84" s="169"/>
-      <c r="O84" s="169"/>
-      <c r="P84" s="169"/>
+      <c r="B84" s="159"/>
+      <c r="C84" s="159"/>
+      <c r="D84" s="159"/>
+      <c r="E84" s="159"/>
+      <c r="F84" s="159"/>
+      <c r="G84" s="159"/>
+      <c r="H84" s="159"/>
+      <c r="I84" s="159"/>
+      <c r="J84" s="159"/>
+      <c r="K84" s="159"/>
+      <c r="L84" s="159"/>
+      <c r="M84" s="159"/>
+      <c r="N84" s="159"/>
+      <c r="O84" s="159"/>
+      <c r="P84" s="159"/>
       <c r="T84" s="142"/>
     </row>
-    <row r="85" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="168" t="s">
+    <row r="85" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="B85" s="168"/>
-      <c r="C85" s="168"/>
-      <c r="D85" s="168"/>
-      <c r="E85" s="168"/>
-      <c r="F85" s="168"/>
-      <c r="G85" s="168"/>
-      <c r="H85" s="168"/>
-      <c r="I85" s="168"/>
-      <c r="J85" s="168"/>
-      <c r="K85" s="168"/>
-      <c r="L85" s="168"/>
-      <c r="M85" s="168"/>
-      <c r="N85" s="168"/>
-      <c r="O85" s="168"/>
-      <c r="P85" s="168"/>
+      <c r="B85" s="161"/>
+      <c r="C85" s="161"/>
+      <c r="D85" s="161"/>
+      <c r="E85" s="161"/>
+      <c r="F85" s="161"/>
+      <c r="G85" s="161"/>
+      <c r="H85" s="161"/>
+      <c r="I85" s="161"/>
+      <c r="J85" s="161"/>
+      <c r="K85" s="161"/>
+      <c r="L85" s="161"/>
+      <c r="M85" s="161"/>
+      <c r="N85" s="161"/>
+      <c r="O85" s="161"/>
+      <c r="P85" s="161"/>
       <c r="T85" s="142"/>
     </row>
-    <row r="86" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="170" t="s">
+    <row r="86" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="162" t="s">
         <v>252</v>
       </c>
-      <c r="B86" s="170"/>
-      <c r="C86" s="170"/>
-      <c r="D86" s="170"/>
-      <c r="E86" s="170"/>
-      <c r="F86" s="170"/>
-      <c r="G86" s="170"/>
-      <c r="H86" s="170"/>
-      <c r="I86" s="170"/>
-      <c r="J86" s="170"/>
-      <c r="K86" s="170"/>
-      <c r="L86" s="170"/>
-      <c r="M86" s="170"/>
-      <c r="N86" s="170"/>
-      <c r="O86" s="170"/>
-      <c r="P86" s="170"/>
+      <c r="B86" s="162"/>
+      <c r="C86" s="162"/>
+      <c r="D86" s="162"/>
+      <c r="E86" s="162"/>
+      <c r="F86" s="162"/>
+      <c r="G86" s="162"/>
+      <c r="H86" s="162"/>
+      <c r="I86" s="162"/>
+      <c r="J86" s="162"/>
+      <c r="K86" s="162"/>
+      <c r="L86" s="162"/>
+      <c r="M86" s="162"/>
+      <c r="N86" s="162"/>
+      <c r="O86" s="162"/>
+      <c r="P86" s="162"/>
       <c r="T86" s="142"/>
     </row>
-    <row r="87" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="168" t="s">
+    <row r="87" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="161" t="s">
         <v>253</v>
       </c>
-      <c r="B87" s="168"/>
-      <c r="C87" s="168"/>
-      <c r="D87" s="168"/>
-      <c r="E87" s="168"/>
-      <c r="F87" s="168"/>
-      <c r="G87" s="168"/>
-      <c r="H87" s="168"/>
-      <c r="I87" s="168"/>
-      <c r="J87" s="168"/>
-      <c r="K87" s="168"/>
-      <c r="L87" s="168"/>
-      <c r="M87" s="168"/>
-      <c r="N87" s="168"/>
-      <c r="O87" s="168"/>
-      <c r="P87" s="168"/>
+      <c r="B87" s="161"/>
+      <c r="C87" s="161"/>
+      <c r="D87" s="161"/>
+      <c r="E87" s="161"/>
+      <c r="F87" s="161"/>
+      <c r="G87" s="161"/>
+      <c r="H87" s="161"/>
+      <c r="I87" s="161"/>
+      <c r="J87" s="161"/>
+      <c r="K87" s="161"/>
+      <c r="L87" s="161"/>
+      <c r="M87" s="161"/>
+      <c r="N87" s="161"/>
+      <c r="O87" s="161"/>
+      <c r="P87" s="161"/>
       <c r="T87" s="142"/>
     </row>
-    <row r="88" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="165" t="s">
+    <row r="88" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="156" t="s">
         <v>254</v>
       </c>
-      <c r="B88" s="165"/>
-      <c r="C88" s="165"/>
-      <c r="D88" s="165"/>
-      <c r="E88" s="165"/>
-      <c r="F88" s="165"/>
-      <c r="G88" s="165"/>
-      <c r="H88" s="165"/>
-      <c r="I88" s="165"/>
-      <c r="J88" s="165"/>
-      <c r="K88" s="165"/>
-      <c r="L88" s="165"/>
-      <c r="M88" s="165"/>
-      <c r="N88" s="165"/>
-      <c r="O88" s="165"/>
-      <c r="P88" s="165"/>
+      <c r="B88" s="156"/>
+      <c r="C88" s="156"/>
+      <c r="D88" s="156"/>
+      <c r="E88" s="156"/>
+      <c r="F88" s="156"/>
+      <c r="G88" s="156"/>
+      <c r="H88" s="156"/>
+      <c r="I88" s="156"/>
+      <c r="J88" s="156"/>
+      <c r="K88" s="156"/>
+      <c r="L88" s="156"/>
+      <c r="M88" s="156"/>
+      <c r="N88" s="156"/>
+      <c r="O88" s="156"/>
+      <c r="P88" s="156"/>
       <c r="T88" s="142"/>
     </row>
-    <row r="89" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="169" t="s">
+    <row r="89" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="159" t="s">
         <v>255</v>
       </c>
-      <c r="B89" s="169"/>
-      <c r="C89" s="169"/>
-      <c r="D89" s="169"/>
-      <c r="E89" s="169"/>
-      <c r="F89" s="169"/>
-      <c r="G89" s="169"/>
-      <c r="H89" s="169"/>
-      <c r="I89" s="169"/>
-      <c r="J89" s="169"/>
-      <c r="K89" s="169"/>
-      <c r="L89" s="169"/>
-      <c r="M89" s="169"/>
-      <c r="N89" s="169"/>
-      <c r="O89" s="169"/>
-      <c r="P89" s="169"/>
+      <c r="B89" s="159"/>
+      <c r="C89" s="159"/>
+      <c r="D89" s="159"/>
+      <c r="E89" s="159"/>
+      <c r="F89" s="159"/>
+      <c r="G89" s="159"/>
+      <c r="H89" s="159"/>
+      <c r="I89" s="159"/>
+      <c r="J89" s="159"/>
+      <c r="K89" s="159"/>
+      <c r="L89" s="159"/>
+      <c r="M89" s="159"/>
+      <c r="N89" s="159"/>
+      <c r="O89" s="159"/>
+      <c r="P89" s="159"/>
       <c r="T89" s="142"/>
     </row>
-    <row r="90" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="168" t="s">
+    <row r="90" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="161" t="s">
         <v>249</v>
       </c>
-      <c r="B90" s="168"/>
-      <c r="C90" s="168"/>
-      <c r="D90" s="168"/>
-      <c r="E90" s="168"/>
-      <c r="F90" s="168"/>
-      <c r="G90" s="168"/>
-      <c r="H90" s="168"/>
-      <c r="I90" s="168"/>
-      <c r="J90" s="168"/>
-      <c r="K90" s="168"/>
-      <c r="L90" s="168"/>
-      <c r="M90" s="168"/>
-      <c r="N90" s="168"/>
-      <c r="O90" s="168"/>
-      <c r="P90" s="168"/>
+      <c r="B90" s="161"/>
+      <c r="C90" s="161"/>
+      <c r="D90" s="161"/>
+      <c r="E90" s="161"/>
+      <c r="F90" s="161"/>
+      <c r="G90" s="161"/>
+      <c r="H90" s="161"/>
+      <c r="I90" s="161"/>
+      <c r="J90" s="161"/>
+      <c r="K90" s="161"/>
+      <c r="L90" s="161"/>
+      <c r="M90" s="161"/>
+      <c r="N90" s="161"/>
+      <c r="O90" s="161"/>
+      <c r="P90" s="161"/>
       <c r="T90" s="142"/>
     </row>
-    <row r="91" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="167" t="s">
+    <row r="91" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="158" t="s">
         <v>256</v>
       </c>
-      <c r="B91" s="167"/>
-      <c r="C91" s="167"/>
-      <c r="D91" s="167"/>
-      <c r="E91" s="167"/>
-      <c r="F91" s="167"/>
-      <c r="G91" s="167"/>
-      <c r="H91" s="167"/>
-      <c r="I91" s="167"/>
-      <c r="J91" s="167"/>
-      <c r="K91" s="167"/>
-      <c r="L91" s="167"/>
-      <c r="M91" s="167"/>
-      <c r="N91" s="167"/>
-      <c r="O91" s="167"/>
-      <c r="P91" s="167"/>
+      <c r="B91" s="158"/>
+      <c r="C91" s="158"/>
+      <c r="D91" s="158"/>
+      <c r="E91" s="158"/>
+      <c r="F91" s="158"/>
+      <c r="G91" s="158"/>
+      <c r="H91" s="158"/>
+      <c r="I91" s="158"/>
+      <c r="J91" s="158"/>
+      <c r="K91" s="158"/>
+      <c r="L91" s="158"/>
+      <c r="M91" s="158"/>
+      <c r="N91" s="158"/>
+      <c r="O91" s="158"/>
+      <c r="P91" s="158"/>
       <c r="T91" s="142"/>
     </row>
-    <row r="92" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="159" t="s">
+    <row r="92" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="157" t="s">
         <v>257</v>
       </c>
-      <c r="B92" s="159"/>
-      <c r="C92" s="159"/>
-      <c r="D92" s="159"/>
-      <c r="E92" s="159"/>
-      <c r="F92" s="159"/>
-      <c r="G92" s="159"/>
-      <c r="H92" s="159"/>
-      <c r="I92" s="159"/>
-      <c r="J92" s="159"/>
-      <c r="K92" s="159"/>
-      <c r="L92" s="159"/>
-      <c r="M92" s="159"/>
-      <c r="N92" s="159"/>
-      <c r="O92" s="159"/>
-      <c r="P92" s="159"/>
+      <c r="B92" s="157"/>
+      <c r="C92" s="157"/>
+      <c r="D92" s="157"/>
+      <c r="E92" s="157"/>
+      <c r="F92" s="157"/>
+      <c r="G92" s="157"/>
+      <c r="H92" s="157"/>
+      <c r="I92" s="157"/>
+      <c r="J92" s="157"/>
+      <c r="K92" s="157"/>
+      <c r="L92" s="157"/>
+      <c r="M92" s="157"/>
+      <c r="N92" s="157"/>
+      <c r="O92" s="157"/>
+      <c r="P92" s="157"/>
       <c r="T92" s="142"/>
     </row>
-    <row r="93" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="159" t="s">
+    <row r="93" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="157" t="s">
         <v>258</v>
       </c>
-      <c r="B93" s="159"/>
-      <c r="C93" s="159"/>
-      <c r="D93" s="159"/>
-      <c r="E93" s="159"/>
-      <c r="F93" s="159"/>
-      <c r="G93" s="159"/>
-      <c r="H93" s="159"/>
-      <c r="I93" s="159"/>
-      <c r="J93" s="159"/>
-      <c r="K93" s="159"/>
-      <c r="L93" s="159"/>
-      <c r="M93" s="159"/>
-      <c r="N93" s="159"/>
-      <c r="O93" s="159"/>
-      <c r="P93" s="159"/>
+      <c r="B93" s="157"/>
+      <c r="C93" s="157"/>
+      <c r="D93" s="157"/>
+      <c r="E93" s="157"/>
+      <c r="F93" s="157"/>
+      <c r="G93" s="157"/>
+      <c r="H93" s="157"/>
+      <c r="I93" s="157"/>
+      <c r="J93" s="157"/>
+      <c r="K93" s="157"/>
+      <c r="L93" s="157"/>
+      <c r="M93" s="157"/>
+      <c r="N93" s="157"/>
+      <c r="O93" s="157"/>
+      <c r="P93" s="157"/>
       <c r="T93" s="142"/>
     </row>
-    <row r="94" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="167" t="s">
+    <row r="94" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="158" t="s">
         <v>259</v>
       </c>
-      <c r="B94" s="167"/>
-      <c r="C94" s="167"/>
-      <c r="D94" s="167"/>
-      <c r="E94" s="167"/>
-      <c r="F94" s="167"/>
-      <c r="G94" s="167"/>
-      <c r="H94" s="167"/>
-      <c r="I94" s="167"/>
-      <c r="J94" s="167"/>
-      <c r="K94" s="167"/>
-      <c r="L94" s="167"/>
-      <c r="M94" s="167"/>
-      <c r="N94" s="167"/>
-      <c r="O94" s="167"/>
-      <c r="P94" s="167"/>
+      <c r="B94" s="158"/>
+      <c r="C94" s="158"/>
+      <c r="D94" s="158"/>
+      <c r="E94" s="158"/>
+      <c r="F94" s="158"/>
+      <c r="G94" s="158"/>
+      <c r="H94" s="158"/>
+      <c r="I94" s="158"/>
+      <c r="J94" s="158"/>
+      <c r="K94" s="158"/>
+      <c r="L94" s="158"/>
+      <c r="M94" s="158"/>
+      <c r="N94" s="158"/>
+      <c r="O94" s="158"/>
+      <c r="P94" s="158"/>
       <c r="T94" s="142"/>
     </row>
-    <row r="95" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="159" t="s">
+    <row r="95" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="B95" s="159"/>
-      <c r="C95" s="159"/>
-      <c r="D95" s="159"/>
-      <c r="E95" s="159"/>
-      <c r="F95" s="159"/>
-      <c r="G95" s="159"/>
-      <c r="H95" s="159"/>
-      <c r="I95" s="159"/>
-      <c r="J95" s="159"/>
-      <c r="K95" s="159"/>
-      <c r="L95" s="159"/>
-      <c r="M95" s="159"/>
-      <c r="N95" s="159"/>
-      <c r="O95" s="159"/>
-      <c r="P95" s="159"/>
+      <c r="B95" s="157"/>
+      <c r="C95" s="157"/>
+      <c r="D95" s="157"/>
+      <c r="E95" s="157"/>
+      <c r="F95" s="157"/>
+      <c r="G95" s="157"/>
+      <c r="H95" s="157"/>
+      <c r="I95" s="157"/>
+      <c r="J95" s="157"/>
+      <c r="K95" s="157"/>
+      <c r="L95" s="157"/>
+      <c r="M95" s="157"/>
+      <c r="N95" s="157"/>
+      <c r="O95" s="157"/>
+      <c r="P95" s="157"/>
       <c r="T95" s="142"/>
     </row>
-    <row r="96" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="167" t="s">
+    <row r="96" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="158" t="s">
         <v>261</v>
       </c>
-      <c r="B96" s="167"/>
-      <c r="C96" s="167"/>
-      <c r="D96" s="167"/>
-      <c r="E96" s="167"/>
-      <c r="F96" s="167"/>
-      <c r="G96" s="167"/>
-      <c r="H96" s="167"/>
-      <c r="I96" s="167"/>
-      <c r="J96" s="167"/>
-      <c r="K96" s="167"/>
-      <c r="L96" s="167"/>
-      <c r="M96" s="167"/>
-      <c r="N96" s="167"/>
-      <c r="O96" s="167"/>
-      <c r="P96" s="167"/>
+      <c r="B96" s="158"/>
+      <c r="C96" s="158"/>
+      <c r="D96" s="158"/>
+      <c r="E96" s="158"/>
+      <c r="F96" s="158"/>
+      <c r="G96" s="158"/>
+      <c r="H96" s="158"/>
+      <c r="I96" s="158"/>
+      <c r="J96" s="158"/>
+      <c r="K96" s="158"/>
+      <c r="L96" s="158"/>
+      <c r="M96" s="158"/>
+      <c r="N96" s="158"/>
+      <c r="O96" s="158"/>
+      <c r="P96" s="158"/>
       <c r="T96" s="142"/>
     </row>
-    <row r="97" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="165" t="s">
+    <row r="97" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="B97" s="165"/>
-      <c r="C97" s="165"/>
-      <c r="D97" s="165"/>
-      <c r="E97" s="165"/>
-      <c r="F97" s="165"/>
-      <c r="G97" s="165"/>
-      <c r="H97" s="165"/>
-      <c r="I97" s="165"/>
-      <c r="J97" s="165"/>
-      <c r="K97" s="165"/>
-      <c r="L97" s="165"/>
-      <c r="M97" s="165"/>
-      <c r="N97" s="165"/>
-      <c r="O97" s="165"/>
-      <c r="P97" s="165"/>
+      <c r="B97" s="156"/>
+      <c r="C97" s="156"/>
+      <c r="D97" s="156"/>
+      <c r="E97" s="156"/>
+      <c r="F97" s="156"/>
+      <c r="G97" s="156"/>
+      <c r="H97" s="156"/>
+      <c r="I97" s="156"/>
+      <c r="J97" s="156"/>
+      <c r="K97" s="156"/>
+      <c r="L97" s="156"/>
+      <c r="M97" s="156"/>
+      <c r="N97" s="156"/>
+      <c r="O97" s="156"/>
+      <c r="P97" s="156"/>
       <c r="T97" s="142"/>
     </row>
-    <row r="98" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="159" t="s">
+    <row r="98" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="157" t="s">
         <v>263</v>
       </c>
-      <c r="B98" s="159"/>
-      <c r="C98" s="159"/>
-      <c r="D98" s="159"/>
-      <c r="E98" s="159"/>
-      <c r="F98" s="159"/>
-      <c r="G98" s="159"/>
-      <c r="H98" s="159"/>
-      <c r="I98" s="159"/>
-      <c r="J98" s="159"/>
-      <c r="K98" s="159"/>
-      <c r="L98" s="159"/>
-      <c r="M98" s="159"/>
-      <c r="N98" s="159"/>
-      <c r="O98" s="159"/>
-      <c r="P98" s="159"/>
+      <c r="B98" s="157"/>
+      <c r="C98" s="157"/>
+      <c r="D98" s="157"/>
+      <c r="E98" s="157"/>
+      <c r="F98" s="157"/>
+      <c r="G98" s="157"/>
+      <c r="H98" s="157"/>
+      <c r="I98" s="157"/>
+      <c r="J98" s="157"/>
+      <c r="K98" s="157"/>
+      <c r="L98" s="157"/>
+      <c r="M98" s="157"/>
+      <c r="N98" s="157"/>
+      <c r="O98" s="157"/>
+      <c r="P98" s="157"/>
       <c r="T98" s="142"/>
     </row>
-    <row r="99" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="159" t="s">
+    <row r="99" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="157" t="s">
         <v>264</v>
       </c>
-      <c r="B99" s="159"/>
-      <c r="C99" s="159"/>
-      <c r="D99" s="159"/>
-      <c r="E99" s="159"/>
-      <c r="F99" s="159"/>
-      <c r="G99" s="159"/>
-      <c r="H99" s="159"/>
-      <c r="I99" s="159"/>
-      <c r="J99" s="159"/>
-      <c r="K99" s="159"/>
-      <c r="L99" s="159"/>
-      <c r="M99" s="159"/>
-      <c r="N99" s="159"/>
-      <c r="O99" s="159"/>
-      <c r="P99" s="159"/>
+      <c r="B99" s="157"/>
+      <c r="C99" s="157"/>
+      <c r="D99" s="157"/>
+      <c r="E99" s="157"/>
+      <c r="F99" s="157"/>
+      <c r="G99" s="157"/>
+      <c r="H99" s="157"/>
+      <c r="I99" s="157"/>
+      <c r="J99" s="157"/>
+      <c r="K99" s="157"/>
+      <c r="L99" s="157"/>
+      <c r="M99" s="157"/>
+      <c r="N99" s="157"/>
+      <c r="O99" s="157"/>
+      <c r="P99" s="157"/>
       <c r="T99" s="142"/>
     </row>
-    <row r="100" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="159" t="s">
+    <row r="100" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="157" t="s">
         <v>265</v>
       </c>
-      <c r="B100" s="159"/>
-      <c r="C100" s="159"/>
-      <c r="D100" s="159"/>
-      <c r="E100" s="159"/>
-      <c r="F100" s="159"/>
-      <c r="G100" s="159"/>
-      <c r="H100" s="159"/>
-      <c r="I100" s="159"/>
-      <c r="J100" s="159"/>
-      <c r="K100" s="159"/>
-      <c r="L100" s="159"/>
-      <c r="M100" s="159"/>
-      <c r="N100" s="159"/>
-      <c r="O100" s="159"/>
-      <c r="P100" s="159"/>
+      <c r="B100" s="157"/>
+      <c r="C100" s="157"/>
+      <c r="D100" s="157"/>
+      <c r="E100" s="157"/>
+      <c r="F100" s="157"/>
+      <c r="G100" s="157"/>
+      <c r="H100" s="157"/>
+      <c r="I100" s="157"/>
+      <c r="J100" s="157"/>
+      <c r="K100" s="157"/>
+      <c r="L100" s="157"/>
+      <c r="M100" s="157"/>
+      <c r="N100" s="157"/>
+      <c r="O100" s="157"/>
+      <c r="P100" s="157"/>
       <c r="T100" s="142"/>
     </row>
-    <row r="101" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="167" t="s">
+    <row r="101" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="158" t="s">
         <v>266</v>
       </c>
-      <c r="B101" s="167"/>
-      <c r="C101" s="167"/>
-      <c r="D101" s="167"/>
-      <c r="E101" s="167"/>
-      <c r="F101" s="167"/>
-      <c r="G101" s="167"/>
-      <c r="H101" s="167"/>
-      <c r="I101" s="167"/>
-      <c r="J101" s="167"/>
-      <c r="K101" s="167"/>
-      <c r="L101" s="167"/>
-      <c r="M101" s="167"/>
-      <c r="N101" s="167"/>
-      <c r="O101" s="167"/>
-      <c r="P101" s="167"/>
+      <c r="B101" s="158"/>
+      <c r="C101" s="158"/>
+      <c r="D101" s="158"/>
+      <c r="E101" s="158"/>
+      <c r="F101" s="158"/>
+      <c r="G101" s="158"/>
+      <c r="H101" s="158"/>
+      <c r="I101" s="158"/>
+      <c r="J101" s="158"/>
+      <c r="K101" s="158"/>
+      <c r="L101" s="158"/>
+      <c r="M101" s="158"/>
+      <c r="N101" s="158"/>
+      <c r="O101" s="158"/>
+      <c r="P101" s="158"/>
       <c r="T101" s="142"/>
     </row>
-    <row r="102" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="165" t="s">
+    <row r="102" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="B102" s="165"/>
-      <c r="C102" s="165"/>
-      <c r="D102" s="165"/>
-      <c r="E102" s="165"/>
-      <c r="F102" s="165"/>
-      <c r="G102" s="165"/>
-      <c r="H102" s="165"/>
-      <c r="I102" s="165"/>
-      <c r="J102" s="165"/>
-      <c r="K102" s="165"/>
-      <c r="L102" s="165"/>
-      <c r="M102" s="165"/>
-      <c r="N102" s="165"/>
-      <c r="O102" s="165"/>
-      <c r="P102" s="165"/>
+      <c r="B102" s="156"/>
+      <c r="C102" s="156"/>
+      <c r="D102" s="156"/>
+      <c r="E102" s="156"/>
+      <c r="F102" s="156"/>
+      <c r="G102" s="156"/>
+      <c r="H102" s="156"/>
+      <c r="I102" s="156"/>
+      <c r="J102" s="156"/>
+      <c r="K102" s="156"/>
+      <c r="L102" s="156"/>
+      <c r="M102" s="156"/>
+      <c r="N102" s="156"/>
+      <c r="O102" s="156"/>
+      <c r="P102" s="156"/>
       <c r="T102" s="142"/>
     </row>
-    <row r="103" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="169" t="s">
+    <row r="103" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="159" t="s">
         <v>268</v>
       </c>
-      <c r="B103" s="169"/>
-      <c r="C103" s="169"/>
-      <c r="D103" s="169"/>
-      <c r="E103" s="169"/>
-      <c r="F103" s="169"/>
-      <c r="G103" s="169"/>
-      <c r="H103" s="169"/>
-      <c r="I103" s="169"/>
-      <c r="J103" s="169"/>
-      <c r="K103" s="169"/>
-      <c r="L103" s="169"/>
-      <c r="M103" s="169"/>
-      <c r="N103" s="169"/>
-      <c r="O103" s="169"/>
-      <c r="P103" s="169"/>
+      <c r="B103" s="159"/>
+      <c r="C103" s="159"/>
+      <c r="D103" s="159"/>
+      <c r="E103" s="159"/>
+      <c r="F103" s="159"/>
+      <c r="G103" s="159"/>
+      <c r="H103" s="159"/>
+      <c r="I103" s="159"/>
+      <c r="J103" s="159"/>
+      <c r="K103" s="159"/>
+      <c r="L103" s="159"/>
+      <c r="M103" s="159"/>
+      <c r="N103" s="159"/>
+      <c r="O103" s="159"/>
+      <c r="P103" s="159"/>
       <c r="T103" s="142"/>
     </row>
-    <row r="104" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="165" t="s">
+    <row r="104" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="156" t="s">
         <v>269</v>
       </c>
-      <c r="B104" s="165"/>
-      <c r="C104" s="165"/>
-      <c r="D104" s="165"/>
-      <c r="E104" s="165"/>
-      <c r="F104" s="165"/>
-      <c r="G104" s="165"/>
-      <c r="H104" s="165"/>
-      <c r="I104" s="165"/>
-      <c r="J104" s="165"/>
-      <c r="K104" s="165"/>
-      <c r="L104" s="165"/>
-      <c r="M104" s="165"/>
-      <c r="N104" s="165"/>
-      <c r="O104" s="165"/>
-      <c r="P104" s="165"/>
+      <c r="B104" s="156"/>
+      <c r="C104" s="156"/>
+      <c r="D104" s="156"/>
+      <c r="E104" s="156"/>
+      <c r="F104" s="156"/>
+      <c r="G104" s="156"/>
+      <c r="H104" s="156"/>
+      <c r="I104" s="156"/>
+      <c r="J104" s="156"/>
+      <c r="K104" s="156"/>
+      <c r="L104" s="156"/>
+      <c r="M104" s="156"/>
+      <c r="N104" s="156"/>
+      <c r="O104" s="156"/>
+      <c r="P104" s="156"/>
       <c r="T104" s="142"/>
     </row>
-    <row r="105" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="172" t="s">
+    <row r="105" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="160" t="s">
         <v>270</v>
       </c>
-      <c r="B105" s="172"/>
-      <c r="C105" s="172"/>
-      <c r="D105" s="172"/>
-      <c r="E105" s="172"/>
-      <c r="F105" s="172"/>
-      <c r="G105" s="172"/>
-      <c r="H105" s="172"/>
-      <c r="I105" s="172"/>
-      <c r="J105" s="172"/>
-      <c r="K105" s="172"/>
-      <c r="L105" s="172"/>
-      <c r="M105" s="172"/>
-      <c r="N105" s="172"/>
-      <c r="O105" s="172"/>
-      <c r="P105" s="172"/>
+      <c r="B105" s="160"/>
+      <c r="C105" s="160"/>
+      <c r="D105" s="160"/>
+      <c r="E105" s="160"/>
+      <c r="F105" s="160"/>
+      <c r="G105" s="160"/>
+      <c r="H105" s="160"/>
+      <c r="I105" s="160"/>
+      <c r="J105" s="160"/>
+      <c r="K105" s="160"/>
+      <c r="L105" s="160"/>
+      <c r="M105" s="160"/>
+      <c r="N105" s="160"/>
+      <c r="O105" s="160"/>
+      <c r="P105" s="160"/>
       <c r="T105" s="142"/>
     </row>
-    <row r="106" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="171" t="s">
+    <row r="106" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="155" t="s">
         <v>271</v>
       </c>
-      <c r="B106" s="171"/>
-      <c r="C106" s="171"/>
-      <c r="D106" s="171"/>
-      <c r="E106" s="171"/>
-      <c r="F106" s="171"/>
-      <c r="G106" s="171"/>
-      <c r="H106" s="171"/>
-      <c r="I106" s="171"/>
-      <c r="J106" s="171"/>
-      <c r="K106" s="171"/>
-      <c r="L106" s="171"/>
-      <c r="M106" s="171"/>
-      <c r="N106" s="171"/>
-      <c r="O106" s="171"/>
-      <c r="P106" s="171"/>
+      <c r="B106" s="155"/>
+      <c r="C106" s="155"/>
+      <c r="D106" s="155"/>
+      <c r="E106" s="155"/>
+      <c r="F106" s="155"/>
+      <c r="G106" s="155"/>
+      <c r="H106" s="155"/>
+      <c r="I106" s="155"/>
+      <c r="J106" s="155"/>
+      <c r="K106" s="155"/>
+      <c r="L106" s="155"/>
+      <c r="M106" s="155"/>
+      <c r="N106" s="155"/>
+      <c r="O106" s="155"/>
+      <c r="P106" s="155"/>
       <c r="T106" s="142"/>
     </row>
-    <row r="107" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="165" t="s">
+    <row r="107" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="156" t="s">
         <v>272</v>
       </c>
-      <c r="B107" s="165"/>
-      <c r="C107" s="165"/>
-      <c r="D107" s="165"/>
-      <c r="E107" s="165"/>
-      <c r="F107" s="165"/>
-      <c r="G107" s="165"/>
-      <c r="H107" s="165"/>
-      <c r="I107" s="165"/>
-      <c r="J107" s="165"/>
-      <c r="K107" s="165"/>
-      <c r="L107" s="165"/>
-      <c r="M107" s="165"/>
-      <c r="N107" s="165"/>
-      <c r="O107" s="165"/>
-      <c r="P107" s="165"/>
+      <c r="B107" s="156"/>
+      <c r="C107" s="156"/>
+      <c r="D107" s="156"/>
+      <c r="E107" s="156"/>
+      <c r="F107" s="156"/>
+      <c r="G107" s="156"/>
+      <c r="H107" s="156"/>
+      <c r="I107" s="156"/>
+      <c r="J107" s="156"/>
+      <c r="K107" s="156"/>
+      <c r="L107" s="156"/>
+      <c r="M107" s="156"/>
+      <c r="N107" s="156"/>
+      <c r="O107" s="156"/>
+      <c r="P107" s="156"/>
       <c r="T107" s="142"/>
     </row>
-    <row r="108" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="159" t="s">
+    <row r="108" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="157" t="s">
         <v>273</v>
       </c>
-      <c r="B108" s="159"/>
-      <c r="C108" s="159"/>
-      <c r="D108" s="159"/>
-      <c r="E108" s="159"/>
-      <c r="F108" s="159"/>
-      <c r="G108" s="159"/>
-      <c r="H108" s="159"/>
-      <c r="I108" s="159"/>
-      <c r="J108" s="159"/>
-      <c r="K108" s="159"/>
-      <c r="L108" s="159"/>
-      <c r="M108" s="159"/>
-      <c r="N108" s="159"/>
-      <c r="O108" s="159"/>
-      <c r="P108" s="159"/>
+      <c r="B108" s="157"/>
+      <c r="C108" s="157"/>
+      <c r="D108" s="157"/>
+      <c r="E108" s="157"/>
+      <c r="F108" s="157"/>
+      <c r="G108" s="157"/>
+      <c r="H108" s="157"/>
+      <c r="I108" s="157"/>
+      <c r="J108" s="157"/>
+      <c r="K108" s="157"/>
+      <c r="L108" s="157"/>
+      <c r="M108" s="157"/>
+      <c r="N108" s="157"/>
+      <c r="O108" s="157"/>
+      <c r="P108" s="157"/>
       <c r="T108" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A106:P106"/>
-    <mergeCell ref="A107:P107"/>
-    <mergeCell ref="A108:P108"/>
-    <mergeCell ref="A100:P100"/>
-    <mergeCell ref="A101:P101"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A103:P103"/>
-    <mergeCell ref="A104:P104"/>
-    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A38:P38"/>
+    <mergeCell ref="A51:P51"/>
+    <mergeCell ref="A40:P40"/>
+    <mergeCell ref="A41:P41"/>
+    <mergeCell ref="A42:P42"/>
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="A44:P44"/>
+    <mergeCell ref="A45:P45"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A47:P47"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="A49:P49"/>
+    <mergeCell ref="A50:P50"/>
+    <mergeCell ref="A63:P63"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:P57"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="A62:P62"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A66:P66"/>
+    <mergeCell ref="A67:P67"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="A69:P69"/>
+    <mergeCell ref="A70:P70"/>
+    <mergeCell ref="A71:P71"/>
+    <mergeCell ref="A72:P72"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="A77:P77"/>
+    <mergeCell ref="A78:P78"/>
+    <mergeCell ref="A79:P79"/>
+    <mergeCell ref="A80:P80"/>
+    <mergeCell ref="A81:P81"/>
+    <mergeCell ref="A82:P82"/>
+    <mergeCell ref="A83:P83"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A86:P86"/>
     <mergeCell ref="A99:P99"/>
     <mergeCell ref="A88:P88"/>
     <mergeCell ref="A89:P89"/>
@@ -10504,126 +10592,81 @@
     <mergeCell ref="A96:P96"/>
     <mergeCell ref="A97:P97"/>
     <mergeCell ref="A98:P98"/>
-    <mergeCell ref="A87:P87"/>
-    <mergeCell ref="A76:P76"/>
-    <mergeCell ref="A77:P77"/>
-    <mergeCell ref="A78:P78"/>
-    <mergeCell ref="A79:P79"/>
-    <mergeCell ref="A80:P80"/>
-    <mergeCell ref="A81:P81"/>
-    <mergeCell ref="A82:P82"/>
-    <mergeCell ref="A83:P83"/>
-    <mergeCell ref="A84:P84"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="A66:P66"/>
-    <mergeCell ref="A67:P67"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="A69:P69"/>
-    <mergeCell ref="A70:P70"/>
-    <mergeCell ref="A71:P71"/>
-    <mergeCell ref="A72:P72"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A63:P63"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="A54:P54"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:P57"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="A62:P62"/>
-    <mergeCell ref="A51:P51"/>
-    <mergeCell ref="A40:P40"/>
-    <mergeCell ref="A41:P41"/>
-    <mergeCell ref="A42:P42"/>
-    <mergeCell ref="A43:P43"/>
-    <mergeCell ref="A44:P44"/>
-    <mergeCell ref="A45:P45"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A47:P47"/>
-    <mergeCell ref="A48:P48"/>
-    <mergeCell ref="A49:P49"/>
-    <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A38:P38"/>
+    <mergeCell ref="A106:P106"/>
+    <mergeCell ref="A107:P107"/>
+    <mergeCell ref="A108:P108"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="A101:P101"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A103:P103"/>
+    <mergeCell ref="A104:P104"/>
+    <mergeCell ref="A105:P105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="10" width="8.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.3984375" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" customWidth="1"/>
+    <col min="8" max="8" width="8.1328125" customWidth="1"/>
+    <col min="9" max="10" width="8.265625" customWidth="1"/>
+    <col min="11" max="11" width="8.59765625" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7.86328125" customWidth="1"/>
+    <col min="14" max="14" width="8.59765625" customWidth="1"/>
+    <col min="15" max="15" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="173" t="s">
+    <row r="4" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="175" t="s">
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="175" t="s">
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="176"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="178" t="s">
+      <c r="M4" s="181"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="183" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="174"/>
+    <row r="5" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="179"/>
       <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
@@ -10660,9 +10703,9 @@
       <c r="N5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="179"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="184"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" s="10" t="s">
         <v>43</v>
       </c>
@@ -10706,7 +10749,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B7" s="16" t="s">
         <v>44</v>
       </c>
@@ -10750,7 +10793,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B8" s="16" t="s">
         <v>45</v>
       </c>
@@ -10794,7 +10837,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B9" s="16" t="s">
         <v>46</v>
       </c>
@@ -10838,7 +10881,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B10" s="16" t="s">
         <v>47</v>
       </c>
@@ -10882,7 +10925,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B11" s="16" t="s">
         <v>48</v>
       </c>
@@ -10926,7 +10969,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B12" s="16" t="s">
         <v>49</v>
       </c>
@@ -10970,7 +11013,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B13" s="16" t="s">
         <v>50</v>
       </c>
@@ -11014,7 +11057,7 @@
         <v>14644</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B14" s="16" t="s">
         <v>51</v>
       </c>
@@ -11058,7 +11101,7 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B15" s="16" t="s">
         <v>52</v>
       </c>
@@ -11102,7 +11145,7 @@
         <v>56534</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B16" s="16" t="s">
         <v>53</v>
       </c>
@@ -11146,7 +11189,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" s="16" t="s">
         <v>54</v>
       </c>
@@ -11190,7 +11233,7 @@
         <v>40111</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" s="16" t="s">
         <v>55</v>
       </c>
@@ -11234,7 +11277,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" s="16" t="s">
         <v>56</v>
       </c>
@@ -11278,7 +11321,7 @@
         <v>12267</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" s="16" t="s">
         <v>57</v>
       </c>
@@ -11322,7 +11365,7 @@
         <v>33645</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21" s="16" t="s">
         <v>58</v>
       </c>
@@ -11366,7 +11409,7 @@
         <v>6147</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22" s="16" t="s">
         <v>59</v>
       </c>
@@ -11410,7 +11453,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23" s="16" t="s">
         <v>60</v>
       </c>
@@ -11454,7 +11497,7 @@
         <v>16421</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B24" s="16" t="s">
         <v>61</v>
       </c>
@@ -11498,7 +11541,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B25" s="16" t="s">
         <v>62</v>
       </c>
@@ -11542,7 +11585,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26" s="16" t="s">
         <v>63</v>
       </c>
@@ -11586,7 +11629,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B27" s="16" t="s">
         <v>64</v>
       </c>
@@ -11630,7 +11673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B28" s="16" t="s">
         <v>65</v>
       </c>
@@ -11674,7 +11717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B29" s="16" t="s">
         <v>66</v>
       </c>
@@ -11718,7 +11761,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30" s="16" t="s">
         <v>67</v>
       </c>
@@ -11762,7 +11805,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B31" s="16" t="s">
         <v>68</v>
       </c>
@@ -11806,7 +11849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B32" s="16" t="s">
         <v>69</v>
       </c>
@@ -11850,7 +11893,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B33" s="16" t="s">
         <v>70</v>
       </c>
@@ -11894,7 +11937,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B34" s="16" t="s">
         <v>71</v>
       </c>
@@ -11938,7 +11981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35" s="16" t="s">
         <v>72</v>
       </c>
@@ -11982,7 +12025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B36" s="16" t="s">
         <v>73</v>
       </c>
@@ -12026,7 +12069,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B37" s="16" t="s">
         <v>74</v>
       </c>
@@ -12070,7 +12113,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B38" s="16" t="s">
         <v>75</v>
       </c>
@@ -12114,7 +12157,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B39" s="16" t="s">
         <v>76</v>
       </c>
@@ -12158,7 +12201,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B40" s="16" t="s">
         <v>77</v>
       </c>
@@ -12202,7 +12245,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B41" s="16" t="s">
         <v>78</v>
       </c>
@@ -12246,7 +12289,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B42" s="16" t="s">
         <v>79</v>
       </c>
@@ -12290,7 +12333,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B43" s="16" t="s">
         <v>80</v>
       </c>
@@ -12334,7 +12377,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B44" s="16" t="s">
         <v>81</v>
       </c>
@@ -12379,7 +12422,7 @@
       </c>
       <c r="Q44" s="23"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B45" s="24" t="s">
         <v>82</v>
       </c>
@@ -12424,7 +12467,7 @@
       </c>
       <c r="Q45" s="30"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B46" s="16" t="s">
         <v>83</v>
       </c>
@@ -12468,7 +12511,7 @@
         <v>8634</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B47" s="16" t="s">
         <v>84</v>
       </c>
@@ -12512,7 +12555,7 @@
         <v>5292</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B48" s="16" t="s">
         <v>85</v>
       </c>
@@ -12556,7 +12599,7 @@
         <v>50897</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B49" s="16" t="s">
         <v>86</v>
       </c>
@@ -12600,7 +12643,7 @@
         <v>78680</v>
       </c>
     </row>
-    <row r="50" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B50" s="16" t="s">
         <v>87</v>
       </c>
@@ -12644,7 +12687,7 @@
         <v>37518</v>
       </c>
     </row>
-    <row r="51" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B51" s="16" t="s">
         <v>88</v>
       </c>
@@ -12688,7 +12731,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B52" s="24" t="s">
         <v>89</v>
       </c>
@@ -12732,7 +12775,7 @@
         <v>195468</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B53" s="16" t="s">
         <v>90</v>
       </c>
@@ -12776,7 +12819,7 @@
         <v>210331</v>
       </c>
     </row>
-    <row r="54" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B54" s="24" t="s">
         <v>91</v>
       </c>
@@ -12820,7 +12863,7 @@
         <v>210331</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B55" s="37"/>
       <c r="C55" s="38"/>
       <c r="D55" s="39"/>
@@ -12836,7 +12879,7 @@
       <c r="N55" s="41"/>
       <c r="O55" s="42"/>
     </row>
-    <row r="56" spans="2:15" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B56" s="43" t="s">
         <v>92</v>
       </c>
@@ -12880,17 +12923,17 @@
         <v>659858</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B58" s="49" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B59" s="49" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B60" s="49" t="s">
         <v>93</v>
       </c>
@@ -12908,24 +12951,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="30.86328125" customWidth="1"/>
+    <col min="3" max="3" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="71" t="s">
         <v>115</v>
       </c>
@@ -12934,7 +12977,7 @@
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="72" t="s">
         <v>116</v>
       </c>
@@ -12947,7 +12990,7 @@
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="73">
         <v>0.21299999999999999</v>
       </c>
@@ -12959,25 +13002,25 @@
         <v>0.44899999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="70"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>Population!B13</f>
         <v>311582564</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B10" s="70"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="75">
         <f>A8/1000*C5</f>
         <v>139900.57123599999</v>
@@ -12990,25 +13033,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" customWidth="1"/>
+    <col min="2" max="2" width="29.265625" customWidth="1"/>
+    <col min="3" max="3" width="16.73046875" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="77" t="s">
         <v>133</v>
       </c>
@@ -13016,7 +13059,7 @@
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>126</v>
       </c>
@@ -13028,7 +13071,7 @@
       </c>
       <c r="D4" s="70"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="73">
         <v>286180</v>
       </c>
@@ -13039,7 +13082,7 @@
         <v>11162</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>135</v>
       </c>
@@ -13047,7 +13090,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="73">
         <v>2007</v>
       </c>
@@ -13056,7 +13099,7 @@
         <v>301579895</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="73">
         <v>2011</v>
       </c>
@@ -13065,7 +13108,7 @@
         <v>311582564</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="77" t="s">
         <v>136</v>
       </c>
@@ -13073,7 +13116,7 @@
       <c r="C11" s="78"/>
       <c r="D11" s="78"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>126</v>
       </c>
@@ -13085,7 +13128,7 @@
       </c>
       <c r="D12" s="70"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="79">
         <f>A5*($B9/$B8)</f>
         <v>295671.89207198308</v>
@@ -13099,7 +13142,7 @@
         <v>11532.216295015289</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>137</v>
       </c>

--- a/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
+++ b/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\FoVObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india-analysis\InputData\trans\FoVObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72786D6-DEF9-43BB-8947-931400C4EE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,15 @@
     <sheet name="Taxis and Limos" sheetId="8" r:id="rId10"/>
     <sheet name="Population" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2335,7 +2339,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,###"/>
     <numFmt numFmtId="165" formatCode="\(\R\)\ #,##0"/>
@@ -3435,34 +3439,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3477,32 +3485,29 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3525,17 +3530,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Data_Sheet1 (2)_1" xfId="5"/>
-    <cellStyle name="Hed Side" xfId="3"/>
-    <cellStyle name="Hed Side_Sheet1 (2)_1" xfId="4"/>
+    <cellStyle name="Data_Sheet1 (2)_1" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hed Side" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hed Side_Sheet1 (2)_1" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Source Text" xfId="7"/>
-    <cellStyle name="Table Title" xfId="1"/>
-    <cellStyle name="Title-1" xfId="2"/>
+    <cellStyle name="Source Text" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Table Title" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Title-1" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3626,6 +3630,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3661,6 +3682,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3836,26 +3874,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" customWidth="1"/>
-    <col min="2" max="2" width="100.73046875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -3863,317 +3901,317 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="73">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="73">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="76" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="73">
         <v>2011</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="76" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="73">
         <v>2010</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="76" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="76" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="72" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="73" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="73">
         <v>2009</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="73" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="113" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="73"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="73" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="73" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="113" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="73"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="72" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="73" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" s="73">
         <v>2012</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="73" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="113" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B28" r:id="rId1"/>
-    <hyperlink ref="B42" r:id="rId2"/>
-    <hyperlink ref="B55" r:id="rId3"/>
-    <hyperlink ref="B61" r:id="rId4"/>
-    <hyperlink ref="B49" r:id="rId5"/>
+    <hyperlink ref="B28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B55" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B61" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B49" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -4181,48 +4219,48 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="87.59765625" customWidth="1"/>
+    <col min="2" max="2" width="87.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="70"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
         <v>233000</v>
       </c>
@@ -4233,18 +4271,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.59765625" customWidth="1"/>
-    <col min="3" max="3" width="22.73046875" style="115" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="115" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -4255,7 +4293,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="110">
         <v>2000</v>
       </c>
@@ -4266,7 +4304,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -4277,7 +4315,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="110">
         <v>2002</v>
       </c>
@@ -4288,7 +4326,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -4299,7 +4337,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="110">
         <v>2004</v>
       </c>
@@ -4310,7 +4348,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -4321,7 +4359,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="110">
         <v>2006</v>
       </c>
@@ -4332,7 +4370,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -4343,7 +4381,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="110">
         <v>2008</v>
       </c>
@@ -4354,7 +4392,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -4365,7 +4403,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="110">
         <v>2010</v>
       </c>
@@ -4376,7 +4414,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -4387,7 +4425,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -4398,7 +4436,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -4409,7 +4447,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -4421,7 +4459,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -4432,7 +4470,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -4443,7 +4481,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -4454,7 +4492,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -4465,7 +4503,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -4476,7 +4514,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -4487,7 +4525,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -4498,7 +4536,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -4509,7 +4547,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2023</v>
       </c>
@@ -4520,7 +4558,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2024</v>
       </c>
@@ -4531,7 +4569,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2025</v>
       </c>
@@ -4542,7 +4580,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2026</v>
       </c>
@@ -4553,7 +4591,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -4564,7 +4602,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2028</v>
       </c>
@@ -4575,7 +4613,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2029</v>
       </c>
@@ -4586,7 +4624,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2030</v>
       </c>
@@ -4597,7 +4635,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2031</v>
       </c>
@@ -4608,7 +4646,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2032</v>
       </c>
@@ -4619,7 +4657,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2033</v>
       </c>
@@ -4630,7 +4668,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2034</v>
       </c>
@@ -4641,7 +4679,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2035</v>
       </c>
@@ -4652,7 +4690,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2036</v>
       </c>
@@ -4663,7 +4701,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2037</v>
       </c>
@@ -4674,7 +4712,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2038</v>
       </c>
@@ -4685,7 +4723,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2039</v>
       </c>
@@ -4696,7 +4734,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2040</v>
       </c>
@@ -4707,7 +4745,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2041</v>
       </c>
@@ -4718,7 +4756,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2042</v>
       </c>
@@ -4729,7 +4767,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2043</v>
       </c>
@@ -4740,7 +4778,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2044</v>
       </c>
@@ -4751,7 +4789,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2045</v>
       </c>
@@ -4762,7 +4800,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2046</v>
       </c>
@@ -4773,7 +4811,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2047</v>
       </c>
@@ -4784,7 +4822,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2048</v>
       </c>
@@ -4795,7 +4833,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2049</v>
       </c>
@@ -4806,7 +4844,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2050</v>
       </c>
@@ -4817,7 +4855,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2051</v>
       </c>
@@ -4828,7 +4866,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2052</v>
       </c>
@@ -4839,7 +4877,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2053</v>
       </c>
@@ -4850,7 +4888,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2054</v>
       </c>
@@ -4861,7 +4899,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2055</v>
       </c>
@@ -4872,7 +4910,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2056</v>
       </c>
@@ -4883,7 +4921,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2057</v>
       </c>
@@ -4894,7 +4932,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2058</v>
       </c>
@@ -4905,7 +4943,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2059</v>
       </c>
@@ -4916,7 +4954,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2060</v>
       </c>
@@ -4933,7 +4971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -4943,16 +4981,16 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="51.3984375" customWidth="1"/>
-    <col min="3" max="4" width="16.3984375" customWidth="1"/>
-    <col min="5" max="6" width="16.86328125" customWidth="1"/>
-    <col min="7" max="7" width="65.73046875" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col min="3" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="120" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" s="120" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="116" t="s">
         <v>1</v>
       </c>
@@ -4975,7 +5013,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
@@ -5005,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
         <v>13</v>
       </c>
@@ -5032,7 +5070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>15</v>
       </c>
@@ -5061,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>17</v>
       </c>
@@ -5088,7 +5126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
         <v>19</v>
       </c>
@@ -5115,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="84" t="s">
         <v>155</v>
       </c>
@@ -5144,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>3</v>
       </c>
@@ -5161,17 +5199,17 @@
         <v>0</v>
       </c>
       <c r="F8" s="91">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G8" s="83" t="s">
         <v>306</v>
       </c>
       <c r="I8" s="121">
         <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="82" t="s">
         <v>14</v>
       </c>
@@ -5193,12 +5231,12 @@
       <c r="G9" s="83" t="s">
         <v>307</v>
       </c>
-      <c r="I9" s="185">
+      <c r="I9" s="155">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
         <v>16</v>
       </c>
@@ -5227,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
         <v>18</v>
       </c>
@@ -5254,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="96" t="s">
         <v>20</v>
       </c>
@@ -5276,12 +5314,12 @@
       <c r="G12" s="101" t="s">
         <v>308</v>
       </c>
-      <c r="I12" s="185">
+      <c r="I12" s="155">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="104" t="s">
         <v>157</v>
       </c>
@@ -5308,12 +5346,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -5324,25 +5362,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J7"/>
+      <selection sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.265625" customWidth="1"/>
-    <col min="2" max="4" width="15.73046875" customWidth="1"/>
-    <col min="6" max="6" width="10.265625" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="150" t="s">
         <v>292</v>
       </c>
@@ -5374,7 +5412,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -5414,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -5454,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -5494,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -5534,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -5574,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -5620,25 +5658,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.265625" customWidth="1"/>
-    <col min="2" max="4" width="15.73046875" customWidth="1"/>
-    <col min="6" max="6" width="10.86328125" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="150" t="s">
         <v>292</v>
       </c>
@@ -5670,7 +5708,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -5691,30 +5729,27 @@
       </c>
       <c r="F2" s="121">
         <f>Results!$F8/5</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G2" s="121">
         <f t="shared" ref="G2:G7" si="0">F2</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H2" s="121">
         <f t="shared" ref="H2:J2" si="1">G2</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I2" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J2" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L2" s="121">
-        <f>SUM(B2:J2)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.04</v>
+      </c>
+      <c r="L2" s="121"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -5753,12 +5788,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L3" s="121">
-        <f t="shared" ref="L3:L7" si="3">SUM(B3:J3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L3" s="121"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -5786,23 +5818,20 @@
         <v>0</v>
       </c>
       <c r="H4" s="121">
-        <f t="shared" ref="H4:J4" si="4">G4</f>
+        <f t="shared" ref="H4:J4" si="3">G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J4" s="121">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="121">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="L4" s="121"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -5830,23 +5859,20 @@
         <v>0</v>
       </c>
       <c r="H5" s="121">
-        <f t="shared" ref="H5:J5" si="5">G5</f>
+        <f t="shared" ref="H5:J5" si="4">G5</f>
         <v>0</v>
       </c>
       <c r="I5" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J5" s="121">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="121">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="121"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -5874,23 +5900,20 @@
         <v>0.04</v>
       </c>
       <c r="H6" s="121">
-        <f t="shared" ref="H6:J6" si="6">G6</f>
+        <f t="shared" ref="H6:J6" si="5">G6</f>
         <v>0.04</v>
       </c>
       <c r="I6" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="J6" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="L6" s="121">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L6" s="121"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -5918,21 +5941,18 @@
         <v>0</v>
       </c>
       <c r="H7" s="121">
-        <f t="shared" ref="H7:J7" si="7">G7</f>
+        <f t="shared" ref="H7:J7" si="6">G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J7" s="121">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="121">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5940,7 +5960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -5948,9 +5968,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.14000000000000001</v>
       </c>
@@ -5958,7 +5978,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.86</v>
       </c>
@@ -5972,59 +5992,59 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AE108"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="A19" activeCellId="1" sqref="A16:XFD16 A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.59765625" style="122" customWidth="1"/>
-    <col min="2" max="3" width="9.73046875" style="122" customWidth="1"/>
-    <col min="4" max="19" width="10.73046875" style="122" customWidth="1"/>
-    <col min="20" max="20" width="10.73046875" style="143" customWidth="1"/>
-    <col min="21" max="31" width="10.73046875" style="122" customWidth="1"/>
-    <col min="32" max="16384" width="9.1328125" style="122"/>
+    <col min="1" max="1" width="50.5703125" style="122" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" style="122" customWidth="1"/>
+    <col min="4" max="19" width="10.7109375" style="122" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="143" customWidth="1"/>
+    <col min="21" max="31" width="10.7109375" style="122" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="122"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="174" t="s">
+    <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-    </row>
-    <row r="2" spans="1:31" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="157"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="157"/>
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+    </row>
+    <row r="2" spans="1:31" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
       <c r="B2" s="51">
         <v>1960</v>
@@ -6117,7 +6137,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>95</v>
       </c>
@@ -6152,7 +6172,7 @@
       <c r="AD3" s="55"/>
       <c r="AE3" s="124"/>
     </row>
-    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
         <v>96</v>
       </c>
@@ -6247,7 +6267,7 @@
         <v>6733</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>97</v>
       </c>
@@ -6342,7 +6362,7 @@
         <v>199927</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
         <v>99</v>
       </c>
@@ -6465,7 +6485,7 @@
         <v>255876822.00000003</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
         <v>189</v>
       </c>
@@ -6560,7 +6580,7 @@
         <v>184497490.31559649</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>191</v>
       </c>
@@ -6655,7 +6675,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
         <v>100</v>
       </c>
@@ -6750,7 +6770,7 @@
         <v>8404687</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>192</v>
       </c>
@@ -6845,7 +6865,7 @@
         <v>51512739.866532281</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>193</v>
       </c>
@@ -6940,7 +6960,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>194</v>
       </c>
@@ -7035,7 +7055,7 @@
         <v>8126007.221129314</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
         <v>195</v>
       </c>
@@ -7130,7 +7150,7 @@
         <v>2471348.7033206243</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
         <v>101</v>
       </c>
@@ -7225,7 +7245,7 @@
         <v>864548.89342128637</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="62" t="s">
         <v>196</v>
       </c>
@@ -7260,7 +7280,7 @@
       <c r="AD15" s="55"/>
       <c r="AE15" s="129"/>
     </row>
-    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>197</v>
       </c>
@@ -7355,7 +7375,7 @@
         <v>62576</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>198</v>
       </c>
@@ -7450,7 +7470,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
         <v>102</v>
       </c>
@@ -7545,7 +7565,7 @@
         <v>10380</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56" t="s">
         <v>103</v>
       </c>
@@ -7640,7 +7660,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>104</v>
       </c>
@@ -7735,7 +7755,7 @@
         <v>7150</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="56" t="s">
         <v>199</v>
       </c>
@@ -7830,7 +7850,7 @@
         <v>27543</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
         <v>200</v>
       </c>
@@ -7925,7 +7945,7 @@
         <v>25930</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
         <v>105</v>
       </c>
@@ -7960,7 +7980,7 @@
       <c r="AD23" s="55"/>
       <c r="AE23" s="129"/>
     </row>
-    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
         <v>106</v>
       </c>
@@ -8055,7 +8075,7 @@
         <v>373838</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
         <v>107</v>
       </c>
@@ -8150,7 +8170,7 @@
         <v>25033</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
         <v>108</v>
       </c>
@@ -8245,7 +8265,7 @@
         <v>88122</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>109</v>
       </c>
@@ -8340,7 +8360,7 @@
         <v>873679</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56" t="s">
         <v>110</v>
       </c>
@@ -8435,7 +8455,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="56" t="s">
         <v>111</v>
       </c>
@@ -8530,7 +8550,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="53" t="s">
         <v>112</v>
       </c>
@@ -8565,7 +8585,7 @@
       <c r="AD30" s="54"/>
       <c r="AE30" s="129"/>
     </row>
-    <row r="31" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="s">
         <v>201</v>
       </c>
@@ -8660,7 +8680,7 @@
         <v>31081</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="s">
         <v>202</v>
       </c>
@@ -8755,7 +8775,7 @@
         <v>8918</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="64" t="s">
         <v>203</v>
       </c>
@@ -8850,7 +8870,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="65" t="s">
         <v>204</v>
       </c>
@@ -8945,25 +8965,25 @@
         <v>12013496</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="175" t="s">
+    <row r="35" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="158" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="175"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="175"/>
-      <c r="L35" s="175"/>
-      <c r="M35" s="175"/>
-      <c r="N35" s="175"/>
-      <c r="O35" s="175"/>
-      <c r="P35" s="175"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
+      <c r="K35" s="158"/>
+      <c r="L35" s="158"/>
+      <c r="M35" s="158"/>
+      <c r="N35" s="158"/>
+      <c r="O35" s="158"/>
+      <c r="P35" s="158"/>
       <c r="Q35" s="68"/>
       <c r="R35" s="68"/>
       <c r="S35" s="68"/>
@@ -8979,212 +8999,212 @@
       <c r="AC35" s="68"/>
       <c r="AE35" s="122"/>
     </row>
-    <row r="36" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="176"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="176"/>
-      <c r="K36" s="176"/>
-      <c r="L36" s="176"/>
-      <c r="M36" s="176"/>
-      <c r="N36" s="176"/>
-      <c r="O36" s="176"/>
-      <c r="P36" s="176"/>
+    <row r="36" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="159"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
+      <c r="K36" s="159"/>
+      <c r="L36" s="159"/>
+      <c r="M36" s="159"/>
+      <c r="N36" s="159"/>
+      <c r="O36" s="159"/>
+      <c r="P36" s="159"/>
       <c r="Q36" s="135"/>
       <c r="R36" s="136"/>
       <c r="S36" s="136"/>
       <c r="T36" s="137"/>
     </row>
-    <row r="37" spans="1:31" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="177" t="s">
+    <row r="37" spans="1:31" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="177"/>
-      <c r="F37" s="177"/>
-      <c r="G37" s="177"/>
-      <c r="H37" s="177"/>
-      <c r="I37" s="177"/>
-      <c r="J37" s="177"/>
-      <c r="K37" s="177"/>
-      <c r="L37" s="177"/>
-      <c r="M37" s="177"/>
-      <c r="N37" s="177"/>
-      <c r="O37" s="177"/>
-      <c r="P37" s="177"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="160"/>
+      <c r="K37" s="160"/>
+      <c r="L37" s="160"/>
+      <c r="M37" s="160"/>
+      <c r="N37" s="160"/>
+      <c r="O37" s="160"/>
+      <c r="P37" s="160"/>
       <c r="Q37" s="138"/>
       <c r="R37" s="138"/>
       <c r="S37" s="138"/>
       <c r="T37" s="139"/>
     </row>
-    <row r="38" spans="1:31" s="140" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="172" t="s">
+    <row r="38" spans="1:31" s="140" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="B38" s="172"/>
-      <c r="C38" s="172"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
-      <c r="K38" s="172"/>
-      <c r="L38" s="172"/>
-      <c r="M38" s="172"/>
-      <c r="N38" s="172"/>
-      <c r="O38" s="172"/>
-      <c r="P38" s="172"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="161"/>
+      <c r="N38" s="161"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="161"/>
       <c r="Q38" s="138"/>
       <c r="R38" s="138"/>
       <c r="S38" s="138"/>
       <c r="T38" s="139"/>
     </row>
-    <row r="39" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="173" t="s">
+    <row r="39" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="156" t="s">
         <v>208</v>
       </c>
-      <c r="B39" s="173"/>
-      <c r="C39" s="173"/>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="173"/>
-      <c r="H39" s="173"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="173"/>
-      <c r="K39" s="173"/>
-      <c r="L39" s="173"/>
-      <c r="M39" s="173"/>
-      <c r="N39" s="173"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="173"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="156"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="156"/>
+      <c r="N39" s="156"/>
+      <c r="O39" s="156"/>
+      <c r="P39" s="156"/>
       <c r="Q39" s="138"/>
       <c r="R39" s="138"/>
       <c r="S39" s="138"/>
       <c r="T39" s="139"/>
     </row>
-    <row r="40" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="171" t="s">
+    <row r="40" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="163" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="171"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="171"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
-      <c r="K40" s="171"/>
-      <c r="L40" s="171"/>
-      <c r="M40" s="171"/>
-      <c r="N40" s="171"/>
-      <c r="O40" s="171"/>
-      <c r="P40" s="171"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="163"/>
+      <c r="J40" s="163"/>
+      <c r="K40" s="163"/>
+      <c r="L40" s="163"/>
+      <c r="M40" s="163"/>
+      <c r="N40" s="163"/>
+      <c r="O40" s="163"/>
+      <c r="P40" s="163"/>
       <c r="Q40" s="138"/>
       <c r="R40" s="138"/>
       <c r="S40" s="138"/>
       <c r="T40" s="139"/>
     </row>
-    <row r="41" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="171" t="s">
+    <row r="41" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="163" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="171"/>
-      <c r="C41" s="171"/>
-      <c r="D41" s="171"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
-      <c r="L41" s="171"/>
-      <c r="M41" s="171"/>
-      <c r="N41" s="171"/>
-      <c r="O41" s="171"/>
-      <c r="P41" s="171"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="163"/>
+      <c r="J41" s="163"/>
+      <c r="K41" s="163"/>
+      <c r="L41" s="163"/>
+      <c r="M41" s="163"/>
+      <c r="N41" s="163"/>
+      <c r="O41" s="163"/>
+      <c r="P41" s="163"/>
       <c r="Q41" s="138"/>
       <c r="R41" s="138"/>
       <c r="S41" s="138"/>
       <c r="T41" s="139"/>
     </row>
-    <row r="42" spans="1:31" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="172" t="s">
+    <row r="42" spans="1:31" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="161" t="s">
         <v>211</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="172"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
-      <c r="K42" s="172"/>
-      <c r="L42" s="172"/>
-      <c r="M42" s="172"/>
-      <c r="N42" s="172"/>
-      <c r="O42" s="172"/>
-      <c r="P42" s="172"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="161"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="161"/>
+      <c r="L42" s="161"/>
+      <c r="M42" s="161"/>
+      <c r="N42" s="161"/>
+      <c r="O42" s="161"/>
+      <c r="P42" s="161"/>
       <c r="T42" s="139"/>
     </row>
-    <row r="43" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="173" t="s">
+    <row r="43" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="156" t="s">
         <v>212</v>
       </c>
-      <c r="B43" s="173"/>
-      <c r="C43" s="173"/>
-      <c r="D43" s="173"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="173"/>
-      <c r="G43" s="173"/>
-      <c r="H43" s="173"/>
-      <c r="I43" s="173"/>
-      <c r="J43" s="173"/>
-      <c r="K43" s="173"/>
-      <c r="L43" s="173"/>
-      <c r="M43" s="173"/>
-      <c r="N43" s="173"/>
-      <c r="O43" s="173"/>
-      <c r="P43" s="173"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="156"/>
+      <c r="P43" s="156"/>
       <c r="T43" s="139"/>
     </row>
-    <row r="44" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="173" t="s">
+    <row r="44" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="156" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="173"/>
-      <c r="C44" s="173"/>
-      <c r="D44" s="173"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="173"/>
-      <c r="G44" s="173"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="173"/>
-      <c r="K44" s="173"/>
-      <c r="L44" s="173"/>
-      <c r="M44" s="173"/>
-      <c r="N44" s="173"/>
-      <c r="O44" s="173"/>
-      <c r="P44" s="173"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="156"/>
+      <c r="L44" s="156"/>
+      <c r="M44" s="156"/>
+      <c r="N44" s="156"/>
+      <c r="O44" s="156"/>
+      <c r="P44" s="156"/>
       <c r="T44" s="139"/>
     </row>
-    <row r="45" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="164" t="s">
         <v>214</v>
       </c>
@@ -9205,152 +9225,152 @@
       <c r="P45" s="164"/>
       <c r="T45" s="139"/>
     </row>
-    <row r="46" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="171" t="s">
+    <row r="46" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="163" t="s">
         <v>215</v>
       </c>
-      <c r="B46" s="171"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
-      <c r="G46" s="171"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="171"/>
-      <c r="J46" s="171"/>
-      <c r="K46" s="171"/>
-      <c r="L46" s="171"/>
-      <c r="M46" s="171"/>
-      <c r="N46" s="171"/>
-      <c r="O46" s="171"/>
-      <c r="P46" s="171"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="163"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="163"/>
+      <c r="I46" s="163"/>
+      <c r="J46" s="163"/>
+      <c r="K46" s="163"/>
+      <c r="L46" s="163"/>
+      <c r="M46" s="163"/>
+      <c r="N46" s="163"/>
+      <c r="O46" s="163"/>
+      <c r="P46" s="163"/>
       <c r="T46" s="139"/>
     </row>
-    <row r="47" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="171" t="s">
+    <row r="47" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="163" t="s">
         <v>216</v>
       </c>
-      <c r="B47" s="171"/>
-      <c r="C47" s="171"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
-      <c r="G47" s="171"/>
-      <c r="H47" s="171"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="171"/>
-      <c r="K47" s="171"/>
-      <c r="L47" s="171"/>
-      <c r="M47" s="171"/>
-      <c r="N47" s="171"/>
-      <c r="O47" s="171"/>
-      <c r="P47" s="171"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="163"/>
+      <c r="F47" s="163"/>
+      <c r="G47" s="163"/>
+      <c r="H47" s="163"/>
+      <c r="I47" s="163"/>
+      <c r="J47" s="163"/>
+      <c r="K47" s="163"/>
+      <c r="L47" s="163"/>
+      <c r="M47" s="163"/>
+      <c r="N47" s="163"/>
+      <c r="O47" s="163"/>
+      <c r="P47" s="163"/>
       <c r="T47" s="139"/>
     </row>
-    <row r="48" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="171" t="s">
+    <row r="48" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="163" t="s">
         <v>217</v>
       </c>
-      <c r="B48" s="171"/>
-      <c r="C48" s="171"/>
-      <c r="D48" s="171"/>
-      <c r="E48" s="171"/>
-      <c r="F48" s="171"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="171"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="171"/>
-      <c r="K48" s="171"/>
-      <c r="L48" s="171"/>
-      <c r="M48" s="171"/>
-      <c r="N48" s="171"/>
-      <c r="O48" s="171"/>
-      <c r="P48" s="171"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="163"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="163"/>
+      <c r="I48" s="163"/>
+      <c r="J48" s="163"/>
+      <c r="K48" s="163"/>
+      <c r="L48" s="163"/>
+      <c r="M48" s="163"/>
+      <c r="N48" s="163"/>
+      <c r="O48" s="163"/>
+      <c r="P48" s="163"/>
       <c r="T48" s="139"/>
     </row>
-    <row r="49" spans="1:20" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="171" t="s">
+    <row r="49" spans="1:20" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="163" t="s">
         <v>218</v>
       </c>
-      <c r="B49" s="171"/>
-      <c r="C49" s="171"/>
-      <c r="D49" s="171"/>
-      <c r="E49" s="171"/>
-      <c r="F49" s="171"/>
-      <c r="G49" s="171"/>
-      <c r="H49" s="171"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="171"/>
-      <c r="K49" s="171"/>
-      <c r="L49" s="171"/>
-      <c r="M49" s="171"/>
-      <c r="N49" s="171"/>
-      <c r="O49" s="171"/>
-      <c r="P49" s="171"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
+      <c r="E49" s="163"/>
+      <c r="F49" s="163"/>
+      <c r="G49" s="163"/>
+      <c r="H49" s="163"/>
+      <c r="I49" s="163"/>
+      <c r="J49" s="163"/>
+      <c r="K49" s="163"/>
+      <c r="L49" s="163"/>
+      <c r="M49" s="163"/>
+      <c r="N49" s="163"/>
+      <c r="O49" s="163"/>
+      <c r="P49" s="163"/>
       <c r="T49" s="139"/>
     </row>
-    <row r="50" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="171" t="s">
+    <row r="50" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="163" t="s">
         <v>219</v>
       </c>
-      <c r="B50" s="171"/>
-      <c r="C50" s="171"/>
-      <c r="D50" s="171"/>
-      <c r="E50" s="171"/>
-      <c r="F50" s="171"/>
-      <c r="G50" s="171"/>
-      <c r="H50" s="171"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="171"/>
-      <c r="K50" s="171"/>
-      <c r="L50" s="171"/>
-      <c r="M50" s="171"/>
-      <c r="N50" s="171"/>
-      <c r="O50" s="171"/>
-      <c r="P50" s="171"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
+      <c r="E50" s="163"/>
+      <c r="F50" s="163"/>
+      <c r="G50" s="163"/>
+      <c r="H50" s="163"/>
+      <c r="I50" s="163"/>
+      <c r="J50" s="163"/>
+      <c r="K50" s="163"/>
+      <c r="L50" s="163"/>
+      <c r="M50" s="163"/>
+      <c r="N50" s="163"/>
+      <c r="O50" s="163"/>
+      <c r="P50" s="163"/>
       <c r="T50" s="139"/>
     </row>
-    <row r="51" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="170"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="170"/>
-      <c r="F51" s="170"/>
-      <c r="G51" s="170"/>
-      <c r="H51" s="170"/>
-      <c r="I51" s="170"/>
-      <c r="J51" s="170"/>
-      <c r="K51" s="170"/>
-      <c r="L51" s="170"/>
-      <c r="M51" s="170"/>
-      <c r="N51" s="170"/>
-      <c r="O51" s="170"/>
-      <c r="P51" s="170"/>
+    <row r="51" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="162"/>
+      <c r="B51" s="162"/>
+      <c r="C51" s="162"/>
+      <c r="D51" s="162"/>
+      <c r="E51" s="162"/>
+      <c r="F51" s="162"/>
+      <c r="G51" s="162"/>
+      <c r="H51" s="162"/>
+      <c r="I51" s="162"/>
+      <c r="J51" s="162"/>
+      <c r="K51" s="162"/>
+      <c r="L51" s="162"/>
+      <c r="M51" s="162"/>
+      <c r="N51" s="162"/>
+      <c r="O51" s="162"/>
+      <c r="P51" s="162"/>
       <c r="T51" s="142"/>
     </row>
-    <row r="52" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="163" t="s">
+    <row r="52" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="166" t="s">
         <v>220</v>
       </c>
-      <c r="B52" s="163"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
-      <c r="E52" s="163"/>
-      <c r="F52" s="163"/>
-      <c r="G52" s="163"/>
-      <c r="H52" s="163"/>
-      <c r="I52" s="163"/>
-      <c r="J52" s="163"/>
-      <c r="K52" s="163"/>
-      <c r="L52" s="163"/>
-      <c r="M52" s="163"/>
-      <c r="N52" s="163"/>
-      <c r="O52" s="163"/>
-      <c r="P52" s="163"/>
+      <c r="B52" s="166"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="166"/>
+      <c r="E52" s="166"/>
+      <c r="F52" s="166"/>
+      <c r="G52" s="166"/>
+      <c r="H52" s="166"/>
+      <c r="I52" s="166"/>
+      <c r="J52" s="166"/>
+      <c r="K52" s="166"/>
+      <c r="L52" s="166"/>
+      <c r="M52" s="166"/>
+      <c r="N52" s="166"/>
+      <c r="O52" s="166"/>
+      <c r="P52" s="166"/>
       <c r="T52" s="139"/>
     </row>
-    <row r="53" spans="1:20" s="140" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" s="140" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="164" t="s">
         <v>221</v>
       </c>
@@ -9371,1167 +9391,1218 @@
       <c r="P53" s="164"/>
       <c r="T53" s="139"/>
     </row>
-    <row r="54" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="165" t="s">
+    <row r="54" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="167" t="s">
         <v>222</v>
       </c>
-      <c r="B54" s="165"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="165"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="165"/>
-      <c r="J54" s="165"/>
-      <c r="K54" s="165"/>
-      <c r="L54" s="165"/>
-      <c r="M54" s="165"/>
-      <c r="N54" s="165"/>
-      <c r="O54" s="165"/>
-      <c r="P54" s="165"/>
+      <c r="B54" s="167"/>
+      <c r="C54" s="167"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="167"/>
+      <c r="H54" s="167"/>
+      <c r="I54" s="167"/>
+      <c r="J54" s="167"/>
+      <c r="K54" s="167"/>
+      <c r="L54" s="167"/>
+      <c r="M54" s="167"/>
+      <c r="N54" s="167"/>
+      <c r="O54" s="167"/>
+      <c r="P54" s="167"/>
       <c r="T54" s="139"/>
     </row>
-    <row r="55" spans="1:20" s="140" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="166" t="s">
+    <row r="55" spans="1:20" s="140" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="168" t="s">
         <v>223</v>
       </c>
-      <c r="B55" s="166"/>
-      <c r="C55" s="166"/>
-      <c r="D55" s="166"/>
-      <c r="E55" s="166"/>
-      <c r="F55" s="166"/>
-      <c r="G55" s="166"/>
-      <c r="H55" s="166"/>
-      <c r="I55" s="166"/>
-      <c r="J55" s="166"/>
-      <c r="K55" s="166"/>
-      <c r="L55" s="166"/>
-      <c r="M55" s="166"/>
-      <c r="N55" s="166"/>
-      <c r="O55" s="166"/>
-      <c r="P55" s="166"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
+      <c r="E55" s="168"/>
+      <c r="F55" s="168"/>
+      <c r="G55" s="168"/>
+      <c r="H55" s="168"/>
+      <c r="I55" s="168"/>
+      <c r="J55" s="168"/>
+      <c r="K55" s="168"/>
+      <c r="L55" s="168"/>
+      <c r="M55" s="168"/>
+      <c r="N55" s="168"/>
+      <c r="O55" s="168"/>
+      <c r="P55" s="168"/>
       <c r="T55" s="139"/>
     </row>
-    <row r="56" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="165" t="s">
+    <row r="56" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="167" t="s">
         <v>224</v>
       </c>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="165"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="165"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="165"/>
-      <c r="K56" s="165"/>
-      <c r="L56" s="165"/>
-      <c r="M56" s="165"/>
-      <c r="N56" s="165"/>
-      <c r="O56" s="165"/>
-      <c r="P56" s="165"/>
+      <c r="B56" s="167"/>
+      <c r="C56" s="167"/>
+      <c r="D56" s="167"/>
+      <c r="E56" s="167"/>
+      <c r="F56" s="167"/>
+      <c r="G56" s="167"/>
+      <c r="H56" s="167"/>
+      <c r="I56" s="167"/>
+      <c r="J56" s="167"/>
+      <c r="K56" s="167"/>
+      <c r="L56" s="167"/>
+      <c r="M56" s="167"/>
+      <c r="N56" s="167"/>
+      <c r="O56" s="167"/>
+      <c r="P56" s="167"/>
       <c r="T56" s="142"/>
     </row>
-    <row r="57" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="165" t="s">
+    <row r="57" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="167" t="s">
         <v>225</v>
       </c>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="165"/>
-      <c r="H57" s="165"/>
-      <c r="I57" s="165"/>
-      <c r="J57" s="165"/>
-      <c r="K57" s="165"/>
-      <c r="L57" s="165"/>
-      <c r="M57" s="165"/>
-      <c r="N57" s="165"/>
-      <c r="O57" s="165"/>
-      <c r="P57" s="165"/>
+      <c r="B57" s="167"/>
+      <c r="C57" s="167"/>
+      <c r="D57" s="167"/>
+      <c r="E57" s="167"/>
+      <c r="F57" s="167"/>
+      <c r="G57" s="167"/>
+      <c r="H57" s="167"/>
+      <c r="I57" s="167"/>
+      <c r="J57" s="167"/>
+      <c r="K57" s="167"/>
+      <c r="L57" s="167"/>
+      <c r="M57" s="167"/>
+      <c r="N57" s="167"/>
+      <c r="O57" s="167"/>
+      <c r="P57" s="167"/>
       <c r="T57" s="142"/>
     </row>
-    <row r="58" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="167"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
-      <c r="E58" s="167"/>
-      <c r="F58" s="167"/>
-      <c r="G58" s="167"/>
-      <c r="H58" s="167"/>
-      <c r="I58" s="167"/>
-      <c r="J58" s="167"/>
-      <c r="K58" s="167"/>
-      <c r="L58" s="167"/>
-      <c r="M58" s="167"/>
-      <c r="N58" s="167"/>
-      <c r="O58" s="167"/>
-      <c r="P58" s="167"/>
+    <row r="58" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="169"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
+      <c r="E58" s="169"/>
+      <c r="F58" s="169"/>
+      <c r="G58" s="169"/>
+      <c r="H58" s="169"/>
+      <c r="I58" s="169"/>
+      <c r="J58" s="169"/>
+      <c r="K58" s="169"/>
+      <c r="L58" s="169"/>
+      <c r="M58" s="169"/>
+      <c r="N58" s="169"/>
+      <c r="O58" s="169"/>
+      <c r="P58" s="169"/>
       <c r="T58" s="142"/>
     </row>
-    <row r="59" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="168" t="s">
+    <row r="59" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="170" t="s">
         <v>226</v>
       </c>
-      <c r="B59" s="168"/>
-      <c r="C59" s="168"/>
-      <c r="D59" s="168"/>
-      <c r="E59" s="168"/>
-      <c r="F59" s="168"/>
-      <c r="G59" s="168"/>
-      <c r="H59" s="168"/>
-      <c r="I59" s="168"/>
-      <c r="J59" s="168"/>
-      <c r="K59" s="168"/>
-      <c r="L59" s="168"/>
-      <c r="M59" s="168"/>
-      <c r="N59" s="168"/>
-      <c r="O59" s="168"/>
-      <c r="P59" s="168"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="170"/>
+      <c r="E59" s="170"/>
+      <c r="F59" s="170"/>
+      <c r="G59" s="170"/>
+      <c r="H59" s="170"/>
+      <c r="I59" s="170"/>
+      <c r="J59" s="170"/>
+      <c r="K59" s="170"/>
+      <c r="L59" s="170"/>
+      <c r="M59" s="170"/>
+      <c r="N59" s="170"/>
+      <c r="O59" s="170"/>
+      <c r="P59" s="170"/>
       <c r="T59" s="142"/>
     </row>
-    <row r="60" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="168" t="s">
+    <row r="60" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="170" t="s">
         <v>227</v>
       </c>
-      <c r="B60" s="168"/>
-      <c r="C60" s="168"/>
-      <c r="D60" s="168"/>
-      <c r="E60" s="168"/>
-      <c r="F60" s="168"/>
-      <c r="G60" s="168"/>
-      <c r="H60" s="168"/>
-      <c r="I60" s="168"/>
-      <c r="J60" s="168"/>
-      <c r="K60" s="168"/>
-      <c r="L60" s="168"/>
-      <c r="M60" s="168"/>
-      <c r="N60" s="168"/>
-      <c r="O60" s="168"/>
-      <c r="P60" s="168"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="170"/>
+      <c r="E60" s="170"/>
+      <c r="F60" s="170"/>
+      <c r="G60" s="170"/>
+      <c r="H60" s="170"/>
+      <c r="I60" s="170"/>
+      <c r="J60" s="170"/>
+      <c r="K60" s="170"/>
+      <c r="L60" s="170"/>
+      <c r="M60" s="170"/>
+      <c r="N60" s="170"/>
+      <c r="O60" s="170"/>
+      <c r="P60" s="170"/>
       <c r="T60" s="139"/>
     </row>
-    <row r="61" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="156" t="s">
+    <row r="61" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="171" t="s">
         <v>228</v>
       </c>
-      <c r="B61" s="156"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="156"/>
-      <c r="F61" s="156"/>
-      <c r="G61" s="156"/>
-      <c r="H61" s="156"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="156"/>
-      <c r="K61" s="156"/>
-      <c r="L61" s="156"/>
-      <c r="M61" s="156"/>
-      <c r="N61" s="156"/>
-      <c r="O61" s="156"/>
-      <c r="P61" s="156"/>
+      <c r="B61" s="171"/>
+      <c r="C61" s="171"/>
+      <c r="D61" s="171"/>
+      <c r="E61" s="171"/>
+      <c r="F61" s="171"/>
+      <c r="G61" s="171"/>
+      <c r="H61" s="171"/>
+      <c r="I61" s="171"/>
+      <c r="J61" s="171"/>
+      <c r="K61" s="171"/>
+      <c r="L61" s="171"/>
+      <c r="M61" s="171"/>
+      <c r="N61" s="171"/>
+      <c r="O61" s="171"/>
+      <c r="P61" s="171"/>
       <c r="T61" s="142"/>
     </row>
-    <row r="62" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="169" t="s">
+    <row r="62" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="172" t="s">
         <v>229</v>
       </c>
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
-      <c r="E62" s="169"/>
-      <c r="F62" s="169"/>
-      <c r="G62" s="169"/>
-      <c r="H62" s="169"/>
-      <c r="I62" s="169"/>
-      <c r="J62" s="169"/>
-      <c r="K62" s="169"/>
-      <c r="L62" s="169"/>
-      <c r="M62" s="169"/>
-      <c r="N62" s="169"/>
-      <c r="O62" s="169"/>
-      <c r="P62" s="169"/>
+      <c r="B62" s="172"/>
+      <c r="C62" s="172"/>
+      <c r="D62" s="172"/>
+      <c r="E62" s="172"/>
+      <c r="F62" s="172"/>
+      <c r="G62" s="172"/>
+      <c r="H62" s="172"/>
+      <c r="I62" s="172"/>
+      <c r="J62" s="172"/>
+      <c r="K62" s="172"/>
+      <c r="L62" s="172"/>
+      <c r="M62" s="172"/>
+      <c r="N62" s="172"/>
+      <c r="O62" s="172"/>
+      <c r="P62" s="172"/>
       <c r="T62" s="142"/>
     </row>
-    <row r="63" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="157" t="s">
+    <row r="63" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="165" t="s">
         <v>230</v>
       </c>
-      <c r="B63" s="157"/>
-      <c r="C63" s="157"/>
-      <c r="D63" s="157"/>
-      <c r="E63" s="157"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="157"/>
-      <c r="H63" s="157"/>
-      <c r="I63" s="157"/>
-      <c r="J63" s="157"/>
-      <c r="K63" s="157"/>
-      <c r="L63" s="157"/>
-      <c r="M63" s="157"/>
-      <c r="N63" s="157"/>
-      <c r="O63" s="157"/>
-      <c r="P63" s="157"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="165"/>
+      <c r="F63" s="165"/>
+      <c r="G63" s="165"/>
+      <c r="H63" s="165"/>
+      <c r="I63" s="165"/>
+      <c r="J63" s="165"/>
+      <c r="K63" s="165"/>
+      <c r="L63" s="165"/>
+      <c r="M63" s="165"/>
+      <c r="N63" s="165"/>
+      <c r="O63" s="165"/>
+      <c r="P63" s="165"/>
       <c r="T63" s="142"/>
     </row>
-    <row r="64" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="157" t="s">
+    <row r="64" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="165" t="s">
         <v>231</v>
       </c>
-      <c r="B64" s="157"/>
-      <c r="C64" s="157"/>
-      <c r="D64" s="157"/>
-      <c r="E64" s="157"/>
-      <c r="F64" s="157"/>
-      <c r="G64" s="157"/>
-      <c r="H64" s="157"/>
-      <c r="I64" s="157"/>
-      <c r="J64" s="157"/>
-      <c r="K64" s="157"/>
-      <c r="L64" s="157"/>
-      <c r="M64" s="157"/>
-      <c r="N64" s="157"/>
-      <c r="O64" s="157"/>
-      <c r="P64" s="157"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
+      <c r="E64" s="165"/>
+      <c r="F64" s="165"/>
+      <c r="G64" s="165"/>
+      <c r="H64" s="165"/>
+      <c r="I64" s="165"/>
+      <c r="J64" s="165"/>
+      <c r="K64" s="165"/>
+      <c r="L64" s="165"/>
+      <c r="M64" s="165"/>
+      <c r="N64" s="165"/>
+      <c r="O64" s="165"/>
+      <c r="P64" s="165"/>
       <c r="T64" s="142"/>
     </row>
-    <row r="65" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="157" t="s">
+    <row r="65" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="165" t="s">
         <v>232</v>
       </c>
-      <c r="B65" s="157"/>
-      <c r="C65" s="157"/>
-      <c r="D65" s="157"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="157"/>
-      <c r="H65" s="157"/>
-      <c r="I65" s="157"/>
-      <c r="J65" s="157"/>
-      <c r="K65" s="157"/>
-      <c r="L65" s="157"/>
-      <c r="M65" s="157"/>
-      <c r="N65" s="157"/>
-      <c r="O65" s="157"/>
-      <c r="P65" s="157"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
+      <c r="E65" s="165"/>
+      <c r="F65" s="165"/>
+      <c r="G65" s="165"/>
+      <c r="H65" s="165"/>
+      <c r="I65" s="165"/>
+      <c r="J65" s="165"/>
+      <c r="K65" s="165"/>
+      <c r="L65" s="165"/>
+      <c r="M65" s="165"/>
+      <c r="N65" s="165"/>
+      <c r="O65" s="165"/>
+      <c r="P65" s="165"/>
       <c r="T65" s="142"/>
     </row>
-    <row r="66" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="157" t="s">
+    <row r="66" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="165" t="s">
         <v>233</v>
       </c>
-      <c r="B66" s="157"/>
-      <c r="C66" s="157"/>
-      <c r="D66" s="157"/>
-      <c r="E66" s="157"/>
-      <c r="F66" s="157"/>
-      <c r="G66" s="157"/>
-      <c r="H66" s="157"/>
-      <c r="I66" s="157"/>
-      <c r="J66" s="157"/>
-      <c r="K66" s="157"/>
-      <c r="L66" s="157"/>
-      <c r="M66" s="157"/>
-      <c r="N66" s="157"/>
-      <c r="O66" s="157"/>
-      <c r="P66" s="157"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
+      <c r="E66" s="165"/>
+      <c r="F66" s="165"/>
+      <c r="G66" s="165"/>
+      <c r="H66" s="165"/>
+      <c r="I66" s="165"/>
+      <c r="J66" s="165"/>
+      <c r="K66" s="165"/>
+      <c r="L66" s="165"/>
+      <c r="M66" s="165"/>
+      <c r="N66" s="165"/>
+      <c r="O66" s="165"/>
+      <c r="P66" s="165"/>
       <c r="T66" s="142"/>
     </row>
-    <row r="67" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="157" t="s">
+    <row r="67" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="165" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="157"/>
-      <c r="C67" s="157"/>
-      <c r="D67" s="157"/>
-      <c r="E67" s="157"/>
-      <c r="F67" s="157"/>
-      <c r="G67" s="157"/>
-      <c r="H67" s="157"/>
-      <c r="I67" s="157"/>
-      <c r="J67" s="157"/>
-      <c r="K67" s="157"/>
-      <c r="L67" s="157"/>
-      <c r="M67" s="157"/>
-      <c r="N67" s="157"/>
-      <c r="O67" s="157"/>
-      <c r="P67" s="157"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
+      <c r="E67" s="165"/>
+      <c r="F67" s="165"/>
+      <c r="G67" s="165"/>
+      <c r="H67" s="165"/>
+      <c r="I67" s="165"/>
+      <c r="J67" s="165"/>
+      <c r="K67" s="165"/>
+      <c r="L67" s="165"/>
+      <c r="M67" s="165"/>
+      <c r="N67" s="165"/>
+      <c r="O67" s="165"/>
+      <c r="P67" s="165"/>
       <c r="T67" s="142"/>
     </row>
-    <row r="68" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="156" t="s">
+    <row r="68" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="171" t="s">
         <v>235</v>
       </c>
-      <c r="B68" s="156"/>
-      <c r="C68" s="156"/>
-      <c r="D68" s="156"/>
-      <c r="E68" s="156"/>
-      <c r="F68" s="156"/>
-      <c r="G68" s="156"/>
-      <c r="H68" s="156"/>
-      <c r="I68" s="156"/>
-      <c r="J68" s="156"/>
-      <c r="K68" s="156"/>
-      <c r="L68" s="156"/>
-      <c r="M68" s="156"/>
-      <c r="N68" s="156"/>
-      <c r="O68" s="156"/>
-      <c r="P68" s="156"/>
+      <c r="B68" s="171"/>
+      <c r="C68" s="171"/>
+      <c r="D68" s="171"/>
+      <c r="E68" s="171"/>
+      <c r="F68" s="171"/>
+      <c r="G68" s="171"/>
+      <c r="H68" s="171"/>
+      <c r="I68" s="171"/>
+      <c r="J68" s="171"/>
+      <c r="K68" s="171"/>
+      <c r="L68" s="171"/>
+      <c r="M68" s="171"/>
+      <c r="N68" s="171"/>
+      <c r="O68" s="171"/>
+      <c r="P68" s="171"/>
       <c r="T68" s="142"/>
     </row>
-    <row r="69" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="157" t="s">
+    <row r="69" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="165" t="s">
         <v>236</v>
       </c>
-      <c r="B69" s="157"/>
-      <c r="C69" s="157"/>
-      <c r="D69" s="157"/>
-      <c r="E69" s="157"/>
-      <c r="F69" s="157"/>
-      <c r="G69" s="157"/>
-      <c r="H69" s="157"/>
-      <c r="I69" s="157"/>
-      <c r="J69" s="157"/>
-      <c r="K69" s="157"/>
-      <c r="L69" s="157"/>
-      <c r="M69" s="157"/>
-      <c r="N69" s="157"/>
-      <c r="O69" s="157"/>
-      <c r="P69" s="157"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="165"/>
+      <c r="D69" s="165"/>
+      <c r="E69" s="165"/>
+      <c r="F69" s="165"/>
+      <c r="G69" s="165"/>
+      <c r="H69" s="165"/>
+      <c r="I69" s="165"/>
+      <c r="J69" s="165"/>
+      <c r="K69" s="165"/>
+      <c r="L69" s="165"/>
+      <c r="M69" s="165"/>
+      <c r="N69" s="165"/>
+      <c r="O69" s="165"/>
+      <c r="P69" s="165"/>
       <c r="T69" s="142"/>
     </row>
-    <row r="70" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="157" t="s">
+    <row r="70" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="165" t="s">
         <v>237</v>
       </c>
-      <c r="B70" s="157"/>
-      <c r="C70" s="157"/>
-      <c r="D70" s="157"/>
-      <c r="E70" s="157"/>
-      <c r="F70" s="157"/>
-      <c r="G70" s="157"/>
-      <c r="H70" s="157"/>
-      <c r="I70" s="157"/>
-      <c r="J70" s="157"/>
-      <c r="K70" s="157"/>
-      <c r="L70" s="157"/>
-      <c r="M70" s="157"/>
-      <c r="N70" s="157"/>
-      <c r="O70" s="157"/>
-      <c r="P70" s="157"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="165"/>
+      <c r="D70" s="165"/>
+      <c r="E70" s="165"/>
+      <c r="F70" s="165"/>
+      <c r="G70" s="165"/>
+      <c r="H70" s="165"/>
+      <c r="I70" s="165"/>
+      <c r="J70" s="165"/>
+      <c r="K70" s="165"/>
+      <c r="L70" s="165"/>
+      <c r="M70" s="165"/>
+      <c r="N70" s="165"/>
+      <c r="O70" s="165"/>
+      <c r="P70" s="165"/>
       <c r="T70" s="142"/>
     </row>
-    <row r="71" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="157" t="s">
+    <row r="71" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="165" t="s">
         <v>238</v>
       </c>
-      <c r="B71" s="157"/>
-      <c r="C71" s="157"/>
-      <c r="D71" s="157"/>
-      <c r="E71" s="157"/>
-      <c r="F71" s="157"/>
-      <c r="G71" s="157"/>
-      <c r="H71" s="157"/>
-      <c r="I71" s="157"/>
-      <c r="J71" s="157"/>
-      <c r="K71" s="157"/>
-      <c r="L71" s="157"/>
-      <c r="M71" s="157"/>
-      <c r="N71" s="157"/>
-      <c r="O71" s="157"/>
-      <c r="P71" s="157"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="165"/>
+      <c r="F71" s="165"/>
+      <c r="G71" s="165"/>
+      <c r="H71" s="165"/>
+      <c r="I71" s="165"/>
+      <c r="J71" s="165"/>
+      <c r="K71" s="165"/>
+      <c r="L71" s="165"/>
+      <c r="M71" s="165"/>
+      <c r="N71" s="165"/>
+      <c r="O71" s="165"/>
+      <c r="P71" s="165"/>
       <c r="T71" s="142"/>
     </row>
-    <row r="72" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="157" t="s">
+    <row r="72" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="165" t="s">
         <v>239</v>
       </c>
-      <c r="B72" s="157"/>
-      <c r="C72" s="157"/>
-      <c r="D72" s="157"/>
-      <c r="E72" s="157"/>
-      <c r="F72" s="157"/>
-      <c r="G72" s="157"/>
-      <c r="H72" s="157"/>
-      <c r="I72" s="157"/>
-      <c r="J72" s="157"/>
-      <c r="K72" s="157"/>
-      <c r="L72" s="157"/>
-      <c r="M72" s="157"/>
-      <c r="N72" s="157"/>
-      <c r="O72" s="157"/>
-      <c r="P72" s="157"/>
+      <c r="B72" s="165"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="165"/>
+      <c r="E72" s="165"/>
+      <c r="F72" s="165"/>
+      <c r="G72" s="165"/>
+      <c r="H72" s="165"/>
+      <c r="I72" s="165"/>
+      <c r="J72" s="165"/>
+      <c r="K72" s="165"/>
+      <c r="L72" s="165"/>
+      <c r="M72" s="165"/>
+      <c r="N72" s="165"/>
+      <c r="O72" s="165"/>
+      <c r="P72" s="165"/>
       <c r="T72" s="142"/>
     </row>
-    <row r="73" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="157" t="s">
+    <row r="73" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="165" t="s">
         <v>240</v>
       </c>
-      <c r="B73" s="157"/>
-      <c r="C73" s="157"/>
-      <c r="D73" s="157"/>
-      <c r="E73" s="157"/>
-      <c r="F73" s="157"/>
-      <c r="G73" s="157"/>
-      <c r="H73" s="157"/>
-      <c r="I73" s="157"/>
-      <c r="J73" s="157"/>
-      <c r="K73" s="157"/>
-      <c r="L73" s="157"/>
-      <c r="M73" s="157"/>
-      <c r="N73" s="157"/>
-      <c r="O73" s="157"/>
-      <c r="P73" s="157"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="165"/>
+      <c r="D73" s="165"/>
+      <c r="E73" s="165"/>
+      <c r="F73" s="165"/>
+      <c r="G73" s="165"/>
+      <c r="H73" s="165"/>
+      <c r="I73" s="165"/>
+      <c r="J73" s="165"/>
+      <c r="K73" s="165"/>
+      <c r="L73" s="165"/>
+      <c r="M73" s="165"/>
+      <c r="N73" s="165"/>
+      <c r="O73" s="165"/>
+      <c r="P73" s="165"/>
       <c r="T73" s="142"/>
     </row>
-    <row r="74" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="158" t="s">
+    <row r="74" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="173" t="s">
         <v>241</v>
       </c>
-      <c r="B74" s="158"/>
-      <c r="C74" s="158"/>
-      <c r="D74" s="158"/>
-      <c r="E74" s="158"/>
-      <c r="F74" s="158"/>
-      <c r="G74" s="158"/>
-      <c r="H74" s="158"/>
-      <c r="I74" s="158"/>
-      <c r="J74" s="158"/>
-      <c r="K74" s="158"/>
-      <c r="L74" s="158"/>
-      <c r="M74" s="158"/>
-      <c r="N74" s="158"/>
-      <c r="O74" s="158"/>
-      <c r="P74" s="158"/>
+      <c r="B74" s="173"/>
+      <c r="C74" s="173"/>
+      <c r="D74" s="173"/>
+      <c r="E74" s="173"/>
+      <c r="F74" s="173"/>
+      <c r="G74" s="173"/>
+      <c r="H74" s="173"/>
+      <c r="I74" s="173"/>
+      <c r="J74" s="173"/>
+      <c r="K74" s="173"/>
+      <c r="L74" s="173"/>
+      <c r="M74" s="173"/>
+      <c r="N74" s="173"/>
+      <c r="O74" s="173"/>
+      <c r="P74" s="173"/>
       <c r="T74" s="142"/>
     </row>
-    <row r="75" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="156" t="s">
+    <row r="75" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="171" t="s">
         <v>242</v>
       </c>
-      <c r="B75" s="156"/>
-      <c r="C75" s="156"/>
-      <c r="D75" s="156"/>
-      <c r="E75" s="156"/>
-      <c r="F75" s="156"/>
-      <c r="G75" s="156"/>
-      <c r="H75" s="156"/>
-      <c r="I75" s="156"/>
-      <c r="J75" s="156"/>
-      <c r="K75" s="156"/>
-      <c r="L75" s="156"/>
-      <c r="M75" s="156"/>
-      <c r="N75" s="156"/>
-      <c r="O75" s="156"/>
-      <c r="P75" s="156"/>
+      <c r="B75" s="171"/>
+      <c r="C75" s="171"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="171"/>
+      <c r="F75" s="171"/>
+      <c r="G75" s="171"/>
+      <c r="H75" s="171"/>
+      <c r="I75" s="171"/>
+      <c r="J75" s="171"/>
+      <c r="K75" s="171"/>
+      <c r="L75" s="171"/>
+      <c r="M75" s="171"/>
+      <c r="N75" s="171"/>
+      <c r="O75" s="171"/>
+      <c r="P75" s="171"/>
       <c r="T75" s="139"/>
     </row>
-    <row r="76" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="159" t="s">
+    <row r="76" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="175" t="s">
         <v>243</v>
       </c>
-      <c r="B76" s="159"/>
-      <c r="C76" s="159"/>
-      <c r="D76" s="159"/>
-      <c r="E76" s="159"/>
-      <c r="F76" s="159"/>
-      <c r="G76" s="159"/>
-      <c r="H76" s="159"/>
-      <c r="I76" s="159"/>
-      <c r="J76" s="159"/>
-      <c r="K76" s="159"/>
-      <c r="L76" s="159"/>
-      <c r="M76" s="159"/>
-      <c r="N76" s="159"/>
-      <c r="O76" s="159"/>
-      <c r="P76" s="159"/>
+      <c r="B76" s="175"/>
+      <c r="C76" s="175"/>
+      <c r="D76" s="175"/>
+      <c r="E76" s="175"/>
+      <c r="F76" s="175"/>
+      <c r="G76" s="175"/>
+      <c r="H76" s="175"/>
+      <c r="I76" s="175"/>
+      <c r="J76" s="175"/>
+      <c r="K76" s="175"/>
+      <c r="L76" s="175"/>
+      <c r="M76" s="175"/>
+      <c r="N76" s="175"/>
+      <c r="O76" s="175"/>
+      <c r="P76" s="175"/>
       <c r="T76" s="142"/>
     </row>
-    <row r="77" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="161" t="s">
+    <row r="77" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="174" t="s">
         <v>244</v>
       </c>
-      <c r="B77" s="161"/>
-      <c r="C77" s="161"/>
-      <c r="D77" s="161"/>
-      <c r="E77" s="161"/>
-      <c r="F77" s="161"/>
-      <c r="G77" s="161"/>
-      <c r="H77" s="161"/>
-      <c r="I77" s="161"/>
-      <c r="J77" s="161"/>
-      <c r="K77" s="161"/>
-      <c r="L77" s="161"/>
-      <c r="M77" s="161"/>
-      <c r="N77" s="161"/>
-      <c r="O77" s="161"/>
-      <c r="P77" s="161"/>
+      <c r="B77" s="174"/>
+      <c r="C77" s="174"/>
+      <c r="D77" s="174"/>
+      <c r="E77" s="174"/>
+      <c r="F77" s="174"/>
+      <c r="G77" s="174"/>
+      <c r="H77" s="174"/>
+      <c r="I77" s="174"/>
+      <c r="J77" s="174"/>
+      <c r="K77" s="174"/>
+      <c r="L77" s="174"/>
+      <c r="M77" s="174"/>
+      <c r="N77" s="174"/>
+      <c r="O77" s="174"/>
+      <c r="P77" s="174"/>
       <c r="T77" s="142"/>
     </row>
-    <row r="78" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="162" t="s">
+    <row r="78" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="176" t="s">
         <v>245</v>
       </c>
-      <c r="B78" s="162"/>
-      <c r="C78" s="162"/>
-      <c r="D78" s="162"/>
-      <c r="E78" s="162"/>
-      <c r="F78" s="162"/>
-      <c r="G78" s="162"/>
-      <c r="H78" s="162"/>
-      <c r="I78" s="162"/>
-      <c r="J78" s="162"/>
-      <c r="K78" s="162"/>
-      <c r="L78" s="162"/>
-      <c r="M78" s="162"/>
-      <c r="N78" s="162"/>
-      <c r="O78" s="162"/>
-      <c r="P78" s="162"/>
+      <c r="B78" s="176"/>
+      <c r="C78" s="176"/>
+      <c r="D78" s="176"/>
+      <c r="E78" s="176"/>
+      <c r="F78" s="176"/>
+      <c r="G78" s="176"/>
+      <c r="H78" s="176"/>
+      <c r="I78" s="176"/>
+      <c r="J78" s="176"/>
+      <c r="K78" s="176"/>
+      <c r="L78" s="176"/>
+      <c r="M78" s="176"/>
+      <c r="N78" s="176"/>
+      <c r="O78" s="176"/>
+      <c r="P78" s="176"/>
       <c r="T78" s="142"/>
     </row>
-    <row r="79" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="161" t="s">
+    <row r="79" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="174" t="s">
         <v>246</v>
       </c>
-      <c r="B79" s="161"/>
-      <c r="C79" s="161"/>
-      <c r="D79" s="161"/>
-      <c r="E79" s="161"/>
-      <c r="F79" s="161"/>
-      <c r="G79" s="161"/>
-      <c r="H79" s="161"/>
-      <c r="I79" s="161"/>
-      <c r="J79" s="161"/>
-      <c r="K79" s="161"/>
-      <c r="L79" s="161"/>
-      <c r="M79" s="161"/>
-      <c r="N79" s="161"/>
-      <c r="O79" s="161"/>
-      <c r="P79" s="161"/>
+      <c r="B79" s="174"/>
+      <c r="C79" s="174"/>
+      <c r="D79" s="174"/>
+      <c r="E79" s="174"/>
+      <c r="F79" s="174"/>
+      <c r="G79" s="174"/>
+      <c r="H79" s="174"/>
+      <c r="I79" s="174"/>
+      <c r="J79" s="174"/>
+      <c r="K79" s="174"/>
+      <c r="L79" s="174"/>
+      <c r="M79" s="174"/>
+      <c r="N79" s="174"/>
+      <c r="O79" s="174"/>
+      <c r="P79" s="174"/>
       <c r="T79" s="142"/>
     </row>
-    <row r="80" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="156" t="s">
+    <row r="80" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="171" t="s">
         <v>247</v>
       </c>
-      <c r="B80" s="156"/>
-      <c r="C80" s="156"/>
-      <c r="D80" s="156"/>
-      <c r="E80" s="156"/>
-      <c r="F80" s="156"/>
-      <c r="G80" s="156"/>
-      <c r="H80" s="156"/>
-      <c r="I80" s="156"/>
-      <c r="J80" s="156"/>
-      <c r="K80" s="156"/>
-      <c r="L80" s="156"/>
-      <c r="M80" s="156"/>
-      <c r="N80" s="156"/>
-      <c r="O80" s="156"/>
-      <c r="P80" s="156"/>
+      <c r="B80" s="171"/>
+      <c r="C80" s="171"/>
+      <c r="D80" s="171"/>
+      <c r="E80" s="171"/>
+      <c r="F80" s="171"/>
+      <c r="G80" s="171"/>
+      <c r="H80" s="171"/>
+      <c r="I80" s="171"/>
+      <c r="J80" s="171"/>
+      <c r="K80" s="171"/>
+      <c r="L80" s="171"/>
+      <c r="M80" s="171"/>
+      <c r="N80" s="171"/>
+      <c r="O80" s="171"/>
+      <c r="P80" s="171"/>
       <c r="T80" s="142"/>
     </row>
-    <row r="81" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="159" t="s">
+    <row r="81" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="175" t="s">
         <v>248</v>
       </c>
-      <c r="B81" s="159"/>
-      <c r="C81" s="159"/>
-      <c r="D81" s="159"/>
-      <c r="E81" s="159"/>
-      <c r="F81" s="159"/>
-      <c r="G81" s="159"/>
-      <c r="H81" s="159"/>
-      <c r="I81" s="159"/>
-      <c r="J81" s="159"/>
-      <c r="K81" s="159"/>
-      <c r="L81" s="159"/>
-      <c r="M81" s="159"/>
-      <c r="N81" s="159"/>
-      <c r="O81" s="159"/>
-      <c r="P81" s="159"/>
+      <c r="B81" s="175"/>
+      <c r="C81" s="175"/>
+      <c r="D81" s="175"/>
+      <c r="E81" s="175"/>
+      <c r="F81" s="175"/>
+      <c r="G81" s="175"/>
+      <c r="H81" s="175"/>
+      <c r="I81" s="175"/>
+      <c r="J81" s="175"/>
+      <c r="K81" s="175"/>
+      <c r="L81" s="175"/>
+      <c r="M81" s="175"/>
+      <c r="N81" s="175"/>
+      <c r="O81" s="175"/>
+      <c r="P81" s="175"/>
       <c r="T81" s="142"/>
     </row>
-    <row r="82" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="161" t="s">
+    <row r="82" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="174" t="s">
         <v>249</v>
       </c>
-      <c r="B82" s="161"/>
-      <c r="C82" s="161"/>
-      <c r="D82" s="161"/>
-      <c r="E82" s="161"/>
-      <c r="F82" s="161"/>
-      <c r="G82" s="161"/>
-      <c r="H82" s="161"/>
-      <c r="I82" s="161"/>
-      <c r="J82" s="161"/>
-      <c r="K82" s="161"/>
-      <c r="L82" s="161"/>
-      <c r="M82" s="161"/>
-      <c r="N82" s="161"/>
-      <c r="O82" s="161"/>
-      <c r="P82" s="161"/>
+      <c r="B82" s="174"/>
+      <c r="C82" s="174"/>
+      <c r="D82" s="174"/>
+      <c r="E82" s="174"/>
+      <c r="F82" s="174"/>
+      <c r="G82" s="174"/>
+      <c r="H82" s="174"/>
+      <c r="I82" s="174"/>
+      <c r="J82" s="174"/>
+      <c r="K82" s="174"/>
+      <c r="L82" s="174"/>
+      <c r="M82" s="174"/>
+      <c r="N82" s="174"/>
+      <c r="O82" s="174"/>
+      <c r="P82" s="174"/>
       <c r="T82" s="142"/>
     </row>
-    <row r="83" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="156" t="s">
+    <row r="83" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="171" t="s">
         <v>250</v>
       </c>
-      <c r="B83" s="156"/>
-      <c r="C83" s="156"/>
-      <c r="D83" s="156"/>
-      <c r="E83" s="156"/>
-      <c r="F83" s="156"/>
-      <c r="G83" s="156"/>
-      <c r="H83" s="156"/>
-      <c r="I83" s="156"/>
-      <c r="J83" s="156"/>
-      <c r="K83" s="156"/>
-      <c r="L83" s="156"/>
-      <c r="M83" s="156"/>
-      <c r="N83" s="156"/>
-      <c r="O83" s="156"/>
-      <c r="P83" s="156"/>
+      <c r="B83" s="171"/>
+      <c r="C83" s="171"/>
+      <c r="D83" s="171"/>
+      <c r="E83" s="171"/>
+      <c r="F83" s="171"/>
+      <c r="G83" s="171"/>
+      <c r="H83" s="171"/>
+      <c r="I83" s="171"/>
+      <c r="J83" s="171"/>
+      <c r="K83" s="171"/>
+      <c r="L83" s="171"/>
+      <c r="M83" s="171"/>
+      <c r="N83" s="171"/>
+      <c r="O83" s="171"/>
+      <c r="P83" s="171"/>
       <c r="T83" s="142"/>
     </row>
-    <row r="84" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="159" t="s">
+    <row r="84" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="175" t="s">
         <v>251</v>
       </c>
-      <c r="B84" s="159"/>
-      <c r="C84" s="159"/>
-      <c r="D84" s="159"/>
-      <c r="E84" s="159"/>
-      <c r="F84" s="159"/>
-      <c r="G84" s="159"/>
-      <c r="H84" s="159"/>
-      <c r="I84" s="159"/>
-      <c r="J84" s="159"/>
-      <c r="K84" s="159"/>
-      <c r="L84" s="159"/>
-      <c r="M84" s="159"/>
-      <c r="N84" s="159"/>
-      <c r="O84" s="159"/>
-      <c r="P84" s="159"/>
+      <c r="B84" s="175"/>
+      <c r="C84" s="175"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="175"/>
+      <c r="G84" s="175"/>
+      <c r="H84" s="175"/>
+      <c r="I84" s="175"/>
+      <c r="J84" s="175"/>
+      <c r="K84" s="175"/>
+      <c r="L84" s="175"/>
+      <c r="M84" s="175"/>
+      <c r="N84" s="175"/>
+      <c r="O84" s="175"/>
+      <c r="P84" s="175"/>
       <c r="T84" s="142"/>
     </row>
-    <row r="85" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="161" t="s">
+    <row r="85" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="174" t="s">
         <v>244</v>
       </c>
-      <c r="B85" s="161"/>
-      <c r="C85" s="161"/>
-      <c r="D85" s="161"/>
-      <c r="E85" s="161"/>
-      <c r="F85" s="161"/>
-      <c r="G85" s="161"/>
-      <c r="H85" s="161"/>
-      <c r="I85" s="161"/>
-      <c r="J85" s="161"/>
-      <c r="K85" s="161"/>
-      <c r="L85" s="161"/>
-      <c r="M85" s="161"/>
-      <c r="N85" s="161"/>
-      <c r="O85" s="161"/>
-      <c r="P85" s="161"/>
+      <c r="B85" s="174"/>
+      <c r="C85" s="174"/>
+      <c r="D85" s="174"/>
+      <c r="E85" s="174"/>
+      <c r="F85" s="174"/>
+      <c r="G85" s="174"/>
+      <c r="H85" s="174"/>
+      <c r="I85" s="174"/>
+      <c r="J85" s="174"/>
+      <c r="K85" s="174"/>
+      <c r="L85" s="174"/>
+      <c r="M85" s="174"/>
+      <c r="N85" s="174"/>
+      <c r="O85" s="174"/>
+      <c r="P85" s="174"/>
       <c r="T85" s="142"/>
     </row>
-    <row r="86" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="162" t="s">
+    <row r="86" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="176" t="s">
         <v>252</v>
       </c>
-      <c r="B86" s="162"/>
-      <c r="C86" s="162"/>
-      <c r="D86" s="162"/>
-      <c r="E86" s="162"/>
-      <c r="F86" s="162"/>
-      <c r="G86" s="162"/>
-      <c r="H86" s="162"/>
-      <c r="I86" s="162"/>
-      <c r="J86" s="162"/>
-      <c r="K86" s="162"/>
-      <c r="L86" s="162"/>
-      <c r="M86" s="162"/>
-      <c r="N86" s="162"/>
-      <c r="O86" s="162"/>
-      <c r="P86" s="162"/>
+      <c r="B86" s="176"/>
+      <c r="C86" s="176"/>
+      <c r="D86" s="176"/>
+      <c r="E86" s="176"/>
+      <c r="F86" s="176"/>
+      <c r="G86" s="176"/>
+      <c r="H86" s="176"/>
+      <c r="I86" s="176"/>
+      <c r="J86" s="176"/>
+      <c r="K86" s="176"/>
+      <c r="L86" s="176"/>
+      <c r="M86" s="176"/>
+      <c r="N86" s="176"/>
+      <c r="O86" s="176"/>
+      <c r="P86" s="176"/>
       <c r="T86" s="142"/>
     </row>
-    <row r="87" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="161" t="s">
+    <row r="87" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="174" t="s">
         <v>253</v>
       </c>
-      <c r="B87" s="161"/>
-      <c r="C87" s="161"/>
-      <c r="D87" s="161"/>
-      <c r="E87" s="161"/>
-      <c r="F87" s="161"/>
-      <c r="G87" s="161"/>
-      <c r="H87" s="161"/>
-      <c r="I87" s="161"/>
-      <c r="J87" s="161"/>
-      <c r="K87" s="161"/>
-      <c r="L87" s="161"/>
-      <c r="M87" s="161"/>
-      <c r="N87" s="161"/>
-      <c r="O87" s="161"/>
-      <c r="P87" s="161"/>
+      <c r="B87" s="174"/>
+      <c r="C87" s="174"/>
+      <c r="D87" s="174"/>
+      <c r="E87" s="174"/>
+      <c r="F87" s="174"/>
+      <c r="G87" s="174"/>
+      <c r="H87" s="174"/>
+      <c r="I87" s="174"/>
+      <c r="J87" s="174"/>
+      <c r="K87" s="174"/>
+      <c r="L87" s="174"/>
+      <c r="M87" s="174"/>
+      <c r="N87" s="174"/>
+      <c r="O87" s="174"/>
+      <c r="P87" s="174"/>
       <c r="T87" s="142"/>
     </row>
-    <row r="88" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="156" t="s">
+    <row r="88" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="171" t="s">
         <v>254</v>
       </c>
-      <c r="B88" s="156"/>
-      <c r="C88" s="156"/>
-      <c r="D88" s="156"/>
-      <c r="E88" s="156"/>
-      <c r="F88" s="156"/>
-      <c r="G88" s="156"/>
-      <c r="H88" s="156"/>
-      <c r="I88" s="156"/>
-      <c r="J88" s="156"/>
-      <c r="K88" s="156"/>
-      <c r="L88" s="156"/>
-      <c r="M88" s="156"/>
-      <c r="N88" s="156"/>
-      <c r="O88" s="156"/>
-      <c r="P88" s="156"/>
+      <c r="B88" s="171"/>
+      <c r="C88" s="171"/>
+      <c r="D88" s="171"/>
+      <c r="E88" s="171"/>
+      <c r="F88" s="171"/>
+      <c r="G88" s="171"/>
+      <c r="H88" s="171"/>
+      <c r="I88" s="171"/>
+      <c r="J88" s="171"/>
+      <c r="K88" s="171"/>
+      <c r="L88" s="171"/>
+      <c r="M88" s="171"/>
+      <c r="N88" s="171"/>
+      <c r="O88" s="171"/>
+      <c r="P88" s="171"/>
       <c r="T88" s="142"/>
     </row>
-    <row r="89" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="159" t="s">
+    <row r="89" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="175" t="s">
         <v>255</v>
       </c>
-      <c r="B89" s="159"/>
-      <c r="C89" s="159"/>
-      <c r="D89" s="159"/>
-      <c r="E89" s="159"/>
-      <c r="F89" s="159"/>
-      <c r="G89" s="159"/>
-      <c r="H89" s="159"/>
-      <c r="I89" s="159"/>
-      <c r="J89" s="159"/>
-      <c r="K89" s="159"/>
-      <c r="L89" s="159"/>
-      <c r="M89" s="159"/>
-      <c r="N89" s="159"/>
-      <c r="O89" s="159"/>
-      <c r="P89" s="159"/>
+      <c r="B89" s="175"/>
+      <c r="C89" s="175"/>
+      <c r="D89" s="175"/>
+      <c r="E89" s="175"/>
+      <c r="F89" s="175"/>
+      <c r="G89" s="175"/>
+      <c r="H89" s="175"/>
+      <c r="I89" s="175"/>
+      <c r="J89" s="175"/>
+      <c r="K89" s="175"/>
+      <c r="L89" s="175"/>
+      <c r="M89" s="175"/>
+      <c r="N89" s="175"/>
+      <c r="O89" s="175"/>
+      <c r="P89" s="175"/>
       <c r="T89" s="142"/>
     </row>
-    <row r="90" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="161" t="s">
+    <row r="90" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="174" t="s">
         <v>249</v>
       </c>
-      <c r="B90" s="161"/>
-      <c r="C90" s="161"/>
-      <c r="D90" s="161"/>
-      <c r="E90" s="161"/>
-      <c r="F90" s="161"/>
-      <c r="G90" s="161"/>
-      <c r="H90" s="161"/>
-      <c r="I90" s="161"/>
-      <c r="J90" s="161"/>
-      <c r="K90" s="161"/>
-      <c r="L90" s="161"/>
-      <c r="M90" s="161"/>
-      <c r="N90" s="161"/>
-      <c r="O90" s="161"/>
-      <c r="P90" s="161"/>
+      <c r="B90" s="174"/>
+      <c r="C90" s="174"/>
+      <c r="D90" s="174"/>
+      <c r="E90" s="174"/>
+      <c r="F90" s="174"/>
+      <c r="G90" s="174"/>
+      <c r="H90" s="174"/>
+      <c r="I90" s="174"/>
+      <c r="J90" s="174"/>
+      <c r="K90" s="174"/>
+      <c r="L90" s="174"/>
+      <c r="M90" s="174"/>
+      <c r="N90" s="174"/>
+      <c r="O90" s="174"/>
+      <c r="P90" s="174"/>
       <c r="T90" s="142"/>
     </row>
-    <row r="91" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="158" t="s">
+    <row r="91" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="173" t="s">
         <v>256</v>
       </c>
-      <c r="B91" s="158"/>
-      <c r="C91" s="158"/>
-      <c r="D91" s="158"/>
-      <c r="E91" s="158"/>
-      <c r="F91" s="158"/>
-      <c r="G91" s="158"/>
-      <c r="H91" s="158"/>
-      <c r="I91" s="158"/>
-      <c r="J91" s="158"/>
-      <c r="K91" s="158"/>
-      <c r="L91" s="158"/>
-      <c r="M91" s="158"/>
-      <c r="N91" s="158"/>
-      <c r="O91" s="158"/>
-      <c r="P91" s="158"/>
+      <c r="B91" s="173"/>
+      <c r="C91" s="173"/>
+      <c r="D91" s="173"/>
+      <c r="E91" s="173"/>
+      <c r="F91" s="173"/>
+      <c r="G91" s="173"/>
+      <c r="H91" s="173"/>
+      <c r="I91" s="173"/>
+      <c r="J91" s="173"/>
+      <c r="K91" s="173"/>
+      <c r="L91" s="173"/>
+      <c r="M91" s="173"/>
+      <c r="N91" s="173"/>
+      <c r="O91" s="173"/>
+      <c r="P91" s="173"/>
       <c r="T91" s="142"/>
     </row>
-    <row r="92" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="157" t="s">
+    <row r="92" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="165" t="s">
         <v>257</v>
       </c>
-      <c r="B92" s="157"/>
-      <c r="C92" s="157"/>
-      <c r="D92" s="157"/>
-      <c r="E92" s="157"/>
-      <c r="F92" s="157"/>
-      <c r="G92" s="157"/>
-      <c r="H92" s="157"/>
-      <c r="I92" s="157"/>
-      <c r="J92" s="157"/>
-      <c r="K92" s="157"/>
-      <c r="L92" s="157"/>
-      <c r="M92" s="157"/>
-      <c r="N92" s="157"/>
-      <c r="O92" s="157"/>
-      <c r="P92" s="157"/>
+      <c r="B92" s="165"/>
+      <c r="C92" s="165"/>
+      <c r="D92" s="165"/>
+      <c r="E92" s="165"/>
+      <c r="F92" s="165"/>
+      <c r="G92" s="165"/>
+      <c r="H92" s="165"/>
+      <c r="I92" s="165"/>
+      <c r="J92" s="165"/>
+      <c r="K92" s="165"/>
+      <c r="L92" s="165"/>
+      <c r="M92" s="165"/>
+      <c r="N92" s="165"/>
+      <c r="O92" s="165"/>
+      <c r="P92" s="165"/>
       <c r="T92" s="142"/>
     </row>
-    <row r="93" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="157" t="s">
+    <row r="93" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="165" t="s">
         <v>258</v>
       </c>
-      <c r="B93" s="157"/>
-      <c r="C93" s="157"/>
-      <c r="D93" s="157"/>
-      <c r="E93" s="157"/>
-      <c r="F93" s="157"/>
-      <c r="G93" s="157"/>
-      <c r="H93" s="157"/>
-      <c r="I93" s="157"/>
-      <c r="J93" s="157"/>
-      <c r="K93" s="157"/>
-      <c r="L93" s="157"/>
-      <c r="M93" s="157"/>
-      <c r="N93" s="157"/>
-      <c r="O93" s="157"/>
-      <c r="P93" s="157"/>
+      <c r="B93" s="165"/>
+      <c r="C93" s="165"/>
+      <c r="D93" s="165"/>
+      <c r="E93" s="165"/>
+      <c r="F93" s="165"/>
+      <c r="G93" s="165"/>
+      <c r="H93" s="165"/>
+      <c r="I93" s="165"/>
+      <c r="J93" s="165"/>
+      <c r="K93" s="165"/>
+      <c r="L93" s="165"/>
+      <c r="M93" s="165"/>
+      <c r="N93" s="165"/>
+      <c r="O93" s="165"/>
+      <c r="P93" s="165"/>
       <c r="T93" s="142"/>
     </row>
-    <row r="94" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="158" t="s">
+    <row r="94" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="173" t="s">
         <v>259</v>
       </c>
-      <c r="B94" s="158"/>
-      <c r="C94" s="158"/>
-      <c r="D94" s="158"/>
-      <c r="E94" s="158"/>
-      <c r="F94" s="158"/>
-      <c r="G94" s="158"/>
-      <c r="H94" s="158"/>
-      <c r="I94" s="158"/>
-      <c r="J94" s="158"/>
-      <c r="K94" s="158"/>
-      <c r="L94" s="158"/>
-      <c r="M94" s="158"/>
-      <c r="N94" s="158"/>
-      <c r="O94" s="158"/>
-      <c r="P94" s="158"/>
+      <c r="B94" s="173"/>
+      <c r="C94" s="173"/>
+      <c r="D94" s="173"/>
+      <c r="E94" s="173"/>
+      <c r="F94" s="173"/>
+      <c r="G94" s="173"/>
+      <c r="H94" s="173"/>
+      <c r="I94" s="173"/>
+      <c r="J94" s="173"/>
+      <c r="K94" s="173"/>
+      <c r="L94" s="173"/>
+      <c r="M94" s="173"/>
+      <c r="N94" s="173"/>
+      <c r="O94" s="173"/>
+      <c r="P94" s="173"/>
       <c r="T94" s="142"/>
     </row>
-    <row r="95" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="157" t="s">
+    <row r="95" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="165" t="s">
         <v>260</v>
       </c>
-      <c r="B95" s="157"/>
-      <c r="C95" s="157"/>
-      <c r="D95" s="157"/>
-      <c r="E95" s="157"/>
-      <c r="F95" s="157"/>
-      <c r="G95" s="157"/>
-      <c r="H95" s="157"/>
-      <c r="I95" s="157"/>
-      <c r="J95" s="157"/>
-      <c r="K95" s="157"/>
-      <c r="L95" s="157"/>
-      <c r="M95" s="157"/>
-      <c r="N95" s="157"/>
-      <c r="O95" s="157"/>
-      <c r="P95" s="157"/>
+      <c r="B95" s="165"/>
+      <c r="C95" s="165"/>
+      <c r="D95" s="165"/>
+      <c r="E95" s="165"/>
+      <c r="F95" s="165"/>
+      <c r="G95" s="165"/>
+      <c r="H95" s="165"/>
+      <c r="I95" s="165"/>
+      <c r="J95" s="165"/>
+      <c r="K95" s="165"/>
+      <c r="L95" s="165"/>
+      <c r="M95" s="165"/>
+      <c r="N95" s="165"/>
+      <c r="O95" s="165"/>
+      <c r="P95" s="165"/>
       <c r="T95" s="142"/>
     </row>
-    <row r="96" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="158" t="s">
+    <row r="96" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="173" t="s">
         <v>261</v>
       </c>
-      <c r="B96" s="158"/>
-      <c r="C96" s="158"/>
-      <c r="D96" s="158"/>
-      <c r="E96" s="158"/>
-      <c r="F96" s="158"/>
-      <c r="G96" s="158"/>
-      <c r="H96" s="158"/>
-      <c r="I96" s="158"/>
-      <c r="J96" s="158"/>
-      <c r="K96" s="158"/>
-      <c r="L96" s="158"/>
-      <c r="M96" s="158"/>
-      <c r="N96" s="158"/>
-      <c r="O96" s="158"/>
-      <c r="P96" s="158"/>
+      <c r="B96" s="173"/>
+      <c r="C96" s="173"/>
+      <c r="D96" s="173"/>
+      <c r="E96" s="173"/>
+      <c r="F96" s="173"/>
+      <c r="G96" s="173"/>
+      <c r="H96" s="173"/>
+      <c r="I96" s="173"/>
+      <c r="J96" s="173"/>
+      <c r="K96" s="173"/>
+      <c r="L96" s="173"/>
+      <c r="M96" s="173"/>
+      <c r="N96" s="173"/>
+      <c r="O96" s="173"/>
+      <c r="P96" s="173"/>
       <c r="T96" s="142"/>
     </row>
-    <row r="97" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="156" t="s">
+    <row r="97" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="171" t="s">
         <v>262</v>
       </c>
-      <c r="B97" s="156"/>
-      <c r="C97" s="156"/>
-      <c r="D97" s="156"/>
-      <c r="E97" s="156"/>
-      <c r="F97" s="156"/>
-      <c r="G97" s="156"/>
-      <c r="H97" s="156"/>
-      <c r="I97" s="156"/>
-      <c r="J97" s="156"/>
-      <c r="K97" s="156"/>
-      <c r="L97" s="156"/>
-      <c r="M97" s="156"/>
-      <c r="N97" s="156"/>
-      <c r="O97" s="156"/>
-      <c r="P97" s="156"/>
+      <c r="B97" s="171"/>
+      <c r="C97" s="171"/>
+      <c r="D97" s="171"/>
+      <c r="E97" s="171"/>
+      <c r="F97" s="171"/>
+      <c r="G97" s="171"/>
+      <c r="H97" s="171"/>
+      <c r="I97" s="171"/>
+      <c r="J97" s="171"/>
+      <c r="K97" s="171"/>
+      <c r="L97" s="171"/>
+      <c r="M97" s="171"/>
+      <c r="N97" s="171"/>
+      <c r="O97" s="171"/>
+      <c r="P97" s="171"/>
       <c r="T97" s="142"/>
     </row>
-    <row r="98" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="157" t="s">
+    <row r="98" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="165" t="s">
         <v>263</v>
       </c>
-      <c r="B98" s="157"/>
-      <c r="C98" s="157"/>
-      <c r="D98" s="157"/>
-      <c r="E98" s="157"/>
-      <c r="F98" s="157"/>
-      <c r="G98" s="157"/>
-      <c r="H98" s="157"/>
-      <c r="I98" s="157"/>
-      <c r="J98" s="157"/>
-      <c r="K98" s="157"/>
-      <c r="L98" s="157"/>
-      <c r="M98" s="157"/>
-      <c r="N98" s="157"/>
-      <c r="O98" s="157"/>
-      <c r="P98" s="157"/>
+      <c r="B98" s="165"/>
+      <c r="C98" s="165"/>
+      <c r="D98" s="165"/>
+      <c r="E98" s="165"/>
+      <c r="F98" s="165"/>
+      <c r="G98" s="165"/>
+      <c r="H98" s="165"/>
+      <c r="I98" s="165"/>
+      <c r="J98" s="165"/>
+      <c r="K98" s="165"/>
+      <c r="L98" s="165"/>
+      <c r="M98" s="165"/>
+      <c r="N98" s="165"/>
+      <c r="O98" s="165"/>
+      <c r="P98" s="165"/>
       <c r="T98" s="142"/>
     </row>
-    <row r="99" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="157" t="s">
+    <row r="99" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="165" t="s">
         <v>264</v>
       </c>
-      <c r="B99" s="157"/>
-      <c r="C99" s="157"/>
-      <c r="D99" s="157"/>
-      <c r="E99" s="157"/>
-      <c r="F99" s="157"/>
-      <c r="G99" s="157"/>
-      <c r="H99" s="157"/>
-      <c r="I99" s="157"/>
-      <c r="J99" s="157"/>
-      <c r="K99" s="157"/>
-      <c r="L99" s="157"/>
-      <c r="M99" s="157"/>
-      <c r="N99" s="157"/>
-      <c r="O99" s="157"/>
-      <c r="P99" s="157"/>
+      <c r="B99" s="165"/>
+      <c r="C99" s="165"/>
+      <c r="D99" s="165"/>
+      <c r="E99" s="165"/>
+      <c r="F99" s="165"/>
+      <c r="G99" s="165"/>
+      <c r="H99" s="165"/>
+      <c r="I99" s="165"/>
+      <c r="J99" s="165"/>
+      <c r="K99" s="165"/>
+      <c r="L99" s="165"/>
+      <c r="M99" s="165"/>
+      <c r="N99" s="165"/>
+      <c r="O99" s="165"/>
+      <c r="P99" s="165"/>
       <c r="T99" s="142"/>
     </row>
-    <row r="100" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="157" t="s">
+    <row r="100" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="165" t="s">
         <v>265</v>
       </c>
-      <c r="B100" s="157"/>
-      <c r="C100" s="157"/>
-      <c r="D100" s="157"/>
-      <c r="E100" s="157"/>
-      <c r="F100" s="157"/>
-      <c r="G100" s="157"/>
-      <c r="H100" s="157"/>
-      <c r="I100" s="157"/>
-      <c r="J100" s="157"/>
-      <c r="K100" s="157"/>
-      <c r="L100" s="157"/>
-      <c r="M100" s="157"/>
-      <c r="N100" s="157"/>
-      <c r="O100" s="157"/>
-      <c r="P100" s="157"/>
+      <c r="B100" s="165"/>
+      <c r="C100" s="165"/>
+      <c r="D100" s="165"/>
+      <c r="E100" s="165"/>
+      <c r="F100" s="165"/>
+      <c r="G100" s="165"/>
+      <c r="H100" s="165"/>
+      <c r="I100" s="165"/>
+      <c r="J100" s="165"/>
+      <c r="K100" s="165"/>
+      <c r="L100" s="165"/>
+      <c r="M100" s="165"/>
+      <c r="N100" s="165"/>
+      <c r="O100" s="165"/>
+      <c r="P100" s="165"/>
       <c r="T100" s="142"/>
     </row>
-    <row r="101" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="158" t="s">
+    <row r="101" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="173" t="s">
         <v>266</v>
       </c>
-      <c r="B101" s="158"/>
-      <c r="C101" s="158"/>
-      <c r="D101" s="158"/>
-      <c r="E101" s="158"/>
-      <c r="F101" s="158"/>
-      <c r="G101" s="158"/>
-      <c r="H101" s="158"/>
-      <c r="I101" s="158"/>
-      <c r="J101" s="158"/>
-      <c r="K101" s="158"/>
-      <c r="L101" s="158"/>
-      <c r="M101" s="158"/>
-      <c r="N101" s="158"/>
-      <c r="O101" s="158"/>
-      <c r="P101" s="158"/>
+      <c r="B101" s="173"/>
+      <c r="C101" s="173"/>
+      <c r="D101" s="173"/>
+      <c r="E101" s="173"/>
+      <c r="F101" s="173"/>
+      <c r="G101" s="173"/>
+      <c r="H101" s="173"/>
+      <c r="I101" s="173"/>
+      <c r="J101" s="173"/>
+      <c r="K101" s="173"/>
+      <c r="L101" s="173"/>
+      <c r="M101" s="173"/>
+      <c r="N101" s="173"/>
+      <c r="O101" s="173"/>
+      <c r="P101" s="173"/>
       <c r="T101" s="142"/>
     </row>
-    <row r="102" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="156" t="s">
+    <row r="102" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="171" t="s">
         <v>267</v>
       </c>
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
-      <c r="H102" s="156"/>
-      <c r="I102" s="156"/>
-      <c r="J102" s="156"/>
-      <c r="K102" s="156"/>
-      <c r="L102" s="156"/>
-      <c r="M102" s="156"/>
-      <c r="N102" s="156"/>
-      <c r="O102" s="156"/>
-      <c r="P102" s="156"/>
+      <c r="B102" s="171"/>
+      <c r="C102" s="171"/>
+      <c r="D102" s="171"/>
+      <c r="E102" s="171"/>
+      <c r="F102" s="171"/>
+      <c r="G102" s="171"/>
+      <c r="H102" s="171"/>
+      <c r="I102" s="171"/>
+      <c r="J102" s="171"/>
+      <c r="K102" s="171"/>
+      <c r="L102" s="171"/>
+      <c r="M102" s="171"/>
+      <c r="N102" s="171"/>
+      <c r="O102" s="171"/>
+      <c r="P102" s="171"/>
       <c r="T102" s="142"/>
     </row>
-    <row r="103" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="159" t="s">
+    <row r="103" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="175" t="s">
         <v>268</v>
       </c>
-      <c r="B103" s="159"/>
-      <c r="C103" s="159"/>
-      <c r="D103" s="159"/>
-      <c r="E103" s="159"/>
-      <c r="F103" s="159"/>
-      <c r="G103" s="159"/>
-      <c r="H103" s="159"/>
-      <c r="I103" s="159"/>
-      <c r="J103" s="159"/>
-      <c r="K103" s="159"/>
-      <c r="L103" s="159"/>
-      <c r="M103" s="159"/>
-      <c r="N103" s="159"/>
-      <c r="O103" s="159"/>
-      <c r="P103" s="159"/>
+      <c r="B103" s="175"/>
+      <c r="C103" s="175"/>
+      <c r="D103" s="175"/>
+      <c r="E103" s="175"/>
+      <c r="F103" s="175"/>
+      <c r="G103" s="175"/>
+      <c r="H103" s="175"/>
+      <c r="I103" s="175"/>
+      <c r="J103" s="175"/>
+      <c r="K103" s="175"/>
+      <c r="L103" s="175"/>
+      <c r="M103" s="175"/>
+      <c r="N103" s="175"/>
+      <c r="O103" s="175"/>
+      <c r="P103" s="175"/>
       <c r="T103" s="142"/>
     </row>
-    <row r="104" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="156" t="s">
+    <row r="104" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="171" t="s">
         <v>269</v>
       </c>
-      <c r="B104" s="156"/>
-      <c r="C104" s="156"/>
-      <c r="D104" s="156"/>
-      <c r="E104" s="156"/>
-      <c r="F104" s="156"/>
-      <c r="G104" s="156"/>
-      <c r="H104" s="156"/>
-      <c r="I104" s="156"/>
-      <c r="J104" s="156"/>
-      <c r="K104" s="156"/>
-      <c r="L104" s="156"/>
-      <c r="M104" s="156"/>
-      <c r="N104" s="156"/>
-      <c r="O104" s="156"/>
-      <c r="P104" s="156"/>
+      <c r="B104" s="171"/>
+      <c r="C104" s="171"/>
+      <c r="D104" s="171"/>
+      <c r="E104" s="171"/>
+      <c r="F104" s="171"/>
+      <c r="G104" s="171"/>
+      <c r="H104" s="171"/>
+      <c r="I104" s="171"/>
+      <c r="J104" s="171"/>
+      <c r="K104" s="171"/>
+      <c r="L104" s="171"/>
+      <c r="M104" s="171"/>
+      <c r="N104" s="171"/>
+      <c r="O104" s="171"/>
+      <c r="P104" s="171"/>
       <c r="T104" s="142"/>
     </row>
-    <row r="105" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="160" t="s">
+    <row r="105" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="178" t="s">
         <v>270</v>
       </c>
-      <c r="B105" s="160"/>
-      <c r="C105" s="160"/>
-      <c r="D105" s="160"/>
-      <c r="E105" s="160"/>
-      <c r="F105" s="160"/>
-      <c r="G105" s="160"/>
-      <c r="H105" s="160"/>
-      <c r="I105" s="160"/>
-      <c r="J105" s="160"/>
-      <c r="K105" s="160"/>
-      <c r="L105" s="160"/>
-      <c r="M105" s="160"/>
-      <c r="N105" s="160"/>
-      <c r="O105" s="160"/>
-      <c r="P105" s="160"/>
+      <c r="B105" s="178"/>
+      <c r="C105" s="178"/>
+      <c r="D105" s="178"/>
+      <c r="E105" s="178"/>
+      <c r="F105" s="178"/>
+      <c r="G105" s="178"/>
+      <c r="H105" s="178"/>
+      <c r="I105" s="178"/>
+      <c r="J105" s="178"/>
+      <c r="K105" s="178"/>
+      <c r="L105" s="178"/>
+      <c r="M105" s="178"/>
+      <c r="N105" s="178"/>
+      <c r="O105" s="178"/>
+      <c r="P105" s="178"/>
       <c r="T105" s="142"/>
     </row>
-    <row r="106" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="155" t="s">
+    <row r="106" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="177" t="s">
         <v>271</v>
       </c>
-      <c r="B106" s="155"/>
-      <c r="C106" s="155"/>
-      <c r="D106" s="155"/>
-      <c r="E106" s="155"/>
-      <c r="F106" s="155"/>
-      <c r="G106" s="155"/>
-      <c r="H106" s="155"/>
-      <c r="I106" s="155"/>
-      <c r="J106" s="155"/>
-      <c r="K106" s="155"/>
-      <c r="L106" s="155"/>
-      <c r="M106" s="155"/>
-      <c r="N106" s="155"/>
-      <c r="O106" s="155"/>
-      <c r="P106" s="155"/>
+      <c r="B106" s="177"/>
+      <c r="C106" s="177"/>
+      <c r="D106" s="177"/>
+      <c r="E106" s="177"/>
+      <c r="F106" s="177"/>
+      <c r="G106" s="177"/>
+      <c r="H106" s="177"/>
+      <c r="I106" s="177"/>
+      <c r="J106" s="177"/>
+      <c r="K106" s="177"/>
+      <c r="L106" s="177"/>
+      <c r="M106" s="177"/>
+      <c r="N106" s="177"/>
+      <c r="O106" s="177"/>
+      <c r="P106" s="177"/>
       <c r="T106" s="142"/>
     </row>
-    <row r="107" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="156" t="s">
+    <row r="107" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="B107" s="156"/>
-      <c r="C107" s="156"/>
-      <c r="D107" s="156"/>
-      <c r="E107" s="156"/>
-      <c r="F107" s="156"/>
-      <c r="G107" s="156"/>
-      <c r="H107" s="156"/>
-      <c r="I107" s="156"/>
-      <c r="J107" s="156"/>
-      <c r="K107" s="156"/>
-      <c r="L107" s="156"/>
-      <c r="M107" s="156"/>
-      <c r="N107" s="156"/>
-      <c r="O107" s="156"/>
-      <c r="P107" s="156"/>
+      <c r="B107" s="171"/>
+      <c r="C107" s="171"/>
+      <c r="D107" s="171"/>
+      <c r="E107" s="171"/>
+      <c r="F107" s="171"/>
+      <c r="G107" s="171"/>
+      <c r="H107" s="171"/>
+      <c r="I107" s="171"/>
+      <c r="J107" s="171"/>
+      <c r="K107" s="171"/>
+      <c r="L107" s="171"/>
+      <c r="M107" s="171"/>
+      <c r="N107" s="171"/>
+      <c r="O107" s="171"/>
+      <c r="P107" s="171"/>
       <c r="T107" s="142"/>
     </row>
-    <row r="108" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="157" t="s">
+    <row r="108" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="165" t="s">
         <v>273</v>
       </c>
-      <c r="B108" s="157"/>
-      <c r="C108" s="157"/>
-      <c r="D108" s="157"/>
-      <c r="E108" s="157"/>
-      <c r="F108" s="157"/>
-      <c r="G108" s="157"/>
-      <c r="H108" s="157"/>
-      <c r="I108" s="157"/>
-      <c r="J108" s="157"/>
-      <c r="K108" s="157"/>
-      <c r="L108" s="157"/>
-      <c r="M108" s="157"/>
-      <c r="N108" s="157"/>
-      <c r="O108" s="157"/>
-      <c r="P108" s="157"/>
+      <c r="B108" s="165"/>
+      <c r="C108" s="165"/>
+      <c r="D108" s="165"/>
+      <c r="E108" s="165"/>
+      <c r="F108" s="165"/>
+      <c r="G108" s="165"/>
+      <c r="H108" s="165"/>
+      <c r="I108" s="165"/>
+      <c r="J108" s="165"/>
+      <c r="K108" s="165"/>
+      <c r="L108" s="165"/>
+      <c r="M108" s="165"/>
+      <c r="N108" s="165"/>
+      <c r="O108" s="165"/>
+      <c r="P108" s="165"/>
       <c r="T108" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A38:P38"/>
+    <mergeCell ref="A106:P106"/>
+    <mergeCell ref="A107:P107"/>
+    <mergeCell ref="A108:P108"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="A101:P101"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A103:P103"/>
+    <mergeCell ref="A104:P104"/>
+    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A99:P99"/>
+    <mergeCell ref="A88:P88"/>
+    <mergeCell ref="A89:P89"/>
+    <mergeCell ref="A90:P90"/>
+    <mergeCell ref="A91:P91"/>
+    <mergeCell ref="A92:P92"/>
+    <mergeCell ref="A93:P93"/>
+    <mergeCell ref="A94:P94"/>
+    <mergeCell ref="A95:P95"/>
+    <mergeCell ref="A96:P96"/>
+    <mergeCell ref="A97:P97"/>
+    <mergeCell ref="A98:P98"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="A77:P77"/>
+    <mergeCell ref="A78:P78"/>
+    <mergeCell ref="A79:P79"/>
+    <mergeCell ref="A80:P80"/>
+    <mergeCell ref="A81:P81"/>
+    <mergeCell ref="A82:P82"/>
+    <mergeCell ref="A83:P83"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A86:P86"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A66:P66"/>
+    <mergeCell ref="A67:P67"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="A69:P69"/>
+    <mergeCell ref="A70:P70"/>
+    <mergeCell ref="A71:P71"/>
+    <mergeCell ref="A72:P72"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A63:P63"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:P57"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="A62:P62"/>
     <mergeCell ref="A51:P51"/>
     <mergeCell ref="A40:P40"/>
     <mergeCell ref="A41:P41"/>
@@ -10544,129 +10615,78 @@
     <mergeCell ref="A48:P48"/>
     <mergeCell ref="A49:P49"/>
     <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A63:P63"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="A54:P54"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:P57"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="A62:P62"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="A66:P66"/>
-    <mergeCell ref="A67:P67"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="A69:P69"/>
-    <mergeCell ref="A70:P70"/>
-    <mergeCell ref="A71:P71"/>
-    <mergeCell ref="A72:P72"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A87:P87"/>
-    <mergeCell ref="A76:P76"/>
-    <mergeCell ref="A77:P77"/>
-    <mergeCell ref="A78:P78"/>
-    <mergeCell ref="A79:P79"/>
-    <mergeCell ref="A80:P80"/>
-    <mergeCell ref="A81:P81"/>
-    <mergeCell ref="A82:P82"/>
-    <mergeCell ref="A83:P83"/>
-    <mergeCell ref="A84:P84"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A99:P99"/>
-    <mergeCell ref="A88:P88"/>
-    <mergeCell ref="A89:P89"/>
-    <mergeCell ref="A90:P90"/>
-    <mergeCell ref="A91:P91"/>
-    <mergeCell ref="A92:P92"/>
-    <mergeCell ref="A93:P93"/>
-    <mergeCell ref="A94:P94"/>
-    <mergeCell ref="A95:P95"/>
-    <mergeCell ref="A96:P96"/>
-    <mergeCell ref="A97:P97"/>
-    <mergeCell ref="A98:P98"/>
-    <mergeCell ref="A106:P106"/>
-    <mergeCell ref="A107:P107"/>
-    <mergeCell ref="A108:P108"/>
-    <mergeCell ref="A100:P100"/>
-    <mergeCell ref="A101:P101"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A103:P103"/>
-    <mergeCell ref="A104:P104"/>
-    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A38:P38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.3984375" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" customWidth="1"/>
-    <col min="8" max="8" width="8.1328125" customWidth="1"/>
-    <col min="9" max="10" width="8.265625" customWidth="1"/>
-    <col min="11" max="11" width="8.59765625" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="7.86328125" customWidth="1"/>
-    <col min="14" max="14" width="8.59765625" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="178" t="s">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="180" t="s">
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="180" t="s">
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="181"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="183" t="s">
+      <c r="M4" s="182"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="184" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="179"/>
+    <row r="5" spans="1:15" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="180"/>
       <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
@@ -10703,9 +10723,9 @@
       <c r="N5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="184"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O5" s="185"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>43</v>
       </c>
@@ -10749,7 +10769,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>44</v>
       </c>
@@ -10793,7 +10813,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>45</v>
       </c>
@@ -10837,7 +10857,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>46</v>
       </c>
@@ -10881,7 +10901,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>47</v>
       </c>
@@ -10925,7 +10945,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>48</v>
       </c>
@@ -10969,7 +10989,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>49</v>
       </c>
@@ -11013,7 +11033,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>50</v>
       </c>
@@ -11057,7 +11077,7 @@
         <v>14644</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>51</v>
       </c>
@@ -11101,7 +11121,7 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>52</v>
       </c>
@@ -11145,7 +11165,7 @@
         <v>56534</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>53</v>
       </c>
@@ -11189,7 +11209,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>54</v>
       </c>
@@ -11233,7 +11253,7 @@
         <v>40111</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>55</v>
       </c>
@@ -11277,7 +11297,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>56</v>
       </c>
@@ -11321,7 +11341,7 @@
         <v>12267</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>57</v>
       </c>
@@ -11365,7 +11385,7 @@
         <v>33645</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>58</v>
       </c>
@@ -11409,7 +11429,7 @@
         <v>6147</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>59</v>
       </c>
@@ -11453,7 +11473,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>60</v>
       </c>
@@ -11497,7 +11517,7 @@
         <v>16421</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>61</v>
       </c>
@@ -11541,7 +11561,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>62</v>
       </c>
@@ -11585,7 +11605,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>63</v>
       </c>
@@ -11629,7 +11649,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>64</v>
       </c>
@@ -11673,7 +11693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>65</v>
       </c>
@@ -11717,7 +11737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>66</v>
       </c>
@@ -11761,7 +11781,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>67</v>
       </c>
@@ -11805,7 +11825,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>68</v>
       </c>
@@ -11849,7 +11869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>69</v>
       </c>
@@ -11893,7 +11913,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>70</v>
       </c>
@@ -11937,7 +11957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>71</v>
       </c>
@@ -11981,7 +12001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>72</v>
       </c>
@@ -12025,7 +12045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>73</v>
       </c>
@@ -12069,7 +12089,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>74</v>
       </c>
@@ -12113,7 +12133,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>75</v>
       </c>
@@ -12157,7 +12177,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>76</v>
       </c>
@@ -12201,7 +12221,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>77</v>
       </c>
@@ -12245,7 +12265,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>78</v>
       </c>
@@ -12289,7 +12309,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>79</v>
       </c>
@@ -12333,7 +12353,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>80</v>
       </c>
@@ -12377,7 +12397,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>81</v>
       </c>
@@ -12422,7 +12442,7 @@
       </c>
       <c r="Q44" s="23"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
         <v>82</v>
       </c>
@@ -12467,7 +12487,7 @@
       </c>
       <c r="Q45" s="30"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>83</v>
       </c>
@@ -12511,7 +12531,7 @@
         <v>8634</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>84</v>
       </c>
@@ -12555,7 +12575,7 @@
         <v>5292</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>85</v>
       </c>
@@ -12599,7 +12619,7 @@
         <v>50897</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>86</v>
       </c>
@@ -12643,7 +12663,7 @@
         <v>78680</v>
       </c>
     </row>
-    <row r="50" spans="2:15" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="16" t="s">
         <v>87</v>
       </c>
@@ -12687,7 +12707,7 @@
         <v>37518</v>
       </c>
     </row>
-    <row r="51" spans="2:15" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>88</v>
       </c>
@@ -12731,7 +12751,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="24" t="s">
         <v>89</v>
       </c>
@@ -12775,7 +12795,7 @@
         <v>195468</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>90</v>
       </c>
@@ -12819,7 +12839,7 @@
         <v>210331</v>
       </c>
     </row>
-    <row r="54" spans="2:15" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="24" t="s">
         <v>91</v>
       </c>
@@ -12863,7 +12883,7 @@
         <v>210331</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="37"/>
       <c r="C55" s="38"/>
       <c r="D55" s="39"/>
@@ -12879,7 +12899,7 @@
       <c r="N55" s="41"/>
       <c r="O55" s="42"/>
     </row>
-    <row r="56" spans="2:15" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:15" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="43" t="s">
         <v>92</v>
       </c>
@@ -12923,17 +12943,17 @@
         <v>659858</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="49" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="49" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="49" t="s">
         <v>93</v>
       </c>
@@ -12951,24 +12971,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="30.86328125" customWidth="1"/>
-    <col min="3" max="3" width="23.1328125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
         <v>115</v>
       </c>
@@ -12977,7 +12997,7 @@
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
         <v>116</v>
       </c>
@@ -12990,7 +13010,7 @@
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="73">
         <v>0.21299999999999999</v>
       </c>
@@ -13002,25 +13022,25 @@
         <v>0.44899999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="70"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>Population!B13</f>
         <v>311582564</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B10" s="70"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="75">
         <f>A8/1000*C5</f>
         <v>139900.57123599999</v>
@@ -13033,25 +13053,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.86328125" customWidth="1"/>
-    <col min="2" max="2" width="29.265625" customWidth="1"/>
-    <col min="3" max="3" width="16.73046875" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>133</v>
       </c>
@@ -13059,7 +13079,7 @@
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>126</v>
       </c>
@@ -13071,7 +13091,7 @@
       </c>
       <c r="D4" s="70"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="73">
         <v>286180</v>
       </c>
@@ -13082,7 +13102,7 @@
         <v>11162</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>135</v>
       </c>
@@ -13090,7 +13110,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="73">
         <v>2007</v>
       </c>
@@ -13099,7 +13119,7 @@
         <v>301579895</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
         <v>2011</v>
       </c>
@@ -13108,7 +13128,7 @@
         <v>311582564</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>136</v>
       </c>
@@ -13116,7 +13136,7 @@
       <c r="C11" s="78"/>
       <c r="D11" s="78"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>126</v>
       </c>
@@ -13128,7 +13148,7 @@
       </c>
       <c r="D12" s="70"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="79">
         <f>A5*($B9/$B8)</f>
         <v>295671.89207198308</v>
@@ -13142,7 +13162,7 @@
         <v>11532.216295015289</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>137</v>
       </c>

--- a/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
+++ b/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india-analysis\InputData\trans\FoVObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\trans\FoVObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72786D6-DEF9-43BB-8947-931400C4EE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D655774F-5E9E-4186-A0C4-ECB41F6B6D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3440,6 +3440,60 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3454,60 +3508,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5369,7 +5369,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5576,38 +5576,36 @@
       <c r="A6" t="s">
         <v>184</v>
       </c>
-      <c r="B6">
-        <f>Results!C6</f>
-        <v>0.65</v>
-      </c>
-      <c r="C6">
-        <f>Results!D6</f>
-        <v>0.35</v>
-      </c>
-      <c r="D6">
-        <f>Results!E6</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ref="F6:J6" si="3">E6</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="B6" s="121">
+        <v>0</v>
+      </c>
+      <c r="C6" s="121">
+        <v>1</v>
+      </c>
+      <c r="D6" s="121">
+        <v>0</v>
+      </c>
+      <c r="E6" s="121">
+        <f t="shared" ref="C6:J6" si="3">E2</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="121">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="121">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="H6" s="121">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="I6" s="121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="121">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6010,39 +6008,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="175"/>
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="175"/>
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
     </row>
     <row r="2" spans="1:31" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
@@ -8966,24 +8964,24 @@
       </c>
     </row>
     <row r="35" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="158" t="s">
+      <c r="A35" s="176" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="158"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="158"/>
-      <c r="N35" s="158"/>
-      <c r="O35" s="158"/>
-      <c r="P35" s="158"/>
+      <c r="B35" s="176"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="176"/>
+      <c r="H35" s="176"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="176"/>
+      <c r="K35" s="176"/>
+      <c r="L35" s="176"/>
+      <c r="M35" s="176"/>
+      <c r="N35" s="176"/>
+      <c r="O35" s="176"/>
+      <c r="P35" s="176"/>
       <c r="Q35" s="68"/>
       <c r="R35" s="68"/>
       <c r="S35" s="68"/>
@@ -9000,1561 +8998,1606 @@
       <c r="AE35" s="122"/>
     </row>
     <row r="36" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="159"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="159"/>
-      <c r="K36" s="159"/>
-      <c r="L36" s="159"/>
-      <c r="M36" s="159"/>
-      <c r="N36" s="159"/>
-      <c r="O36" s="159"/>
-      <c r="P36" s="159"/>
+      <c r="A36" s="177"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="177"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="177"/>
+      <c r="P36" s="177"/>
       <c r="Q36" s="135"/>
       <c r="R36" s="136"/>
       <c r="S36" s="136"/>
       <c r="T36" s="137"/>
     </row>
     <row r="37" spans="1:31" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="160" t="s">
+      <c r="A37" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="B37" s="160"/>
-      <c r="C37" s="160"/>
-      <c r="D37" s="160"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="160"/>
-      <c r="J37" s="160"/>
-      <c r="K37" s="160"/>
-      <c r="L37" s="160"/>
-      <c r="M37" s="160"/>
-      <c r="N37" s="160"/>
-      <c r="O37" s="160"/>
-      <c r="P37" s="160"/>
+      <c r="B37" s="178"/>
+      <c r="C37" s="178"/>
+      <c r="D37" s="178"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="178"/>
+      <c r="K37" s="178"/>
+      <c r="L37" s="178"/>
+      <c r="M37" s="178"/>
+      <c r="N37" s="178"/>
+      <c r="O37" s="178"/>
+      <c r="P37" s="178"/>
       <c r="Q37" s="138"/>
       <c r="R37" s="138"/>
       <c r="S37" s="138"/>
       <c r="T37" s="139"/>
     </row>
     <row r="38" spans="1:31" s="140" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="161" t="s">
+      <c r="A38" s="173" t="s">
         <v>207</v>
       </c>
-      <c r="B38" s="161"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="161"/>
-      <c r="N38" s="161"/>
-      <c r="O38" s="161"/>
-      <c r="P38" s="161"/>
+      <c r="B38" s="173"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="173"/>
+      <c r="L38" s="173"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="173"/>
+      <c r="O38" s="173"/>
+      <c r="P38" s="173"/>
       <c r="Q38" s="138"/>
       <c r="R38" s="138"/>
       <c r="S38" s="138"/>
       <c r="T38" s="139"/>
     </row>
     <row r="39" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="156" t="s">
+      <c r="A39" s="174" t="s">
         <v>208</v>
       </c>
-      <c r="B39" s="156"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="156"/>
-      <c r="L39" s="156"/>
-      <c r="M39" s="156"/>
-      <c r="N39" s="156"/>
-      <c r="O39" s="156"/>
-      <c r="P39" s="156"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="174"/>
+      <c r="K39" s="174"/>
+      <c r="L39" s="174"/>
+      <c r="M39" s="174"/>
+      <c r="N39" s="174"/>
+      <c r="O39" s="174"/>
+      <c r="P39" s="174"/>
       <c r="Q39" s="138"/>
       <c r="R39" s="138"/>
       <c r="S39" s="138"/>
       <c r="T39" s="139"/>
     </row>
     <row r="40" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="163" t="s">
+      <c r="A40" s="172" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="163"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="163"/>
-      <c r="K40" s="163"/>
-      <c r="L40" s="163"/>
-      <c r="M40" s="163"/>
-      <c r="N40" s="163"/>
-      <c r="O40" s="163"/>
-      <c r="P40" s="163"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="172"/>
+      <c r="K40" s="172"/>
+      <c r="L40" s="172"/>
+      <c r="M40" s="172"/>
+      <c r="N40" s="172"/>
+      <c r="O40" s="172"/>
+      <c r="P40" s="172"/>
       <c r="Q40" s="138"/>
       <c r="R40" s="138"/>
       <c r="S40" s="138"/>
       <c r="T40" s="139"/>
     </row>
     <row r="41" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="163" t="s">
+      <c r="A41" s="172" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
-      <c r="E41" s="163"/>
-      <c r="F41" s="163"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="163"/>
-      <c r="I41" s="163"/>
-      <c r="J41" s="163"/>
-      <c r="K41" s="163"/>
-      <c r="L41" s="163"/>
-      <c r="M41" s="163"/>
-      <c r="N41" s="163"/>
-      <c r="O41" s="163"/>
-      <c r="P41" s="163"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="172"/>
+      <c r="L41" s="172"/>
+      <c r="M41" s="172"/>
+      <c r="N41" s="172"/>
+      <c r="O41" s="172"/>
+      <c r="P41" s="172"/>
       <c r="Q41" s="138"/>
       <c r="R41" s="138"/>
       <c r="S41" s="138"/>
       <c r="T41" s="139"/>
     </row>
     <row r="42" spans="1:31" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="161" t="s">
+      <c r="A42" s="173" t="s">
         <v>211</v>
       </c>
-      <c r="B42" s="161"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="161"/>
-      <c r="L42" s="161"/>
-      <c r="M42" s="161"/>
-      <c r="N42" s="161"/>
-      <c r="O42" s="161"/>
-      <c r="P42" s="161"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="173"/>
+      <c r="M42" s="173"/>
+      <c r="N42" s="173"/>
+      <c r="O42" s="173"/>
+      <c r="P42" s="173"/>
       <c r="T42" s="139"/>
     </row>
     <row r="43" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="156" t="s">
+      <c r="A43" s="174" t="s">
         <v>212</v>
       </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="156"/>
-      <c r="L43" s="156"/>
-      <c r="M43" s="156"/>
-      <c r="N43" s="156"/>
-      <c r="O43" s="156"/>
-      <c r="P43" s="156"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
+      <c r="E43" s="174"/>
+      <c r="F43" s="174"/>
+      <c r="G43" s="174"/>
+      <c r="H43" s="174"/>
+      <c r="I43" s="174"/>
+      <c r="J43" s="174"/>
+      <c r="K43" s="174"/>
+      <c r="L43" s="174"/>
+      <c r="M43" s="174"/>
+      <c r="N43" s="174"/>
+      <c r="O43" s="174"/>
+      <c r="P43" s="174"/>
       <c r="T43" s="139"/>
     </row>
     <row r="44" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="174" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
-      <c r="H44" s="156"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="156"/>
-      <c r="K44" s="156"/>
-      <c r="L44" s="156"/>
-      <c r="M44" s="156"/>
-      <c r="N44" s="156"/>
-      <c r="O44" s="156"/>
-      <c r="P44" s="156"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="174"/>
+      <c r="E44" s="174"/>
+      <c r="F44" s="174"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="174"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="174"/>
+      <c r="K44" s="174"/>
+      <c r="L44" s="174"/>
+      <c r="M44" s="174"/>
+      <c r="N44" s="174"/>
+      <c r="O44" s="174"/>
+      <c r="P44" s="174"/>
       <c r="T44" s="139"/>
     </row>
     <row r="45" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="164" t="s">
+      <c r="A45" s="165" t="s">
         <v>214</v>
       </c>
-      <c r="B45" s="164"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="164"/>
-      <c r="G45" s="164"/>
-      <c r="H45" s="164"/>
-      <c r="I45" s="164"/>
-      <c r="J45" s="164"/>
-      <c r="K45" s="164"/>
-      <c r="L45" s="164"/>
-      <c r="M45" s="164"/>
-      <c r="N45" s="164"/>
-      <c r="O45" s="164"/>
-      <c r="P45" s="164"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="165"/>
+      <c r="L45" s="165"/>
+      <c r="M45" s="165"/>
+      <c r="N45" s="165"/>
+      <c r="O45" s="165"/>
+      <c r="P45" s="165"/>
       <c r="T45" s="139"/>
     </row>
     <row r="46" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="163" t="s">
+      <c r="A46" s="172" t="s">
         <v>215</v>
       </c>
-      <c r="B46" s="163"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="163"/>
-      <c r="J46" s="163"/>
-      <c r="K46" s="163"/>
-      <c r="L46" s="163"/>
-      <c r="M46" s="163"/>
-      <c r="N46" s="163"/>
-      <c r="O46" s="163"/>
-      <c r="P46" s="163"/>
+      <c r="B46" s="172"/>
+      <c r="C46" s="172"/>
+      <c r="D46" s="172"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="172"/>
+      <c r="G46" s="172"/>
+      <c r="H46" s="172"/>
+      <c r="I46" s="172"/>
+      <c r="J46" s="172"/>
+      <c r="K46" s="172"/>
+      <c r="L46" s="172"/>
+      <c r="M46" s="172"/>
+      <c r="N46" s="172"/>
+      <c r="O46" s="172"/>
+      <c r="P46" s="172"/>
       <c r="T46" s="139"/>
     </row>
     <row r="47" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="163" t="s">
+      <c r="A47" s="172" t="s">
         <v>216</v>
       </c>
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
-      <c r="E47" s="163"/>
-      <c r="F47" s="163"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="163"/>
-      <c r="J47" s="163"/>
-      <c r="K47" s="163"/>
-      <c r="L47" s="163"/>
-      <c r="M47" s="163"/>
-      <c r="N47" s="163"/>
-      <c r="O47" s="163"/>
-      <c r="P47" s="163"/>
+      <c r="B47" s="172"/>
+      <c r="C47" s="172"/>
+      <c r="D47" s="172"/>
+      <c r="E47" s="172"/>
+      <c r="F47" s="172"/>
+      <c r="G47" s="172"/>
+      <c r="H47" s="172"/>
+      <c r="I47" s="172"/>
+      <c r="J47" s="172"/>
+      <c r="K47" s="172"/>
+      <c r="L47" s="172"/>
+      <c r="M47" s="172"/>
+      <c r="N47" s="172"/>
+      <c r="O47" s="172"/>
+      <c r="P47" s="172"/>
       <c r="T47" s="139"/>
     </row>
     <row r="48" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="163" t="s">
+      <c r="A48" s="172" t="s">
         <v>217</v>
       </c>
-      <c r="B48" s="163"/>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
-      <c r="E48" s="163"/>
-      <c r="F48" s="163"/>
-      <c r="G48" s="163"/>
-      <c r="H48" s="163"/>
-      <c r="I48" s="163"/>
-      <c r="J48" s="163"/>
-      <c r="K48" s="163"/>
-      <c r="L48" s="163"/>
-      <c r="M48" s="163"/>
-      <c r="N48" s="163"/>
-      <c r="O48" s="163"/>
-      <c r="P48" s="163"/>
+      <c r="B48" s="172"/>
+      <c r="C48" s="172"/>
+      <c r="D48" s="172"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="172"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="172"/>
+      <c r="I48" s="172"/>
+      <c r="J48" s="172"/>
+      <c r="K48" s="172"/>
+      <c r="L48" s="172"/>
+      <c r="M48" s="172"/>
+      <c r="N48" s="172"/>
+      <c r="O48" s="172"/>
+      <c r="P48" s="172"/>
       <c r="T48" s="139"/>
     </row>
     <row r="49" spans="1:20" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="163" t="s">
+      <c r="A49" s="172" t="s">
         <v>218</v>
       </c>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
-      <c r="E49" s="163"/>
-      <c r="F49" s="163"/>
-      <c r="G49" s="163"/>
-      <c r="H49" s="163"/>
-      <c r="I49" s="163"/>
-      <c r="J49" s="163"/>
-      <c r="K49" s="163"/>
-      <c r="L49" s="163"/>
-      <c r="M49" s="163"/>
-      <c r="N49" s="163"/>
-      <c r="O49" s="163"/>
-      <c r="P49" s="163"/>
+      <c r="B49" s="172"/>
+      <c r="C49" s="172"/>
+      <c r="D49" s="172"/>
+      <c r="E49" s="172"/>
+      <c r="F49" s="172"/>
+      <c r="G49" s="172"/>
+      <c r="H49" s="172"/>
+      <c r="I49" s="172"/>
+      <c r="J49" s="172"/>
+      <c r="K49" s="172"/>
+      <c r="L49" s="172"/>
+      <c r="M49" s="172"/>
+      <c r="N49" s="172"/>
+      <c r="O49" s="172"/>
+      <c r="P49" s="172"/>
       <c r="T49" s="139"/>
     </row>
     <row r="50" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="163" t="s">
+      <c r="A50" s="172" t="s">
         <v>219</v>
       </c>
-      <c r="B50" s="163"/>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
-      <c r="E50" s="163"/>
-      <c r="F50" s="163"/>
-      <c r="G50" s="163"/>
-      <c r="H50" s="163"/>
-      <c r="I50" s="163"/>
-      <c r="J50" s="163"/>
-      <c r="K50" s="163"/>
-      <c r="L50" s="163"/>
-      <c r="M50" s="163"/>
-      <c r="N50" s="163"/>
-      <c r="O50" s="163"/>
-      <c r="P50" s="163"/>
+      <c r="B50" s="172"/>
+      <c r="C50" s="172"/>
+      <c r="D50" s="172"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="172"/>
+      <c r="G50" s="172"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="172"/>
+      <c r="J50" s="172"/>
+      <c r="K50" s="172"/>
+      <c r="L50" s="172"/>
+      <c r="M50" s="172"/>
+      <c r="N50" s="172"/>
+      <c r="O50" s="172"/>
+      <c r="P50" s="172"/>
       <c r="T50" s="139"/>
     </row>
     <row r="51" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="162"/>
-      <c r="B51" s="162"/>
-      <c r="C51" s="162"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="162"/>
-      <c r="J51" s="162"/>
-      <c r="K51" s="162"/>
-      <c r="L51" s="162"/>
-      <c r="M51" s="162"/>
-      <c r="N51" s="162"/>
-      <c r="O51" s="162"/>
-      <c r="P51" s="162"/>
+      <c r="A51" s="171"/>
+      <c r="B51" s="171"/>
+      <c r="C51" s="171"/>
+      <c r="D51" s="171"/>
+      <c r="E51" s="171"/>
+      <c r="F51" s="171"/>
+      <c r="G51" s="171"/>
+      <c r="H51" s="171"/>
+      <c r="I51" s="171"/>
+      <c r="J51" s="171"/>
+      <c r="K51" s="171"/>
+      <c r="L51" s="171"/>
+      <c r="M51" s="171"/>
+      <c r="N51" s="171"/>
+      <c r="O51" s="171"/>
+      <c r="P51" s="171"/>
       <c r="T51" s="142"/>
     </row>
     <row r="52" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="166" t="s">
+      <c r="A52" s="164" t="s">
         <v>220</v>
       </c>
-      <c r="B52" s="166"/>
-      <c r="C52" s="166"/>
-      <c r="D52" s="166"/>
-      <c r="E52" s="166"/>
-      <c r="F52" s="166"/>
-      <c r="G52" s="166"/>
-      <c r="H52" s="166"/>
-      <c r="I52" s="166"/>
-      <c r="J52" s="166"/>
-      <c r="K52" s="166"/>
-      <c r="L52" s="166"/>
-      <c r="M52" s="166"/>
-      <c r="N52" s="166"/>
-      <c r="O52" s="166"/>
-      <c r="P52" s="166"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="164"/>
+      <c r="L52" s="164"/>
+      <c r="M52" s="164"/>
+      <c r="N52" s="164"/>
+      <c r="O52" s="164"/>
+      <c r="P52" s="164"/>
       <c r="T52" s="139"/>
     </row>
     <row r="53" spans="1:20" s="140" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="164" t="s">
+      <c r="A53" s="165" t="s">
         <v>221</v>
       </c>
-      <c r="B53" s="164"/>
-      <c r="C53" s="164"/>
-      <c r="D53" s="164"/>
-      <c r="E53" s="164"/>
-      <c r="F53" s="164"/>
-      <c r="G53" s="164"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="164"/>
-      <c r="J53" s="164"/>
-      <c r="K53" s="164"/>
-      <c r="L53" s="164"/>
-      <c r="M53" s="164"/>
-      <c r="N53" s="164"/>
-      <c r="O53" s="164"/>
-      <c r="P53" s="164"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="165"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="165"/>
+      <c r="L53" s="165"/>
+      <c r="M53" s="165"/>
+      <c r="N53" s="165"/>
+      <c r="O53" s="165"/>
+      <c r="P53" s="165"/>
       <c r="T53" s="139"/>
     </row>
     <row r="54" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="167" t="s">
+      <c r="A54" s="166" t="s">
         <v>222</v>
       </c>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="167"/>
-      <c r="I54" s="167"/>
-      <c r="J54" s="167"/>
-      <c r="K54" s="167"/>
-      <c r="L54" s="167"/>
-      <c r="M54" s="167"/>
-      <c r="N54" s="167"/>
-      <c r="O54" s="167"/>
-      <c r="P54" s="167"/>
+      <c r="B54" s="166"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="166"/>
+      <c r="E54" s="166"/>
+      <c r="F54" s="166"/>
+      <c r="G54" s="166"/>
+      <c r="H54" s="166"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="166"/>
+      <c r="K54" s="166"/>
+      <c r="L54" s="166"/>
+      <c r="M54" s="166"/>
+      <c r="N54" s="166"/>
+      <c r="O54" s="166"/>
+      <c r="P54" s="166"/>
       <c r="T54" s="139"/>
     </row>
     <row r="55" spans="1:20" s="140" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="168" t="s">
+      <c r="A55" s="167" t="s">
         <v>223</v>
       </c>
-      <c r="B55" s="168"/>
-      <c r="C55" s="168"/>
-      <c r="D55" s="168"/>
-      <c r="E55" s="168"/>
-      <c r="F55" s="168"/>
-      <c r="G55" s="168"/>
-      <c r="H55" s="168"/>
-      <c r="I55" s="168"/>
-      <c r="J55" s="168"/>
-      <c r="K55" s="168"/>
-      <c r="L55" s="168"/>
-      <c r="M55" s="168"/>
-      <c r="N55" s="168"/>
-      <c r="O55" s="168"/>
-      <c r="P55" s="168"/>
+      <c r="B55" s="167"/>
+      <c r="C55" s="167"/>
+      <c r="D55" s="167"/>
+      <c r="E55" s="167"/>
+      <c r="F55" s="167"/>
+      <c r="G55" s="167"/>
+      <c r="H55" s="167"/>
+      <c r="I55" s="167"/>
+      <c r="J55" s="167"/>
+      <c r="K55" s="167"/>
+      <c r="L55" s="167"/>
+      <c r="M55" s="167"/>
+      <c r="N55" s="167"/>
+      <c r="O55" s="167"/>
+      <c r="P55" s="167"/>
       <c r="T55" s="139"/>
     </row>
     <row r="56" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="167" t="s">
+      <c r="A56" s="166" t="s">
         <v>224</v>
       </c>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
-      <c r="E56" s="167"/>
-      <c r="F56" s="167"/>
-      <c r="G56" s="167"/>
-      <c r="H56" s="167"/>
-      <c r="I56" s="167"/>
-      <c r="J56" s="167"/>
-      <c r="K56" s="167"/>
-      <c r="L56" s="167"/>
-      <c r="M56" s="167"/>
-      <c r="N56" s="167"/>
-      <c r="O56" s="167"/>
-      <c r="P56" s="167"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="166"/>
+      <c r="F56" s="166"/>
+      <c r="G56" s="166"/>
+      <c r="H56" s="166"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
+      <c r="K56" s="166"/>
+      <c r="L56" s="166"/>
+      <c r="M56" s="166"/>
+      <c r="N56" s="166"/>
+      <c r="O56" s="166"/>
+      <c r="P56" s="166"/>
       <c r="T56" s="142"/>
     </row>
     <row r="57" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="167" t="s">
+      <c r="A57" s="166" t="s">
         <v>225</v>
       </c>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="167"/>
-      <c r="F57" s="167"/>
-      <c r="G57" s="167"/>
-      <c r="H57" s="167"/>
-      <c r="I57" s="167"/>
-      <c r="J57" s="167"/>
-      <c r="K57" s="167"/>
-      <c r="L57" s="167"/>
-      <c r="M57" s="167"/>
-      <c r="N57" s="167"/>
-      <c r="O57" s="167"/>
-      <c r="P57" s="167"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="166"/>
+      <c r="E57" s="166"/>
+      <c r="F57" s="166"/>
+      <c r="G57" s="166"/>
+      <c r="H57" s="166"/>
+      <c r="I57" s="166"/>
+      <c r="J57" s="166"/>
+      <c r="K57" s="166"/>
+      <c r="L57" s="166"/>
+      <c r="M57" s="166"/>
+      <c r="N57" s="166"/>
+      <c r="O57" s="166"/>
+      <c r="P57" s="166"/>
       <c r="T57" s="142"/>
     </row>
     <row r="58" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="169"/>
-      <c r="B58" s="169"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
-      <c r="E58" s="169"/>
-      <c r="F58" s="169"/>
-      <c r="G58" s="169"/>
-      <c r="H58" s="169"/>
-      <c r="I58" s="169"/>
-      <c r="J58" s="169"/>
-      <c r="K58" s="169"/>
-      <c r="L58" s="169"/>
-      <c r="M58" s="169"/>
-      <c r="N58" s="169"/>
-      <c r="O58" s="169"/>
-      <c r="P58" s="169"/>
+      <c r="A58" s="168"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
+      <c r="E58" s="168"/>
+      <c r="F58" s="168"/>
+      <c r="G58" s="168"/>
+      <c r="H58" s="168"/>
+      <c r="I58" s="168"/>
+      <c r="J58" s="168"/>
+      <c r="K58" s="168"/>
+      <c r="L58" s="168"/>
+      <c r="M58" s="168"/>
+      <c r="N58" s="168"/>
+      <c r="O58" s="168"/>
+      <c r="P58" s="168"/>
       <c r="T58" s="142"/>
     </row>
     <row r="59" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="170" t="s">
+      <c r="A59" s="169" t="s">
         <v>226</v>
       </c>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
-      <c r="E59" s="170"/>
-      <c r="F59" s="170"/>
-      <c r="G59" s="170"/>
-      <c r="H59" s="170"/>
-      <c r="I59" s="170"/>
-      <c r="J59" s="170"/>
-      <c r="K59" s="170"/>
-      <c r="L59" s="170"/>
-      <c r="M59" s="170"/>
-      <c r="N59" s="170"/>
-      <c r="O59" s="170"/>
-      <c r="P59" s="170"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="169"/>
+      <c r="F59" s="169"/>
+      <c r="G59" s="169"/>
+      <c r="H59" s="169"/>
+      <c r="I59" s="169"/>
+      <c r="J59" s="169"/>
+      <c r="K59" s="169"/>
+      <c r="L59" s="169"/>
+      <c r="M59" s="169"/>
+      <c r="N59" s="169"/>
+      <c r="O59" s="169"/>
+      <c r="P59" s="169"/>
       <c r="T59" s="142"/>
     </row>
     <row r="60" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="170" t="s">
+      <c r="A60" s="169" t="s">
         <v>227</v>
       </c>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
-      <c r="E60" s="170"/>
-      <c r="F60" s="170"/>
-      <c r="G60" s="170"/>
-      <c r="H60" s="170"/>
-      <c r="I60" s="170"/>
-      <c r="J60" s="170"/>
-      <c r="K60" s="170"/>
-      <c r="L60" s="170"/>
-      <c r="M60" s="170"/>
-      <c r="N60" s="170"/>
-      <c r="O60" s="170"/>
-      <c r="P60" s="170"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="169"/>
+      <c r="F60" s="169"/>
+      <c r="G60" s="169"/>
+      <c r="H60" s="169"/>
+      <c r="I60" s="169"/>
+      <c r="J60" s="169"/>
+      <c r="K60" s="169"/>
+      <c r="L60" s="169"/>
+      <c r="M60" s="169"/>
+      <c r="N60" s="169"/>
+      <c r="O60" s="169"/>
+      <c r="P60" s="169"/>
       <c r="T60" s="139"/>
     </row>
     <row r="61" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="171" t="s">
+      <c r="A61" s="157" t="s">
         <v>228</v>
       </c>
-      <c r="B61" s="171"/>
-      <c r="C61" s="171"/>
-      <c r="D61" s="171"/>
-      <c r="E61" s="171"/>
-      <c r="F61" s="171"/>
-      <c r="G61" s="171"/>
-      <c r="H61" s="171"/>
-      <c r="I61" s="171"/>
-      <c r="J61" s="171"/>
-      <c r="K61" s="171"/>
-      <c r="L61" s="171"/>
-      <c r="M61" s="171"/>
-      <c r="N61" s="171"/>
-      <c r="O61" s="171"/>
-      <c r="P61" s="171"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="157"/>
+      <c r="H61" s="157"/>
+      <c r="I61" s="157"/>
+      <c r="J61" s="157"/>
+      <c r="K61" s="157"/>
+      <c r="L61" s="157"/>
+      <c r="M61" s="157"/>
+      <c r="N61" s="157"/>
+      <c r="O61" s="157"/>
+      <c r="P61" s="157"/>
       <c r="T61" s="142"/>
     </row>
     <row r="62" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="172" t="s">
+      <c r="A62" s="170" t="s">
         <v>229</v>
       </c>
-      <c r="B62" s="172"/>
-      <c r="C62" s="172"/>
-      <c r="D62" s="172"/>
-      <c r="E62" s="172"/>
-      <c r="F62" s="172"/>
-      <c r="G62" s="172"/>
-      <c r="H62" s="172"/>
-      <c r="I62" s="172"/>
-      <c r="J62" s="172"/>
-      <c r="K62" s="172"/>
-      <c r="L62" s="172"/>
-      <c r="M62" s="172"/>
-      <c r="N62" s="172"/>
-      <c r="O62" s="172"/>
-      <c r="P62" s="172"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
+      <c r="E62" s="170"/>
+      <c r="F62" s="170"/>
+      <c r="G62" s="170"/>
+      <c r="H62" s="170"/>
+      <c r="I62" s="170"/>
+      <c r="J62" s="170"/>
+      <c r="K62" s="170"/>
+      <c r="L62" s="170"/>
+      <c r="M62" s="170"/>
+      <c r="N62" s="170"/>
+      <c r="O62" s="170"/>
+      <c r="P62" s="170"/>
       <c r="T62" s="142"/>
     </row>
     <row r="63" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="165" t="s">
+      <c r="A63" s="158" t="s">
         <v>230</v>
       </c>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="165"/>
-      <c r="F63" s="165"/>
-      <c r="G63" s="165"/>
-      <c r="H63" s="165"/>
-      <c r="I63" s="165"/>
-      <c r="J63" s="165"/>
-      <c r="K63" s="165"/>
-      <c r="L63" s="165"/>
-      <c r="M63" s="165"/>
-      <c r="N63" s="165"/>
-      <c r="O63" s="165"/>
-      <c r="P63" s="165"/>
+      <c r="B63" s="158"/>
+      <c r="C63" s="158"/>
+      <c r="D63" s="158"/>
+      <c r="E63" s="158"/>
+      <c r="F63" s="158"/>
+      <c r="G63" s="158"/>
+      <c r="H63" s="158"/>
+      <c r="I63" s="158"/>
+      <c r="J63" s="158"/>
+      <c r="K63" s="158"/>
+      <c r="L63" s="158"/>
+      <c r="M63" s="158"/>
+      <c r="N63" s="158"/>
+      <c r="O63" s="158"/>
+      <c r="P63" s="158"/>
       <c r="T63" s="142"/>
     </row>
     <row r="64" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="165" t="s">
+      <c r="A64" s="158" t="s">
         <v>231</v>
       </c>
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
-      <c r="E64" s="165"/>
-      <c r="F64" s="165"/>
-      <c r="G64" s="165"/>
-      <c r="H64" s="165"/>
-      <c r="I64" s="165"/>
-      <c r="J64" s="165"/>
-      <c r="K64" s="165"/>
-      <c r="L64" s="165"/>
-      <c r="M64" s="165"/>
-      <c r="N64" s="165"/>
-      <c r="O64" s="165"/>
-      <c r="P64" s="165"/>
+      <c r="B64" s="158"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="158"/>
+      <c r="F64" s="158"/>
+      <c r="G64" s="158"/>
+      <c r="H64" s="158"/>
+      <c r="I64" s="158"/>
+      <c r="J64" s="158"/>
+      <c r="K64" s="158"/>
+      <c r="L64" s="158"/>
+      <c r="M64" s="158"/>
+      <c r="N64" s="158"/>
+      <c r="O64" s="158"/>
+      <c r="P64" s="158"/>
       <c r="T64" s="142"/>
     </row>
     <row r="65" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="165" t="s">
+      <c r="A65" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="B65" s="165"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="165"/>
-      <c r="F65" s="165"/>
-      <c r="G65" s="165"/>
-      <c r="H65" s="165"/>
-      <c r="I65" s="165"/>
-      <c r="J65" s="165"/>
-      <c r="K65" s="165"/>
-      <c r="L65" s="165"/>
-      <c r="M65" s="165"/>
-      <c r="N65" s="165"/>
-      <c r="O65" s="165"/>
-      <c r="P65" s="165"/>
+      <c r="B65" s="158"/>
+      <c r="C65" s="158"/>
+      <c r="D65" s="158"/>
+      <c r="E65" s="158"/>
+      <c r="F65" s="158"/>
+      <c r="G65" s="158"/>
+      <c r="H65" s="158"/>
+      <c r="I65" s="158"/>
+      <c r="J65" s="158"/>
+      <c r="K65" s="158"/>
+      <c r="L65" s="158"/>
+      <c r="M65" s="158"/>
+      <c r="N65" s="158"/>
+      <c r="O65" s="158"/>
+      <c r="P65" s="158"/>
       <c r="T65" s="142"/>
     </row>
     <row r="66" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="165" t="s">
+      <c r="A66" s="158" t="s">
         <v>233</v>
       </c>
-      <c r="B66" s="165"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="165"/>
-      <c r="F66" s="165"/>
-      <c r="G66" s="165"/>
-      <c r="H66" s="165"/>
-      <c r="I66" s="165"/>
-      <c r="J66" s="165"/>
-      <c r="K66" s="165"/>
-      <c r="L66" s="165"/>
-      <c r="M66" s="165"/>
-      <c r="N66" s="165"/>
-      <c r="O66" s="165"/>
-      <c r="P66" s="165"/>
+      <c r="B66" s="158"/>
+      <c r="C66" s="158"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="158"/>
+      <c r="G66" s="158"/>
+      <c r="H66" s="158"/>
+      <c r="I66" s="158"/>
+      <c r="J66" s="158"/>
+      <c r="K66" s="158"/>
+      <c r="L66" s="158"/>
+      <c r="M66" s="158"/>
+      <c r="N66" s="158"/>
+      <c r="O66" s="158"/>
+      <c r="P66" s="158"/>
       <c r="T66" s="142"/>
     </row>
     <row r="67" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="165" t="s">
+      <c r="A67" s="158" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="165"/>
-      <c r="F67" s="165"/>
-      <c r="G67" s="165"/>
-      <c r="H67" s="165"/>
-      <c r="I67" s="165"/>
-      <c r="J67" s="165"/>
-      <c r="K67" s="165"/>
-      <c r="L67" s="165"/>
-      <c r="M67" s="165"/>
-      <c r="N67" s="165"/>
-      <c r="O67" s="165"/>
-      <c r="P67" s="165"/>
+      <c r="B67" s="158"/>
+      <c r="C67" s="158"/>
+      <c r="D67" s="158"/>
+      <c r="E67" s="158"/>
+      <c r="F67" s="158"/>
+      <c r="G67" s="158"/>
+      <c r="H67" s="158"/>
+      <c r="I67" s="158"/>
+      <c r="J67" s="158"/>
+      <c r="K67" s="158"/>
+      <c r="L67" s="158"/>
+      <c r="M67" s="158"/>
+      <c r="N67" s="158"/>
+      <c r="O67" s="158"/>
+      <c r="P67" s="158"/>
       <c r="T67" s="142"/>
     </row>
     <row r="68" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="171" t="s">
+      <c r="A68" s="157" t="s">
         <v>235</v>
       </c>
-      <c r="B68" s="171"/>
-      <c r="C68" s="171"/>
-      <c r="D68" s="171"/>
-      <c r="E68" s="171"/>
-      <c r="F68" s="171"/>
-      <c r="G68" s="171"/>
-      <c r="H68" s="171"/>
-      <c r="I68" s="171"/>
-      <c r="J68" s="171"/>
-      <c r="K68" s="171"/>
-      <c r="L68" s="171"/>
-      <c r="M68" s="171"/>
-      <c r="N68" s="171"/>
-      <c r="O68" s="171"/>
-      <c r="P68" s="171"/>
+      <c r="B68" s="157"/>
+      <c r="C68" s="157"/>
+      <c r="D68" s="157"/>
+      <c r="E68" s="157"/>
+      <c r="F68" s="157"/>
+      <c r="G68" s="157"/>
+      <c r="H68" s="157"/>
+      <c r="I68" s="157"/>
+      <c r="J68" s="157"/>
+      <c r="K68" s="157"/>
+      <c r="L68" s="157"/>
+      <c r="M68" s="157"/>
+      <c r="N68" s="157"/>
+      <c r="O68" s="157"/>
+      <c r="P68" s="157"/>
       <c r="T68" s="142"/>
     </row>
     <row r="69" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="165" t="s">
+      <c r="A69" s="158" t="s">
         <v>236</v>
       </c>
-      <c r="B69" s="165"/>
-      <c r="C69" s="165"/>
-      <c r="D69" s="165"/>
-      <c r="E69" s="165"/>
-      <c r="F69" s="165"/>
-      <c r="G69" s="165"/>
-      <c r="H69" s="165"/>
-      <c r="I69" s="165"/>
-      <c r="J69" s="165"/>
-      <c r="K69" s="165"/>
-      <c r="L69" s="165"/>
-      <c r="M69" s="165"/>
-      <c r="N69" s="165"/>
-      <c r="O69" s="165"/>
-      <c r="P69" s="165"/>
+      <c r="B69" s="158"/>
+      <c r="C69" s="158"/>
+      <c r="D69" s="158"/>
+      <c r="E69" s="158"/>
+      <c r="F69" s="158"/>
+      <c r="G69" s="158"/>
+      <c r="H69" s="158"/>
+      <c r="I69" s="158"/>
+      <c r="J69" s="158"/>
+      <c r="K69" s="158"/>
+      <c r="L69" s="158"/>
+      <c r="M69" s="158"/>
+      <c r="N69" s="158"/>
+      <c r="O69" s="158"/>
+      <c r="P69" s="158"/>
       <c r="T69" s="142"/>
     </row>
     <row r="70" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="165" t="s">
+      <c r="A70" s="158" t="s">
         <v>237</v>
       </c>
-      <c r="B70" s="165"/>
-      <c r="C70" s="165"/>
-      <c r="D70" s="165"/>
-      <c r="E70" s="165"/>
-      <c r="F70" s="165"/>
-      <c r="G70" s="165"/>
-      <c r="H70" s="165"/>
-      <c r="I70" s="165"/>
-      <c r="J70" s="165"/>
-      <c r="K70" s="165"/>
-      <c r="L70" s="165"/>
-      <c r="M70" s="165"/>
-      <c r="N70" s="165"/>
-      <c r="O70" s="165"/>
-      <c r="P70" s="165"/>
+      <c r="B70" s="158"/>
+      <c r="C70" s="158"/>
+      <c r="D70" s="158"/>
+      <c r="E70" s="158"/>
+      <c r="F70" s="158"/>
+      <c r="G70" s="158"/>
+      <c r="H70" s="158"/>
+      <c r="I70" s="158"/>
+      <c r="J70" s="158"/>
+      <c r="K70" s="158"/>
+      <c r="L70" s="158"/>
+      <c r="M70" s="158"/>
+      <c r="N70" s="158"/>
+      <c r="O70" s="158"/>
+      <c r="P70" s="158"/>
       <c r="T70" s="142"/>
     </row>
     <row r="71" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="165" t="s">
+      <c r="A71" s="158" t="s">
         <v>238</v>
       </c>
-      <c r="B71" s="165"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="165"/>
-      <c r="F71" s="165"/>
-      <c r="G71" s="165"/>
-      <c r="H71" s="165"/>
-      <c r="I71" s="165"/>
-      <c r="J71" s="165"/>
-      <c r="K71" s="165"/>
-      <c r="L71" s="165"/>
-      <c r="M71" s="165"/>
-      <c r="N71" s="165"/>
-      <c r="O71" s="165"/>
-      <c r="P71" s="165"/>
+      <c r="B71" s="158"/>
+      <c r="C71" s="158"/>
+      <c r="D71" s="158"/>
+      <c r="E71" s="158"/>
+      <c r="F71" s="158"/>
+      <c r="G71" s="158"/>
+      <c r="H71" s="158"/>
+      <c r="I71" s="158"/>
+      <c r="J71" s="158"/>
+      <c r="K71" s="158"/>
+      <c r="L71" s="158"/>
+      <c r="M71" s="158"/>
+      <c r="N71" s="158"/>
+      <c r="O71" s="158"/>
+      <c r="P71" s="158"/>
       <c r="T71" s="142"/>
     </row>
     <row r="72" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="165" t="s">
+      <c r="A72" s="158" t="s">
         <v>239</v>
       </c>
-      <c r="B72" s="165"/>
-      <c r="C72" s="165"/>
-      <c r="D72" s="165"/>
-      <c r="E72" s="165"/>
-      <c r="F72" s="165"/>
-      <c r="G72" s="165"/>
-      <c r="H72" s="165"/>
-      <c r="I72" s="165"/>
-      <c r="J72" s="165"/>
-      <c r="K72" s="165"/>
-      <c r="L72" s="165"/>
-      <c r="M72" s="165"/>
-      <c r="N72" s="165"/>
-      <c r="O72" s="165"/>
-      <c r="P72" s="165"/>
+      <c r="B72" s="158"/>
+      <c r="C72" s="158"/>
+      <c r="D72" s="158"/>
+      <c r="E72" s="158"/>
+      <c r="F72" s="158"/>
+      <c r="G72" s="158"/>
+      <c r="H72" s="158"/>
+      <c r="I72" s="158"/>
+      <c r="J72" s="158"/>
+      <c r="K72" s="158"/>
+      <c r="L72" s="158"/>
+      <c r="M72" s="158"/>
+      <c r="N72" s="158"/>
+      <c r="O72" s="158"/>
+      <c r="P72" s="158"/>
       <c r="T72" s="142"/>
     </row>
     <row r="73" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="165" t="s">
+      <c r="A73" s="158" t="s">
         <v>240</v>
       </c>
-      <c r="B73" s="165"/>
-      <c r="C73" s="165"/>
-      <c r="D73" s="165"/>
-      <c r="E73" s="165"/>
-      <c r="F73" s="165"/>
-      <c r="G73" s="165"/>
-      <c r="H73" s="165"/>
-      <c r="I73" s="165"/>
-      <c r="J73" s="165"/>
-      <c r="K73" s="165"/>
-      <c r="L73" s="165"/>
-      <c r="M73" s="165"/>
-      <c r="N73" s="165"/>
-      <c r="O73" s="165"/>
-      <c r="P73" s="165"/>
+      <c r="B73" s="158"/>
+      <c r="C73" s="158"/>
+      <c r="D73" s="158"/>
+      <c r="E73" s="158"/>
+      <c r="F73" s="158"/>
+      <c r="G73" s="158"/>
+      <c r="H73" s="158"/>
+      <c r="I73" s="158"/>
+      <c r="J73" s="158"/>
+      <c r="K73" s="158"/>
+      <c r="L73" s="158"/>
+      <c r="M73" s="158"/>
+      <c r="N73" s="158"/>
+      <c r="O73" s="158"/>
+      <c r="P73" s="158"/>
       <c r="T73" s="142"/>
     </row>
     <row r="74" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="173" t="s">
+      <c r="A74" s="159" t="s">
         <v>241</v>
       </c>
-      <c r="B74" s="173"/>
-      <c r="C74" s="173"/>
-      <c r="D74" s="173"/>
-      <c r="E74" s="173"/>
-      <c r="F74" s="173"/>
-      <c r="G74" s="173"/>
-      <c r="H74" s="173"/>
-      <c r="I74" s="173"/>
-      <c r="J74" s="173"/>
-      <c r="K74" s="173"/>
-      <c r="L74" s="173"/>
-      <c r="M74" s="173"/>
-      <c r="N74" s="173"/>
-      <c r="O74" s="173"/>
-      <c r="P74" s="173"/>
+      <c r="B74" s="159"/>
+      <c r="C74" s="159"/>
+      <c r="D74" s="159"/>
+      <c r="E74" s="159"/>
+      <c r="F74" s="159"/>
+      <c r="G74" s="159"/>
+      <c r="H74" s="159"/>
+      <c r="I74" s="159"/>
+      <c r="J74" s="159"/>
+      <c r="K74" s="159"/>
+      <c r="L74" s="159"/>
+      <c r="M74" s="159"/>
+      <c r="N74" s="159"/>
+      <c r="O74" s="159"/>
+      <c r="P74" s="159"/>
       <c r="T74" s="142"/>
     </row>
     <row r="75" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="171" t="s">
+      <c r="A75" s="157" t="s">
         <v>242</v>
       </c>
-      <c r="B75" s="171"/>
-      <c r="C75" s="171"/>
-      <c r="D75" s="171"/>
-      <c r="E75" s="171"/>
-      <c r="F75" s="171"/>
-      <c r="G75" s="171"/>
-      <c r="H75" s="171"/>
-      <c r="I75" s="171"/>
-      <c r="J75" s="171"/>
-      <c r="K75" s="171"/>
-      <c r="L75" s="171"/>
-      <c r="M75" s="171"/>
-      <c r="N75" s="171"/>
-      <c r="O75" s="171"/>
-      <c r="P75" s="171"/>
+      <c r="B75" s="157"/>
+      <c r="C75" s="157"/>
+      <c r="D75" s="157"/>
+      <c r="E75" s="157"/>
+      <c r="F75" s="157"/>
+      <c r="G75" s="157"/>
+      <c r="H75" s="157"/>
+      <c r="I75" s="157"/>
+      <c r="J75" s="157"/>
+      <c r="K75" s="157"/>
+      <c r="L75" s="157"/>
+      <c r="M75" s="157"/>
+      <c r="N75" s="157"/>
+      <c r="O75" s="157"/>
+      <c r="P75" s="157"/>
       <c r="T75" s="139"/>
     </row>
     <row r="76" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="175" t="s">
+      <c r="A76" s="160" t="s">
         <v>243</v>
       </c>
-      <c r="B76" s="175"/>
-      <c r="C76" s="175"/>
-      <c r="D76" s="175"/>
-      <c r="E76" s="175"/>
-      <c r="F76" s="175"/>
-      <c r="G76" s="175"/>
-      <c r="H76" s="175"/>
-      <c r="I76" s="175"/>
-      <c r="J76" s="175"/>
-      <c r="K76" s="175"/>
-      <c r="L76" s="175"/>
-      <c r="M76" s="175"/>
-      <c r="N76" s="175"/>
-      <c r="O76" s="175"/>
-      <c r="P76" s="175"/>
+      <c r="B76" s="160"/>
+      <c r="C76" s="160"/>
+      <c r="D76" s="160"/>
+      <c r="E76" s="160"/>
+      <c r="F76" s="160"/>
+      <c r="G76" s="160"/>
+      <c r="H76" s="160"/>
+      <c r="I76" s="160"/>
+      <c r="J76" s="160"/>
+      <c r="K76" s="160"/>
+      <c r="L76" s="160"/>
+      <c r="M76" s="160"/>
+      <c r="N76" s="160"/>
+      <c r="O76" s="160"/>
+      <c r="P76" s="160"/>
       <c r="T76" s="142"/>
     </row>
     <row r="77" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="174" t="s">
+      <c r="A77" s="162" t="s">
         <v>244</v>
       </c>
-      <c r="B77" s="174"/>
-      <c r="C77" s="174"/>
-      <c r="D77" s="174"/>
-      <c r="E77" s="174"/>
-      <c r="F77" s="174"/>
-      <c r="G77" s="174"/>
-      <c r="H77" s="174"/>
-      <c r="I77" s="174"/>
-      <c r="J77" s="174"/>
-      <c r="K77" s="174"/>
-      <c r="L77" s="174"/>
-      <c r="M77" s="174"/>
-      <c r="N77" s="174"/>
-      <c r="O77" s="174"/>
-      <c r="P77" s="174"/>
+      <c r="B77" s="162"/>
+      <c r="C77" s="162"/>
+      <c r="D77" s="162"/>
+      <c r="E77" s="162"/>
+      <c r="F77" s="162"/>
+      <c r="G77" s="162"/>
+      <c r="H77" s="162"/>
+      <c r="I77" s="162"/>
+      <c r="J77" s="162"/>
+      <c r="K77" s="162"/>
+      <c r="L77" s="162"/>
+      <c r="M77" s="162"/>
+      <c r="N77" s="162"/>
+      <c r="O77" s="162"/>
+      <c r="P77" s="162"/>
       <c r="T77" s="142"/>
     </row>
     <row r="78" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="176" t="s">
+      <c r="A78" s="163" t="s">
         <v>245</v>
       </c>
-      <c r="B78" s="176"/>
-      <c r="C78" s="176"/>
-      <c r="D78" s="176"/>
-      <c r="E78" s="176"/>
-      <c r="F78" s="176"/>
-      <c r="G78" s="176"/>
-      <c r="H78" s="176"/>
-      <c r="I78" s="176"/>
-      <c r="J78" s="176"/>
-      <c r="K78" s="176"/>
-      <c r="L78" s="176"/>
-      <c r="M78" s="176"/>
-      <c r="N78" s="176"/>
-      <c r="O78" s="176"/>
-      <c r="P78" s="176"/>
+      <c r="B78" s="163"/>
+      <c r="C78" s="163"/>
+      <c r="D78" s="163"/>
+      <c r="E78" s="163"/>
+      <c r="F78" s="163"/>
+      <c r="G78" s="163"/>
+      <c r="H78" s="163"/>
+      <c r="I78" s="163"/>
+      <c r="J78" s="163"/>
+      <c r="K78" s="163"/>
+      <c r="L78" s="163"/>
+      <c r="M78" s="163"/>
+      <c r="N78" s="163"/>
+      <c r="O78" s="163"/>
+      <c r="P78" s="163"/>
       <c r="T78" s="142"/>
     </row>
     <row r="79" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="174" t="s">
+      <c r="A79" s="162" t="s">
         <v>246</v>
       </c>
-      <c r="B79" s="174"/>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
-      <c r="E79" s="174"/>
-      <c r="F79" s="174"/>
-      <c r="G79" s="174"/>
-      <c r="H79" s="174"/>
-      <c r="I79" s="174"/>
-      <c r="J79" s="174"/>
-      <c r="K79" s="174"/>
-      <c r="L79" s="174"/>
-      <c r="M79" s="174"/>
-      <c r="N79" s="174"/>
-      <c r="O79" s="174"/>
-      <c r="P79" s="174"/>
+      <c r="B79" s="162"/>
+      <c r="C79" s="162"/>
+      <c r="D79" s="162"/>
+      <c r="E79" s="162"/>
+      <c r="F79" s="162"/>
+      <c r="G79" s="162"/>
+      <c r="H79" s="162"/>
+      <c r="I79" s="162"/>
+      <c r="J79" s="162"/>
+      <c r="K79" s="162"/>
+      <c r="L79" s="162"/>
+      <c r="M79" s="162"/>
+      <c r="N79" s="162"/>
+      <c r="O79" s="162"/>
+      <c r="P79" s="162"/>
       <c r="T79" s="142"/>
     </row>
     <row r="80" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="171" t="s">
+      <c r="A80" s="157" t="s">
         <v>247</v>
       </c>
-      <c r="B80" s="171"/>
-      <c r="C80" s="171"/>
-      <c r="D80" s="171"/>
-      <c r="E80" s="171"/>
-      <c r="F80" s="171"/>
-      <c r="G80" s="171"/>
-      <c r="H80" s="171"/>
-      <c r="I80" s="171"/>
-      <c r="J80" s="171"/>
-      <c r="K80" s="171"/>
-      <c r="L80" s="171"/>
-      <c r="M80" s="171"/>
-      <c r="N80" s="171"/>
-      <c r="O80" s="171"/>
-      <c r="P80" s="171"/>
+      <c r="B80" s="157"/>
+      <c r="C80" s="157"/>
+      <c r="D80" s="157"/>
+      <c r="E80" s="157"/>
+      <c r="F80" s="157"/>
+      <c r="G80" s="157"/>
+      <c r="H80" s="157"/>
+      <c r="I80" s="157"/>
+      <c r="J80" s="157"/>
+      <c r="K80" s="157"/>
+      <c r="L80" s="157"/>
+      <c r="M80" s="157"/>
+      <c r="N80" s="157"/>
+      <c r="O80" s="157"/>
+      <c r="P80" s="157"/>
       <c r="T80" s="142"/>
     </row>
     <row r="81" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="175" t="s">
+      <c r="A81" s="160" t="s">
         <v>248</v>
       </c>
-      <c r="B81" s="175"/>
-      <c r="C81" s="175"/>
-      <c r="D81" s="175"/>
-      <c r="E81" s="175"/>
-      <c r="F81" s="175"/>
-      <c r="G81" s="175"/>
-      <c r="H81" s="175"/>
-      <c r="I81" s="175"/>
-      <c r="J81" s="175"/>
-      <c r="K81" s="175"/>
-      <c r="L81" s="175"/>
-      <c r="M81" s="175"/>
-      <c r="N81" s="175"/>
-      <c r="O81" s="175"/>
-      <c r="P81" s="175"/>
+      <c r="B81" s="160"/>
+      <c r="C81" s="160"/>
+      <c r="D81" s="160"/>
+      <c r="E81" s="160"/>
+      <c r="F81" s="160"/>
+      <c r="G81" s="160"/>
+      <c r="H81" s="160"/>
+      <c r="I81" s="160"/>
+      <c r="J81" s="160"/>
+      <c r="K81" s="160"/>
+      <c r="L81" s="160"/>
+      <c r="M81" s="160"/>
+      <c r="N81" s="160"/>
+      <c r="O81" s="160"/>
+      <c r="P81" s="160"/>
       <c r="T81" s="142"/>
     </row>
     <row r="82" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="174" t="s">
+      <c r="A82" s="162" t="s">
         <v>249</v>
       </c>
-      <c r="B82" s="174"/>
-      <c r="C82" s="174"/>
-      <c r="D82" s="174"/>
-      <c r="E82" s="174"/>
-      <c r="F82" s="174"/>
-      <c r="G82" s="174"/>
-      <c r="H82" s="174"/>
-      <c r="I82" s="174"/>
-      <c r="J82" s="174"/>
-      <c r="K82" s="174"/>
-      <c r="L82" s="174"/>
-      <c r="M82" s="174"/>
-      <c r="N82" s="174"/>
-      <c r="O82" s="174"/>
-      <c r="P82" s="174"/>
+      <c r="B82" s="162"/>
+      <c r="C82" s="162"/>
+      <c r="D82" s="162"/>
+      <c r="E82" s="162"/>
+      <c r="F82" s="162"/>
+      <c r="G82" s="162"/>
+      <c r="H82" s="162"/>
+      <c r="I82" s="162"/>
+      <c r="J82" s="162"/>
+      <c r="K82" s="162"/>
+      <c r="L82" s="162"/>
+      <c r="M82" s="162"/>
+      <c r="N82" s="162"/>
+      <c r="O82" s="162"/>
+      <c r="P82" s="162"/>
       <c r="T82" s="142"/>
     </row>
     <row r="83" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="171" t="s">
+      <c r="A83" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="B83" s="171"/>
-      <c r="C83" s="171"/>
-      <c r="D83" s="171"/>
-      <c r="E83" s="171"/>
-      <c r="F83" s="171"/>
-      <c r="G83" s="171"/>
-      <c r="H83" s="171"/>
-      <c r="I83" s="171"/>
-      <c r="J83" s="171"/>
-      <c r="K83" s="171"/>
-      <c r="L83" s="171"/>
-      <c r="M83" s="171"/>
-      <c r="N83" s="171"/>
-      <c r="O83" s="171"/>
-      <c r="P83" s="171"/>
+      <c r="B83" s="157"/>
+      <c r="C83" s="157"/>
+      <c r="D83" s="157"/>
+      <c r="E83" s="157"/>
+      <c r="F83" s="157"/>
+      <c r="G83" s="157"/>
+      <c r="H83" s="157"/>
+      <c r="I83" s="157"/>
+      <c r="J83" s="157"/>
+      <c r="K83" s="157"/>
+      <c r="L83" s="157"/>
+      <c r="M83" s="157"/>
+      <c r="N83" s="157"/>
+      <c r="O83" s="157"/>
+      <c r="P83" s="157"/>
       <c r="T83" s="142"/>
     </row>
     <row r="84" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="175" t="s">
+      <c r="A84" s="160" t="s">
         <v>251</v>
       </c>
-      <c r="B84" s="175"/>
-      <c r="C84" s="175"/>
-      <c r="D84" s="175"/>
-      <c r="E84" s="175"/>
-      <c r="F84" s="175"/>
-      <c r="G84" s="175"/>
-      <c r="H84" s="175"/>
-      <c r="I84" s="175"/>
-      <c r="J84" s="175"/>
-      <c r="K84" s="175"/>
-      <c r="L84" s="175"/>
-      <c r="M84" s="175"/>
-      <c r="N84" s="175"/>
-      <c r="O84" s="175"/>
-      <c r="P84" s="175"/>
+      <c r="B84" s="160"/>
+      <c r="C84" s="160"/>
+      <c r="D84" s="160"/>
+      <c r="E84" s="160"/>
+      <c r="F84" s="160"/>
+      <c r="G84" s="160"/>
+      <c r="H84" s="160"/>
+      <c r="I84" s="160"/>
+      <c r="J84" s="160"/>
+      <c r="K84" s="160"/>
+      <c r="L84" s="160"/>
+      <c r="M84" s="160"/>
+      <c r="N84" s="160"/>
+      <c r="O84" s="160"/>
+      <c r="P84" s="160"/>
       <c r="T84" s="142"/>
     </row>
     <row r="85" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="174" t="s">
+      <c r="A85" s="162" t="s">
         <v>244</v>
       </c>
-      <c r="B85" s="174"/>
-      <c r="C85" s="174"/>
-      <c r="D85" s="174"/>
-      <c r="E85" s="174"/>
-      <c r="F85" s="174"/>
-      <c r="G85" s="174"/>
-      <c r="H85" s="174"/>
-      <c r="I85" s="174"/>
-      <c r="J85" s="174"/>
-      <c r="K85" s="174"/>
-      <c r="L85" s="174"/>
-      <c r="M85" s="174"/>
-      <c r="N85" s="174"/>
-      <c r="O85" s="174"/>
-      <c r="P85" s="174"/>
+      <c r="B85" s="162"/>
+      <c r="C85" s="162"/>
+      <c r="D85" s="162"/>
+      <c r="E85" s="162"/>
+      <c r="F85" s="162"/>
+      <c r="G85" s="162"/>
+      <c r="H85" s="162"/>
+      <c r="I85" s="162"/>
+      <c r="J85" s="162"/>
+      <c r="K85" s="162"/>
+      <c r="L85" s="162"/>
+      <c r="M85" s="162"/>
+      <c r="N85" s="162"/>
+      <c r="O85" s="162"/>
+      <c r="P85" s="162"/>
       <c r="T85" s="142"/>
     </row>
     <row r="86" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="176" t="s">
+      <c r="A86" s="163" t="s">
         <v>252</v>
       </c>
-      <c r="B86" s="176"/>
-      <c r="C86" s="176"/>
-      <c r="D86" s="176"/>
-      <c r="E86" s="176"/>
-      <c r="F86" s="176"/>
-      <c r="G86" s="176"/>
-      <c r="H86" s="176"/>
-      <c r="I86" s="176"/>
-      <c r="J86" s="176"/>
-      <c r="K86" s="176"/>
-      <c r="L86" s="176"/>
-      <c r="M86" s="176"/>
-      <c r="N86" s="176"/>
-      <c r="O86" s="176"/>
-      <c r="P86" s="176"/>
+      <c r="B86" s="163"/>
+      <c r="C86" s="163"/>
+      <c r="D86" s="163"/>
+      <c r="E86" s="163"/>
+      <c r="F86" s="163"/>
+      <c r="G86" s="163"/>
+      <c r="H86" s="163"/>
+      <c r="I86" s="163"/>
+      <c r="J86" s="163"/>
+      <c r="K86" s="163"/>
+      <c r="L86" s="163"/>
+      <c r="M86" s="163"/>
+      <c r="N86" s="163"/>
+      <c r="O86" s="163"/>
+      <c r="P86" s="163"/>
       <c r="T86" s="142"/>
     </row>
     <row r="87" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="174" t="s">
+      <c r="A87" s="162" t="s">
         <v>253</v>
       </c>
-      <c r="B87" s="174"/>
-      <c r="C87" s="174"/>
-      <c r="D87" s="174"/>
-      <c r="E87" s="174"/>
-      <c r="F87" s="174"/>
-      <c r="G87" s="174"/>
-      <c r="H87" s="174"/>
-      <c r="I87" s="174"/>
-      <c r="J87" s="174"/>
-      <c r="K87" s="174"/>
-      <c r="L87" s="174"/>
-      <c r="M87" s="174"/>
-      <c r="N87" s="174"/>
-      <c r="O87" s="174"/>
-      <c r="P87" s="174"/>
+      <c r="B87" s="162"/>
+      <c r="C87" s="162"/>
+      <c r="D87" s="162"/>
+      <c r="E87" s="162"/>
+      <c r="F87" s="162"/>
+      <c r="G87" s="162"/>
+      <c r="H87" s="162"/>
+      <c r="I87" s="162"/>
+      <c r="J87" s="162"/>
+      <c r="K87" s="162"/>
+      <c r="L87" s="162"/>
+      <c r="M87" s="162"/>
+      <c r="N87" s="162"/>
+      <c r="O87" s="162"/>
+      <c r="P87" s="162"/>
       <c r="T87" s="142"/>
     </row>
     <row r="88" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="171" t="s">
+      <c r="A88" s="157" t="s">
         <v>254</v>
       </c>
-      <c r="B88" s="171"/>
-      <c r="C88" s="171"/>
-      <c r="D88" s="171"/>
-      <c r="E88" s="171"/>
-      <c r="F88" s="171"/>
-      <c r="G88" s="171"/>
-      <c r="H88" s="171"/>
-      <c r="I88" s="171"/>
-      <c r="J88" s="171"/>
-      <c r="K88" s="171"/>
-      <c r="L88" s="171"/>
-      <c r="M88" s="171"/>
-      <c r="N88" s="171"/>
-      <c r="O88" s="171"/>
-      <c r="P88" s="171"/>
+      <c r="B88" s="157"/>
+      <c r="C88" s="157"/>
+      <c r="D88" s="157"/>
+      <c r="E88" s="157"/>
+      <c r="F88" s="157"/>
+      <c r="G88" s="157"/>
+      <c r="H88" s="157"/>
+      <c r="I88" s="157"/>
+      <c r="J88" s="157"/>
+      <c r="K88" s="157"/>
+      <c r="L88" s="157"/>
+      <c r="M88" s="157"/>
+      <c r="N88" s="157"/>
+      <c r="O88" s="157"/>
+      <c r="P88" s="157"/>
       <c r="T88" s="142"/>
     </row>
     <row r="89" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="175" t="s">
+      <c r="A89" s="160" t="s">
         <v>255</v>
       </c>
-      <c r="B89" s="175"/>
-      <c r="C89" s="175"/>
-      <c r="D89" s="175"/>
-      <c r="E89" s="175"/>
-      <c r="F89" s="175"/>
-      <c r="G89" s="175"/>
-      <c r="H89" s="175"/>
-      <c r="I89" s="175"/>
-      <c r="J89" s="175"/>
-      <c r="K89" s="175"/>
-      <c r="L89" s="175"/>
-      <c r="M89" s="175"/>
-      <c r="N89" s="175"/>
-      <c r="O89" s="175"/>
-      <c r="P89" s="175"/>
+      <c r="B89" s="160"/>
+      <c r="C89" s="160"/>
+      <c r="D89" s="160"/>
+      <c r="E89" s="160"/>
+      <c r="F89" s="160"/>
+      <c r="G89" s="160"/>
+      <c r="H89" s="160"/>
+      <c r="I89" s="160"/>
+      <c r="J89" s="160"/>
+      <c r="K89" s="160"/>
+      <c r="L89" s="160"/>
+      <c r="M89" s="160"/>
+      <c r="N89" s="160"/>
+      <c r="O89" s="160"/>
+      <c r="P89" s="160"/>
       <c r="T89" s="142"/>
     </row>
     <row r="90" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="174" t="s">
+      <c r="A90" s="162" t="s">
         <v>249</v>
       </c>
-      <c r="B90" s="174"/>
-      <c r="C90" s="174"/>
-      <c r="D90" s="174"/>
-      <c r="E90" s="174"/>
-      <c r="F90" s="174"/>
-      <c r="G90" s="174"/>
-      <c r="H90" s="174"/>
-      <c r="I90" s="174"/>
-      <c r="J90" s="174"/>
-      <c r="K90" s="174"/>
-      <c r="L90" s="174"/>
-      <c r="M90" s="174"/>
-      <c r="N90" s="174"/>
-      <c r="O90" s="174"/>
-      <c r="P90" s="174"/>
+      <c r="B90" s="162"/>
+      <c r="C90" s="162"/>
+      <c r="D90" s="162"/>
+      <c r="E90" s="162"/>
+      <c r="F90" s="162"/>
+      <c r="G90" s="162"/>
+      <c r="H90" s="162"/>
+      <c r="I90" s="162"/>
+      <c r="J90" s="162"/>
+      <c r="K90" s="162"/>
+      <c r="L90" s="162"/>
+      <c r="M90" s="162"/>
+      <c r="N90" s="162"/>
+      <c r="O90" s="162"/>
+      <c r="P90" s="162"/>
       <c r="T90" s="142"/>
     </row>
     <row r="91" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="173" t="s">
+      <c r="A91" s="159" t="s">
         <v>256</v>
       </c>
-      <c r="B91" s="173"/>
-      <c r="C91" s="173"/>
-      <c r="D91" s="173"/>
-      <c r="E91" s="173"/>
-      <c r="F91" s="173"/>
-      <c r="G91" s="173"/>
-      <c r="H91" s="173"/>
-      <c r="I91" s="173"/>
-      <c r="J91" s="173"/>
-      <c r="K91" s="173"/>
-      <c r="L91" s="173"/>
-      <c r="M91" s="173"/>
-      <c r="N91" s="173"/>
-      <c r="O91" s="173"/>
-      <c r="P91" s="173"/>
+      <c r="B91" s="159"/>
+      <c r="C91" s="159"/>
+      <c r="D91" s="159"/>
+      <c r="E91" s="159"/>
+      <c r="F91" s="159"/>
+      <c r="G91" s="159"/>
+      <c r="H91" s="159"/>
+      <c r="I91" s="159"/>
+      <c r="J91" s="159"/>
+      <c r="K91" s="159"/>
+      <c r="L91" s="159"/>
+      <c r="M91" s="159"/>
+      <c r="N91" s="159"/>
+      <c r="O91" s="159"/>
+      <c r="P91" s="159"/>
       <c r="T91" s="142"/>
     </row>
     <row r="92" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="165" t="s">
+      <c r="A92" s="158" t="s">
         <v>257</v>
       </c>
-      <c r="B92" s="165"/>
-      <c r="C92" s="165"/>
-      <c r="D92" s="165"/>
-      <c r="E92" s="165"/>
-      <c r="F92" s="165"/>
-      <c r="G92" s="165"/>
-      <c r="H92" s="165"/>
-      <c r="I92" s="165"/>
-      <c r="J92" s="165"/>
-      <c r="K92" s="165"/>
-      <c r="L92" s="165"/>
-      <c r="M92" s="165"/>
-      <c r="N92" s="165"/>
-      <c r="O92" s="165"/>
-      <c r="P92" s="165"/>
+      <c r="B92" s="158"/>
+      <c r="C92" s="158"/>
+      <c r="D92" s="158"/>
+      <c r="E92" s="158"/>
+      <c r="F92" s="158"/>
+      <c r="G92" s="158"/>
+      <c r="H92" s="158"/>
+      <c r="I92" s="158"/>
+      <c r="J92" s="158"/>
+      <c r="K92" s="158"/>
+      <c r="L92" s="158"/>
+      <c r="M92" s="158"/>
+      <c r="N92" s="158"/>
+      <c r="O92" s="158"/>
+      <c r="P92" s="158"/>
       <c r="T92" s="142"/>
     </row>
     <row r="93" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="165" t="s">
+      <c r="A93" s="158" t="s">
         <v>258</v>
       </c>
-      <c r="B93" s="165"/>
-      <c r="C93" s="165"/>
-      <c r="D93" s="165"/>
-      <c r="E93" s="165"/>
-      <c r="F93" s="165"/>
-      <c r="G93" s="165"/>
-      <c r="H93" s="165"/>
-      <c r="I93" s="165"/>
-      <c r="J93" s="165"/>
-      <c r="K93" s="165"/>
-      <c r="L93" s="165"/>
-      <c r="M93" s="165"/>
-      <c r="N93" s="165"/>
-      <c r="O93" s="165"/>
-      <c r="P93" s="165"/>
+      <c r="B93" s="158"/>
+      <c r="C93" s="158"/>
+      <c r="D93" s="158"/>
+      <c r="E93" s="158"/>
+      <c r="F93" s="158"/>
+      <c r="G93" s="158"/>
+      <c r="H93" s="158"/>
+      <c r="I93" s="158"/>
+      <c r="J93" s="158"/>
+      <c r="K93" s="158"/>
+      <c r="L93" s="158"/>
+      <c r="M93" s="158"/>
+      <c r="N93" s="158"/>
+      <c r="O93" s="158"/>
+      <c r="P93" s="158"/>
       <c r="T93" s="142"/>
     </row>
     <row r="94" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="173" t="s">
+      <c r="A94" s="159" t="s">
         <v>259</v>
       </c>
-      <c r="B94" s="173"/>
-      <c r="C94" s="173"/>
-      <c r="D94" s="173"/>
-      <c r="E94" s="173"/>
-      <c r="F94" s="173"/>
-      <c r="G94" s="173"/>
-      <c r="H94" s="173"/>
-      <c r="I94" s="173"/>
-      <c r="J94" s="173"/>
-      <c r="K94" s="173"/>
-      <c r="L94" s="173"/>
-      <c r="M94" s="173"/>
-      <c r="N94" s="173"/>
-      <c r="O94" s="173"/>
-      <c r="P94" s="173"/>
+      <c r="B94" s="159"/>
+      <c r="C94" s="159"/>
+      <c r="D94" s="159"/>
+      <c r="E94" s="159"/>
+      <c r="F94" s="159"/>
+      <c r="G94" s="159"/>
+      <c r="H94" s="159"/>
+      <c r="I94" s="159"/>
+      <c r="J94" s="159"/>
+      <c r="K94" s="159"/>
+      <c r="L94" s="159"/>
+      <c r="M94" s="159"/>
+      <c r="N94" s="159"/>
+      <c r="O94" s="159"/>
+      <c r="P94" s="159"/>
       <c r="T94" s="142"/>
     </row>
     <row r="95" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="165" t="s">
+      <c r="A95" s="158" t="s">
         <v>260</v>
       </c>
-      <c r="B95" s="165"/>
-      <c r="C95" s="165"/>
-      <c r="D95" s="165"/>
-      <c r="E95" s="165"/>
-      <c r="F95" s="165"/>
-      <c r="G95" s="165"/>
-      <c r="H95" s="165"/>
-      <c r="I95" s="165"/>
-      <c r="J95" s="165"/>
-      <c r="K95" s="165"/>
-      <c r="L95" s="165"/>
-      <c r="M95" s="165"/>
-      <c r="N95" s="165"/>
-      <c r="O95" s="165"/>
-      <c r="P95" s="165"/>
+      <c r="B95" s="158"/>
+      <c r="C95" s="158"/>
+      <c r="D95" s="158"/>
+      <c r="E95" s="158"/>
+      <c r="F95" s="158"/>
+      <c r="G95" s="158"/>
+      <c r="H95" s="158"/>
+      <c r="I95" s="158"/>
+      <c r="J95" s="158"/>
+      <c r="K95" s="158"/>
+      <c r="L95" s="158"/>
+      <c r="M95" s="158"/>
+      <c r="N95" s="158"/>
+      <c r="O95" s="158"/>
+      <c r="P95" s="158"/>
       <c r="T95" s="142"/>
     </row>
     <row r="96" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="173" t="s">
+      <c r="A96" s="159" t="s">
         <v>261</v>
       </c>
-      <c r="B96" s="173"/>
-      <c r="C96" s="173"/>
-      <c r="D96" s="173"/>
-      <c r="E96" s="173"/>
-      <c r="F96" s="173"/>
-      <c r="G96" s="173"/>
-      <c r="H96" s="173"/>
-      <c r="I96" s="173"/>
-      <c r="J96" s="173"/>
-      <c r="K96" s="173"/>
-      <c r="L96" s="173"/>
-      <c r="M96" s="173"/>
-      <c r="N96" s="173"/>
-      <c r="O96" s="173"/>
-      <c r="P96" s="173"/>
+      <c r="B96" s="159"/>
+      <c r="C96" s="159"/>
+      <c r="D96" s="159"/>
+      <c r="E96" s="159"/>
+      <c r="F96" s="159"/>
+      <c r="G96" s="159"/>
+      <c r="H96" s="159"/>
+      <c r="I96" s="159"/>
+      <c r="J96" s="159"/>
+      <c r="K96" s="159"/>
+      <c r="L96" s="159"/>
+      <c r="M96" s="159"/>
+      <c r="N96" s="159"/>
+      <c r="O96" s="159"/>
+      <c r="P96" s="159"/>
       <c r="T96" s="142"/>
     </row>
     <row r="97" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="171" t="s">
+      <c r="A97" s="157" t="s">
         <v>262</v>
       </c>
-      <c r="B97" s="171"/>
-      <c r="C97" s="171"/>
-      <c r="D97" s="171"/>
-      <c r="E97" s="171"/>
-      <c r="F97" s="171"/>
-      <c r="G97" s="171"/>
-      <c r="H97" s="171"/>
-      <c r="I97" s="171"/>
-      <c r="J97" s="171"/>
-      <c r="K97" s="171"/>
-      <c r="L97" s="171"/>
-      <c r="M97" s="171"/>
-      <c r="N97" s="171"/>
-      <c r="O97" s="171"/>
-      <c r="P97" s="171"/>
+      <c r="B97" s="157"/>
+      <c r="C97" s="157"/>
+      <c r="D97" s="157"/>
+      <c r="E97" s="157"/>
+      <c r="F97" s="157"/>
+      <c r="G97" s="157"/>
+      <c r="H97" s="157"/>
+      <c r="I97" s="157"/>
+      <c r="J97" s="157"/>
+      <c r="K97" s="157"/>
+      <c r="L97" s="157"/>
+      <c r="M97" s="157"/>
+      <c r="N97" s="157"/>
+      <c r="O97" s="157"/>
+      <c r="P97" s="157"/>
       <c r="T97" s="142"/>
     </row>
     <row r="98" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="165" t="s">
+      <c r="A98" s="158" t="s">
         <v>263</v>
       </c>
-      <c r="B98" s="165"/>
-      <c r="C98" s="165"/>
-      <c r="D98" s="165"/>
-      <c r="E98" s="165"/>
-      <c r="F98" s="165"/>
-      <c r="G98" s="165"/>
-      <c r="H98" s="165"/>
-      <c r="I98" s="165"/>
-      <c r="J98" s="165"/>
-      <c r="K98" s="165"/>
-      <c r="L98" s="165"/>
-      <c r="M98" s="165"/>
-      <c r="N98" s="165"/>
-      <c r="O98" s="165"/>
-      <c r="P98" s="165"/>
+      <c r="B98" s="158"/>
+      <c r="C98" s="158"/>
+      <c r="D98" s="158"/>
+      <c r="E98" s="158"/>
+      <c r="F98" s="158"/>
+      <c r="G98" s="158"/>
+      <c r="H98" s="158"/>
+      <c r="I98" s="158"/>
+      <c r="J98" s="158"/>
+      <c r="K98" s="158"/>
+      <c r="L98" s="158"/>
+      <c r="M98" s="158"/>
+      <c r="N98" s="158"/>
+      <c r="O98" s="158"/>
+      <c r="P98" s="158"/>
       <c r="T98" s="142"/>
     </row>
     <row r="99" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="165" t="s">
+      <c r="A99" s="158" t="s">
         <v>264</v>
       </c>
-      <c r="B99" s="165"/>
-      <c r="C99" s="165"/>
-      <c r="D99" s="165"/>
-      <c r="E99" s="165"/>
-      <c r="F99" s="165"/>
-      <c r="G99" s="165"/>
-      <c r="H99" s="165"/>
-      <c r="I99" s="165"/>
-      <c r="J99" s="165"/>
-      <c r="K99" s="165"/>
-      <c r="L99" s="165"/>
-      <c r="M99" s="165"/>
-      <c r="N99" s="165"/>
-      <c r="O99" s="165"/>
-      <c r="P99" s="165"/>
+      <c r="B99" s="158"/>
+      <c r="C99" s="158"/>
+      <c r="D99" s="158"/>
+      <c r="E99" s="158"/>
+      <c r="F99" s="158"/>
+      <c r="G99" s="158"/>
+      <c r="H99" s="158"/>
+      <c r="I99" s="158"/>
+      <c r="J99" s="158"/>
+      <c r="K99" s="158"/>
+      <c r="L99" s="158"/>
+      <c r="M99" s="158"/>
+      <c r="N99" s="158"/>
+      <c r="O99" s="158"/>
+      <c r="P99" s="158"/>
       <c r="T99" s="142"/>
     </row>
     <row r="100" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="165" t="s">
+      <c r="A100" s="158" t="s">
         <v>265</v>
       </c>
-      <c r="B100" s="165"/>
-      <c r="C100" s="165"/>
-      <c r="D100" s="165"/>
-      <c r="E100" s="165"/>
-      <c r="F100" s="165"/>
-      <c r="G100" s="165"/>
-      <c r="H100" s="165"/>
-      <c r="I100" s="165"/>
-      <c r="J100" s="165"/>
-      <c r="K100" s="165"/>
-      <c r="L100" s="165"/>
-      <c r="M100" s="165"/>
-      <c r="N100" s="165"/>
-      <c r="O100" s="165"/>
-      <c r="P100" s="165"/>
+      <c r="B100" s="158"/>
+      <c r="C100" s="158"/>
+      <c r="D100" s="158"/>
+      <c r="E100" s="158"/>
+      <c r="F100" s="158"/>
+      <c r="G100" s="158"/>
+      <c r="H100" s="158"/>
+      <c r="I100" s="158"/>
+      <c r="J100" s="158"/>
+      <c r="K100" s="158"/>
+      <c r="L100" s="158"/>
+      <c r="M100" s="158"/>
+      <c r="N100" s="158"/>
+      <c r="O100" s="158"/>
+      <c r="P100" s="158"/>
       <c r="T100" s="142"/>
     </row>
     <row r="101" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="173" t="s">
+      <c r="A101" s="159" t="s">
         <v>266</v>
       </c>
-      <c r="B101" s="173"/>
-      <c r="C101" s="173"/>
-      <c r="D101" s="173"/>
-      <c r="E101" s="173"/>
-      <c r="F101" s="173"/>
-      <c r="G101" s="173"/>
-      <c r="H101" s="173"/>
-      <c r="I101" s="173"/>
-      <c r="J101" s="173"/>
-      <c r="K101" s="173"/>
-      <c r="L101" s="173"/>
-      <c r="M101" s="173"/>
-      <c r="N101" s="173"/>
-      <c r="O101" s="173"/>
-      <c r="P101" s="173"/>
+      <c r="B101" s="159"/>
+      <c r="C101" s="159"/>
+      <c r="D101" s="159"/>
+      <c r="E101" s="159"/>
+      <c r="F101" s="159"/>
+      <c r="G101" s="159"/>
+      <c r="H101" s="159"/>
+      <c r="I101" s="159"/>
+      <c r="J101" s="159"/>
+      <c r="K101" s="159"/>
+      <c r="L101" s="159"/>
+      <c r="M101" s="159"/>
+      <c r="N101" s="159"/>
+      <c r="O101" s="159"/>
+      <c r="P101" s="159"/>
       <c r="T101" s="142"/>
     </row>
     <row r="102" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="171" t="s">
+      <c r="A102" s="157" t="s">
         <v>267</v>
       </c>
-      <c r="B102" s="171"/>
-      <c r="C102" s="171"/>
-      <c r="D102" s="171"/>
-      <c r="E102" s="171"/>
-      <c r="F102" s="171"/>
-      <c r="G102" s="171"/>
-      <c r="H102" s="171"/>
-      <c r="I102" s="171"/>
-      <c r="J102" s="171"/>
-      <c r="K102" s="171"/>
-      <c r="L102" s="171"/>
-      <c r="M102" s="171"/>
-      <c r="N102" s="171"/>
-      <c r="O102" s="171"/>
-      <c r="P102" s="171"/>
+      <c r="B102" s="157"/>
+      <c r="C102" s="157"/>
+      <c r="D102" s="157"/>
+      <c r="E102" s="157"/>
+      <c r="F102" s="157"/>
+      <c r="G102" s="157"/>
+      <c r="H102" s="157"/>
+      <c r="I102" s="157"/>
+      <c r="J102" s="157"/>
+      <c r="K102" s="157"/>
+      <c r="L102" s="157"/>
+      <c r="M102" s="157"/>
+      <c r="N102" s="157"/>
+      <c r="O102" s="157"/>
+      <c r="P102" s="157"/>
       <c r="T102" s="142"/>
     </row>
     <row r="103" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="175" t="s">
+      <c r="A103" s="160" t="s">
         <v>268</v>
       </c>
-      <c r="B103" s="175"/>
-      <c r="C103" s="175"/>
-      <c r="D103" s="175"/>
-      <c r="E103" s="175"/>
-      <c r="F103" s="175"/>
-      <c r="G103" s="175"/>
-      <c r="H103" s="175"/>
-      <c r="I103" s="175"/>
-      <c r="J103" s="175"/>
-      <c r="K103" s="175"/>
-      <c r="L103" s="175"/>
-      <c r="M103" s="175"/>
-      <c r="N103" s="175"/>
-      <c r="O103" s="175"/>
-      <c r="P103" s="175"/>
+      <c r="B103" s="160"/>
+      <c r="C103" s="160"/>
+      <c r="D103" s="160"/>
+      <c r="E103" s="160"/>
+      <c r="F103" s="160"/>
+      <c r="G103" s="160"/>
+      <c r="H103" s="160"/>
+      <c r="I103" s="160"/>
+      <c r="J103" s="160"/>
+      <c r="K103" s="160"/>
+      <c r="L103" s="160"/>
+      <c r="M103" s="160"/>
+      <c r="N103" s="160"/>
+      <c r="O103" s="160"/>
+      <c r="P103" s="160"/>
       <c r="T103" s="142"/>
     </row>
     <row r="104" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="171" t="s">
+      <c r="A104" s="157" t="s">
         <v>269</v>
       </c>
-      <c r="B104" s="171"/>
-      <c r="C104" s="171"/>
-      <c r="D104" s="171"/>
-      <c r="E104" s="171"/>
-      <c r="F104" s="171"/>
-      <c r="G104" s="171"/>
-      <c r="H104" s="171"/>
-      <c r="I104" s="171"/>
-      <c r="J104" s="171"/>
-      <c r="K104" s="171"/>
-      <c r="L104" s="171"/>
-      <c r="M104" s="171"/>
-      <c r="N104" s="171"/>
-      <c r="O104" s="171"/>
-      <c r="P104" s="171"/>
+      <c r="B104" s="157"/>
+      <c r="C104" s="157"/>
+      <c r="D104" s="157"/>
+      <c r="E104" s="157"/>
+      <c r="F104" s="157"/>
+      <c r="G104" s="157"/>
+      <c r="H104" s="157"/>
+      <c r="I104" s="157"/>
+      <c r="J104" s="157"/>
+      <c r="K104" s="157"/>
+      <c r="L104" s="157"/>
+      <c r="M104" s="157"/>
+      <c r="N104" s="157"/>
+      <c r="O104" s="157"/>
+      <c r="P104" s="157"/>
       <c r="T104" s="142"/>
     </row>
     <row r="105" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="178" t="s">
+      <c r="A105" s="161" t="s">
         <v>270</v>
       </c>
-      <c r="B105" s="178"/>
-      <c r="C105" s="178"/>
-      <c r="D105" s="178"/>
-      <c r="E105" s="178"/>
-      <c r="F105" s="178"/>
-      <c r="G105" s="178"/>
-      <c r="H105" s="178"/>
-      <c r="I105" s="178"/>
-      <c r="J105" s="178"/>
-      <c r="K105" s="178"/>
-      <c r="L105" s="178"/>
-      <c r="M105" s="178"/>
-      <c r="N105" s="178"/>
-      <c r="O105" s="178"/>
-      <c r="P105" s="178"/>
+      <c r="B105" s="161"/>
+      <c r="C105" s="161"/>
+      <c r="D105" s="161"/>
+      <c r="E105" s="161"/>
+      <c r="F105" s="161"/>
+      <c r="G105" s="161"/>
+      <c r="H105" s="161"/>
+      <c r="I105" s="161"/>
+      <c r="J105" s="161"/>
+      <c r="K105" s="161"/>
+      <c r="L105" s="161"/>
+      <c r="M105" s="161"/>
+      <c r="N105" s="161"/>
+      <c r="O105" s="161"/>
+      <c r="P105" s="161"/>
       <c r="T105" s="142"/>
     </row>
     <row r="106" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="177" t="s">
+      <c r="A106" s="156" t="s">
         <v>271</v>
       </c>
-      <c r="B106" s="177"/>
-      <c r="C106" s="177"/>
-      <c r="D106" s="177"/>
-      <c r="E106" s="177"/>
-      <c r="F106" s="177"/>
-      <c r="G106" s="177"/>
-      <c r="H106" s="177"/>
-      <c r="I106" s="177"/>
-      <c r="J106" s="177"/>
-      <c r="K106" s="177"/>
-      <c r="L106" s="177"/>
-      <c r="M106" s="177"/>
-      <c r="N106" s="177"/>
-      <c r="O106" s="177"/>
-      <c r="P106" s="177"/>
+      <c r="B106" s="156"/>
+      <c r="C106" s="156"/>
+      <c r="D106" s="156"/>
+      <c r="E106" s="156"/>
+      <c r="F106" s="156"/>
+      <c r="G106" s="156"/>
+      <c r="H106" s="156"/>
+      <c r="I106" s="156"/>
+      <c r="J106" s="156"/>
+      <c r="K106" s="156"/>
+      <c r="L106" s="156"/>
+      <c r="M106" s="156"/>
+      <c r="N106" s="156"/>
+      <c r="O106" s="156"/>
+      <c r="P106" s="156"/>
       <c r="T106" s="142"/>
     </row>
     <row r="107" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="171" t="s">
+      <c r="A107" s="157" t="s">
         <v>272</v>
       </c>
-      <c r="B107" s="171"/>
-      <c r="C107" s="171"/>
-      <c r="D107" s="171"/>
-      <c r="E107" s="171"/>
-      <c r="F107" s="171"/>
-      <c r="G107" s="171"/>
-      <c r="H107" s="171"/>
-      <c r="I107" s="171"/>
-      <c r="J107" s="171"/>
-      <c r="K107" s="171"/>
-      <c r="L107" s="171"/>
-      <c r="M107" s="171"/>
-      <c r="N107" s="171"/>
-      <c r="O107" s="171"/>
-      <c r="P107" s="171"/>
+      <c r="B107" s="157"/>
+      <c r="C107" s="157"/>
+      <c r="D107" s="157"/>
+      <c r="E107" s="157"/>
+      <c r="F107" s="157"/>
+      <c r="G107" s="157"/>
+      <c r="H107" s="157"/>
+      <c r="I107" s="157"/>
+      <c r="J107" s="157"/>
+      <c r="K107" s="157"/>
+      <c r="L107" s="157"/>
+      <c r="M107" s="157"/>
+      <c r="N107" s="157"/>
+      <c r="O107" s="157"/>
+      <c r="P107" s="157"/>
       <c r="T107" s="142"/>
     </row>
     <row r="108" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="165" t="s">
+      <c r="A108" s="158" t="s">
         <v>273</v>
       </c>
-      <c r="B108" s="165"/>
-      <c r="C108" s="165"/>
-      <c r="D108" s="165"/>
-      <c r="E108" s="165"/>
-      <c r="F108" s="165"/>
-      <c r="G108" s="165"/>
-      <c r="H108" s="165"/>
-      <c r="I108" s="165"/>
-      <c r="J108" s="165"/>
-      <c r="K108" s="165"/>
-      <c r="L108" s="165"/>
-      <c r="M108" s="165"/>
-      <c r="N108" s="165"/>
-      <c r="O108" s="165"/>
-      <c r="P108" s="165"/>
+      <c r="B108" s="158"/>
+      <c r="C108" s="158"/>
+      <c r="D108" s="158"/>
+      <c r="E108" s="158"/>
+      <c r="F108" s="158"/>
+      <c r="G108" s="158"/>
+      <c r="H108" s="158"/>
+      <c r="I108" s="158"/>
+      <c r="J108" s="158"/>
+      <c r="K108" s="158"/>
+      <c r="L108" s="158"/>
+      <c r="M108" s="158"/>
+      <c r="N108" s="158"/>
+      <c r="O108" s="158"/>
+      <c r="P108" s="158"/>
       <c r="T108" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A106:P106"/>
-    <mergeCell ref="A107:P107"/>
-    <mergeCell ref="A108:P108"/>
-    <mergeCell ref="A100:P100"/>
-    <mergeCell ref="A101:P101"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A103:P103"/>
-    <mergeCell ref="A104:P104"/>
-    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A38:P38"/>
+    <mergeCell ref="A51:P51"/>
+    <mergeCell ref="A40:P40"/>
+    <mergeCell ref="A41:P41"/>
+    <mergeCell ref="A42:P42"/>
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="A44:P44"/>
+    <mergeCell ref="A45:P45"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A47:P47"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="A49:P49"/>
+    <mergeCell ref="A50:P50"/>
+    <mergeCell ref="A63:P63"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:P57"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="A62:P62"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A66:P66"/>
+    <mergeCell ref="A67:P67"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="A69:P69"/>
+    <mergeCell ref="A70:P70"/>
+    <mergeCell ref="A71:P71"/>
+    <mergeCell ref="A72:P72"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="A77:P77"/>
+    <mergeCell ref="A78:P78"/>
+    <mergeCell ref="A79:P79"/>
+    <mergeCell ref="A80:P80"/>
+    <mergeCell ref="A81:P81"/>
+    <mergeCell ref="A82:P82"/>
+    <mergeCell ref="A83:P83"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A86:P86"/>
     <mergeCell ref="A99:P99"/>
     <mergeCell ref="A88:P88"/>
     <mergeCell ref="A89:P89"/>
@@ -10567,60 +10610,15 @@
     <mergeCell ref="A96:P96"/>
     <mergeCell ref="A97:P97"/>
     <mergeCell ref="A98:P98"/>
-    <mergeCell ref="A87:P87"/>
-    <mergeCell ref="A76:P76"/>
-    <mergeCell ref="A77:P77"/>
-    <mergeCell ref="A78:P78"/>
-    <mergeCell ref="A79:P79"/>
-    <mergeCell ref="A80:P80"/>
-    <mergeCell ref="A81:P81"/>
-    <mergeCell ref="A82:P82"/>
-    <mergeCell ref="A83:P83"/>
-    <mergeCell ref="A84:P84"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="A66:P66"/>
-    <mergeCell ref="A67:P67"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="A69:P69"/>
-    <mergeCell ref="A70:P70"/>
-    <mergeCell ref="A71:P71"/>
-    <mergeCell ref="A72:P72"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A63:P63"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="A54:P54"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:P57"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="A62:P62"/>
-    <mergeCell ref="A51:P51"/>
-    <mergeCell ref="A40:P40"/>
-    <mergeCell ref="A41:P41"/>
-    <mergeCell ref="A42:P42"/>
-    <mergeCell ref="A43:P43"/>
-    <mergeCell ref="A44:P44"/>
-    <mergeCell ref="A45:P45"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A47:P47"/>
-    <mergeCell ref="A48:P48"/>
-    <mergeCell ref="A49:P49"/>
-    <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A38:P38"/>
+    <mergeCell ref="A106:P106"/>
+    <mergeCell ref="A107:P107"/>
+    <mergeCell ref="A108:P108"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="A101:P101"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A103:P103"/>
+    <mergeCell ref="A104:P104"/>
+    <mergeCell ref="A105:P105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
+++ b/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\FoVObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\trans\FoVObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D655774F-5E9E-4186-A0C4-ECB41F6B6D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,15 @@
     <sheet name="Taxis and Limos" sheetId="8" r:id="rId10"/>
     <sheet name="Population" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2335,7 +2339,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,###"/>
     <numFmt numFmtId="165" formatCode="\(\R\)\ #,##0"/>
@@ -3435,6 +3439,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3525,17 +3530,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Data_Sheet1 (2)_1" xfId="5"/>
-    <cellStyle name="Hed Side" xfId="3"/>
-    <cellStyle name="Hed Side_Sheet1 (2)_1" xfId="4"/>
+    <cellStyle name="Data_Sheet1 (2)_1" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hed Side" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hed Side_Sheet1 (2)_1" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Source Text" xfId="7"/>
-    <cellStyle name="Table Title" xfId="1"/>
-    <cellStyle name="Title-1" xfId="2"/>
+    <cellStyle name="Source Text" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Table Title" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Title-1" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3626,6 +3630,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3661,6 +3682,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3836,26 +3874,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" customWidth="1"/>
-    <col min="2" max="2" width="100.73046875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -3863,317 +3901,317 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="73">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="73">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="76" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="73">
         <v>2011</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="76" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="73">
         <v>2010</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="76" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="76" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="72" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="73" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="73">
         <v>2009</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="73" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="113" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="73"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="73" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="73" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="113" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="73"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="72" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="73" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" s="73">
         <v>2012</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="73" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="113" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B28" r:id="rId1"/>
-    <hyperlink ref="B42" r:id="rId2"/>
-    <hyperlink ref="B55" r:id="rId3"/>
-    <hyperlink ref="B61" r:id="rId4"/>
-    <hyperlink ref="B49" r:id="rId5"/>
+    <hyperlink ref="B28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B55" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B61" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B49" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -4181,48 +4219,48 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="87.59765625" customWidth="1"/>
+    <col min="2" max="2" width="87.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="70"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
         <v>233000</v>
       </c>
@@ -4233,18 +4271,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.59765625" customWidth="1"/>
-    <col min="3" max="3" width="22.73046875" style="115" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="115" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -4255,7 +4293,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="110">
         <v>2000</v>
       </c>
@@ -4266,7 +4304,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -4277,7 +4315,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="110">
         <v>2002</v>
       </c>
@@ -4288,7 +4326,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -4299,7 +4337,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="110">
         <v>2004</v>
       </c>
@@ -4310,7 +4348,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -4321,7 +4359,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="110">
         <v>2006</v>
       </c>
@@ -4332,7 +4370,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -4343,7 +4381,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="110">
         <v>2008</v>
       </c>
@@ -4354,7 +4392,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -4365,7 +4403,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="110">
         <v>2010</v>
       </c>
@@ -4376,7 +4414,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -4387,7 +4425,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -4398,7 +4436,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -4409,7 +4447,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -4421,7 +4459,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -4432,7 +4470,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -4443,7 +4481,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -4454,7 +4492,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -4465,7 +4503,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -4476,7 +4514,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -4487,7 +4525,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -4498,7 +4536,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -4509,7 +4547,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2023</v>
       </c>
@@ -4520,7 +4558,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2024</v>
       </c>
@@ -4531,7 +4569,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2025</v>
       </c>
@@ -4542,7 +4580,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2026</v>
       </c>
@@ -4553,7 +4591,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -4564,7 +4602,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2028</v>
       </c>
@@ -4575,7 +4613,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2029</v>
       </c>
@@ -4586,7 +4624,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2030</v>
       </c>
@@ -4597,7 +4635,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2031</v>
       </c>
@@ -4608,7 +4646,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2032</v>
       </c>
@@ -4619,7 +4657,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2033</v>
       </c>
@@ -4630,7 +4668,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2034</v>
       </c>
@@ -4641,7 +4679,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2035</v>
       </c>
@@ -4652,7 +4690,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2036</v>
       </c>
@@ -4663,7 +4701,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2037</v>
       </c>
@@ -4674,7 +4712,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2038</v>
       </c>
@@ -4685,7 +4723,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2039</v>
       </c>
@@ -4696,7 +4734,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2040</v>
       </c>
@@ -4707,7 +4745,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2041</v>
       </c>
@@ -4718,7 +4756,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2042</v>
       </c>
@@ -4729,7 +4767,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2043</v>
       </c>
@@ -4740,7 +4778,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2044</v>
       </c>
@@ -4751,7 +4789,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2045</v>
       </c>
@@ -4762,7 +4800,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2046</v>
       </c>
@@ -4773,7 +4811,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2047</v>
       </c>
@@ -4784,7 +4822,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2048</v>
       </c>
@@ -4795,7 +4833,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2049</v>
       </c>
@@ -4806,7 +4844,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2050</v>
       </c>
@@ -4817,7 +4855,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2051</v>
       </c>
@@ -4828,7 +4866,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2052</v>
       </c>
@@ -4839,7 +4877,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2053</v>
       </c>
@@ -4850,7 +4888,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2054</v>
       </c>
@@ -4861,7 +4899,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2055</v>
       </c>
@@ -4872,7 +4910,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2056</v>
       </c>
@@ -4883,7 +4921,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2057</v>
       </c>
@@ -4894,7 +4932,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2058</v>
       </c>
@@ -4905,7 +4943,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2059</v>
       </c>
@@ -4916,7 +4954,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2060</v>
       </c>
@@ -4933,7 +4971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -4943,16 +4981,16 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="51.3984375" customWidth="1"/>
-    <col min="3" max="4" width="16.3984375" customWidth="1"/>
-    <col min="5" max="6" width="16.86328125" customWidth="1"/>
-    <col min="7" max="7" width="65.73046875" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col min="3" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="120" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" s="120" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="116" t="s">
         <v>1</v>
       </c>
@@ -4975,7 +5013,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
@@ -5005,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
         <v>13</v>
       </c>
@@ -5032,7 +5070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>15</v>
       </c>
@@ -5061,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>17</v>
       </c>
@@ -5088,7 +5126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
         <v>19</v>
       </c>
@@ -5115,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="84" t="s">
         <v>155</v>
       </c>
@@ -5144,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>3</v>
       </c>
@@ -5161,17 +5199,17 @@
         <v>0</v>
       </c>
       <c r="F8" s="91">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G8" s="83" t="s">
         <v>306</v>
       </c>
       <c r="I8" s="121">
         <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="82" t="s">
         <v>14</v>
       </c>
@@ -5193,12 +5231,12 @@
       <c r="G9" s="83" t="s">
         <v>307</v>
       </c>
-      <c r="I9" s="185">
+      <c r="I9" s="155">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
         <v>16</v>
       </c>
@@ -5227,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
         <v>18</v>
       </c>
@@ -5254,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="96" t="s">
         <v>20</v>
       </c>
@@ -5276,12 +5314,12 @@
       <c r="G12" s="101" t="s">
         <v>308</v>
       </c>
-      <c r="I12" s="185">
+      <c r="I12" s="155">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="104" t="s">
         <v>157</v>
       </c>
@@ -5308,12 +5346,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -5324,25 +5362,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.265625" customWidth="1"/>
-    <col min="2" max="4" width="15.73046875" customWidth="1"/>
-    <col min="6" max="6" width="10.265625" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="150" t="s">
         <v>292</v>
       </c>
@@ -5374,7 +5412,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -5414,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -5454,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -5494,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -5534,47 +5572,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>184</v>
       </c>
-      <c r="B6">
-        <f>Results!C6</f>
-        <v>0.65</v>
-      </c>
-      <c r="C6">
-        <f>Results!D6</f>
-        <v>0.35</v>
-      </c>
-      <c r="D6">
-        <f>Results!E6</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ref="F6:J6" si="3">E6</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="B6" s="121">
+        <v>0</v>
+      </c>
+      <c r="C6" s="121">
+        <v>1</v>
+      </c>
+      <c r="D6" s="121">
+        <v>0</v>
+      </c>
+      <c r="E6" s="121">
+        <f t="shared" ref="C6:J6" si="3">E2</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="121">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="121">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="H6" s="121">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="I6" s="121">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J6" s="121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -5620,25 +5656,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.265625" customWidth="1"/>
-    <col min="2" max="4" width="15.73046875" customWidth="1"/>
-    <col min="6" max="6" width="10.86328125" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="150" t="s">
         <v>292</v>
       </c>
@@ -5670,7 +5706,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -5691,30 +5727,27 @@
       </c>
       <c r="F2" s="121">
         <f>Results!$F8/5</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G2" s="121">
         <f t="shared" ref="G2:G7" si="0">F2</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H2" s="121">
         <f t="shared" ref="H2:J2" si="1">G2</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I2" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J2" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L2" s="121">
-        <f>SUM(B2:J2)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.04</v>
+      </c>
+      <c r="L2" s="121"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -5753,12 +5786,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L3" s="121">
-        <f t="shared" ref="L3:L7" si="3">SUM(B3:J3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L3" s="121"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -5786,23 +5816,20 @@
         <v>0</v>
       </c>
       <c r="H4" s="121">
-        <f t="shared" ref="H4:J4" si="4">G4</f>
+        <f t="shared" ref="H4:J4" si="3">G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J4" s="121">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="121">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="L4" s="121"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -5830,23 +5857,20 @@
         <v>0</v>
       </c>
       <c r="H5" s="121">
-        <f t="shared" ref="H5:J5" si="5">G5</f>
+        <f t="shared" ref="H5:J5" si="4">G5</f>
         <v>0</v>
       </c>
       <c r="I5" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J5" s="121">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="121">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="121"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -5874,23 +5898,20 @@
         <v>0.04</v>
       </c>
       <c r="H6" s="121">
-        <f t="shared" ref="H6:J6" si="6">G6</f>
+        <f t="shared" ref="H6:J6" si="5">G6</f>
         <v>0.04</v>
       </c>
       <c r="I6" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="J6" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="L6" s="121">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L6" s="121"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -5918,21 +5939,18 @@
         <v>0</v>
       </c>
       <c r="H7" s="121">
-        <f t="shared" ref="H7:J7" si="7">G7</f>
+        <f t="shared" ref="H7:J7" si="6">G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J7" s="121">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="121">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5940,7 +5958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -5948,9 +5966,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.14000000000000001</v>
       </c>
@@ -5958,7 +5976,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.86</v>
       </c>
@@ -5972,59 +5990,59 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AE108"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="A19" activeCellId="1" sqref="A16:XFD16 A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.59765625" style="122" customWidth="1"/>
-    <col min="2" max="3" width="9.73046875" style="122" customWidth="1"/>
-    <col min="4" max="19" width="10.73046875" style="122" customWidth="1"/>
-    <col min="20" max="20" width="10.73046875" style="143" customWidth="1"/>
-    <col min="21" max="31" width="10.73046875" style="122" customWidth="1"/>
-    <col min="32" max="16384" width="9.1328125" style="122"/>
+    <col min="1" max="1" width="50.5703125" style="122" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" style="122" customWidth="1"/>
+    <col min="4" max="19" width="10.7109375" style="122" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="143" customWidth="1"/>
+    <col min="21" max="31" width="10.7109375" style="122" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="122"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="174" t="s">
+    <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-    </row>
-    <row r="2" spans="1:31" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="175"/>
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="175"/>
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+    </row>
+    <row r="2" spans="1:31" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
       <c r="B2" s="51">
         <v>1960</v>
@@ -6117,7 +6135,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>95</v>
       </c>
@@ -6152,7 +6170,7 @@
       <c r="AD3" s="55"/>
       <c r="AE3" s="124"/>
     </row>
-    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
         <v>96</v>
       </c>
@@ -6247,7 +6265,7 @@
         <v>6733</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>97</v>
       </c>
@@ -6342,7 +6360,7 @@
         <v>199927</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
         <v>99</v>
       </c>
@@ -6465,7 +6483,7 @@
         <v>255876822.00000003</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
         <v>189</v>
       </c>
@@ -6560,7 +6578,7 @@
         <v>184497490.31559649</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>191</v>
       </c>
@@ -6655,7 +6673,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
         <v>100</v>
       </c>
@@ -6750,7 +6768,7 @@
         <v>8404687</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>192</v>
       </c>
@@ -6845,7 +6863,7 @@
         <v>51512739.866532281</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>193</v>
       </c>
@@ -6940,7 +6958,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>194</v>
       </c>
@@ -7035,7 +7053,7 @@
         <v>8126007.221129314</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
         <v>195</v>
       </c>
@@ -7130,7 +7148,7 @@
         <v>2471348.7033206243</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
         <v>101</v>
       </c>
@@ -7225,7 +7243,7 @@
         <v>864548.89342128637</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="62" t="s">
         <v>196</v>
       </c>
@@ -7260,7 +7278,7 @@
       <c r="AD15" s="55"/>
       <c r="AE15" s="129"/>
     </row>
-    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>197</v>
       </c>
@@ -7355,7 +7373,7 @@
         <v>62576</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>198</v>
       </c>
@@ -7450,7 +7468,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
         <v>102</v>
       </c>
@@ -7545,7 +7563,7 @@
         <v>10380</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56" t="s">
         <v>103</v>
       </c>
@@ -7640,7 +7658,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>104</v>
       </c>
@@ -7735,7 +7753,7 @@
         <v>7150</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="56" t="s">
         <v>199</v>
       </c>
@@ -7830,7 +7848,7 @@
         <v>27543</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
         <v>200</v>
       </c>
@@ -7925,7 +7943,7 @@
         <v>25930</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
         <v>105</v>
       </c>
@@ -7960,7 +7978,7 @@
       <c r="AD23" s="55"/>
       <c r="AE23" s="129"/>
     </row>
-    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
         <v>106</v>
       </c>
@@ -8055,7 +8073,7 @@
         <v>373838</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
         <v>107</v>
       </c>
@@ -8150,7 +8168,7 @@
         <v>25033</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
         <v>108</v>
       </c>
@@ -8245,7 +8263,7 @@
         <v>88122</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>109</v>
       </c>
@@ -8340,7 +8358,7 @@
         <v>873679</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56" t="s">
         <v>110</v>
       </c>
@@ -8435,7 +8453,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="56" t="s">
         <v>111</v>
       </c>
@@ -8530,7 +8548,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" s="125" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="53" t="s">
         <v>112</v>
       </c>
@@ -8565,7 +8583,7 @@
       <c r="AD30" s="54"/>
       <c r="AE30" s="129"/>
     </row>
-    <row r="31" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="s">
         <v>201</v>
       </c>
@@ -8660,7 +8678,7 @@
         <v>31081</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="s">
         <v>202</v>
       </c>
@@ -8755,7 +8773,7 @@
         <v>8918</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="64" t="s">
         <v>203</v>
       </c>
@@ -8850,7 +8868,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="65" t="s">
         <v>204</v>
       </c>
@@ -8945,25 +8963,25 @@
         <v>12013496</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="175" t="s">
+    <row r="35" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="176" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="175"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="175"/>
-      <c r="L35" s="175"/>
-      <c r="M35" s="175"/>
-      <c r="N35" s="175"/>
-      <c r="O35" s="175"/>
-      <c r="P35" s="175"/>
+      <c r="B35" s="176"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="176"/>
+      <c r="H35" s="176"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="176"/>
+      <c r="K35" s="176"/>
+      <c r="L35" s="176"/>
+      <c r="M35" s="176"/>
+      <c r="N35" s="176"/>
+      <c r="O35" s="176"/>
+      <c r="P35" s="176"/>
       <c r="Q35" s="68"/>
       <c r="R35" s="68"/>
       <c r="S35" s="68"/>
@@ -8979,1549 +8997,1549 @@
       <c r="AC35" s="68"/>
       <c r="AE35" s="122"/>
     </row>
-    <row r="36" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="176"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="176"/>
-      <c r="K36" s="176"/>
-      <c r="L36" s="176"/>
-      <c r="M36" s="176"/>
-      <c r="N36" s="176"/>
-      <c r="O36" s="176"/>
-      <c r="P36" s="176"/>
+    <row r="36" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="177"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="177"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="177"/>
+      <c r="P36" s="177"/>
       <c r="Q36" s="135"/>
       <c r="R36" s="136"/>
       <c r="S36" s="136"/>
       <c r="T36" s="137"/>
     </row>
-    <row r="37" spans="1:31" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="177" t="s">
+    <row r="37" spans="1:31" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="177"/>
-      <c r="F37" s="177"/>
-      <c r="G37" s="177"/>
-      <c r="H37" s="177"/>
-      <c r="I37" s="177"/>
-      <c r="J37" s="177"/>
-      <c r="K37" s="177"/>
-      <c r="L37" s="177"/>
-      <c r="M37" s="177"/>
-      <c r="N37" s="177"/>
-      <c r="O37" s="177"/>
-      <c r="P37" s="177"/>
+      <c r="B37" s="178"/>
+      <c r="C37" s="178"/>
+      <c r="D37" s="178"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="178"/>
+      <c r="K37" s="178"/>
+      <c r="L37" s="178"/>
+      <c r="M37" s="178"/>
+      <c r="N37" s="178"/>
+      <c r="O37" s="178"/>
+      <c r="P37" s="178"/>
       <c r="Q37" s="138"/>
       <c r="R37" s="138"/>
       <c r="S37" s="138"/>
       <c r="T37" s="139"/>
     </row>
-    <row r="38" spans="1:31" s="140" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="172" t="s">
+    <row r="38" spans="1:31" s="140" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="173" t="s">
         <v>207</v>
       </c>
-      <c r="B38" s="172"/>
-      <c r="C38" s="172"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
-      <c r="K38" s="172"/>
-      <c r="L38" s="172"/>
-      <c r="M38" s="172"/>
-      <c r="N38" s="172"/>
-      <c r="O38" s="172"/>
-      <c r="P38" s="172"/>
+      <c r="B38" s="173"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="173"/>
+      <c r="L38" s="173"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="173"/>
+      <c r="O38" s="173"/>
+      <c r="P38" s="173"/>
       <c r="Q38" s="138"/>
       <c r="R38" s="138"/>
       <c r="S38" s="138"/>
       <c r="T38" s="139"/>
     </row>
-    <row r="39" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="173" t="s">
+    <row r="39" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="174" t="s">
         <v>208</v>
       </c>
-      <c r="B39" s="173"/>
-      <c r="C39" s="173"/>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="173"/>
-      <c r="H39" s="173"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="173"/>
-      <c r="K39" s="173"/>
-      <c r="L39" s="173"/>
-      <c r="M39" s="173"/>
-      <c r="N39" s="173"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="173"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="174"/>
+      <c r="K39" s="174"/>
+      <c r="L39" s="174"/>
+      <c r="M39" s="174"/>
+      <c r="N39" s="174"/>
+      <c r="O39" s="174"/>
+      <c r="P39" s="174"/>
       <c r="Q39" s="138"/>
       <c r="R39" s="138"/>
       <c r="S39" s="138"/>
       <c r="T39" s="139"/>
     </row>
-    <row r="40" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="171" t="s">
+    <row r="40" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="172" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="171"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="171"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
-      <c r="K40" s="171"/>
-      <c r="L40" s="171"/>
-      <c r="M40" s="171"/>
-      <c r="N40" s="171"/>
-      <c r="O40" s="171"/>
-      <c r="P40" s="171"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="172"/>
+      <c r="K40" s="172"/>
+      <c r="L40" s="172"/>
+      <c r="M40" s="172"/>
+      <c r="N40" s="172"/>
+      <c r="O40" s="172"/>
+      <c r="P40" s="172"/>
       <c r="Q40" s="138"/>
       <c r="R40" s="138"/>
       <c r="S40" s="138"/>
       <c r="T40" s="139"/>
     </row>
-    <row r="41" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="171" t="s">
+    <row r="41" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="172" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="171"/>
-      <c r="C41" s="171"/>
-      <c r="D41" s="171"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
-      <c r="L41" s="171"/>
-      <c r="M41" s="171"/>
-      <c r="N41" s="171"/>
-      <c r="O41" s="171"/>
-      <c r="P41" s="171"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="172"/>
+      <c r="L41" s="172"/>
+      <c r="M41" s="172"/>
+      <c r="N41" s="172"/>
+      <c r="O41" s="172"/>
+      <c r="P41" s="172"/>
       <c r="Q41" s="138"/>
       <c r="R41" s="138"/>
       <c r="S41" s="138"/>
       <c r="T41" s="139"/>
     </row>
-    <row r="42" spans="1:31" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="172" t="s">
+    <row r="42" spans="1:31" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="173" t="s">
         <v>211</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="172"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
-      <c r="K42" s="172"/>
-      <c r="L42" s="172"/>
-      <c r="M42" s="172"/>
-      <c r="N42" s="172"/>
-      <c r="O42" s="172"/>
-      <c r="P42" s="172"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="173"/>
+      <c r="M42" s="173"/>
+      <c r="N42" s="173"/>
+      <c r="O42" s="173"/>
+      <c r="P42" s="173"/>
       <c r="T42" s="139"/>
     </row>
-    <row r="43" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="173" t="s">
+    <row r="43" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="174" t="s">
         <v>212</v>
       </c>
-      <c r="B43" s="173"/>
-      <c r="C43" s="173"/>
-      <c r="D43" s="173"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="173"/>
-      <c r="G43" s="173"/>
-      <c r="H43" s="173"/>
-      <c r="I43" s="173"/>
-      <c r="J43" s="173"/>
-      <c r="K43" s="173"/>
-      <c r="L43" s="173"/>
-      <c r="M43" s="173"/>
-      <c r="N43" s="173"/>
-      <c r="O43" s="173"/>
-      <c r="P43" s="173"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
+      <c r="E43" s="174"/>
+      <c r="F43" s="174"/>
+      <c r="G43" s="174"/>
+      <c r="H43" s="174"/>
+      <c r="I43" s="174"/>
+      <c r="J43" s="174"/>
+      <c r="K43" s="174"/>
+      <c r="L43" s="174"/>
+      <c r="M43" s="174"/>
+      <c r="N43" s="174"/>
+      <c r="O43" s="174"/>
+      <c r="P43" s="174"/>
       <c r="T43" s="139"/>
     </row>
-    <row r="44" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="173" t="s">
+    <row r="44" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="174" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="173"/>
-      <c r="C44" s="173"/>
-      <c r="D44" s="173"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="173"/>
-      <c r="G44" s="173"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="173"/>
-      <c r="K44" s="173"/>
-      <c r="L44" s="173"/>
-      <c r="M44" s="173"/>
-      <c r="N44" s="173"/>
-      <c r="O44" s="173"/>
-      <c r="P44" s="173"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="174"/>
+      <c r="E44" s="174"/>
+      <c r="F44" s="174"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="174"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="174"/>
+      <c r="K44" s="174"/>
+      <c r="L44" s="174"/>
+      <c r="M44" s="174"/>
+      <c r="N44" s="174"/>
+      <c r="O44" s="174"/>
+      <c r="P44" s="174"/>
       <c r="T44" s="139"/>
     </row>
-    <row r="45" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="164" t="s">
+    <row r="45" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="165" t="s">
         <v>214</v>
       </c>
-      <c r="B45" s="164"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="164"/>
-      <c r="G45" s="164"/>
-      <c r="H45" s="164"/>
-      <c r="I45" s="164"/>
-      <c r="J45" s="164"/>
-      <c r="K45" s="164"/>
-      <c r="L45" s="164"/>
-      <c r="M45" s="164"/>
-      <c r="N45" s="164"/>
-      <c r="O45" s="164"/>
-      <c r="P45" s="164"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="165"/>
+      <c r="L45" s="165"/>
+      <c r="M45" s="165"/>
+      <c r="N45" s="165"/>
+      <c r="O45" s="165"/>
+      <c r="P45" s="165"/>
       <c r="T45" s="139"/>
     </row>
-    <row r="46" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="171" t="s">
+    <row r="46" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="172" t="s">
         <v>215</v>
       </c>
-      <c r="B46" s="171"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
-      <c r="G46" s="171"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="171"/>
-      <c r="J46" s="171"/>
-      <c r="K46" s="171"/>
-      <c r="L46" s="171"/>
-      <c r="M46" s="171"/>
-      <c r="N46" s="171"/>
-      <c r="O46" s="171"/>
-      <c r="P46" s="171"/>
+      <c r="B46" s="172"/>
+      <c r="C46" s="172"/>
+      <c r="D46" s="172"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="172"/>
+      <c r="G46" s="172"/>
+      <c r="H46" s="172"/>
+      <c r="I46" s="172"/>
+      <c r="J46" s="172"/>
+      <c r="K46" s="172"/>
+      <c r="L46" s="172"/>
+      <c r="M46" s="172"/>
+      <c r="N46" s="172"/>
+      <c r="O46" s="172"/>
+      <c r="P46" s="172"/>
       <c r="T46" s="139"/>
     </row>
-    <row r="47" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="171" t="s">
+    <row r="47" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="172" t="s">
         <v>216</v>
       </c>
-      <c r="B47" s="171"/>
-      <c r="C47" s="171"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
-      <c r="G47" s="171"/>
-      <c r="H47" s="171"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="171"/>
-      <c r="K47" s="171"/>
-      <c r="L47" s="171"/>
-      <c r="M47" s="171"/>
-      <c r="N47" s="171"/>
-      <c r="O47" s="171"/>
-      <c r="P47" s="171"/>
+      <c r="B47" s="172"/>
+      <c r="C47" s="172"/>
+      <c r="D47" s="172"/>
+      <c r="E47" s="172"/>
+      <c r="F47" s="172"/>
+      <c r="G47" s="172"/>
+      <c r="H47" s="172"/>
+      <c r="I47" s="172"/>
+      <c r="J47" s="172"/>
+      <c r="K47" s="172"/>
+      <c r="L47" s="172"/>
+      <c r="M47" s="172"/>
+      <c r="N47" s="172"/>
+      <c r="O47" s="172"/>
+      <c r="P47" s="172"/>
       <c r="T47" s="139"/>
     </row>
-    <row r="48" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="171" t="s">
+    <row r="48" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="172" t="s">
         <v>217</v>
       </c>
-      <c r="B48" s="171"/>
-      <c r="C48" s="171"/>
-      <c r="D48" s="171"/>
-      <c r="E48" s="171"/>
-      <c r="F48" s="171"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="171"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="171"/>
-      <c r="K48" s="171"/>
-      <c r="L48" s="171"/>
-      <c r="M48" s="171"/>
-      <c r="N48" s="171"/>
-      <c r="O48" s="171"/>
-      <c r="P48" s="171"/>
+      <c r="B48" s="172"/>
+      <c r="C48" s="172"/>
+      <c r="D48" s="172"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="172"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="172"/>
+      <c r="I48" s="172"/>
+      <c r="J48" s="172"/>
+      <c r="K48" s="172"/>
+      <c r="L48" s="172"/>
+      <c r="M48" s="172"/>
+      <c r="N48" s="172"/>
+      <c r="O48" s="172"/>
+      <c r="P48" s="172"/>
       <c r="T48" s="139"/>
     </row>
-    <row r="49" spans="1:20" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="171" t="s">
+    <row r="49" spans="1:20" s="140" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="172" t="s">
         <v>218</v>
       </c>
-      <c r="B49" s="171"/>
-      <c r="C49" s="171"/>
-      <c r="D49" s="171"/>
-      <c r="E49" s="171"/>
-      <c r="F49" s="171"/>
-      <c r="G49" s="171"/>
-      <c r="H49" s="171"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="171"/>
-      <c r="K49" s="171"/>
-      <c r="L49" s="171"/>
-      <c r="M49" s="171"/>
-      <c r="N49" s="171"/>
-      <c r="O49" s="171"/>
-      <c r="P49" s="171"/>
+      <c r="B49" s="172"/>
+      <c r="C49" s="172"/>
+      <c r="D49" s="172"/>
+      <c r="E49" s="172"/>
+      <c r="F49" s="172"/>
+      <c r="G49" s="172"/>
+      <c r="H49" s="172"/>
+      <c r="I49" s="172"/>
+      <c r="J49" s="172"/>
+      <c r="K49" s="172"/>
+      <c r="L49" s="172"/>
+      <c r="M49" s="172"/>
+      <c r="N49" s="172"/>
+      <c r="O49" s="172"/>
+      <c r="P49" s="172"/>
       <c r="T49" s="139"/>
     </row>
-    <row r="50" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="171" t="s">
+    <row r="50" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="172" t="s">
         <v>219</v>
       </c>
-      <c r="B50" s="171"/>
-      <c r="C50" s="171"/>
-      <c r="D50" s="171"/>
-      <c r="E50" s="171"/>
-      <c r="F50" s="171"/>
-      <c r="G50" s="171"/>
-      <c r="H50" s="171"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="171"/>
-      <c r="K50" s="171"/>
-      <c r="L50" s="171"/>
-      <c r="M50" s="171"/>
-      <c r="N50" s="171"/>
-      <c r="O50" s="171"/>
-      <c r="P50" s="171"/>
+      <c r="B50" s="172"/>
+      <c r="C50" s="172"/>
+      <c r="D50" s="172"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="172"/>
+      <c r="G50" s="172"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="172"/>
+      <c r="J50" s="172"/>
+      <c r="K50" s="172"/>
+      <c r="L50" s="172"/>
+      <c r="M50" s="172"/>
+      <c r="N50" s="172"/>
+      <c r="O50" s="172"/>
+      <c r="P50" s="172"/>
       <c r="T50" s="139"/>
     </row>
-    <row r="51" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="170"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="170"/>
-      <c r="F51" s="170"/>
-      <c r="G51" s="170"/>
-      <c r="H51" s="170"/>
-      <c r="I51" s="170"/>
-      <c r="J51" s="170"/>
-      <c r="K51" s="170"/>
-      <c r="L51" s="170"/>
-      <c r="M51" s="170"/>
-      <c r="N51" s="170"/>
-      <c r="O51" s="170"/>
-      <c r="P51" s="170"/>
+    <row r="51" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="171"/>
+      <c r="B51" s="171"/>
+      <c r="C51" s="171"/>
+      <c r="D51" s="171"/>
+      <c r="E51" s="171"/>
+      <c r="F51" s="171"/>
+      <c r="G51" s="171"/>
+      <c r="H51" s="171"/>
+      <c r="I51" s="171"/>
+      <c r="J51" s="171"/>
+      <c r="K51" s="171"/>
+      <c r="L51" s="171"/>
+      <c r="M51" s="171"/>
+      <c r="N51" s="171"/>
+      <c r="O51" s="171"/>
+      <c r="P51" s="171"/>
       <c r="T51" s="142"/>
     </row>
-    <row r="52" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="163" t="s">
+    <row r="52" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="164" t="s">
         <v>220</v>
       </c>
-      <c r="B52" s="163"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
-      <c r="E52" s="163"/>
-      <c r="F52" s="163"/>
-      <c r="G52" s="163"/>
-      <c r="H52" s="163"/>
-      <c r="I52" s="163"/>
-      <c r="J52" s="163"/>
-      <c r="K52" s="163"/>
-      <c r="L52" s="163"/>
-      <c r="M52" s="163"/>
-      <c r="N52" s="163"/>
-      <c r="O52" s="163"/>
-      <c r="P52" s="163"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="164"/>
+      <c r="L52" s="164"/>
+      <c r="M52" s="164"/>
+      <c r="N52" s="164"/>
+      <c r="O52" s="164"/>
+      <c r="P52" s="164"/>
       <c r="T52" s="139"/>
     </row>
-    <row r="53" spans="1:20" s="140" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="164" t="s">
+    <row r="53" spans="1:20" s="140" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="165" t="s">
         <v>221</v>
       </c>
-      <c r="B53" s="164"/>
-      <c r="C53" s="164"/>
-      <c r="D53" s="164"/>
-      <c r="E53" s="164"/>
-      <c r="F53" s="164"/>
-      <c r="G53" s="164"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="164"/>
-      <c r="J53" s="164"/>
-      <c r="K53" s="164"/>
-      <c r="L53" s="164"/>
-      <c r="M53" s="164"/>
-      <c r="N53" s="164"/>
-      <c r="O53" s="164"/>
-      <c r="P53" s="164"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="165"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="165"/>
+      <c r="L53" s="165"/>
+      <c r="M53" s="165"/>
+      <c r="N53" s="165"/>
+      <c r="O53" s="165"/>
+      <c r="P53" s="165"/>
       <c r="T53" s="139"/>
     </row>
-    <row r="54" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="165" t="s">
+    <row r="54" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="166" t="s">
         <v>222</v>
       </c>
-      <c r="B54" s="165"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="165"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="165"/>
-      <c r="J54" s="165"/>
-      <c r="K54" s="165"/>
-      <c r="L54" s="165"/>
-      <c r="M54" s="165"/>
-      <c r="N54" s="165"/>
-      <c r="O54" s="165"/>
-      <c r="P54" s="165"/>
+      <c r="B54" s="166"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="166"/>
+      <c r="E54" s="166"/>
+      <c r="F54" s="166"/>
+      <c r="G54" s="166"/>
+      <c r="H54" s="166"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="166"/>
+      <c r="K54" s="166"/>
+      <c r="L54" s="166"/>
+      <c r="M54" s="166"/>
+      <c r="N54" s="166"/>
+      <c r="O54" s="166"/>
+      <c r="P54" s="166"/>
       <c r="T54" s="139"/>
     </row>
-    <row r="55" spans="1:20" s="140" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="166" t="s">
+    <row r="55" spans="1:20" s="140" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="167" t="s">
         <v>223</v>
       </c>
-      <c r="B55" s="166"/>
-      <c r="C55" s="166"/>
-      <c r="D55" s="166"/>
-      <c r="E55" s="166"/>
-      <c r="F55" s="166"/>
-      <c r="G55" s="166"/>
-      <c r="H55" s="166"/>
-      <c r="I55" s="166"/>
-      <c r="J55" s="166"/>
-      <c r="K55" s="166"/>
-      <c r="L55" s="166"/>
-      <c r="M55" s="166"/>
-      <c r="N55" s="166"/>
-      <c r="O55" s="166"/>
-      <c r="P55" s="166"/>
+      <c r="B55" s="167"/>
+      <c r="C55" s="167"/>
+      <c r="D55" s="167"/>
+      <c r="E55" s="167"/>
+      <c r="F55" s="167"/>
+      <c r="G55" s="167"/>
+      <c r="H55" s="167"/>
+      <c r="I55" s="167"/>
+      <c r="J55" s="167"/>
+      <c r="K55" s="167"/>
+      <c r="L55" s="167"/>
+      <c r="M55" s="167"/>
+      <c r="N55" s="167"/>
+      <c r="O55" s="167"/>
+      <c r="P55" s="167"/>
       <c r="T55" s="139"/>
     </row>
-    <row r="56" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="165" t="s">
+    <row r="56" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="166" t="s">
         <v>224</v>
       </c>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="165"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="165"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="165"/>
-      <c r="K56" s="165"/>
-      <c r="L56" s="165"/>
-      <c r="M56" s="165"/>
-      <c r="N56" s="165"/>
-      <c r="O56" s="165"/>
-      <c r="P56" s="165"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="166"/>
+      <c r="F56" s="166"/>
+      <c r="G56" s="166"/>
+      <c r="H56" s="166"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
+      <c r="K56" s="166"/>
+      <c r="L56" s="166"/>
+      <c r="M56" s="166"/>
+      <c r="N56" s="166"/>
+      <c r="O56" s="166"/>
+      <c r="P56" s="166"/>
       <c r="T56" s="142"/>
     </row>
-    <row r="57" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="165" t="s">
+    <row r="57" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="166" t="s">
         <v>225</v>
       </c>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="165"/>
-      <c r="H57" s="165"/>
-      <c r="I57" s="165"/>
-      <c r="J57" s="165"/>
-      <c r="K57" s="165"/>
-      <c r="L57" s="165"/>
-      <c r="M57" s="165"/>
-      <c r="N57" s="165"/>
-      <c r="O57" s="165"/>
-      <c r="P57" s="165"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="166"/>
+      <c r="E57" s="166"/>
+      <c r="F57" s="166"/>
+      <c r="G57" s="166"/>
+      <c r="H57" s="166"/>
+      <c r="I57" s="166"/>
+      <c r="J57" s="166"/>
+      <c r="K57" s="166"/>
+      <c r="L57" s="166"/>
+      <c r="M57" s="166"/>
+      <c r="N57" s="166"/>
+      <c r="O57" s="166"/>
+      <c r="P57" s="166"/>
       <c r="T57" s="142"/>
     </row>
-    <row r="58" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="167"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
-      <c r="E58" s="167"/>
-      <c r="F58" s="167"/>
-      <c r="G58" s="167"/>
-      <c r="H58" s="167"/>
-      <c r="I58" s="167"/>
-      <c r="J58" s="167"/>
-      <c r="K58" s="167"/>
-      <c r="L58" s="167"/>
-      <c r="M58" s="167"/>
-      <c r="N58" s="167"/>
-      <c r="O58" s="167"/>
-      <c r="P58" s="167"/>
+    <row r="58" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="168"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
+      <c r="E58" s="168"/>
+      <c r="F58" s="168"/>
+      <c r="G58" s="168"/>
+      <c r="H58" s="168"/>
+      <c r="I58" s="168"/>
+      <c r="J58" s="168"/>
+      <c r="K58" s="168"/>
+      <c r="L58" s="168"/>
+      <c r="M58" s="168"/>
+      <c r="N58" s="168"/>
+      <c r="O58" s="168"/>
+      <c r="P58" s="168"/>
       <c r="T58" s="142"/>
     </row>
-    <row r="59" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="168" t="s">
+    <row r="59" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="169" t="s">
         <v>226</v>
       </c>
-      <c r="B59" s="168"/>
-      <c r="C59" s="168"/>
-      <c r="D59" s="168"/>
-      <c r="E59" s="168"/>
-      <c r="F59" s="168"/>
-      <c r="G59" s="168"/>
-      <c r="H59" s="168"/>
-      <c r="I59" s="168"/>
-      <c r="J59" s="168"/>
-      <c r="K59" s="168"/>
-      <c r="L59" s="168"/>
-      <c r="M59" s="168"/>
-      <c r="N59" s="168"/>
-      <c r="O59" s="168"/>
-      <c r="P59" s="168"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="169"/>
+      <c r="F59" s="169"/>
+      <c r="G59" s="169"/>
+      <c r="H59" s="169"/>
+      <c r="I59" s="169"/>
+      <c r="J59" s="169"/>
+      <c r="K59" s="169"/>
+      <c r="L59" s="169"/>
+      <c r="M59" s="169"/>
+      <c r="N59" s="169"/>
+      <c r="O59" s="169"/>
+      <c r="P59" s="169"/>
       <c r="T59" s="142"/>
     </row>
-    <row r="60" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="168" t="s">
+    <row r="60" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="169" t="s">
         <v>227</v>
       </c>
-      <c r="B60" s="168"/>
-      <c r="C60" s="168"/>
-      <c r="D60" s="168"/>
-      <c r="E60" s="168"/>
-      <c r="F60" s="168"/>
-      <c r="G60" s="168"/>
-      <c r="H60" s="168"/>
-      <c r="I60" s="168"/>
-      <c r="J60" s="168"/>
-      <c r="K60" s="168"/>
-      <c r="L60" s="168"/>
-      <c r="M60" s="168"/>
-      <c r="N60" s="168"/>
-      <c r="O60" s="168"/>
-      <c r="P60" s="168"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="169"/>
+      <c r="F60" s="169"/>
+      <c r="G60" s="169"/>
+      <c r="H60" s="169"/>
+      <c r="I60" s="169"/>
+      <c r="J60" s="169"/>
+      <c r="K60" s="169"/>
+      <c r="L60" s="169"/>
+      <c r="M60" s="169"/>
+      <c r="N60" s="169"/>
+      <c r="O60" s="169"/>
+      <c r="P60" s="169"/>
       <c r="T60" s="139"/>
     </row>
-    <row r="61" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="156" t="s">
+    <row r="61" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="157" t="s">
         <v>228</v>
       </c>
-      <c r="B61" s="156"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="156"/>
-      <c r="F61" s="156"/>
-      <c r="G61" s="156"/>
-      <c r="H61" s="156"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="156"/>
-      <c r="K61" s="156"/>
-      <c r="L61" s="156"/>
-      <c r="M61" s="156"/>
-      <c r="N61" s="156"/>
-      <c r="O61" s="156"/>
-      <c r="P61" s="156"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="157"/>
+      <c r="H61" s="157"/>
+      <c r="I61" s="157"/>
+      <c r="J61" s="157"/>
+      <c r="K61" s="157"/>
+      <c r="L61" s="157"/>
+      <c r="M61" s="157"/>
+      <c r="N61" s="157"/>
+      <c r="O61" s="157"/>
+      <c r="P61" s="157"/>
       <c r="T61" s="142"/>
     </row>
-    <row r="62" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="169" t="s">
+    <row r="62" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="170" t="s">
         <v>229</v>
       </c>
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
-      <c r="E62" s="169"/>
-      <c r="F62" s="169"/>
-      <c r="G62" s="169"/>
-      <c r="H62" s="169"/>
-      <c r="I62" s="169"/>
-      <c r="J62" s="169"/>
-      <c r="K62" s="169"/>
-      <c r="L62" s="169"/>
-      <c r="M62" s="169"/>
-      <c r="N62" s="169"/>
-      <c r="O62" s="169"/>
-      <c r="P62" s="169"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
+      <c r="E62" s="170"/>
+      <c r="F62" s="170"/>
+      <c r="G62" s="170"/>
+      <c r="H62" s="170"/>
+      <c r="I62" s="170"/>
+      <c r="J62" s="170"/>
+      <c r="K62" s="170"/>
+      <c r="L62" s="170"/>
+      <c r="M62" s="170"/>
+      <c r="N62" s="170"/>
+      <c r="O62" s="170"/>
+      <c r="P62" s="170"/>
       <c r="T62" s="142"/>
     </row>
-    <row r="63" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="157" t="s">
+    <row r="63" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="158" t="s">
         <v>230</v>
       </c>
-      <c r="B63" s="157"/>
-      <c r="C63" s="157"/>
-      <c r="D63" s="157"/>
-      <c r="E63" s="157"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="157"/>
-      <c r="H63" s="157"/>
-      <c r="I63" s="157"/>
-      <c r="J63" s="157"/>
-      <c r="K63" s="157"/>
-      <c r="L63" s="157"/>
-      <c r="M63" s="157"/>
-      <c r="N63" s="157"/>
-      <c r="O63" s="157"/>
-      <c r="P63" s="157"/>
+      <c r="B63" s="158"/>
+      <c r="C63" s="158"/>
+      <c r="D63" s="158"/>
+      <c r="E63" s="158"/>
+      <c r="F63" s="158"/>
+      <c r="G63" s="158"/>
+      <c r="H63" s="158"/>
+      <c r="I63" s="158"/>
+      <c r="J63" s="158"/>
+      <c r="K63" s="158"/>
+      <c r="L63" s="158"/>
+      <c r="M63" s="158"/>
+      <c r="N63" s="158"/>
+      <c r="O63" s="158"/>
+      <c r="P63" s="158"/>
       <c r="T63" s="142"/>
     </row>
-    <row r="64" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="157" t="s">
+    <row r="64" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="158" t="s">
         <v>231</v>
       </c>
-      <c r="B64" s="157"/>
-      <c r="C64" s="157"/>
-      <c r="D64" s="157"/>
-      <c r="E64" s="157"/>
-      <c r="F64" s="157"/>
-      <c r="G64" s="157"/>
-      <c r="H64" s="157"/>
-      <c r="I64" s="157"/>
-      <c r="J64" s="157"/>
-      <c r="K64" s="157"/>
-      <c r="L64" s="157"/>
-      <c r="M64" s="157"/>
-      <c r="N64" s="157"/>
-      <c r="O64" s="157"/>
-      <c r="P64" s="157"/>
+      <c r="B64" s="158"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="158"/>
+      <c r="F64" s="158"/>
+      <c r="G64" s="158"/>
+      <c r="H64" s="158"/>
+      <c r="I64" s="158"/>
+      <c r="J64" s="158"/>
+      <c r="K64" s="158"/>
+      <c r="L64" s="158"/>
+      <c r="M64" s="158"/>
+      <c r="N64" s="158"/>
+      <c r="O64" s="158"/>
+      <c r="P64" s="158"/>
       <c r="T64" s="142"/>
     </row>
-    <row r="65" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="157" t="s">
+    <row r="65" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="B65" s="157"/>
-      <c r="C65" s="157"/>
-      <c r="D65" s="157"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="157"/>
-      <c r="H65" s="157"/>
-      <c r="I65" s="157"/>
-      <c r="J65" s="157"/>
-      <c r="K65" s="157"/>
-      <c r="L65" s="157"/>
-      <c r="M65" s="157"/>
-      <c r="N65" s="157"/>
-      <c r="O65" s="157"/>
-      <c r="P65" s="157"/>
+      <c r="B65" s="158"/>
+      <c r="C65" s="158"/>
+      <c r="D65" s="158"/>
+      <c r="E65" s="158"/>
+      <c r="F65" s="158"/>
+      <c r="G65" s="158"/>
+      <c r="H65" s="158"/>
+      <c r="I65" s="158"/>
+      <c r="J65" s="158"/>
+      <c r="K65" s="158"/>
+      <c r="L65" s="158"/>
+      <c r="M65" s="158"/>
+      <c r="N65" s="158"/>
+      <c r="O65" s="158"/>
+      <c r="P65" s="158"/>
       <c r="T65" s="142"/>
     </row>
-    <row r="66" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="157" t="s">
+    <row r="66" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="158" t="s">
         <v>233</v>
       </c>
-      <c r="B66" s="157"/>
-      <c r="C66" s="157"/>
-      <c r="D66" s="157"/>
-      <c r="E66" s="157"/>
-      <c r="F66" s="157"/>
-      <c r="G66" s="157"/>
-      <c r="H66" s="157"/>
-      <c r="I66" s="157"/>
-      <c r="J66" s="157"/>
-      <c r="K66" s="157"/>
-      <c r="L66" s="157"/>
-      <c r="M66" s="157"/>
-      <c r="N66" s="157"/>
-      <c r="O66" s="157"/>
-      <c r="P66" s="157"/>
+      <c r="B66" s="158"/>
+      <c r="C66" s="158"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="158"/>
+      <c r="G66" s="158"/>
+      <c r="H66" s="158"/>
+      <c r="I66" s="158"/>
+      <c r="J66" s="158"/>
+      <c r="K66" s="158"/>
+      <c r="L66" s="158"/>
+      <c r="M66" s="158"/>
+      <c r="N66" s="158"/>
+      <c r="O66" s="158"/>
+      <c r="P66" s="158"/>
       <c r="T66" s="142"/>
     </row>
-    <row r="67" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="157" t="s">
+    <row r="67" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="158" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="157"/>
-      <c r="C67" s="157"/>
-      <c r="D67" s="157"/>
-      <c r="E67" s="157"/>
-      <c r="F67" s="157"/>
-      <c r="G67" s="157"/>
-      <c r="H67" s="157"/>
-      <c r="I67" s="157"/>
-      <c r="J67" s="157"/>
-      <c r="K67" s="157"/>
-      <c r="L67" s="157"/>
-      <c r="M67" s="157"/>
-      <c r="N67" s="157"/>
-      <c r="O67" s="157"/>
-      <c r="P67" s="157"/>
+      <c r="B67" s="158"/>
+      <c r="C67" s="158"/>
+      <c r="D67" s="158"/>
+      <c r="E67" s="158"/>
+      <c r="F67" s="158"/>
+      <c r="G67" s="158"/>
+      <c r="H67" s="158"/>
+      <c r="I67" s="158"/>
+      <c r="J67" s="158"/>
+      <c r="K67" s="158"/>
+      <c r="L67" s="158"/>
+      <c r="M67" s="158"/>
+      <c r="N67" s="158"/>
+      <c r="O67" s="158"/>
+      <c r="P67" s="158"/>
       <c r="T67" s="142"/>
     </row>
-    <row r="68" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="156" t="s">
+    <row r="68" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="157" t="s">
         <v>235</v>
       </c>
-      <c r="B68" s="156"/>
-      <c r="C68" s="156"/>
-      <c r="D68" s="156"/>
-      <c r="E68" s="156"/>
-      <c r="F68" s="156"/>
-      <c r="G68" s="156"/>
-      <c r="H68" s="156"/>
-      <c r="I68" s="156"/>
-      <c r="J68" s="156"/>
-      <c r="K68" s="156"/>
-      <c r="L68" s="156"/>
-      <c r="M68" s="156"/>
-      <c r="N68" s="156"/>
-      <c r="O68" s="156"/>
-      <c r="P68" s="156"/>
+      <c r="B68" s="157"/>
+      <c r="C68" s="157"/>
+      <c r="D68" s="157"/>
+      <c r="E68" s="157"/>
+      <c r="F68" s="157"/>
+      <c r="G68" s="157"/>
+      <c r="H68" s="157"/>
+      <c r="I68" s="157"/>
+      <c r="J68" s="157"/>
+      <c r="K68" s="157"/>
+      <c r="L68" s="157"/>
+      <c r="M68" s="157"/>
+      <c r="N68" s="157"/>
+      <c r="O68" s="157"/>
+      <c r="P68" s="157"/>
       <c r="T68" s="142"/>
     </row>
-    <row r="69" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="157" t="s">
+    <row r="69" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="158" t="s">
         <v>236</v>
       </c>
-      <c r="B69" s="157"/>
-      <c r="C69" s="157"/>
-      <c r="D69" s="157"/>
-      <c r="E69" s="157"/>
-      <c r="F69" s="157"/>
-      <c r="G69" s="157"/>
-      <c r="H69" s="157"/>
-      <c r="I69" s="157"/>
-      <c r="J69" s="157"/>
-      <c r="K69" s="157"/>
-      <c r="L69" s="157"/>
-      <c r="M69" s="157"/>
-      <c r="N69" s="157"/>
-      <c r="O69" s="157"/>
-      <c r="P69" s="157"/>
+      <c r="B69" s="158"/>
+      <c r="C69" s="158"/>
+      <c r="D69" s="158"/>
+      <c r="E69" s="158"/>
+      <c r="F69" s="158"/>
+      <c r="G69" s="158"/>
+      <c r="H69" s="158"/>
+      <c r="I69" s="158"/>
+      <c r="J69" s="158"/>
+      <c r="K69" s="158"/>
+      <c r="L69" s="158"/>
+      <c r="M69" s="158"/>
+      <c r="N69" s="158"/>
+      <c r="O69" s="158"/>
+      <c r="P69" s="158"/>
       <c r="T69" s="142"/>
     </row>
-    <row r="70" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="157" t="s">
+    <row r="70" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="158" t="s">
         <v>237</v>
       </c>
-      <c r="B70" s="157"/>
-      <c r="C70" s="157"/>
-      <c r="D70" s="157"/>
-      <c r="E70" s="157"/>
-      <c r="F70" s="157"/>
-      <c r="G70" s="157"/>
-      <c r="H70" s="157"/>
-      <c r="I70" s="157"/>
-      <c r="J70" s="157"/>
-      <c r="K70" s="157"/>
-      <c r="L70" s="157"/>
-      <c r="M70" s="157"/>
-      <c r="N70" s="157"/>
-      <c r="O70" s="157"/>
-      <c r="P70" s="157"/>
+      <c r="B70" s="158"/>
+      <c r="C70" s="158"/>
+      <c r="D70" s="158"/>
+      <c r="E70" s="158"/>
+      <c r="F70" s="158"/>
+      <c r="G70" s="158"/>
+      <c r="H70" s="158"/>
+      <c r="I70" s="158"/>
+      <c r="J70" s="158"/>
+      <c r="K70" s="158"/>
+      <c r="L70" s="158"/>
+      <c r="M70" s="158"/>
+      <c r="N70" s="158"/>
+      <c r="O70" s="158"/>
+      <c r="P70" s="158"/>
       <c r="T70" s="142"/>
     </row>
-    <row r="71" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="157" t="s">
+    <row r="71" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="158" t="s">
         <v>238</v>
       </c>
-      <c r="B71" s="157"/>
-      <c r="C71" s="157"/>
-      <c r="D71" s="157"/>
-      <c r="E71" s="157"/>
-      <c r="F71" s="157"/>
-      <c r="G71" s="157"/>
-      <c r="H71" s="157"/>
-      <c r="I71" s="157"/>
-      <c r="J71" s="157"/>
-      <c r="K71" s="157"/>
-      <c r="L71" s="157"/>
-      <c r="M71" s="157"/>
-      <c r="N71" s="157"/>
-      <c r="O71" s="157"/>
-      <c r="P71" s="157"/>
+      <c r="B71" s="158"/>
+      <c r="C71" s="158"/>
+      <c r="D71" s="158"/>
+      <c r="E71" s="158"/>
+      <c r="F71" s="158"/>
+      <c r="G71" s="158"/>
+      <c r="H71" s="158"/>
+      <c r="I71" s="158"/>
+      <c r="J71" s="158"/>
+      <c r="K71" s="158"/>
+      <c r="L71" s="158"/>
+      <c r="M71" s="158"/>
+      <c r="N71" s="158"/>
+      <c r="O71" s="158"/>
+      <c r="P71" s="158"/>
       <c r="T71" s="142"/>
     </row>
-    <row r="72" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="157" t="s">
+    <row r="72" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="158" t="s">
         <v>239</v>
       </c>
-      <c r="B72" s="157"/>
-      <c r="C72" s="157"/>
-      <c r="D72" s="157"/>
-      <c r="E72" s="157"/>
-      <c r="F72" s="157"/>
-      <c r="G72" s="157"/>
-      <c r="H72" s="157"/>
-      <c r="I72" s="157"/>
-      <c r="J72" s="157"/>
-      <c r="K72" s="157"/>
-      <c r="L72" s="157"/>
-      <c r="M72" s="157"/>
-      <c r="N72" s="157"/>
-      <c r="O72" s="157"/>
-      <c r="P72" s="157"/>
+      <c r="B72" s="158"/>
+      <c r="C72" s="158"/>
+      <c r="D72" s="158"/>
+      <c r="E72" s="158"/>
+      <c r="F72" s="158"/>
+      <c r="G72" s="158"/>
+      <c r="H72" s="158"/>
+      <c r="I72" s="158"/>
+      <c r="J72" s="158"/>
+      <c r="K72" s="158"/>
+      <c r="L72" s="158"/>
+      <c r="M72" s="158"/>
+      <c r="N72" s="158"/>
+      <c r="O72" s="158"/>
+      <c r="P72" s="158"/>
       <c r="T72" s="142"/>
     </row>
-    <row r="73" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="157" t="s">
+    <row r="73" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="158" t="s">
         <v>240</v>
       </c>
-      <c r="B73" s="157"/>
-      <c r="C73" s="157"/>
-      <c r="D73" s="157"/>
-      <c r="E73" s="157"/>
-      <c r="F73" s="157"/>
-      <c r="G73" s="157"/>
-      <c r="H73" s="157"/>
-      <c r="I73" s="157"/>
-      <c r="J73" s="157"/>
-      <c r="K73" s="157"/>
-      <c r="L73" s="157"/>
-      <c r="M73" s="157"/>
-      <c r="N73" s="157"/>
-      <c r="O73" s="157"/>
-      <c r="P73" s="157"/>
+      <c r="B73" s="158"/>
+      <c r="C73" s="158"/>
+      <c r="D73" s="158"/>
+      <c r="E73" s="158"/>
+      <c r="F73" s="158"/>
+      <c r="G73" s="158"/>
+      <c r="H73" s="158"/>
+      <c r="I73" s="158"/>
+      <c r="J73" s="158"/>
+      <c r="K73" s="158"/>
+      <c r="L73" s="158"/>
+      <c r="M73" s="158"/>
+      <c r="N73" s="158"/>
+      <c r="O73" s="158"/>
+      <c r="P73" s="158"/>
       <c r="T73" s="142"/>
     </row>
-    <row r="74" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="158" t="s">
+    <row r="74" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="159" t="s">
         <v>241</v>
       </c>
-      <c r="B74" s="158"/>
-      <c r="C74" s="158"/>
-      <c r="D74" s="158"/>
-      <c r="E74" s="158"/>
-      <c r="F74" s="158"/>
-      <c r="G74" s="158"/>
-      <c r="H74" s="158"/>
-      <c r="I74" s="158"/>
-      <c r="J74" s="158"/>
-      <c r="K74" s="158"/>
-      <c r="L74" s="158"/>
-      <c r="M74" s="158"/>
-      <c r="N74" s="158"/>
-      <c r="O74" s="158"/>
-      <c r="P74" s="158"/>
+      <c r="B74" s="159"/>
+      <c r="C74" s="159"/>
+      <c r="D74" s="159"/>
+      <c r="E74" s="159"/>
+      <c r="F74" s="159"/>
+      <c r="G74" s="159"/>
+      <c r="H74" s="159"/>
+      <c r="I74" s="159"/>
+      <c r="J74" s="159"/>
+      <c r="K74" s="159"/>
+      <c r="L74" s="159"/>
+      <c r="M74" s="159"/>
+      <c r="N74" s="159"/>
+      <c r="O74" s="159"/>
+      <c r="P74" s="159"/>
       <c r="T74" s="142"/>
     </row>
-    <row r="75" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="156" t="s">
+    <row r="75" spans="1:20" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="157" t="s">
         <v>242</v>
       </c>
-      <c r="B75" s="156"/>
-      <c r="C75" s="156"/>
-      <c r="D75" s="156"/>
-      <c r="E75" s="156"/>
-      <c r="F75" s="156"/>
-      <c r="G75" s="156"/>
-      <c r="H75" s="156"/>
-      <c r="I75" s="156"/>
-      <c r="J75" s="156"/>
-      <c r="K75" s="156"/>
-      <c r="L75" s="156"/>
-      <c r="M75" s="156"/>
-      <c r="N75" s="156"/>
-      <c r="O75" s="156"/>
-      <c r="P75" s="156"/>
+      <c r="B75" s="157"/>
+      <c r="C75" s="157"/>
+      <c r="D75" s="157"/>
+      <c r="E75" s="157"/>
+      <c r="F75" s="157"/>
+      <c r="G75" s="157"/>
+      <c r="H75" s="157"/>
+      <c r="I75" s="157"/>
+      <c r="J75" s="157"/>
+      <c r="K75" s="157"/>
+      <c r="L75" s="157"/>
+      <c r="M75" s="157"/>
+      <c r="N75" s="157"/>
+      <c r="O75" s="157"/>
+      <c r="P75" s="157"/>
       <c r="T75" s="139"/>
     </row>
-    <row r="76" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="159" t="s">
+    <row r="76" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="160" t="s">
         <v>243</v>
       </c>
-      <c r="B76" s="159"/>
-      <c r="C76" s="159"/>
-      <c r="D76" s="159"/>
-      <c r="E76" s="159"/>
-      <c r="F76" s="159"/>
-      <c r="G76" s="159"/>
-      <c r="H76" s="159"/>
-      <c r="I76" s="159"/>
-      <c r="J76" s="159"/>
-      <c r="K76" s="159"/>
-      <c r="L76" s="159"/>
-      <c r="M76" s="159"/>
-      <c r="N76" s="159"/>
-      <c r="O76" s="159"/>
-      <c r="P76" s="159"/>
+      <c r="B76" s="160"/>
+      <c r="C76" s="160"/>
+      <c r="D76" s="160"/>
+      <c r="E76" s="160"/>
+      <c r="F76" s="160"/>
+      <c r="G76" s="160"/>
+      <c r="H76" s="160"/>
+      <c r="I76" s="160"/>
+      <c r="J76" s="160"/>
+      <c r="K76" s="160"/>
+      <c r="L76" s="160"/>
+      <c r="M76" s="160"/>
+      <c r="N76" s="160"/>
+      <c r="O76" s="160"/>
+      <c r="P76" s="160"/>
       <c r="T76" s="142"/>
     </row>
-    <row r="77" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="161" t="s">
+    <row r="77" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="162" t="s">
         <v>244</v>
       </c>
-      <c r="B77" s="161"/>
-      <c r="C77" s="161"/>
-      <c r="D77" s="161"/>
-      <c r="E77" s="161"/>
-      <c r="F77" s="161"/>
-      <c r="G77" s="161"/>
-      <c r="H77" s="161"/>
-      <c r="I77" s="161"/>
-      <c r="J77" s="161"/>
-      <c r="K77" s="161"/>
-      <c r="L77" s="161"/>
-      <c r="M77" s="161"/>
-      <c r="N77" s="161"/>
-      <c r="O77" s="161"/>
-      <c r="P77" s="161"/>
+      <c r="B77" s="162"/>
+      <c r="C77" s="162"/>
+      <c r="D77" s="162"/>
+      <c r="E77" s="162"/>
+      <c r="F77" s="162"/>
+      <c r="G77" s="162"/>
+      <c r="H77" s="162"/>
+      <c r="I77" s="162"/>
+      <c r="J77" s="162"/>
+      <c r="K77" s="162"/>
+      <c r="L77" s="162"/>
+      <c r="M77" s="162"/>
+      <c r="N77" s="162"/>
+      <c r="O77" s="162"/>
+      <c r="P77" s="162"/>
       <c r="T77" s="142"/>
     </row>
-    <row r="78" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="162" t="s">
+    <row r="78" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="163" t="s">
         <v>245</v>
       </c>
-      <c r="B78" s="162"/>
-      <c r="C78" s="162"/>
-      <c r="D78" s="162"/>
-      <c r="E78" s="162"/>
-      <c r="F78" s="162"/>
-      <c r="G78" s="162"/>
-      <c r="H78" s="162"/>
-      <c r="I78" s="162"/>
-      <c r="J78" s="162"/>
-      <c r="K78" s="162"/>
-      <c r="L78" s="162"/>
-      <c r="M78" s="162"/>
-      <c r="N78" s="162"/>
-      <c r="O78" s="162"/>
-      <c r="P78" s="162"/>
+      <c r="B78" s="163"/>
+      <c r="C78" s="163"/>
+      <c r="D78" s="163"/>
+      <c r="E78" s="163"/>
+      <c r="F78" s="163"/>
+      <c r="G78" s="163"/>
+      <c r="H78" s="163"/>
+      <c r="I78" s="163"/>
+      <c r="J78" s="163"/>
+      <c r="K78" s="163"/>
+      <c r="L78" s="163"/>
+      <c r="M78" s="163"/>
+      <c r="N78" s="163"/>
+      <c r="O78" s="163"/>
+      <c r="P78" s="163"/>
       <c r="T78" s="142"/>
     </row>
-    <row r="79" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="161" t="s">
+    <row r="79" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="162" t="s">
         <v>246</v>
       </c>
-      <c r="B79" s="161"/>
-      <c r="C79" s="161"/>
-      <c r="D79" s="161"/>
-      <c r="E79" s="161"/>
-      <c r="F79" s="161"/>
-      <c r="G79" s="161"/>
-      <c r="H79" s="161"/>
-      <c r="I79" s="161"/>
-      <c r="J79" s="161"/>
-      <c r="K79" s="161"/>
-      <c r="L79" s="161"/>
-      <c r="M79" s="161"/>
-      <c r="N79" s="161"/>
-      <c r="O79" s="161"/>
-      <c r="P79" s="161"/>
+      <c r="B79" s="162"/>
+      <c r="C79" s="162"/>
+      <c r="D79" s="162"/>
+      <c r="E79" s="162"/>
+      <c r="F79" s="162"/>
+      <c r="G79" s="162"/>
+      <c r="H79" s="162"/>
+      <c r="I79" s="162"/>
+      <c r="J79" s="162"/>
+      <c r="K79" s="162"/>
+      <c r="L79" s="162"/>
+      <c r="M79" s="162"/>
+      <c r="N79" s="162"/>
+      <c r="O79" s="162"/>
+      <c r="P79" s="162"/>
       <c r="T79" s="142"/>
     </row>
-    <row r="80" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="156" t="s">
+    <row r="80" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="157" t="s">
         <v>247</v>
       </c>
-      <c r="B80" s="156"/>
-      <c r="C80" s="156"/>
-      <c r="D80" s="156"/>
-      <c r="E80" s="156"/>
-      <c r="F80" s="156"/>
-      <c r="G80" s="156"/>
-      <c r="H80" s="156"/>
-      <c r="I80" s="156"/>
-      <c r="J80" s="156"/>
-      <c r="K80" s="156"/>
-      <c r="L80" s="156"/>
-      <c r="M80" s="156"/>
-      <c r="N80" s="156"/>
-      <c r="O80" s="156"/>
-      <c r="P80" s="156"/>
+      <c r="B80" s="157"/>
+      <c r="C80" s="157"/>
+      <c r="D80" s="157"/>
+      <c r="E80" s="157"/>
+      <c r="F80" s="157"/>
+      <c r="G80" s="157"/>
+      <c r="H80" s="157"/>
+      <c r="I80" s="157"/>
+      <c r="J80" s="157"/>
+      <c r="K80" s="157"/>
+      <c r="L80" s="157"/>
+      <c r="M80" s="157"/>
+      <c r="N80" s="157"/>
+      <c r="O80" s="157"/>
+      <c r="P80" s="157"/>
       <c r="T80" s="142"/>
     </row>
-    <row r="81" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="159" t="s">
+    <row r="81" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="160" t="s">
         <v>248</v>
       </c>
-      <c r="B81" s="159"/>
-      <c r="C81" s="159"/>
-      <c r="D81" s="159"/>
-      <c r="E81" s="159"/>
-      <c r="F81" s="159"/>
-      <c r="G81" s="159"/>
-      <c r="H81" s="159"/>
-      <c r="I81" s="159"/>
-      <c r="J81" s="159"/>
-      <c r="K81" s="159"/>
-      <c r="L81" s="159"/>
-      <c r="M81" s="159"/>
-      <c r="N81" s="159"/>
-      <c r="O81" s="159"/>
-      <c r="P81" s="159"/>
+      <c r="B81" s="160"/>
+      <c r="C81" s="160"/>
+      <c r="D81" s="160"/>
+      <c r="E81" s="160"/>
+      <c r="F81" s="160"/>
+      <c r="G81" s="160"/>
+      <c r="H81" s="160"/>
+      <c r="I81" s="160"/>
+      <c r="J81" s="160"/>
+      <c r="K81" s="160"/>
+      <c r="L81" s="160"/>
+      <c r="M81" s="160"/>
+      <c r="N81" s="160"/>
+      <c r="O81" s="160"/>
+      <c r="P81" s="160"/>
       <c r="T81" s="142"/>
     </row>
-    <row r="82" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="161" t="s">
+    <row r="82" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="162" t="s">
         <v>249</v>
       </c>
-      <c r="B82" s="161"/>
-      <c r="C82" s="161"/>
-      <c r="D82" s="161"/>
-      <c r="E82" s="161"/>
-      <c r="F82" s="161"/>
-      <c r="G82" s="161"/>
-      <c r="H82" s="161"/>
-      <c r="I82" s="161"/>
-      <c r="J82" s="161"/>
-      <c r="K82" s="161"/>
-      <c r="L82" s="161"/>
-      <c r="M82" s="161"/>
-      <c r="N82" s="161"/>
-      <c r="O82" s="161"/>
-      <c r="P82" s="161"/>
+      <c r="B82" s="162"/>
+      <c r="C82" s="162"/>
+      <c r="D82" s="162"/>
+      <c r="E82" s="162"/>
+      <c r="F82" s="162"/>
+      <c r="G82" s="162"/>
+      <c r="H82" s="162"/>
+      <c r="I82" s="162"/>
+      <c r="J82" s="162"/>
+      <c r="K82" s="162"/>
+      <c r="L82" s="162"/>
+      <c r="M82" s="162"/>
+      <c r="N82" s="162"/>
+      <c r="O82" s="162"/>
+      <c r="P82" s="162"/>
       <c r="T82" s="142"/>
     </row>
-    <row r="83" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="156" t="s">
+    <row r="83" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="B83" s="156"/>
-      <c r="C83" s="156"/>
-      <c r="D83" s="156"/>
-      <c r="E83" s="156"/>
-      <c r="F83" s="156"/>
-      <c r="G83" s="156"/>
-      <c r="H83" s="156"/>
-      <c r="I83" s="156"/>
-      <c r="J83" s="156"/>
-      <c r="K83" s="156"/>
-      <c r="L83" s="156"/>
-      <c r="M83" s="156"/>
-      <c r="N83" s="156"/>
-      <c r="O83" s="156"/>
-      <c r="P83" s="156"/>
+      <c r="B83" s="157"/>
+      <c r="C83" s="157"/>
+      <c r="D83" s="157"/>
+      <c r="E83" s="157"/>
+      <c r="F83" s="157"/>
+      <c r="G83" s="157"/>
+      <c r="H83" s="157"/>
+      <c r="I83" s="157"/>
+      <c r="J83" s="157"/>
+      <c r="K83" s="157"/>
+      <c r="L83" s="157"/>
+      <c r="M83" s="157"/>
+      <c r="N83" s="157"/>
+      <c r="O83" s="157"/>
+      <c r="P83" s="157"/>
       <c r="T83" s="142"/>
     </row>
-    <row r="84" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="159" t="s">
+    <row r="84" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="160" t="s">
         <v>251</v>
       </c>
-      <c r="B84" s="159"/>
-      <c r="C84" s="159"/>
-      <c r="D84" s="159"/>
-      <c r="E84" s="159"/>
-      <c r="F84" s="159"/>
-      <c r="G84" s="159"/>
-      <c r="H84" s="159"/>
-      <c r="I84" s="159"/>
-      <c r="J84" s="159"/>
-      <c r="K84" s="159"/>
-      <c r="L84" s="159"/>
-      <c r="M84" s="159"/>
-      <c r="N84" s="159"/>
-      <c r="O84" s="159"/>
-      <c r="P84" s="159"/>
+      <c r="B84" s="160"/>
+      <c r="C84" s="160"/>
+      <c r="D84" s="160"/>
+      <c r="E84" s="160"/>
+      <c r="F84" s="160"/>
+      <c r="G84" s="160"/>
+      <c r="H84" s="160"/>
+      <c r="I84" s="160"/>
+      <c r="J84" s="160"/>
+      <c r="K84" s="160"/>
+      <c r="L84" s="160"/>
+      <c r="M84" s="160"/>
+      <c r="N84" s="160"/>
+      <c r="O84" s="160"/>
+      <c r="P84" s="160"/>
       <c r="T84" s="142"/>
     </row>
-    <row r="85" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="161" t="s">
+    <row r="85" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="162" t="s">
         <v>244</v>
       </c>
-      <c r="B85" s="161"/>
-      <c r="C85" s="161"/>
-      <c r="D85" s="161"/>
-      <c r="E85" s="161"/>
-      <c r="F85" s="161"/>
-      <c r="G85" s="161"/>
-      <c r="H85" s="161"/>
-      <c r="I85" s="161"/>
-      <c r="J85" s="161"/>
-      <c r="K85" s="161"/>
-      <c r="L85" s="161"/>
-      <c r="M85" s="161"/>
-      <c r="N85" s="161"/>
-      <c r="O85" s="161"/>
-      <c r="P85" s="161"/>
+      <c r="B85" s="162"/>
+      <c r="C85" s="162"/>
+      <c r="D85" s="162"/>
+      <c r="E85" s="162"/>
+      <c r="F85" s="162"/>
+      <c r="G85" s="162"/>
+      <c r="H85" s="162"/>
+      <c r="I85" s="162"/>
+      <c r="J85" s="162"/>
+      <c r="K85" s="162"/>
+      <c r="L85" s="162"/>
+      <c r="M85" s="162"/>
+      <c r="N85" s="162"/>
+      <c r="O85" s="162"/>
+      <c r="P85" s="162"/>
       <c r="T85" s="142"/>
     </row>
-    <row r="86" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="162" t="s">
+    <row r="86" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="163" t="s">
         <v>252</v>
       </c>
-      <c r="B86" s="162"/>
-      <c r="C86" s="162"/>
-      <c r="D86" s="162"/>
-      <c r="E86" s="162"/>
-      <c r="F86" s="162"/>
-      <c r="G86" s="162"/>
-      <c r="H86" s="162"/>
-      <c r="I86" s="162"/>
-      <c r="J86" s="162"/>
-      <c r="K86" s="162"/>
-      <c r="L86" s="162"/>
-      <c r="M86" s="162"/>
-      <c r="N86" s="162"/>
-      <c r="O86" s="162"/>
-      <c r="P86" s="162"/>
+      <c r="B86" s="163"/>
+      <c r="C86" s="163"/>
+      <c r="D86" s="163"/>
+      <c r="E86" s="163"/>
+      <c r="F86" s="163"/>
+      <c r="G86" s="163"/>
+      <c r="H86" s="163"/>
+      <c r="I86" s="163"/>
+      <c r="J86" s="163"/>
+      <c r="K86" s="163"/>
+      <c r="L86" s="163"/>
+      <c r="M86" s="163"/>
+      <c r="N86" s="163"/>
+      <c r="O86" s="163"/>
+      <c r="P86" s="163"/>
       <c r="T86" s="142"/>
     </row>
-    <row r="87" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="161" t="s">
+    <row r="87" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="162" t="s">
         <v>253</v>
       </c>
-      <c r="B87" s="161"/>
-      <c r="C87" s="161"/>
-      <c r="D87" s="161"/>
-      <c r="E87" s="161"/>
-      <c r="F87" s="161"/>
-      <c r="G87" s="161"/>
-      <c r="H87" s="161"/>
-      <c r="I87" s="161"/>
-      <c r="J87" s="161"/>
-      <c r="K87" s="161"/>
-      <c r="L87" s="161"/>
-      <c r="M87" s="161"/>
-      <c r="N87" s="161"/>
-      <c r="O87" s="161"/>
-      <c r="P87" s="161"/>
+      <c r="B87" s="162"/>
+      <c r="C87" s="162"/>
+      <c r="D87" s="162"/>
+      <c r="E87" s="162"/>
+      <c r="F87" s="162"/>
+      <c r="G87" s="162"/>
+      <c r="H87" s="162"/>
+      <c r="I87" s="162"/>
+      <c r="J87" s="162"/>
+      <c r="K87" s="162"/>
+      <c r="L87" s="162"/>
+      <c r="M87" s="162"/>
+      <c r="N87" s="162"/>
+      <c r="O87" s="162"/>
+      <c r="P87" s="162"/>
       <c r="T87" s="142"/>
     </row>
-    <row r="88" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="156" t="s">
+    <row r="88" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="157" t="s">
         <v>254</v>
       </c>
-      <c r="B88" s="156"/>
-      <c r="C88" s="156"/>
-      <c r="D88" s="156"/>
-      <c r="E88" s="156"/>
-      <c r="F88" s="156"/>
-      <c r="G88" s="156"/>
-      <c r="H88" s="156"/>
-      <c r="I88" s="156"/>
-      <c r="J88" s="156"/>
-      <c r="K88" s="156"/>
-      <c r="L88" s="156"/>
-      <c r="M88" s="156"/>
-      <c r="N88" s="156"/>
-      <c r="O88" s="156"/>
-      <c r="P88" s="156"/>
+      <c r="B88" s="157"/>
+      <c r="C88" s="157"/>
+      <c r="D88" s="157"/>
+      <c r="E88" s="157"/>
+      <c r="F88" s="157"/>
+      <c r="G88" s="157"/>
+      <c r="H88" s="157"/>
+      <c r="I88" s="157"/>
+      <c r="J88" s="157"/>
+      <c r="K88" s="157"/>
+      <c r="L88" s="157"/>
+      <c r="M88" s="157"/>
+      <c r="N88" s="157"/>
+      <c r="O88" s="157"/>
+      <c r="P88" s="157"/>
       <c r="T88" s="142"/>
     </row>
-    <row r="89" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="159" t="s">
+    <row r="89" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="160" t="s">
         <v>255</v>
       </c>
-      <c r="B89" s="159"/>
-      <c r="C89" s="159"/>
-      <c r="D89" s="159"/>
-      <c r="E89" s="159"/>
-      <c r="F89" s="159"/>
-      <c r="G89" s="159"/>
-      <c r="H89" s="159"/>
-      <c r="I89" s="159"/>
-      <c r="J89" s="159"/>
-      <c r="K89" s="159"/>
-      <c r="L89" s="159"/>
-      <c r="M89" s="159"/>
-      <c r="N89" s="159"/>
-      <c r="O89" s="159"/>
-      <c r="P89" s="159"/>
+      <c r="B89" s="160"/>
+      <c r="C89" s="160"/>
+      <c r="D89" s="160"/>
+      <c r="E89" s="160"/>
+      <c r="F89" s="160"/>
+      <c r="G89" s="160"/>
+      <c r="H89" s="160"/>
+      <c r="I89" s="160"/>
+      <c r="J89" s="160"/>
+      <c r="K89" s="160"/>
+      <c r="L89" s="160"/>
+      <c r="M89" s="160"/>
+      <c r="N89" s="160"/>
+      <c r="O89" s="160"/>
+      <c r="P89" s="160"/>
       <c r="T89" s="142"/>
     </row>
-    <row r="90" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="161" t="s">
+    <row r="90" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="162" t="s">
         <v>249</v>
       </c>
-      <c r="B90" s="161"/>
-      <c r="C90" s="161"/>
-      <c r="D90" s="161"/>
-      <c r="E90" s="161"/>
-      <c r="F90" s="161"/>
-      <c r="G90" s="161"/>
-      <c r="H90" s="161"/>
-      <c r="I90" s="161"/>
-      <c r="J90" s="161"/>
-      <c r="K90" s="161"/>
-      <c r="L90" s="161"/>
-      <c r="M90" s="161"/>
-      <c r="N90" s="161"/>
-      <c r="O90" s="161"/>
-      <c r="P90" s="161"/>
+      <c r="B90" s="162"/>
+      <c r="C90" s="162"/>
+      <c r="D90" s="162"/>
+      <c r="E90" s="162"/>
+      <c r="F90" s="162"/>
+      <c r="G90" s="162"/>
+      <c r="H90" s="162"/>
+      <c r="I90" s="162"/>
+      <c r="J90" s="162"/>
+      <c r="K90" s="162"/>
+      <c r="L90" s="162"/>
+      <c r="M90" s="162"/>
+      <c r="N90" s="162"/>
+      <c r="O90" s="162"/>
+      <c r="P90" s="162"/>
       <c r="T90" s="142"/>
     </row>
-    <row r="91" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="158" t="s">
+    <row r="91" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="159" t="s">
         <v>256</v>
       </c>
-      <c r="B91" s="158"/>
-      <c r="C91" s="158"/>
-      <c r="D91" s="158"/>
-      <c r="E91" s="158"/>
-      <c r="F91" s="158"/>
-      <c r="G91" s="158"/>
-      <c r="H91" s="158"/>
-      <c r="I91" s="158"/>
-      <c r="J91" s="158"/>
-      <c r="K91" s="158"/>
-      <c r="L91" s="158"/>
-      <c r="M91" s="158"/>
-      <c r="N91" s="158"/>
-      <c r="O91" s="158"/>
-      <c r="P91" s="158"/>
+      <c r="B91" s="159"/>
+      <c r="C91" s="159"/>
+      <c r="D91" s="159"/>
+      <c r="E91" s="159"/>
+      <c r="F91" s="159"/>
+      <c r="G91" s="159"/>
+      <c r="H91" s="159"/>
+      <c r="I91" s="159"/>
+      <c r="J91" s="159"/>
+      <c r="K91" s="159"/>
+      <c r="L91" s="159"/>
+      <c r="M91" s="159"/>
+      <c r="N91" s="159"/>
+      <c r="O91" s="159"/>
+      <c r="P91" s="159"/>
       <c r="T91" s="142"/>
     </row>
-    <row r="92" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="157" t="s">
+    <row r="92" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="158" t="s">
         <v>257</v>
       </c>
-      <c r="B92" s="157"/>
-      <c r="C92" s="157"/>
-      <c r="D92" s="157"/>
-      <c r="E92" s="157"/>
-      <c r="F92" s="157"/>
-      <c r="G92" s="157"/>
-      <c r="H92" s="157"/>
-      <c r="I92" s="157"/>
-      <c r="J92" s="157"/>
-      <c r="K92" s="157"/>
-      <c r="L92" s="157"/>
-      <c r="M92" s="157"/>
-      <c r="N92" s="157"/>
-      <c r="O92" s="157"/>
-      <c r="P92" s="157"/>
+      <c r="B92" s="158"/>
+      <c r="C92" s="158"/>
+      <c r="D92" s="158"/>
+      <c r="E92" s="158"/>
+      <c r="F92" s="158"/>
+      <c r="G92" s="158"/>
+      <c r="H92" s="158"/>
+      <c r="I92" s="158"/>
+      <c r="J92" s="158"/>
+      <c r="K92" s="158"/>
+      <c r="L92" s="158"/>
+      <c r="M92" s="158"/>
+      <c r="N92" s="158"/>
+      <c r="O92" s="158"/>
+      <c r="P92" s="158"/>
       <c r="T92" s="142"/>
     </row>
-    <row r="93" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="157" t="s">
+    <row r="93" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="158" t="s">
         <v>258</v>
       </c>
-      <c r="B93" s="157"/>
-      <c r="C93" s="157"/>
-      <c r="D93" s="157"/>
-      <c r="E93" s="157"/>
-      <c r="F93" s="157"/>
-      <c r="G93" s="157"/>
-      <c r="H93" s="157"/>
-      <c r="I93" s="157"/>
-      <c r="J93" s="157"/>
-      <c r="K93" s="157"/>
-      <c r="L93" s="157"/>
-      <c r="M93" s="157"/>
-      <c r="N93" s="157"/>
-      <c r="O93" s="157"/>
-      <c r="P93" s="157"/>
+      <c r="B93" s="158"/>
+      <c r="C93" s="158"/>
+      <c r="D93" s="158"/>
+      <c r="E93" s="158"/>
+      <c r="F93" s="158"/>
+      <c r="G93" s="158"/>
+      <c r="H93" s="158"/>
+      <c r="I93" s="158"/>
+      <c r="J93" s="158"/>
+      <c r="K93" s="158"/>
+      <c r="L93" s="158"/>
+      <c r="M93" s="158"/>
+      <c r="N93" s="158"/>
+      <c r="O93" s="158"/>
+      <c r="P93" s="158"/>
       <c r="T93" s="142"/>
     </row>
-    <row r="94" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="158" t="s">
+    <row r="94" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="159" t="s">
         <v>259</v>
       </c>
-      <c r="B94" s="158"/>
-      <c r="C94" s="158"/>
-      <c r="D94" s="158"/>
-      <c r="E94" s="158"/>
-      <c r="F94" s="158"/>
-      <c r="G94" s="158"/>
-      <c r="H94" s="158"/>
-      <c r="I94" s="158"/>
-      <c r="J94" s="158"/>
-      <c r="K94" s="158"/>
-      <c r="L94" s="158"/>
-      <c r="M94" s="158"/>
-      <c r="N94" s="158"/>
-      <c r="O94" s="158"/>
-      <c r="P94" s="158"/>
+      <c r="B94" s="159"/>
+      <c r="C94" s="159"/>
+      <c r="D94" s="159"/>
+      <c r="E94" s="159"/>
+      <c r="F94" s="159"/>
+      <c r="G94" s="159"/>
+      <c r="H94" s="159"/>
+      <c r="I94" s="159"/>
+      <c r="J94" s="159"/>
+      <c r="K94" s="159"/>
+      <c r="L94" s="159"/>
+      <c r="M94" s="159"/>
+      <c r="N94" s="159"/>
+      <c r="O94" s="159"/>
+      <c r="P94" s="159"/>
       <c r="T94" s="142"/>
     </row>
-    <row r="95" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="157" t="s">
+    <row r="95" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="158" t="s">
         <v>260</v>
       </c>
-      <c r="B95" s="157"/>
-      <c r="C95" s="157"/>
-      <c r="D95" s="157"/>
-      <c r="E95" s="157"/>
-      <c r="F95" s="157"/>
-      <c r="G95" s="157"/>
-      <c r="H95" s="157"/>
-      <c r="I95" s="157"/>
-      <c r="J95" s="157"/>
-      <c r="K95" s="157"/>
-      <c r="L95" s="157"/>
-      <c r="M95" s="157"/>
-      <c r="N95" s="157"/>
-      <c r="O95" s="157"/>
-      <c r="P95" s="157"/>
+      <c r="B95" s="158"/>
+      <c r="C95" s="158"/>
+      <c r="D95" s="158"/>
+      <c r="E95" s="158"/>
+      <c r="F95" s="158"/>
+      <c r="G95" s="158"/>
+      <c r="H95" s="158"/>
+      <c r="I95" s="158"/>
+      <c r="J95" s="158"/>
+      <c r="K95" s="158"/>
+      <c r="L95" s="158"/>
+      <c r="M95" s="158"/>
+      <c r="N95" s="158"/>
+      <c r="O95" s="158"/>
+      <c r="P95" s="158"/>
       <c r="T95" s="142"/>
     </row>
-    <row r="96" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="158" t="s">
+    <row r="96" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="159" t="s">
         <v>261</v>
       </c>
-      <c r="B96" s="158"/>
-      <c r="C96" s="158"/>
-      <c r="D96" s="158"/>
-      <c r="E96" s="158"/>
-      <c r="F96" s="158"/>
-      <c r="G96" s="158"/>
-      <c r="H96" s="158"/>
-      <c r="I96" s="158"/>
-      <c r="J96" s="158"/>
-      <c r="K96" s="158"/>
-      <c r="L96" s="158"/>
-      <c r="M96" s="158"/>
-      <c r="N96" s="158"/>
-      <c r="O96" s="158"/>
-      <c r="P96" s="158"/>
+      <c r="B96" s="159"/>
+      <c r="C96" s="159"/>
+      <c r="D96" s="159"/>
+      <c r="E96" s="159"/>
+      <c r="F96" s="159"/>
+      <c r="G96" s="159"/>
+      <c r="H96" s="159"/>
+      <c r="I96" s="159"/>
+      <c r="J96" s="159"/>
+      <c r="K96" s="159"/>
+      <c r="L96" s="159"/>
+      <c r="M96" s="159"/>
+      <c r="N96" s="159"/>
+      <c r="O96" s="159"/>
+      <c r="P96" s="159"/>
       <c r="T96" s="142"/>
     </row>
-    <row r="97" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="156" t="s">
+    <row r="97" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="157" t="s">
         <v>262</v>
       </c>
-      <c r="B97" s="156"/>
-      <c r="C97" s="156"/>
-      <c r="D97" s="156"/>
-      <c r="E97" s="156"/>
-      <c r="F97" s="156"/>
-      <c r="G97" s="156"/>
-      <c r="H97" s="156"/>
-      <c r="I97" s="156"/>
-      <c r="J97" s="156"/>
-      <c r="K97" s="156"/>
-      <c r="L97" s="156"/>
-      <c r="M97" s="156"/>
-      <c r="N97" s="156"/>
-      <c r="O97" s="156"/>
-      <c r="P97" s="156"/>
+      <c r="B97" s="157"/>
+      <c r="C97" s="157"/>
+      <c r="D97" s="157"/>
+      <c r="E97" s="157"/>
+      <c r="F97" s="157"/>
+      <c r="G97" s="157"/>
+      <c r="H97" s="157"/>
+      <c r="I97" s="157"/>
+      <c r="J97" s="157"/>
+      <c r="K97" s="157"/>
+      <c r="L97" s="157"/>
+      <c r="M97" s="157"/>
+      <c r="N97" s="157"/>
+      <c r="O97" s="157"/>
+      <c r="P97" s="157"/>
       <c r="T97" s="142"/>
     </row>
-    <row r="98" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="157" t="s">
+    <row r="98" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="158" t="s">
         <v>263</v>
       </c>
-      <c r="B98" s="157"/>
-      <c r="C98" s="157"/>
-      <c r="D98" s="157"/>
-      <c r="E98" s="157"/>
-      <c r="F98" s="157"/>
-      <c r="G98" s="157"/>
-      <c r="H98" s="157"/>
-      <c r="I98" s="157"/>
-      <c r="J98" s="157"/>
-      <c r="K98" s="157"/>
-      <c r="L98" s="157"/>
-      <c r="M98" s="157"/>
-      <c r="N98" s="157"/>
-      <c r="O98" s="157"/>
-      <c r="P98" s="157"/>
+      <c r="B98" s="158"/>
+      <c r="C98" s="158"/>
+      <c r="D98" s="158"/>
+      <c r="E98" s="158"/>
+      <c r="F98" s="158"/>
+      <c r="G98" s="158"/>
+      <c r="H98" s="158"/>
+      <c r="I98" s="158"/>
+      <c r="J98" s="158"/>
+      <c r="K98" s="158"/>
+      <c r="L98" s="158"/>
+      <c r="M98" s="158"/>
+      <c r="N98" s="158"/>
+      <c r="O98" s="158"/>
+      <c r="P98" s="158"/>
       <c r="T98" s="142"/>
     </row>
-    <row r="99" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="157" t="s">
+    <row r="99" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="158" t="s">
         <v>264</v>
       </c>
-      <c r="B99" s="157"/>
-      <c r="C99" s="157"/>
-      <c r="D99" s="157"/>
-      <c r="E99" s="157"/>
-      <c r="F99" s="157"/>
-      <c r="G99" s="157"/>
-      <c r="H99" s="157"/>
-      <c r="I99" s="157"/>
-      <c r="J99" s="157"/>
-      <c r="K99" s="157"/>
-      <c r="L99" s="157"/>
-      <c r="M99" s="157"/>
-      <c r="N99" s="157"/>
-      <c r="O99" s="157"/>
-      <c r="P99" s="157"/>
+      <c r="B99" s="158"/>
+      <c r="C99" s="158"/>
+      <c r="D99" s="158"/>
+      <c r="E99" s="158"/>
+      <c r="F99" s="158"/>
+      <c r="G99" s="158"/>
+      <c r="H99" s="158"/>
+      <c r="I99" s="158"/>
+      <c r="J99" s="158"/>
+      <c r="K99" s="158"/>
+      <c r="L99" s="158"/>
+      <c r="M99" s="158"/>
+      <c r="N99" s="158"/>
+      <c r="O99" s="158"/>
+      <c r="P99" s="158"/>
       <c r="T99" s="142"/>
     </row>
-    <row r="100" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="157" t="s">
+    <row r="100" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="158" t="s">
         <v>265</v>
       </c>
-      <c r="B100" s="157"/>
-      <c r="C100" s="157"/>
-      <c r="D100" s="157"/>
-      <c r="E100" s="157"/>
-      <c r="F100" s="157"/>
-      <c r="G100" s="157"/>
-      <c r="H100" s="157"/>
-      <c r="I100" s="157"/>
-      <c r="J100" s="157"/>
-      <c r="K100" s="157"/>
-      <c r="L100" s="157"/>
-      <c r="M100" s="157"/>
-      <c r="N100" s="157"/>
-      <c r="O100" s="157"/>
-      <c r="P100" s="157"/>
+      <c r="B100" s="158"/>
+      <c r="C100" s="158"/>
+      <c r="D100" s="158"/>
+      <c r="E100" s="158"/>
+      <c r="F100" s="158"/>
+      <c r="G100" s="158"/>
+      <c r="H100" s="158"/>
+      <c r="I100" s="158"/>
+      <c r="J100" s="158"/>
+      <c r="K100" s="158"/>
+      <c r="L100" s="158"/>
+      <c r="M100" s="158"/>
+      <c r="N100" s="158"/>
+      <c r="O100" s="158"/>
+      <c r="P100" s="158"/>
       <c r="T100" s="142"/>
     </row>
-    <row r="101" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="158" t="s">
+    <row r="101" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="159" t="s">
         <v>266</v>
       </c>
-      <c r="B101" s="158"/>
-      <c r="C101" s="158"/>
-      <c r="D101" s="158"/>
-      <c r="E101" s="158"/>
-      <c r="F101" s="158"/>
-      <c r="G101" s="158"/>
-      <c r="H101" s="158"/>
-      <c r="I101" s="158"/>
-      <c r="J101" s="158"/>
-      <c r="K101" s="158"/>
-      <c r="L101" s="158"/>
-      <c r="M101" s="158"/>
-      <c r="N101" s="158"/>
-      <c r="O101" s="158"/>
-      <c r="P101" s="158"/>
+      <c r="B101" s="159"/>
+      <c r="C101" s="159"/>
+      <c r="D101" s="159"/>
+      <c r="E101" s="159"/>
+      <c r="F101" s="159"/>
+      <c r="G101" s="159"/>
+      <c r="H101" s="159"/>
+      <c r="I101" s="159"/>
+      <c r="J101" s="159"/>
+      <c r="K101" s="159"/>
+      <c r="L101" s="159"/>
+      <c r="M101" s="159"/>
+      <c r="N101" s="159"/>
+      <c r="O101" s="159"/>
+      <c r="P101" s="159"/>
       <c r="T101" s="142"/>
     </row>
-    <row r="102" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="156" t="s">
+    <row r="102" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="157" t="s">
         <v>267</v>
       </c>
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
-      <c r="H102" s="156"/>
-      <c r="I102" s="156"/>
-      <c r="J102" s="156"/>
-      <c r="K102" s="156"/>
-      <c r="L102" s="156"/>
-      <c r="M102" s="156"/>
-      <c r="N102" s="156"/>
-      <c r="O102" s="156"/>
-      <c r="P102" s="156"/>
+      <c r="B102" s="157"/>
+      <c r="C102" s="157"/>
+      <c r="D102" s="157"/>
+      <c r="E102" s="157"/>
+      <c r="F102" s="157"/>
+      <c r="G102" s="157"/>
+      <c r="H102" s="157"/>
+      <c r="I102" s="157"/>
+      <c r="J102" s="157"/>
+      <c r="K102" s="157"/>
+      <c r="L102" s="157"/>
+      <c r="M102" s="157"/>
+      <c r="N102" s="157"/>
+      <c r="O102" s="157"/>
+      <c r="P102" s="157"/>
       <c r="T102" s="142"/>
     </row>
-    <row r="103" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="159" t="s">
+    <row r="103" spans="1:20" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="160" t="s">
         <v>268</v>
       </c>
-      <c r="B103" s="159"/>
-      <c r="C103" s="159"/>
-      <c r="D103" s="159"/>
-      <c r="E103" s="159"/>
-      <c r="F103" s="159"/>
-      <c r="G103" s="159"/>
-      <c r="H103" s="159"/>
-      <c r="I103" s="159"/>
-      <c r="J103" s="159"/>
-      <c r="K103" s="159"/>
-      <c r="L103" s="159"/>
-      <c r="M103" s="159"/>
-      <c r="N103" s="159"/>
-      <c r="O103" s="159"/>
-      <c r="P103" s="159"/>
+      <c r="B103" s="160"/>
+      <c r="C103" s="160"/>
+      <c r="D103" s="160"/>
+      <c r="E103" s="160"/>
+      <c r="F103" s="160"/>
+      <c r="G103" s="160"/>
+      <c r="H103" s="160"/>
+      <c r="I103" s="160"/>
+      <c r="J103" s="160"/>
+      <c r="K103" s="160"/>
+      <c r="L103" s="160"/>
+      <c r="M103" s="160"/>
+      <c r="N103" s="160"/>
+      <c r="O103" s="160"/>
+      <c r="P103" s="160"/>
       <c r="T103" s="142"/>
     </row>
-    <row r="104" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="156" t="s">
+    <row r="104" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="157" t="s">
         <v>269</v>
       </c>
-      <c r="B104" s="156"/>
-      <c r="C104" s="156"/>
-      <c r="D104" s="156"/>
-      <c r="E104" s="156"/>
-      <c r="F104" s="156"/>
-      <c r="G104" s="156"/>
-      <c r="H104" s="156"/>
-      <c r="I104" s="156"/>
-      <c r="J104" s="156"/>
-      <c r="K104" s="156"/>
-      <c r="L104" s="156"/>
-      <c r="M104" s="156"/>
-      <c r="N104" s="156"/>
-      <c r="O104" s="156"/>
-      <c r="P104" s="156"/>
+      <c r="B104" s="157"/>
+      <c r="C104" s="157"/>
+      <c r="D104" s="157"/>
+      <c r="E104" s="157"/>
+      <c r="F104" s="157"/>
+      <c r="G104" s="157"/>
+      <c r="H104" s="157"/>
+      <c r="I104" s="157"/>
+      <c r="J104" s="157"/>
+      <c r="K104" s="157"/>
+      <c r="L104" s="157"/>
+      <c r="M104" s="157"/>
+      <c r="N104" s="157"/>
+      <c r="O104" s="157"/>
+      <c r="P104" s="157"/>
       <c r="T104" s="142"/>
     </row>
-    <row r="105" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="160" t="s">
+    <row r="105" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="161" t="s">
         <v>270</v>
       </c>
-      <c r="B105" s="160"/>
-      <c r="C105" s="160"/>
-      <c r="D105" s="160"/>
-      <c r="E105" s="160"/>
-      <c r="F105" s="160"/>
-      <c r="G105" s="160"/>
-      <c r="H105" s="160"/>
-      <c r="I105" s="160"/>
-      <c r="J105" s="160"/>
-      <c r="K105" s="160"/>
-      <c r="L105" s="160"/>
-      <c r="M105" s="160"/>
-      <c r="N105" s="160"/>
-      <c r="O105" s="160"/>
-      <c r="P105" s="160"/>
+      <c r="B105" s="161"/>
+      <c r="C105" s="161"/>
+      <c r="D105" s="161"/>
+      <c r="E105" s="161"/>
+      <c r="F105" s="161"/>
+      <c r="G105" s="161"/>
+      <c r="H105" s="161"/>
+      <c r="I105" s="161"/>
+      <c r="J105" s="161"/>
+      <c r="K105" s="161"/>
+      <c r="L105" s="161"/>
+      <c r="M105" s="161"/>
+      <c r="N105" s="161"/>
+      <c r="O105" s="161"/>
+      <c r="P105" s="161"/>
       <c r="T105" s="142"/>
     </row>
-    <row r="106" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="155" t="s">
+    <row r="106" spans="1:20" s="141" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="156" t="s">
         <v>271</v>
       </c>
-      <c r="B106" s="155"/>
-      <c r="C106" s="155"/>
-      <c r="D106" s="155"/>
-      <c r="E106" s="155"/>
-      <c r="F106" s="155"/>
-      <c r="G106" s="155"/>
-      <c r="H106" s="155"/>
-      <c r="I106" s="155"/>
-      <c r="J106" s="155"/>
-      <c r="K106" s="155"/>
-      <c r="L106" s="155"/>
-      <c r="M106" s="155"/>
-      <c r="N106" s="155"/>
-      <c r="O106" s="155"/>
-      <c r="P106" s="155"/>
+      <c r="B106" s="156"/>
+      <c r="C106" s="156"/>
+      <c r="D106" s="156"/>
+      <c r="E106" s="156"/>
+      <c r="F106" s="156"/>
+      <c r="G106" s="156"/>
+      <c r="H106" s="156"/>
+      <c r="I106" s="156"/>
+      <c r="J106" s="156"/>
+      <c r="K106" s="156"/>
+      <c r="L106" s="156"/>
+      <c r="M106" s="156"/>
+      <c r="N106" s="156"/>
+      <c r="O106" s="156"/>
+      <c r="P106" s="156"/>
       <c r="T106" s="142"/>
     </row>
-    <row r="107" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="156" t="s">
+    <row r="107" spans="1:20" s="141" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="157" t="s">
         <v>272</v>
       </c>
-      <c r="B107" s="156"/>
-      <c r="C107" s="156"/>
-      <c r="D107" s="156"/>
-      <c r="E107" s="156"/>
-      <c r="F107" s="156"/>
-      <c r="G107" s="156"/>
-      <c r="H107" s="156"/>
-      <c r="I107" s="156"/>
-      <c r="J107" s="156"/>
-      <c r="K107" s="156"/>
-      <c r="L107" s="156"/>
-      <c r="M107" s="156"/>
-      <c r="N107" s="156"/>
-      <c r="O107" s="156"/>
-      <c r="P107" s="156"/>
+      <c r="B107" s="157"/>
+      <c r="C107" s="157"/>
+      <c r="D107" s="157"/>
+      <c r="E107" s="157"/>
+      <c r="F107" s="157"/>
+      <c r="G107" s="157"/>
+      <c r="H107" s="157"/>
+      <c r="I107" s="157"/>
+      <c r="J107" s="157"/>
+      <c r="K107" s="157"/>
+      <c r="L107" s="157"/>
+      <c r="M107" s="157"/>
+      <c r="N107" s="157"/>
+      <c r="O107" s="157"/>
+      <c r="P107" s="157"/>
       <c r="T107" s="142"/>
     </row>
-    <row r="108" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="157" t="s">
+    <row r="108" spans="1:20" s="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="158" t="s">
         <v>273</v>
       </c>
-      <c r="B108" s="157"/>
-      <c r="C108" s="157"/>
-      <c r="D108" s="157"/>
-      <c r="E108" s="157"/>
-      <c r="F108" s="157"/>
-      <c r="G108" s="157"/>
-      <c r="H108" s="157"/>
-      <c r="I108" s="157"/>
-      <c r="J108" s="157"/>
-      <c r="K108" s="157"/>
-      <c r="L108" s="157"/>
-      <c r="M108" s="157"/>
-      <c r="N108" s="157"/>
-      <c r="O108" s="157"/>
-      <c r="P108" s="157"/>
+      <c r="B108" s="158"/>
+      <c r="C108" s="158"/>
+      <c r="D108" s="158"/>
+      <c r="E108" s="158"/>
+      <c r="F108" s="158"/>
+      <c r="G108" s="158"/>
+      <c r="H108" s="158"/>
+      <c r="I108" s="158"/>
+      <c r="J108" s="158"/>
+      <c r="K108" s="158"/>
+      <c r="L108" s="158"/>
+      <c r="M108" s="158"/>
+      <c r="N108" s="158"/>
+      <c r="O108" s="158"/>
+      <c r="P108" s="158"/>
       <c r="T108" s="142"/>
     </row>
   </sheetData>
@@ -10607,66 +10625,66 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.3984375" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" customWidth="1"/>
-    <col min="8" max="8" width="8.1328125" customWidth="1"/>
-    <col min="9" max="10" width="8.265625" customWidth="1"/>
-    <col min="11" max="11" width="8.59765625" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="7.86328125" customWidth="1"/>
-    <col min="14" max="14" width="8.59765625" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="178" t="s">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="180" t="s">
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="180" t="s">
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="181"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="183" t="s">
+      <c r="M4" s="182"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="184" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="179"/>
+    <row r="5" spans="1:15" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="180"/>
       <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
@@ -10703,9 +10721,9 @@
       <c r="N5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="184"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O5" s="185"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>43</v>
       </c>
@@ -10749,7 +10767,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>44</v>
       </c>
@@ -10793,7 +10811,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>45</v>
       </c>
@@ -10837,7 +10855,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>46</v>
       </c>
@@ -10881,7 +10899,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>47</v>
       </c>
@@ -10925,7 +10943,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>48</v>
       </c>
@@ -10969,7 +10987,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>49</v>
       </c>
@@ -11013,7 +11031,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>50</v>
       </c>
@@ -11057,7 +11075,7 @@
         <v>14644</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>51</v>
       </c>
@@ -11101,7 +11119,7 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>52</v>
       </c>
@@ -11145,7 +11163,7 @@
         <v>56534</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>53</v>
       </c>
@@ -11189,7 +11207,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>54</v>
       </c>
@@ -11233,7 +11251,7 @@
         <v>40111</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>55</v>
       </c>
@@ -11277,7 +11295,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>56</v>
       </c>
@@ -11321,7 +11339,7 @@
         <v>12267</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>57</v>
       </c>
@@ -11365,7 +11383,7 @@
         <v>33645</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>58</v>
       </c>
@@ -11409,7 +11427,7 @@
         <v>6147</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>59</v>
       </c>
@@ -11453,7 +11471,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>60</v>
       </c>
@@ -11497,7 +11515,7 @@
         <v>16421</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>61</v>
       </c>
@@ -11541,7 +11559,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>62</v>
       </c>
@@ -11585,7 +11603,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>63</v>
       </c>
@@ -11629,7 +11647,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>64</v>
       </c>
@@ -11673,7 +11691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>65</v>
       </c>
@@ -11717,7 +11735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>66</v>
       </c>
@@ -11761,7 +11779,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>67</v>
       </c>
@@ -11805,7 +11823,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>68</v>
       </c>
@@ -11849,7 +11867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>69</v>
       </c>
@@ -11893,7 +11911,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>70</v>
       </c>
@@ -11937,7 +11955,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>71</v>
       </c>
@@ -11981,7 +11999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>72</v>
       </c>
@@ -12025,7 +12043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>73</v>
       </c>
@@ -12069,7 +12087,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>74</v>
       </c>
@@ -12113,7 +12131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>75</v>
       </c>
@@ -12157,7 +12175,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>76</v>
       </c>
@@ -12201,7 +12219,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>77</v>
       </c>
@@ -12245,7 +12263,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>78</v>
       </c>
@@ -12289,7 +12307,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>79</v>
       </c>
@@ -12333,7 +12351,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>80</v>
       </c>
@@ -12377,7 +12395,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>81</v>
       </c>
@@ -12422,7 +12440,7 @@
       </c>
       <c r="Q44" s="23"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
         <v>82</v>
       </c>
@@ -12467,7 +12485,7 @@
       </c>
       <c r="Q45" s="30"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>83</v>
       </c>
@@ -12511,7 +12529,7 @@
         <v>8634</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>84</v>
       </c>
@@ -12555,7 +12573,7 @@
         <v>5292</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>85</v>
       </c>
@@ -12599,7 +12617,7 @@
         <v>50897</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>86</v>
       </c>
@@ -12643,7 +12661,7 @@
         <v>78680</v>
       </c>
     </row>
-    <row r="50" spans="2:15" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="16" t="s">
         <v>87</v>
       </c>
@@ -12687,7 +12705,7 @@
         <v>37518</v>
       </c>
     </row>
-    <row r="51" spans="2:15" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>88</v>
       </c>
@@ -12731,7 +12749,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="24" t="s">
         <v>89</v>
       </c>
@@ -12775,7 +12793,7 @@
         <v>195468</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>90</v>
       </c>
@@ -12819,7 +12837,7 @@
         <v>210331</v>
       </c>
     </row>
-    <row r="54" spans="2:15" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="24" t="s">
         <v>91</v>
       </c>
@@ -12863,7 +12881,7 @@
         <v>210331</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="37"/>
       <c r="C55" s="38"/>
       <c r="D55" s="39"/>
@@ -12879,7 +12897,7 @@
       <c r="N55" s="41"/>
       <c r="O55" s="42"/>
     </row>
-    <row r="56" spans="2:15" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:15" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="43" t="s">
         <v>92</v>
       </c>
@@ -12923,17 +12941,17 @@
         <v>659858</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="49" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="49" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="49" t="s">
         <v>93</v>
       </c>
@@ -12951,24 +12969,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="30.86328125" customWidth="1"/>
-    <col min="3" max="3" width="23.1328125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
         <v>115</v>
       </c>
@@ -12977,7 +12995,7 @@
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
         <v>116</v>
       </c>
@@ -12990,7 +13008,7 @@
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="73">
         <v>0.21299999999999999</v>
       </c>
@@ -13002,25 +13020,25 @@
         <v>0.44899999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="70"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>Population!B13</f>
         <v>311582564</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B10" s="70"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="75">
         <f>A8/1000*C5</f>
         <v>139900.57123599999</v>
@@ -13033,25 +13051,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.86328125" customWidth="1"/>
-    <col min="2" max="2" width="29.265625" customWidth="1"/>
-    <col min="3" max="3" width="16.73046875" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>133</v>
       </c>
@@ -13059,7 +13077,7 @@
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>126</v>
       </c>
@@ -13071,7 +13089,7 @@
       </c>
       <c r="D4" s="70"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="73">
         <v>286180</v>
       </c>
@@ -13082,7 +13100,7 @@
         <v>11162</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>135</v>
       </c>
@@ -13090,7 +13108,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="73">
         <v>2007</v>
       </c>
@@ -13099,7 +13117,7 @@
         <v>301579895</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
         <v>2011</v>
       </c>
@@ -13108,7 +13126,7 @@
         <v>311582564</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>136</v>
       </c>
@@ -13116,7 +13134,7 @@
       <c r="C11" s="78"/>
       <c r="D11" s="78"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>126</v>
       </c>
@@ -13128,7 +13146,7 @@
       </c>
       <c r="D12" s="70"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="79">
         <f>A5*($B9/$B8)</f>
         <v>295671.89207198308</v>
@@ -13142,7 +13160,7 @@
         <v>11532.216295015289</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>137</v>
       </c>
